--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30009249-01F9-4F52-92EB-ABDC0FDAE331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B872FDD-163C-4F30-980F-9A982ACBDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="417">
   <si>
     <t>xsd:string</t>
   </si>
@@ -2503,6 +2503,21 @@
   <si>
     <t>tem_região_administrativa</t>
   </si>
+  <si>
+    <t>p_normatizar</t>
+  </si>
+  <si>
+    <t>é_norma</t>
+  </si>
+  <si>
+    <t>é_parte</t>
+  </si>
+  <si>
+    <t>é_escopo</t>
+  </si>
+  <si>
+    <t>é_regulamento</t>
+  </si>
 </sst>
 </file>
 
@@ -2511,7 +2526,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2678,8 +2693,15 @@
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="6"/>
+      <color rgb="FF757171"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2842,6 +2864,54 @@
         <bgColor rgb="FFD9F2D0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2907,7 +2977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3199,11 +3269,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3883,7 +4028,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:H1 A1:A2">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5819,12 +5964,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11768,11 +11913,11 @@
         <v>252</v>
       </c>
       <c r="F81" s="62" t="str">
-        <f t="shared" ref="F81" si="45">_xlfn.CONCAT("d_",MID(C81,FIND("_",C81,1)+1,100))</f>
+        <f t="shared" ref="F81:F85" si="45">_xlfn.CONCAT("d_",MID(C81,FIND("_",C81,1)+1,100))</f>
         <v>d_acontecer</v>
       </c>
       <c r="G81" s="62" t="str">
-        <f t="shared" ref="G81" si="46">MID(D81,FIND("_",D81,1)+1,100)</f>
+        <f t="shared" ref="G81:G85" si="46">MID(D81,FIND("_",D81,1)+1,100)</f>
         <v>solstício_inverno</v>
       </c>
       <c r="H81" s="63" t="s">
@@ -11815,35 +11960,339 @@
         <v>407</v>
       </c>
       <c r="U81" s="60" t="str">
-        <f t="shared" ref="U81" si="47">_xlfn.CONCAT("Propriedade para ",MID(C81,FIND("p_",C81,1)+2,100),": ",D81)</f>
+        <f t="shared" ref="U81:U85" si="47">_xlfn.CONCAT("Propriedade para ",MID(C81,FIND("p_",C81,1)+2,100),": ",D81)</f>
         <v>Propriedade para acontecer: é_solstício_inverno</v>
       </c>
       <c r="V81" s="60" t="str">
-        <f t="shared" ref="V81" si="48">_xlfn.CONCAT("Dado para ",MID(F81,FIND("d_",F81,1)+2,100),": ",G81, " ( ",H81, " ) ")</f>
+        <f t="shared" ref="V81:V85" si="48">_xlfn.CONCAT("Dado para ",MID(F81,FIND("d_",F81,1)+2,100),": ",G81, " ( ",H81, " ) ")</f>
         <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="99">
+        <v>82</v>
+      </c>
+      <c r="B82" s="100" t="str">
+        <f t="shared" ref="B82:B85" si="49">B77</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C82" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="D82" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="E82" s="103" t="str">
+        <f t="shared" ref="E82:E85" si="50">E81</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F82" s="104" t="str">
+        <f t="shared" si="45"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G82" s="104" t="str">
+        <f t="shared" si="46"/>
+        <v>norma</v>
+      </c>
+      <c r="H82" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="K82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="L82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="M82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="N82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="O82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="P82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="R82" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="S82" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="T82" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="U82" s="108" t="str">
+        <f t="shared" si="47"/>
+        <v>Propriedade para normatizar: é_norma</v>
+      </c>
+      <c r="V82" s="108" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="99">
+        <v>83</v>
+      </c>
+      <c r="B83" s="100" t="str">
+        <f t="shared" si="49"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C83" s="109" t="str">
+        <f>C82</f>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D83" s="110" t="s">
+        <v>414</v>
+      </c>
+      <c r="E83" s="103" t="str">
+        <f t="shared" si="50"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F83" s="111" t="str">
+        <f t="shared" si="45"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G83" s="111" t="str">
+        <f t="shared" si="46"/>
+        <v>parte</v>
+      </c>
+      <c r="H83" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="T83" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="U83" s="108" t="str">
+        <f t="shared" si="47"/>
+        <v>Propriedade para normatizar: é_parte</v>
+      </c>
+      <c r="V83" s="108" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="99">
+        <v>84</v>
+      </c>
+      <c r="B84" s="100" t="str">
+        <f t="shared" si="49"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C84" s="109" t="str">
+        <f t="shared" ref="C84:C85" si="51">C83</f>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D84" s="110" t="s">
+        <v>415</v>
+      </c>
+      <c r="E84" s="103" t="str">
+        <f t="shared" si="50"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F84" s="111" t="str">
+        <f t="shared" si="45"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G84" s="111" t="str">
+        <f t="shared" si="46"/>
+        <v>escopo</v>
+      </c>
+      <c r="H84" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="K84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="L84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="M84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="N84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="O84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="P84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="R84" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="S84" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="T84" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="U84" s="108" t="str">
+        <f t="shared" si="47"/>
+        <v>Propriedade para normatizar: é_escopo</v>
+      </c>
+      <c r="V84" s="108" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="99">
+        <v>85</v>
+      </c>
+      <c r="B85" s="100" t="str">
+        <f t="shared" si="49"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C85" s="109" t="str">
+        <f t="shared" si="51"/>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D85" s="110" t="s">
+        <v>416</v>
+      </c>
+      <c r="E85" s="103" t="str">
+        <f t="shared" si="50"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F85" s="111" t="str">
+        <f t="shared" si="45"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G85" s="111" t="str">
+        <f t="shared" si="46"/>
+        <v>regulamento</v>
+      </c>
+      <c r="H85" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="I85" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="K85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="L85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="M85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="N85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="O85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="P85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="R85" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="S85" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="T85" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="U85" s="108" t="str">
+        <f t="shared" si="47"/>
+        <v>Propriedade para normatizar: é_regulamento</v>
+      </c>
+      <c r="V85" s="108" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D62">
-    <cfRule type="duplicateValues" dxfId="8" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G81">
-    <cfRule type="duplicateValues" dxfId="7" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  <conditionalFormatting sqref="G1:G81 G86:G1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:O1048576">
-    <cfRule type="cellIs" dxfId="4" priority="51" operator="equal">
+  <conditionalFormatting sqref="G86:O1048576">
+    <cfRule type="cellIs" dxfId="7" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q82:Q1048576">
-    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
+  <conditionalFormatting sqref="Q86:Q1048576">
+    <cfRule type="cellIs" dxfId="6" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82:G85">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12069,7 +12518,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12119,7 +12568,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15648,7 +16097,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B3 B6:B49">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731D9D6-6E0D-4F2B-A759-9BC690E5E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF32A7F0-26D8-43E1-81D2-C610AED94B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="302">
   <si>
     <t>Key</t>
   </si>
@@ -1978,12 +1978,6 @@
     <t>"Projeto As Built"</t>
   </si>
   <si>
-    <t>Equivalente IFC</t>
-  </si>
-  <si>
-    <t>Equivalente OST</t>
-  </si>
-  <si>
     <t>"Evento acontecido relativo a simulações e testes projetuais."</t>
   </si>
   <si>
@@ -2080,9 +2074,6 @@
     <t>Projeto.AsBuilt</t>
   </si>
   <si>
-    <t>é_posterior_a</t>
-  </si>
-  <si>
     <t>é_concomitante_com</t>
   </si>
   <si>
@@ -2114,6 +2105,69 @@
   </si>
   <si>
     <t>Etapa</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>Equivalente a</t>
+  </si>
+  <si>
+    <t>Jornada</t>
+  </si>
+  <si>
+    <t>é_depois_a</t>
+  </si>
+  <si>
+    <t>Prazo</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>Inspeccionar</t>
+  </si>
+  <si>
+    <t>Inaugurar</t>
+  </si>
+  <si>
+    <t>Instalar</t>
+  </si>
+  <si>
+    <t>Trocar</t>
+  </si>
+  <si>
+    <t>Prazo para realizar inspeções</t>
+  </si>
+  <si>
+    <t>Prazo para trocar ou data de validade</t>
+  </si>
+  <si>
+    <t>Prazo para instalar</t>
+  </si>
+  <si>
+    <t>Prazo para inaugurar</t>
+  </si>
+  <si>
+    <t>Plazo para inaugurar</t>
+  </si>
+  <si>
+    <t>Plazo para instalar</t>
+  </si>
+  <si>
+    <t>Plazo para cambiar o fecha de vencimiento</t>
+  </si>
+  <si>
+    <t>Plazo para realizar inspecciones</t>
+  </si>
+  <si>
+    <t>Histo.01</t>
+  </si>
+  <si>
+    <t>"Evento histórico inicial."</t>
+  </si>
+  <si>
+    <t>"Criado"</t>
   </si>
 </sst>
 </file>
@@ -2284,7 +2338,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2407,7 +2461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFD9F2D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor rgb="FFD9F2D0"/>
       </patternFill>
     </fill>
@@ -2463,7 +2523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2572,9 +2632,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2641,9 +2698,6 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2661,6 +2715,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3017,14 +3080,14 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.33203125" style="12"/>
+    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>146</v>
       </c>
@@ -3032,7 +3095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>155</v>
       </c>
@@ -3040,7 +3103,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>156</v>
       </c>
@@ -3048,7 +3111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>147</v>
       </c>
@@ -3056,7 +3119,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>148</v>
       </c>
@@ -3065,7 +3128,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>149</v>
       </c>
@@ -3074,7 +3137,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>150</v>
       </c>
@@ -3082,7 +3145,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>151</v>
       </c>
@@ -3090,7 +3153,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>160</v>
       </c>
@@ -3098,7 +3161,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>162</v>
       </c>
@@ -3106,7 +3169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>152</v>
       </c>
@@ -3114,7 +3177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>153</v>
       </c>
@@ -3122,7 +3185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
@@ -3130,7 +3193,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>164</v>
       </c>
@@ -3138,7 +3201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>165</v>
       </c>
@@ -3146,7 +3209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>166</v>
       </c>
@@ -3154,7 +3217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>154</v>
       </c>
@@ -3162,7 +3225,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>167</v>
       </c>
@@ -3170,7 +3233,7 @@
         <v>45523.511111111111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>168</v>
       </c>
@@ -3178,7 +3241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>169</v>
       </c>
@@ -3186,7 +3249,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>171</v>
       </c>
@@ -3194,7 +3257,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>173</v>
       </c>
@@ -3202,7 +3265,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>174</v>
       </c>
@@ -3217,37 +3280,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6.88671875" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" customWidth="1"/>
-    <col min="14" max="14" width="6.21875" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
-    <col min="20" max="20" width="5.44140625" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>179</v>
       </c>
@@ -3318,18 +3381,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>65</v>
@@ -3357,7 +3420,7 @@
         <v>Evento</v>
       </c>
       <c r="M2" s="36" t="str">
-        <f t="shared" ref="M2:O17" si="0">_xlfn.CONCAT("", D2)</f>
+        <f t="shared" ref="M2:O18" si="0">_xlfn.CONCAT("", D2)</f>
         <v>Temporal</v>
       </c>
       <c r="N2" s="36" t="str">
@@ -3374,41 +3437,41 @@
       <c r="Q2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S2" s="41" t="str">
-        <f t="shared" ref="S2:U17" si="1">SUBSTITUTE(C2, "_", " ")</f>
+      <c r="S2" s="40" t="str">
+        <f t="shared" ref="S2:U18" si="1">SUBSTITUTE(C2, "_", " ")</f>
         <v>Evento</v>
       </c>
-      <c r="T2" s="41" t="str">
+      <c r="T2" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U2" s="39" t="str">
+      <c r="U2" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Microevento</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W2" s="43" t="str">
-        <f t="shared" ref="W2:W3" si="2">CONCATENATE("Key.Cro",".",A2)</f>
+      <c r="W2" s="42" t="str">
+        <f t="shared" ref="W2:W25" si="2">CONCATENATE("Key.Cro",".",A2)</f>
         <v>Key.Cro.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>65</v>
@@ -3432,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="36" t="str">
-        <f t="shared" ref="L3:L24" si="3">_xlfn.CONCAT(C3)</f>
+        <f t="shared" ref="L3:L25" si="3">_xlfn.CONCAT(C3)</f>
         <v>Evento</v>
       </c>
       <c r="M3" s="36" t="str">
@@ -3453,41 +3516,41 @@
       <c r="Q3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S3" s="41" t="str">
+      <c r="S3" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T3" s="41" t="str">
+      <c r="T3" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U3" s="39" t="str">
+      <c r="U3" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Microevento</v>
       </c>
-      <c r="V3" s="42" t="s">
+      <c r="V3" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W3" s="43" t="str">
+      <c r="W3" s="42" t="str">
         <f t="shared" si="2"/>
         <v>Key.Cro.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>64</v>
@@ -3532,41 +3595,41 @@
       <c r="Q4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="41" t="str">
+      <c r="S4" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T4" s="41" t="str">
+      <c r="T4" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U4" s="39" t="str">
+      <c r="U4" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
-      <c r="V4" s="42" t="s">
+      <c r="V4" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W4" s="43" t="str">
-        <f>CONCATENATE("Key.Cro",".",A4)</f>
+      <c r="W4" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>64</v>
@@ -3594,7 +3657,7 @@
         <v>Evento</v>
       </c>
       <c r="M5" s="36" t="str">
-        <f t="shared" ref="M5:O24" si="4">_xlfn.CONCAT("", D5)</f>
+        <f t="shared" ref="M5:O25" si="4">_xlfn.CONCAT("", D5)</f>
         <v>Temporal</v>
       </c>
       <c r="N5" s="36" t="str">
@@ -3611,41 +3674,41 @@
       <c r="Q5" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S5" s="41" t="str">
+      <c r="S5" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T5" s="41" t="str">
+      <c r="T5" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U5" s="39" t="str">
+      <c r="U5" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W5" s="43" t="str">
-        <f t="shared" ref="W5:W24" si="5">CONCATENATE("Key.Cro",".",A5)</f>
+      <c r="W5" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>64</v>
@@ -3690,41 +3753,41 @@
       <c r="Q6" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="41" t="str">
+      <c r="S6" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T6" s="41" t="str">
+      <c r="T6" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U6" s="39" t="str">
+      <c r="U6" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W6" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W6" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>64</v>
@@ -3769,41 +3832,41 @@
       <c r="Q7" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="R7" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S7" s="41" t="str">
+      <c r="S7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T7" s="41" t="str">
+      <c r="T7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U7" s="39" t="str">
+      <c r="U7" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
-      <c r="V7" s="42" t="s">
+      <c r="V7" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W7" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W7" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>8</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>62</v>
@@ -3848,41 +3911,41 @@
       <c r="Q8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="41" t="str">
+      <c r="S8" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T8" s="41" t="str">
+      <c r="T8" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U8" s="39" t="str">
+      <c r="U8" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
-      <c r="V8" s="42" t="s">
+      <c r="V8" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W8" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W8" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>9</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>62</v>
@@ -3927,41 +3990,41 @@
       <c r="Q9" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="41" t="str">
+      <c r="S9" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T9" s="41" t="str">
+      <c r="T9" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U9" s="39" t="str">
+      <c r="U9" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
-      <c r="V9" s="42" t="s">
+      <c r="V9" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W9" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W9" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>62</v>
@@ -4006,41 +4069,41 @@
       <c r="Q10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="41" t="str">
+      <c r="S10" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T10" s="41" t="str">
+      <c r="T10" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U10" s="39" t="str">
+      <c r="U10" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
-      <c r="V10" s="42" t="s">
+      <c r="V10" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W10" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W10" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>11</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>62</v>
@@ -4064,19 +4127,19 @@
         <v>1</v>
       </c>
       <c r="L11" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L11" si="5">_xlfn.CONCAT(C11)</f>
         <v>Evento</v>
       </c>
       <c r="M11" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M11" si="6">_xlfn.CONCAT("", D11)</f>
         <v>Temporal</v>
       </c>
       <c r="N11" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N11" si="7">_xlfn.CONCAT("", E11)</f>
         <v>Calendário</v>
       </c>
       <c r="O11" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O11" si="8">_xlfn.CONCAT("", F11)</f>
         <v>Dia</v>
       </c>
       <c r="P11" s="36" t="s">
@@ -4085,47 +4148,47 @@
       <c r="Q11" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="R11" s="40" t="s">
+      <c r="R11" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="41" t="str">
-        <f t="shared" si="1"/>
+      <c r="S11" s="40" t="str">
+        <f t="shared" ref="S11" si="9">SUBSTITUTE(C11, "_", " ")</f>
         <v>Evento</v>
       </c>
-      <c r="T11" s="41" t="str">
-        <f t="shared" si="1"/>
+      <c r="T11" s="40" t="str">
+        <f t="shared" ref="T11" si="10">SUBSTITUTE(D11, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="U11" s="39" t="str">
-        <f t="shared" si="1"/>
+      <c r="U11" s="38" t="str">
+        <f t="shared" ref="U11" si="11">SUBSTITUTE(E11, "_", " ")</f>
         <v>Calendário</v>
       </c>
-      <c r="V11" s="42" t="s">
+      <c r="V11" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W11" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W11" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
@@ -4152,59 +4215,59 @@
       </c>
       <c r="N12" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Horário</v>
+        <v>Calendário</v>
       </c>
       <c r="O12" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Hora</v>
+        <v>Jornada</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="R12" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S12" s="41" t="str">
+      <c r="S12" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T12" s="41" t="str">
+      <c r="T12" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U12" s="39" t="str">
+      <c r="U12" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>Horário</v>
-      </c>
-      <c r="V12" s="42" t="s">
+        <v>Calendário</v>
+      </c>
+      <c r="V12" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W12" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W12" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>13</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>1</v>
@@ -4235,55 +4298,55 @@
       </c>
       <c r="O13" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Minuto</v>
+        <v>Hora</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S13" s="41" t="str">
+      <c r="S13" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T13" s="41" t="str">
+      <c r="T13" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U13" s="39" t="str">
+      <c r="U13" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Horário</v>
       </c>
-      <c r="V13" s="42" t="s">
+      <c r="V13" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W13" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W13" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>14</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>63</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>1</v>
@@ -4314,55 +4377,55 @@
       </c>
       <c r="O14" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Segundo</v>
+        <v>Minuto</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="R14" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="41" t="str">
+      <c r="S14" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T14" s="41" t="str">
+      <c r="T14" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U14" s="39" t="str">
+      <c r="U14" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Horário</v>
       </c>
-      <c r="V14" s="42" t="s">
+      <c r="V14" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W14" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W14" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>15</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>1</v>
@@ -4393,55 +4456,55 @@
       </c>
       <c r="O15" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Milisegundo</v>
+        <v>Segundo</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="41" t="str">
+      <c r="S15" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T15" s="41" t="str">
+      <c r="T15" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U15" s="39" t="str">
+      <c r="U15" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Horário</v>
       </c>
-      <c r="V15" s="42" t="s">
+      <c r="V15" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W15" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W15" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>16</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>1</v>
@@ -4468,59 +4531,59 @@
       </c>
       <c r="N16" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Duração</v>
+        <v>Horário</v>
       </c>
       <c r="O16" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Cronómetro.I</v>
+        <v>Milisegundo</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="R16" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="41" t="str">
+      <c r="S16" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T16" s="41" t="str">
+      <c r="T16" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U16" s="39" t="str">
+      <c r="U16" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>Duração</v>
-      </c>
-      <c r="V16" s="42" t="s">
+        <v>Horário</v>
+      </c>
+      <c r="V16" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W16" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W16" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>1</v>
@@ -4551,55 +4614,55 @@
       </c>
       <c r="O17" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Cronómetro.F</v>
+        <v>Cronómetro.I</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="R17" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="R17" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S17" s="41" t="str">
+      <c r="S17" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T17" s="41" t="str">
+      <c r="T17" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U17" s="39" t="str">
+      <c r="U17" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Duração</v>
       </c>
-      <c r="V17" s="42" t="s">
+      <c r="V17" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W17" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W17" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>18</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>1</v>
@@ -4625,74 +4688,74 @@
         <v>Temporal</v>
       </c>
       <c r="N18" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Duração</v>
       </c>
       <c r="O18" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>DeltaT</v>
+        <f t="shared" si="0"/>
+        <v>Cronómetro.F</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="R18" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="R18" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S18" s="41" t="str">
-        <f t="shared" ref="S18:U24" si="6">SUBSTITUTE(C18, "_", " ")</f>
+      <c r="S18" s="40" t="str">
+        <f t="shared" si="1"/>
         <v>Evento</v>
       </c>
-      <c r="T18" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="T18" s="40" t="str">
+        <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="U18" s="39" t="str">
-        <f t="shared" si="6"/>
+      <c r="U18" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>Duração</v>
       </c>
-      <c r="V18" s="42" t="s">
+      <c r="V18" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W18" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W18" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>283</v>
+        <v>279</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="35" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="36" t="str">
@@ -4705,59 +4768,59 @@
       </c>
       <c r="N19" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Etapa</v>
+        <v>Duração</v>
       </c>
       <c r="O19" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Ideação</v>
+        <v>DeltaT</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="R19" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="R19" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S19" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="S19" s="40" t="str">
+        <f t="shared" ref="S19:U25" si="12">SUBSTITUTE(C19, "_", " ")</f>
         <v>Evento</v>
       </c>
-      <c r="T19" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="T19" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Temporal</v>
       </c>
-      <c r="U19" s="39" t="str">
-        <f t="shared" si="6"/>
-        <v>Etapa</v>
-      </c>
-      <c r="V19" s="42" t="s">
+      <c r="U19" s="38" t="str">
+        <f t="shared" si="12"/>
+        <v>Duração</v>
+      </c>
+      <c r="V19" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W19" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W19" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.19</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>20</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>1</v>
@@ -4788,55 +4851,55 @@
       </c>
       <c r="O20" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Projetual</v>
+        <v>Ideação</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="R20" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="R20" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S20" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="S20" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Evento</v>
       </c>
-      <c r="T20" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="T20" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Temporal</v>
       </c>
-      <c r="U20" s="39" t="str">
-        <f t="shared" si="6"/>
+      <c r="U20" s="38" t="str">
+        <f t="shared" si="12"/>
         <v>Etapa</v>
       </c>
-      <c r="V20" s="42" t="s">
+      <c r="V20" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W20" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W20" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>21</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>70</v>
+        <v>280</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>1</v>
@@ -4867,55 +4930,55 @@
       </c>
       <c r="O21" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Simulação</v>
+        <v>Projetual</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="R21" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="R21" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="S21" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Evento</v>
       </c>
-      <c r="T21" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="T21" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Temporal</v>
       </c>
-      <c r="U21" s="39" t="str">
-        <f t="shared" si="6"/>
+      <c r="U21" s="38" t="str">
+        <f t="shared" si="12"/>
         <v>Etapa</v>
       </c>
-      <c r="V21" s="42" t="s">
+      <c r="V21" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W21" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W21" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>1</v>
@@ -4946,55 +5009,55 @@
       </c>
       <c r="O22" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Planejamento</v>
+        <v>Simulação</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="R22" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="R22" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="S22" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Evento</v>
       </c>
-      <c r="T22" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="T22" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Temporal</v>
       </c>
-      <c r="U22" s="39" t="str">
-        <f t="shared" si="6"/>
+      <c r="U22" s="38" t="str">
+        <f t="shared" si="12"/>
         <v>Etapa</v>
       </c>
-      <c r="V22" s="42" t="s">
+      <c r="V22" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W22" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W22" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>23</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>1</v>
@@ -5025,114 +5088,509 @@
       </c>
       <c r="O23" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Construção</v>
+        <v>Planejamento</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="R23" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="R23" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="S23" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Evento</v>
       </c>
-      <c r="T23" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="T23" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Temporal</v>
       </c>
-      <c r="U23" s="39" t="str">
-        <f t="shared" si="6"/>
+      <c r="U23" s="38" t="str">
+        <f t="shared" si="12"/>
         <v>Etapa</v>
       </c>
-      <c r="V23" s="42" t="s">
+      <c r="V23" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W23" s="43" t="str">
-        <f t="shared" si="5"/>
+      <c r="W23" s="42" t="str">
+        <f t="shared" si="2"/>
         <v>Key.Cro.23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <v>24</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="37" t="s">
         <v>1</v>
       </c>
       <c r="L24" s="36" t="str">
         <f t="shared" si="3"/>
         <v>Evento</v>
       </c>
-      <c r="M24" s="22" t="str">
+      <c r="M24" s="36" t="str">
         <f t="shared" si="4"/>
         <v>Temporal</v>
       </c>
-      <c r="N24" s="22" t="str">
+      <c r="N24" s="36" t="str">
         <f t="shared" si="4"/>
         <v>Etapa</v>
       </c>
-      <c r="O24" s="22" t="str">
+      <c r="O24" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Construção</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="S24" s="40" t="str">
+        <f t="shared" si="12"/>
+        <v>Evento</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="12"/>
+        <v>Temporal</v>
+      </c>
+      <c r="U24" s="38" t="str">
+        <f t="shared" si="12"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V24" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="W24" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Cro.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>25</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>Evento</v>
+      </c>
+      <c r="M25" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>Temporal</v>
+      </c>
+      <c r="N25" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>Etapa</v>
+      </c>
+      <c r="O25" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Operação</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P25" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Q24" s="36" t="s">
+      <c r="Q25" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="R24" s="40" t="s">
+      <c r="R25" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Evento</v>
       </c>
-      <c r="T24" s="41" t="str">
-        <f t="shared" si="6"/>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="12"/>
         <v>Temporal</v>
       </c>
-      <c r="U24" s="39" t="str">
-        <f t="shared" si="6"/>
+      <c r="U25" s="38" t="str">
+        <f t="shared" si="12"/>
         <v>Etapa</v>
       </c>
-      <c r="V24" s="42" t="s">
+      <c r="V25" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="W24" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v>Key.Cro.24</v>
+      <c r="W25" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Cro.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>26</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="22" t="str">
+        <f t="shared" ref="L26" si="13">_xlfn.CONCAT(C26)</f>
+        <v>Evento</v>
+      </c>
+      <c r="M26" s="22" t="str">
+        <f t="shared" ref="M26" si="14">_xlfn.CONCAT("", D26)</f>
+        <v>Histórico</v>
+      </c>
+      <c r="N26" s="22" t="str">
+        <f t="shared" ref="N26" si="15">_xlfn.CONCAT("", E26)</f>
+        <v>Prazo</v>
+      </c>
+      <c r="O26" s="22" t="str">
+        <f t="shared" ref="O26" si="16">_xlfn.CONCAT("", F26)</f>
+        <v>Inaugurar</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" ref="S26" si="17">SUBSTITUTE(C26, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" ref="T26" si="18">SUBSTITUTE(D26, "_", " ")</f>
+        <v>Histórico</v>
+      </c>
+      <c r="U26" s="38" t="str">
+        <f t="shared" ref="U26" si="19">SUBSTITUTE(E26, "_", " ")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="V26" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="W26" s="42" t="str">
+        <f t="shared" ref="W26" si="20">CONCATENATE("Key.Cro",".",A26)</f>
+        <v>Key.Cro.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>27</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="22" t="str">
+        <f t="shared" ref="L27:L28" si="21">_xlfn.CONCAT(C27)</f>
+        <v>Evento</v>
+      </c>
+      <c r="M27" s="22" t="str">
+        <f t="shared" ref="M27:M28" si="22">_xlfn.CONCAT("", D27)</f>
+        <v>Histórico</v>
+      </c>
+      <c r="N27" s="22" t="str">
+        <f t="shared" ref="N27:N28" si="23">_xlfn.CONCAT("", E27)</f>
+        <v>Prazo</v>
+      </c>
+      <c r="O27" s="22" t="str">
+        <f t="shared" ref="O27:O28" si="24">_xlfn.CONCAT("", F27)</f>
+        <v>Instalar</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" ref="S27:S28" si="25">SUBSTITUTE(C27, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" ref="T27:T28" si="26">SUBSTITUTE(D27, "_", " ")</f>
+        <v>Histórico</v>
+      </c>
+      <c r="U27" s="38" t="str">
+        <f t="shared" ref="U27:U28" si="27">SUBSTITUTE(E27, "_", " ")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="V27" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="W27" s="42" t="str">
+        <f t="shared" ref="W27:W28" si="28">CONCATENATE("Key.Cro",".",A27)</f>
+        <v>Key.Cro.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>28</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="22" t="str">
+        <f t="shared" si="21"/>
+        <v>Evento</v>
+      </c>
+      <c r="M28" s="22" t="str">
+        <f t="shared" si="22"/>
+        <v>Histórico</v>
+      </c>
+      <c r="N28" s="22" t="str">
+        <f t="shared" si="23"/>
+        <v>Prazo</v>
+      </c>
+      <c r="O28" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v>Trocar</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="25"/>
+        <v>Evento</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="26"/>
+        <v>Histórico</v>
+      </c>
+      <c r="U28" s="38" t="str">
+        <f t="shared" si="27"/>
+        <v>Prazo</v>
+      </c>
+      <c r="V28" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="W28" s="42" t="str">
+        <f t="shared" si="28"/>
+        <v>Key.Cro.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68">
+        <v>29</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="22" t="str">
+        <f t="shared" ref="L29" si="29">_xlfn.CONCAT(C29)</f>
+        <v>Evento</v>
+      </c>
+      <c r="M29" s="22" t="str">
+        <f t="shared" ref="M29" si="30">_xlfn.CONCAT("", D29)</f>
+        <v>Histórico</v>
+      </c>
+      <c r="N29" s="22" t="str">
+        <f t="shared" ref="N29" si="31">_xlfn.CONCAT("", E29)</f>
+        <v>Prazo</v>
+      </c>
+      <c r="O29" s="22" t="str">
+        <f t="shared" ref="O29" si="32">_xlfn.CONCAT("", F29)</f>
+        <v>Inspeccionar</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="S29" s="40" t="str">
+        <f t="shared" ref="S29" si="33">SUBSTITUTE(C29, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="T29" s="40" t="str">
+        <f t="shared" ref="T29" si="34">SUBSTITUTE(D29, "_", " ")</f>
+        <v>Histórico</v>
+      </c>
+      <c r="U29" s="38" t="str">
+        <f t="shared" ref="U29" si="35">SUBSTITUTE(E29, "_", " ")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="V29" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="W29" s="42" t="str">
+        <f t="shared" ref="W29" si="36">CONCATENATE("Key.Cro",".",A29)</f>
+        <v>Key.Cro.29</v>
       </c>
     </row>
   </sheetData>
@@ -5153,81 +5611,81 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.88671875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.88671875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.109375" style="5"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="61" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62">
+      <c r="A2" s="60">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5292,7 +5750,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62">
+      <c r="A3" s="60">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5372,39 +5830,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7BFE13-E93E-488C-9C8F-4E4982DFBAE7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59">
-        <v>1</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58">
+        <v>1</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1</v>
+      <c r="B2" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5419,3516 +5877,3587 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41" style="66" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="66" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.44140625" style="67" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" style="64" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" style="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="62" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48">
+    <row r="2" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
         <v>2</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>242</v>
+      <c r="B2" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="44" t="s">
+      <c r="D2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q2" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48">
+      <c r="Q2" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
         <v>3</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>243</v>
+      <c r="B3" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="44" t="s">
+      <c r="D3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="R3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
+      <c r="Q3" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
         <v>4</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>245</v>
+      <c r="B4" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="44" t="s">
+      <c r="D4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="P4" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q4" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="R4" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48">
+      <c r="Q4" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
         <v>5</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>244</v>
+      <c r="B5" s="49" t="s">
+        <v>242</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="44" t="s">
+      <c r="D5" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="O5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48">
+      <c r="Q5" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="R5" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
         <v>6</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>246</v>
+      <c r="B6" s="54" t="s">
+        <v>244</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="44" t="s">
+      <c r="D6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q6" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="R6" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48">
+      <c r="Q6" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>247</v>
+      <c r="B7" s="54" t="s">
+        <v>245</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="44" t="s">
+      <c r="D7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q7" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="R7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48">
+      <c r="Q7" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="R7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
         <v>8</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>253</v>
+      <c r="B8" s="54" t="s">
+        <v>251</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="44" t="s">
+      <c r="D8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="O8" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="47" t="s">
+      <c r="P8" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q8" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="R8" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W8" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48">
+      <c r="Q8" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="R8" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
         <v>9</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>254</v>
+      <c r="B9" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="44" t="s">
+      <c r="D9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q9" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="R9" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W9" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48">
+      <c r="Q9" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="R9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
         <v>10</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>255</v>
+      <c r="B10" s="54" t="s">
+        <v>253</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="44" t="s">
+      <c r="D10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="47" t="s">
+      <c r="P10" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q10" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T10" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W10" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
+      <c r="Q10" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="R10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
         <v>11</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>256</v>
+      <c r="B11" s="54" t="s">
+        <v>254</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="44" t="s">
+      <c r="D11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="52" t="s">
+      <c r="O11" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="47" t="s">
+      <c r="P11" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q11" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="R11" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48">
+      <c r="Q11" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="R11" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47">
         <v>12</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="44" t="s">
+      <c r="D12" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="52" t="s">
+      <c r="O12" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="47" t="s">
+      <c r="P12" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q12" s="52" t="s">
+      <c r="Q12" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="R12" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T12" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W12" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48">
+      <c r="R12" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47">
         <v>13</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="44" t="s">
+      <c r="D13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="47" t="s">
+      <c r="P13" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q13" s="52" t="s">
+      <c r="Q13" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="R13" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W13" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48">
+      <c r="R13" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47">
         <v>14</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="52" t="s">
+      <c r="O14" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="47" t="s">
+      <c r="P14" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q14" s="52" t="s">
+      <c r="Q14" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="R14" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W14" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48">
+      <c r="R14" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47">
         <v>15</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="47" t="s">
+      <c r="P15" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="R15" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47">
+        <v>16</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q16" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="R16" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47">
+        <v>17</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q17" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="R15" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48">
-        <v>16</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="51" t="s">
+      <c r="R17" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47">
+        <v>18</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="44" t="s">
+      <c r="F18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O16" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16" s="47" t="s">
+      <c r="O18" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q18" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="R16" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U16" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48">
-        <v>17</v>
-      </c>
-      <c r="B17" s="56" t="s">
+      <c r="R18" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47">
+        <v>19</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="44" t="s">
+      <c r="F19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O17" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="47" t="s">
+      <c r="O19" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q17" s="52" t="s">
+      <c r="Q19" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="R17" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U17" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V17" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W17" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48">
-        <v>18</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="44" t="s">
+      <c r="R19" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
+        <v>20</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O18" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" s="47" t="s">
+      <c r="O20" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q18" s="52" t="s">
+      <c r="Q20" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="R18" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U18" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W18" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48">
-        <v>19</v>
-      </c>
-      <c r="B19" s="55" t="s">
+      <c r="R20" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47">
+        <v>21</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="44" t="s">
+      <c r="F21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="47" t="s">
+      <c r="O21" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q19" s="52" t="s">
+      <c r="Q21" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="R19" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W19" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48">
-        <v>20</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="P20" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q20" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="R20" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U20" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W20" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48">
-        <v>21</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M21" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q21" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="R21" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T21" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U21" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V21" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W21" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48">
+      <c r="R21" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47">
         <v>22</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>130</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="44" t="s">
+      <c r="D22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="52" t="s">
+      <c r="O22" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="47" t="s">
+      <c r="P22" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q22" s="52" t="s">
+      <c r="Q22" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="R22" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U22" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W22" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48">
+      <c r="R22" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47">
         <v>23</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>132</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="44" t="s">
+      <c r="D23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O23" s="52" t="s">
+      <c r="O23" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="P23" s="47" t="s">
+      <c r="P23" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q23" s="52" t="s">
+      <c r="Q23" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="R23" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S23" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U23" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V23" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W23" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48">
+      <c r="R23" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
         <v>24</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="44" t="s">
+      <c r="D24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="O24" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="P24" s="47" t="s">
+      <c r="P24" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="R24" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S24" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U24" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W24" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48">
+      <c r="R24" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W24" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47">
         <v>25</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="54" t="s">
         <v>136</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="44" t="s">
+      <c r="D25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O25" s="52" t="s">
+      <c r="O25" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="47" t="s">
+      <c r="P25" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q25" s="52" t="s">
+      <c r="Q25" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="R25" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U25" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W25" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48">
+      <c r="R25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47">
         <v>26</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>138</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" s="44" t="s">
+      <c r="D26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O26" s="52" t="s">
+      <c r="O26" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="P26" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="R26" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S26" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T26" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U26" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V26" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W26" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48">
+      <c r="R26" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47">
         <v>27</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="54" t="s">
         <v>140</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N27" s="44" t="s">
+      <c r="D27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="52" t="s">
+      <c r="O27" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="P27" s="47" t="s">
+      <c r="P27" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q27" s="52" t="s">
+      <c r="Q27" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="R27" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S27" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U27" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W27" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48">
+      <c r="R27" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47">
         <v>28</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="54" t="s">
         <v>142</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" s="44" t="s">
+      <c r="D28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O28" s="52" t="s">
+      <c r="O28" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="P28" s="47" t="s">
+      <c r="P28" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q28" s="52" t="s">
+      <c r="Q28" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="R28" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S28" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U28" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W28" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48">
+      <c r="R28" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47">
         <v>29</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="54" t="s">
         <v>144</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N29" s="44" t="s">
+      <c r="D29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O29" s="52" t="s">
+      <c r="O29" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="47" t="s">
+      <c r="P29" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q29" s="52" t="s">
+      <c r="Q29" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="R29" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S29" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T29" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U29" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V29" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W29" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="48">
+      <c r="R29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
         <v>30</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M30" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N30" s="44" t="s">
+      <c r="D30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="52" t="s">
+      <c r="O30" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="P30" s="47" t="s">
+      <c r="P30" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q30" s="52" t="s">
+      <c r="Q30" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="R30" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S30" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U30" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W30" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48">
+      <c r="R30" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47">
         <v>31</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="49" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M31" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N31" s="44" t="s">
+      <c r="D31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O31" s="52" t="s">
+      <c r="O31" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="P31" s="47" t="s">
+      <c r="P31" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q31" s="52" t="s">
+      <c r="Q31" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="R31" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S31" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T31" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U31" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V31" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W31" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48">
+      <c r="R31" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47">
         <v>32</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N32" s="44" t="s">
+      <c r="D32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O32" s="52" t="s">
+      <c r="O32" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="47" t="s">
+      <c r="P32" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q32" s="52" t="s">
+      <c r="Q32" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="R32" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S32" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U32" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W32" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48">
+      <c r="R32" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="47">
         <v>33</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N33" s="44" t="s">
+      <c r="D33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O33" s="52" t="s">
+      <c r="O33" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="P33" s="47" t="s">
+      <c r="P33" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="R33" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S33" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U33" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W33" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48">
+      <c r="R33" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47">
         <v>34</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L34" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N34" s="44" t="s">
+      <c r="D34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O34" s="52" t="s">
+      <c r="O34" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="P34" s="47" t="s">
+      <c r="P34" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q34" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="R34" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S34" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T34" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U34" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V34" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W34" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48">
+      <c r="Q34" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="R34" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47">
         <v>35</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="54" t="s">
         <v>115</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M35" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N35" s="44" t="s">
+      <c r="D35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O35" s="52" t="s">
+      <c r="O35" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="P35" s="47" t="s">
+      <c r="P35" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q35" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="R35" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S35" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T35" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U35" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V35" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W35" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48">
+      <c r="Q35" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="R35" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="47">
         <v>36</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="54" t="s">
         <v>117</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M36" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N36" s="44" t="s">
+      <c r="D36" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O36" s="52" t="s">
+      <c r="O36" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="P36" s="47" t="s">
+      <c r="P36" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q36" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="R36" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S36" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T36" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U36" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V36" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W36" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48">
+      <c r="Q36" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="R36" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="47">
         <v>37</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>118</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M37" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N37" s="44" t="s">
+      <c r="D37" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O37" s="52" t="s">
+      <c r="O37" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="R37" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S37" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T37" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U37" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V37" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W37" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48">
+      <c r="R37" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
         <v>38</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N38" s="44" t="s">
+      <c r="D38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O38" s="52" t="s">
+      <c r="O38" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="P38" s="47" t="s">
+      <c r="P38" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q38" s="52" t="s">
+      <c r="Q38" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="R38" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S38" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T38" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U38" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V38" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W38" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48">
+      <c r="R38" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="47">
         <v>39</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="54" t="s">
         <v>129</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M39" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N39" s="44" t="s">
+      <c r="D39" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O39" s="52" t="s">
+      <c r="O39" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="P39" s="47" t="s">
+      <c r="P39" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q39" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="R39" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S39" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T39" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U39" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V39" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W39" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48">
+      <c r="Q39" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="R39" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47">
         <v>40</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="54" t="s">
         <v>123</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L40" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M40" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N40" s="44" t="s">
+      <c r="D40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O40" s="52" t="s">
+      <c r="O40" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="P40" s="47" t="s">
+      <c r="P40" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q40" s="52" t="s">
+      <c r="Q40" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="R40" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S40" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T40" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U40" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V40" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W40" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48">
+      <c r="R40" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="47">
         <v>41</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="54" t="s">
         <v>125</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K41" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L41" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M41" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N41" s="44" t="s">
+      <c r="D41" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O41" s="52" t="s">
+      <c r="O41" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="P41" s="47" t="s">
+      <c r="P41" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q41" s="52" t="s">
+      <c r="Q41" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="R41" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S41" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T41" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U41" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V41" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W41" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48">
+      <c r="R41" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47">
         <v>42</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="54" t="s">
         <v>119</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L42" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M42" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N42" s="44" t="s">
+      <c r="D42" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O42" s="52" t="s">
+      <c r="O42" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="P42" s="47" t="s">
+      <c r="P42" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q42" s="52" t="s">
+      <c r="Q42" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="R42" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S42" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T42" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U42" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V42" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W42" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48">
+      <c r="R42" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U42" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V42" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W42" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47">
         <v>43</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="54" t="s">
         <v>120</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E43" s="51" t="s">
+      <c r="D43" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L43" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M43" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N43" s="44" t="s">
+      <c r="F43" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N43" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O43" s="52" t="s">
+      <c r="O43" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="P43" s="47" t="s">
+      <c r="P43" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q43" s="52" t="s">
+      <c r="Q43" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="R43" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S43" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T43" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U43" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V43" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W43" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48">
+      <c r="R43" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W43" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47">
         <v>44</v>
       </c>
-      <c r="B44" s="56" t="s">
-        <v>269</v>
+      <c r="B44" s="55" t="s">
+        <v>267</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="O44" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q44" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="E44" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L44" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M44" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N44" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="O44" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="P44" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q44" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="R44" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S44" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T44" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U44" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V44" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W44" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48">
+      <c r="R44" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S44" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T44" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U44" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V44" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W44" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47">
         <v>45</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="55" t="s">
         <v>121</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E45" s="51" t="s">
+      <c r="D45" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L45" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M45" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N45" s="44" t="s">
+      <c r="F45" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O45" s="52" t="s">
+      <c r="O45" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="P45" s="47" t="s">
+      <c r="P45" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q45" s="52" t="s">
+      <c r="Q45" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="R45" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S45" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T45" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U45" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V45" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W45" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48">
+      <c r="R45" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S45" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T45" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U45" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V45" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W45" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="47">
         <v>46</v>
       </c>
-      <c r="B46" s="55" t="s">
-        <v>270</v>
+      <c r="B46" s="54" t="s">
+        <v>268</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E46" s="51" t="s">
+      <c r="D46" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="O46" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q46" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="R46" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S46" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T46" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U46" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V46" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W46" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="54" t="s">
         <v>269</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K46" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L46" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M46" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N46" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="O46" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="P46" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q46" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="R46" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S46" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T46" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U46" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V46" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W46" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48">
-        <v>47</v>
-      </c>
-      <c r="B47" s="55" t="s">
-        <v>271</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K47" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M47" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N47" s="44" t="s">
+      <c r="D47" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O47" s="52" t="s">
+      <c r="O47" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="P47" s="47" t="s">
+      <c r="P47" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q47" s="52" t="s">
+      <c r="Q47" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="R47" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S47" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T47" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U47" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V47" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W47" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48">
+      <c r="R47" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S47" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U47" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V47" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W47" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47">
         <v>48</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="54" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="F48" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M48" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N48" s="44" t="s">
+      <c r="D48" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O48" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="P48" s="47" t="s">
+      <c r="O48" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P48" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q48" s="52" t="s">
+      <c r="Q48" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="R48" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S48" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T48" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U48" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V48" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W48" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="66" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="48">
+      <c r="R48" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S48" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U48" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V48" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W48" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47">
         <v>49</v>
       </c>
-      <c r="B49" s="55" t="s">
-        <v>241</v>
+      <c r="B49" s="54" t="s">
+        <v>239</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="E49" s="51" t="s">
+      <c r="D49" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="M49" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N49" s="44" t="s">
+      <c r="E49" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O49" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="P49" s="47" t="s">
+      <c r="O49" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P49" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="Q49" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="R49" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="S49" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="T49" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U49" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V49" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="W49" s="65" t="s">
+      <c r="Q49" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="R49" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S49" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T49" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U49" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V49" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W49" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="47">
+        <v>50</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N50" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="O50" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="P50" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q50" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="R50" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U50" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W50" s="63" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8937,7 +9466,7 @@
     <sortCondition ref="C1:C49"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B3 B6:B49">
+  <conditionalFormatting sqref="B1:B3 B6:B50">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8952,11 +9481,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -8967,7 +9496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -8975,7 +9504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -8983,7 +9512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -8991,7 +9520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\CRON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF32A7F0-26D8-43E1-81D2-C610AED94B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E91760F-2E43-4A4A-85A1-825C507C406E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2074,9 +2074,6 @@
     <t>Projeto.AsBuilt</t>
   </si>
   <si>
-    <t>é_concomitante_com</t>
-  </si>
-  <si>
     <t>"TesteAcustico  02"</t>
   </si>
   <si>
@@ -2116,9 +2113,6 @@
     <t>Jornada</t>
   </si>
   <si>
-    <t>é_depois_a</t>
-  </si>
-  <si>
     <t>Prazo</t>
   </si>
   <si>
@@ -2168,6 +2162,12 @@
   </si>
   <si>
     <t>"Criado"</t>
+  </si>
+  <si>
+    <t>é.depois.de</t>
+  </si>
+  <si>
+    <t>é.concomitante.a</t>
   </si>
 </sst>
 </file>
@@ -3386,13 +3386,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>65</v>
@@ -3465,13 +3465,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>65</v>
@@ -3544,13 +3544,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>64</v>
@@ -3623,13 +3623,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>64</v>
@@ -3702,13 +3702,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>64</v>
@@ -3781,13 +3781,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>64</v>
@@ -3860,13 +3860,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>62</v>
@@ -3939,13 +3939,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>62</v>
@@ -4018,13 +4018,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>62</v>
@@ -4097,13 +4097,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>62</v>
@@ -4176,19 +4176,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
@@ -4222,10 +4222,10 @@
         <v>Jornada</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R12" s="39" t="s">
         <v>192</v>
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>63</v>
@@ -4334,13 +4334,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>63</v>
@@ -4413,13 +4413,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>63</v>
@@ -4492,13 +4492,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>63</v>
@@ -4571,13 +4571,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>61</v>
@@ -4650,13 +4650,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>61</v>
@@ -4729,13 +4729,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>61</v>
@@ -4808,16 +4808,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>69</v>
@@ -4887,16 +4887,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>74</v>
@@ -4966,16 +4966,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>70</v>
@@ -5045,16 +5045,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>71</v>
@@ -5124,16 +5124,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>73</v>
@@ -5203,16 +5203,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>279</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>280</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>72</v>
@@ -5282,19 +5282,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>286</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>288</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>1</v>
@@ -5328,10 +5328,10 @@
         <v>Inaugurar</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R26" s="39" t="s">
         <v>192</v>
@@ -5361,19 +5361,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>1</v>
@@ -5407,10 +5407,10 @@
         <v>Instalar</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R27" s="39" t="s">
         <v>192</v>
@@ -5440,19 +5440,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>1</v>
@@ -5486,10 +5486,10 @@
         <v>Trocar</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R28" s="39" t="s">
         <v>192</v>
@@ -5519,19 +5519,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E29" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>287</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>1</v>
@@ -5565,10 +5565,10 @@
         <v>Inspeccionar</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R29" s="39" t="s">
         <v>192</v>
@@ -5848,10 +5848,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>281</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5862,7 +5862,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5880,8 +5880,8 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5900,7 +5900,7 @@
     <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.85546875" style="64" customWidth="1"/>
+    <col min="15" max="15" width="40" style="64" customWidth="1"/>
     <col min="16" max="16" width="4.28515625" style="65" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="64" customWidth="1"/>
     <col min="18" max="18" width="4.28515625" style="65" bestFit="1" customWidth="1"/>
@@ -6842,7 +6842,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>1</v>
@@ -6913,7 +6913,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>1</v>
@@ -6984,10 +6984,10 @@
         <v>101</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>99</v>
@@ -7055,10 +7055,10 @@
         <v>103</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E17" s="50" t="s">
         <v>99</v>
@@ -7126,10 +7126,10 @@
         <v>105</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>99</v>
@@ -7197,10 +7197,10 @@
         <v>107</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E19" s="50" t="s">
         <v>103</v>
@@ -7268,10 +7268,10 @@
         <v>109</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E20" s="50" t="s">
         <v>109</v>
@@ -7339,10 +7339,10 @@
         <v>111</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E21" s="50" t="s">
         <v>107</v>
@@ -8304,7 +8304,7 @@
         <v>212</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R34" s="46" t="s">
         <v>1</v>
@@ -8375,7 +8375,7 @@
         <v>212</v>
       </c>
       <c r="Q35" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R35" s="46" t="s">
         <v>1</v>
@@ -8446,7 +8446,7 @@
         <v>212</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R36" s="46" t="s">
         <v>1</v>
@@ -8659,7 +8659,7 @@
         <v>212</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R39" s="46" t="s">
         <v>1</v>
@@ -8904,7 +8904,7 @@
         <v>74</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E43" s="50" t="s">
         <v>119</v>
@@ -8975,7 +8975,7 @@
         <v>74</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>119</v>
@@ -9014,7 +9014,7 @@
         <v>212</v>
       </c>
       <c r="Q44" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R44" s="46" t="s">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E45" s="50" t="s">
         <v>119</v>
@@ -9117,7 +9117,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>267</v>
@@ -9156,7 +9156,7 @@
         <v>212</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R46" s="46" t="s">
         <v>1</v>
@@ -9188,7 +9188,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>268</v>
@@ -9259,7 +9259,7 @@
         <v>70</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>267</v>
@@ -9330,7 +9330,7 @@
         <v>70</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>268</v>
@@ -9369,7 +9369,7 @@
         <v>212</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R49" s="46" t="s">
         <v>1</v>
@@ -9395,10 +9395,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D50" s="45" t="s">
         <v>1</v>
@@ -9434,13 +9434,13 @@
         <v>79</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P50" s="46" t="s">
         <v>212</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R50" s="46" t="s">
         <v>1</v>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E91760F-2E43-4A4A-85A1-825C507C406E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01173F76-1B73-4F9A-ABE4-95E94B0A380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
     <sheet name="Classes" sheetId="29" r:id="rId2"/>
     <sheet name="Disjunt" sheetId="3" r:id="rId3"/>
     <sheet name="Interop" sheetId="27" r:id="rId4"/>
-    <sheet name="FatosIn" sheetId="30" r:id="rId5"/>
+    <sheet name="FatosIn" sheetId="31" r:id="rId5"/>
     <sheet name="ExemplosDL" sheetId="24" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="302">
   <si>
     <t>Key</t>
   </si>
@@ -1345,9 +1345,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Tempo</t>
   </si>
   <si>
     <t>-</t>
@@ -1766,13 +1763,7 @@
     <t>Prédio</t>
   </si>
   <si>
-    <t>P000001</t>
-  </si>
-  <si>
     <t>Cidade</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
   </si>
   <si>
     <t>Explicação</t>
@@ -1891,12 +1882,6 @@
     <t>Siglo</t>
   </si>
   <si>
-    <t>Cronómetro.I</t>
-  </si>
-  <si>
-    <t>Cronómetro.F</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -2113,15 +2098,9 @@
     <t>Jornada</t>
   </si>
   <si>
-    <t>Prazo</t>
-  </si>
-  <si>
     <t>Histórico</t>
   </si>
   <si>
-    <t>Inspeccionar</t>
-  </si>
-  <si>
     <t>Inaugurar</t>
   </si>
   <si>
@@ -2131,43 +2110,64 @@
     <t>Trocar</t>
   </si>
   <si>
-    <t>Prazo para realizar inspeções</t>
-  </si>
-  <si>
-    <t>Prazo para trocar ou data de validade</t>
-  </si>
-  <si>
-    <t>Prazo para instalar</t>
-  </si>
-  <si>
-    <t>Prazo para inaugurar</t>
-  </si>
-  <si>
-    <t>Plazo para inaugurar</t>
-  </si>
-  <si>
-    <t>Plazo para instalar</t>
-  </si>
-  <si>
-    <t>Plazo para cambiar o fecha de vencimiento</t>
-  </si>
-  <si>
-    <t>Plazo para realizar inspecciones</t>
-  </si>
-  <si>
-    <t>Histo.01</t>
-  </si>
-  <si>
-    <t>"Evento histórico inicial."</t>
-  </si>
-  <si>
-    <t>"Criado"</t>
-  </si>
-  <si>
     <t>é.depois.de</t>
   </si>
   <si>
     <t>é.concomitante.a</t>
+  </si>
+  <si>
+    <t>Inauguração</t>
+  </si>
+  <si>
+    <t>"Evento histórico inicial. Inauguração do projeto."</t>
+  </si>
+  <si>
+    <t>Reforma.Tipo.01</t>
+  </si>
+  <si>
+    <t>Reformar</t>
+  </si>
+  <si>
+    <t>Evento de inauguração</t>
+  </si>
+  <si>
+    <t>Evento de instalar</t>
+  </si>
+  <si>
+    <t>Evento de cambiar o fecha de vencimiento</t>
+  </si>
+  <si>
+    <t>Evento de reforma</t>
+  </si>
+  <si>
+    <t>Evento de inaugurar</t>
+  </si>
+  <si>
+    <t>Evento de cambiar oo data de vencimiento</t>
+  </si>
+  <si>
+    <t>Evento de relativo a uma inspeção</t>
+  </si>
+  <si>
+    <t>Evento relativo a uma inspeción</t>
+  </si>
+  <si>
+    <t>Pericial</t>
+  </si>
+  <si>
+    <t>Evento de pericia</t>
+  </si>
+  <si>
+    <t>Evento de perícia</t>
+  </si>
+  <si>
+    <t>"Evento de reforma"</t>
+  </si>
+  <si>
+    <t>Crono.F</t>
+  </si>
+  <si>
+    <t>Crono.I</t>
   </si>
 </sst>
 </file>
@@ -2710,26 +2710,46 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2756,12 +2776,22 @@
         <color theme="0"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3074,10 +3104,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3089,39 +3119,39 @@
   <sheetData>
     <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="14" t="str">
         <f>_xlfn.CONCAT(B4,"Prop")</f>
@@ -3130,7 +3160,7 @@
     </row>
     <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="14" t="str">
         <f>_xlfn.CONCAT(B4,"Data")</f>
@@ -3139,138 +3169,139 @@
     </row>
     <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>175</v>
+        <v>162</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="17">
-        <v>45523.511111111111</v>
+        <f ca="1">NOW()</f>
+        <v>45745.717736805556</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3280,11 +3311,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3331,7 @@
     <col min="13" max="13" width="5.7109375" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
     <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.28515625" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
@@ -3312,70 +3343,70 @@
   <sheetData>
     <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="U1" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>182</v>
-      </c>
       <c r="V1" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="W1" s="29" t="s">
         <v>0</v>
@@ -3386,19 +3417,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>66</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>1</v>
@@ -3432,13 +3463,13 @@
         <v>Pulso</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S2" s="40" t="str">
         <f t="shared" ref="S2:U18" si="1">SUBSTITUTE(C2, "_", " ")</f>
@@ -3453,10 +3484,10 @@
         <v>Microevento</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W2" s="42" t="str">
-        <f t="shared" ref="W2:W25" si="2">CONCATENATE("Key.Cro",".",A2)</f>
+        <f t="shared" ref="W2:W31" si="2">CONCATENATE("Key.Cro",".",A2)</f>
         <v>Key.Cro.2</v>
       </c>
     </row>
@@ -3465,19 +3496,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>1</v>
@@ -3511,13 +3542,13 @@
         <v>Tick</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S3" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3532,7 +3563,7 @@
         <v>Microevento</v>
       </c>
       <c r="V3" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W3" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3544,19 +3575,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>1</v>
@@ -3590,13 +3621,13 @@
         <v>Era</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S4" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3611,7 +3642,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V4" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W4" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3623,19 +3654,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>1</v>
@@ -3669,13 +3700,13 @@
         <v>Época</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S5" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3690,7 +3721,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V5" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W5" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3702,19 +3733,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>1</v>
@@ -3748,13 +3779,13 @@
         <v>Século</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S6" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3769,7 +3800,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W6" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3781,19 +3812,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>1</v>
@@ -3827,13 +3858,13 @@
         <v>Década</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S7" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3848,7 +3879,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W7" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3860,19 +3891,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>1</v>
@@ -3906,13 +3937,13 @@
         <v>Semana</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S8" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3927,7 +3958,7 @@
         <v>Calendário</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W8" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3939,19 +3970,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>1</v>
@@ -3985,13 +4016,13 @@
         <v>Ano</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S9" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4006,7 +4037,7 @@
         <v>Calendário</v>
       </c>
       <c r="V9" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W9" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4018,19 +4049,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>1</v>
@@ -4064,13 +4095,13 @@
         <v>Mês</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S10" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4085,7 +4116,7 @@
         <v>Calendário</v>
       </c>
       <c r="V10" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W10" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4097,19 +4128,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>1</v>
@@ -4143,13 +4174,13 @@
         <v>Dia</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R11" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S11" s="40" t="str">
         <f t="shared" ref="S11" si="9">SUBSTITUTE(C11, "_", " ")</f>
@@ -4164,7 +4195,7 @@
         <v>Calendário</v>
       </c>
       <c r="V11" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W11" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4176,19 +4207,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>277</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>282</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
@@ -4222,13 +4253,13 @@
         <v>Jornada</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S12" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4243,7 +4274,7 @@
         <v>Calendário</v>
       </c>
       <c r="V12" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W12" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4255,19 +4286,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>1</v>
@@ -4301,13 +4332,13 @@
         <v>Hora</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S13" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4322,7 +4353,7 @@
         <v>Horário</v>
       </c>
       <c r="V13" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W13" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4334,19 +4365,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>1</v>
@@ -4380,13 +4411,13 @@
         <v>Minuto</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S14" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4401,7 +4432,7 @@
         <v>Horário</v>
       </c>
       <c r="V14" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W14" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4413,19 +4444,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>1</v>
@@ -4459,13 +4490,13 @@
         <v>Segundo</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S15" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4480,7 +4511,7 @@
         <v>Horário</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W15" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4492,19 +4523,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>1</v>
@@ -4538,13 +4569,13 @@
         <v>Milisegundo</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S16" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4559,7 +4590,7 @@
         <v>Horário</v>
       </c>
       <c r="V16" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W16" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4571,19 +4602,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>61</v>
-      </c>
       <c r="F17" s="32" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>1</v>
@@ -4614,16 +4645,16 @@
       </c>
       <c r="O17" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Cronómetro.I</v>
+        <v>Crono.I</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S17" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4638,7 +4669,7 @@
         <v>Duração</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W17" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4650,19 +4681,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C18" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>61</v>
-      </c>
       <c r="F18" s="32" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>1</v>
@@ -4693,16 +4724,16 @@
       </c>
       <c r="O18" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Cronómetro.F</v>
+        <v>Crono.F</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S18" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4717,7 +4748,7 @@
         <v>Duração</v>
       </c>
       <c r="V18" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W18" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4729,19 +4760,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C19" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>61</v>
-      </c>
       <c r="F19" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>1</v>
@@ -4759,44 +4790,44 @@
         <v>1</v>
       </c>
       <c r="L19" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L19" si="12">_xlfn.CONCAT(C19)</f>
         <v>Evento</v>
       </c>
       <c r="M19" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M19" si="13">_xlfn.CONCAT("", D19)</f>
         <v>Temporal</v>
       </c>
       <c r="N19" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N19" si="14">_xlfn.CONCAT("", E19)</f>
         <v>Duração</v>
       </c>
       <c r="O19" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O19" si="15">_xlfn.CONCAT("", F19)</f>
         <v>DeltaT</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R19" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S19" s="40" t="str">
-        <f t="shared" ref="S19:U25" si="12">SUBSTITUTE(C19, "_", " ")</f>
+        <f t="shared" ref="S19" si="16">SUBSTITUTE(C19, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="T19" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="T19" si="17">SUBSTITUTE(D19, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="U19" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="U19" si="18">SUBSTITUTE(E19, "_", " ")</f>
         <v>Duração</v>
       </c>
       <c r="V19" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W19" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4808,19 +4839,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>1</v>
@@ -4854,28 +4885,28 @@
         <v>Ideação</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S20" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="S20:U25" si="19">SUBSTITUTE(C20, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="T20" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Temporal</v>
       </c>
       <c r="U20" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Etapa</v>
       </c>
       <c r="V20" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W20" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4887,19 +4918,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>1</v>
@@ -4933,28 +4964,28 @@
         <v>Projetual</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R21" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S21" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Evento</v>
       </c>
       <c r="T21" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Temporal</v>
       </c>
       <c r="U21" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Etapa</v>
       </c>
       <c r="V21" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W21" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4966,19 +4997,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>1</v>
@@ -5012,28 +5043,28 @@
         <v>Simulação</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="R22" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S22" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Evento</v>
       </c>
       <c r="T22" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Temporal</v>
       </c>
       <c r="U22" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Etapa</v>
       </c>
       <c r="V22" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W22" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5045,19 +5076,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>1</v>
@@ -5091,28 +5122,28 @@
         <v>Planejamento</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R23" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S23" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Evento</v>
       </c>
       <c r="T23" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Temporal</v>
       </c>
       <c r="U23" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Etapa</v>
       </c>
       <c r="V23" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W23" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5124,19 +5155,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>1</v>
@@ -5170,28 +5201,28 @@
         <v>Construção</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S24" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Evento</v>
       </c>
       <c r="T24" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Temporal</v>
       </c>
       <c r="U24" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Etapa</v>
       </c>
       <c r="V24" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W24" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5203,19 +5234,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>1</v>
@@ -5249,28 +5280,28 @@
         <v>Operação</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R25" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S25" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Evento</v>
       </c>
       <c r="T25" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Temporal</v>
       </c>
       <c r="U25" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>Etapa</v>
       </c>
       <c r="V25" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W25" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5282,19 +5313,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>1</v>
@@ -5312,47 +5343,47 @@
         <v>1</v>
       </c>
       <c r="L26" s="22" t="str">
-        <f t="shared" ref="L26" si="13">_xlfn.CONCAT(C26)</f>
+        <f t="shared" ref="L26" si="20">_xlfn.CONCAT(C26)</f>
         <v>Evento</v>
       </c>
       <c r="M26" s="22" t="str">
-        <f t="shared" ref="M26" si="14">_xlfn.CONCAT("", D26)</f>
+        <f t="shared" ref="M26" si="21">_xlfn.CONCAT("", D26)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="N26" s="22" t="str">
+        <f t="shared" ref="N26" si="22">_xlfn.CONCAT("", E26)</f>
         <v>Histórico</v>
       </c>
-      <c r="N26" s="22" t="str">
-        <f t="shared" ref="N26" si="15">_xlfn.CONCAT("", E26)</f>
-        <v>Prazo</v>
-      </c>
       <c r="O26" s="22" t="str">
-        <f t="shared" ref="O26" si="16">_xlfn.CONCAT("", F26)</f>
+        <f t="shared" ref="O26" si="23">_xlfn.CONCAT("", F26)</f>
         <v>Inaugurar</v>
       </c>
       <c r="P26" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q26" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="Q26" s="22" t="s">
-        <v>293</v>
-      </c>
       <c r="R26" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S26" s="40" t="str">
-        <f t="shared" ref="S26" si="17">SUBSTITUTE(C26, "_", " ")</f>
+        <f t="shared" ref="S26" si="24">SUBSTITUTE(C26, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="T26" s="40" t="str">
-        <f t="shared" ref="T26" si="18">SUBSTITUTE(D26, "_", " ")</f>
+        <f t="shared" ref="T26" si="25">SUBSTITUTE(D26, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="U26" s="38" t="str">
+        <f t="shared" ref="U26" si="26">SUBSTITUTE(E26, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="U26" s="38" t="str">
-        <f t="shared" ref="U26" si="19">SUBSTITUTE(E26, "_", " ")</f>
-        <v>Prazo</v>
-      </c>
       <c r="V26" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W26" s="42" t="str">
-        <f t="shared" ref="W26" si="20">CONCATENATE("Key.Cro",".",A26)</f>
+        <f t="shared" si="2"/>
         <v>Key.Cro.26</v>
       </c>
     </row>
@@ -5361,19 +5392,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>1</v>
@@ -5391,47 +5422,47 @@
         <v>1</v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" ref="L27:L28" si="21">_xlfn.CONCAT(C27)</f>
+        <f t="shared" ref="L27:L28" si="27">_xlfn.CONCAT(C27)</f>
         <v>Evento</v>
       </c>
       <c r="M27" s="22" t="str">
-        <f t="shared" ref="M27:M28" si="22">_xlfn.CONCAT("", D27)</f>
+        <f t="shared" ref="M27:M28" si="28">_xlfn.CONCAT("", D27)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="N27" s="22" t="str">
+        <f t="shared" ref="N27:N28" si="29">_xlfn.CONCAT("", E27)</f>
         <v>Histórico</v>
       </c>
-      <c r="N27" s="22" t="str">
-        <f t="shared" ref="N27:N28" si="23">_xlfn.CONCAT("", E27)</f>
-        <v>Prazo</v>
-      </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" ref="O27:O28" si="24">_xlfn.CONCAT("", F27)</f>
+        <f t="shared" ref="O27:O28" si="30">_xlfn.CONCAT("", F27)</f>
         <v>Instalar</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="R27" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S27" s="40" t="str">
-        <f t="shared" ref="S27:S28" si="25">SUBSTITUTE(C27, "_", " ")</f>
+        <f t="shared" ref="S27:S28" si="31">SUBSTITUTE(C27, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="T27" s="40" t="str">
-        <f t="shared" ref="T27:T28" si="26">SUBSTITUTE(D27, "_", " ")</f>
+        <f t="shared" ref="T27:T28" si="32">SUBSTITUTE(D27, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="U27" s="38" t="str">
+        <f t="shared" ref="U27:U28" si="33">SUBSTITUTE(E27, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="U27" s="38" t="str">
-        <f t="shared" ref="U27:U28" si="27">SUBSTITUTE(E27, "_", " ")</f>
-        <v>Prazo</v>
-      </c>
       <c r="V27" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W27" s="42" t="str">
-        <f t="shared" ref="W27:W28" si="28">CONCATENATE("Key.Cro",".",A27)</f>
+        <f t="shared" si="2"/>
         <v>Key.Cro.27</v>
       </c>
     </row>
@@ -5440,19 +5471,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>1</v>
@@ -5470,130 +5501,291 @@
         <v>1</v>
       </c>
       <c r="L28" s="22" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>Evento</v>
       </c>
       <c r="M28" s="22" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
+        <v>Temporal</v>
+      </c>
+      <c r="N28" s="22" t="str">
+        <f t="shared" si="29"/>
         <v>Histórico</v>
       </c>
-      <c r="N28" s="22" t="str">
-        <f t="shared" si="23"/>
-        <v>Prazo</v>
-      </c>
       <c r="O28" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>Trocar</v>
       </c>
       <c r="P28" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q28" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="Q28" s="22" t="s">
+      <c r="R28" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" si="31"/>
+        <v>Evento</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>Temporal</v>
+      </c>
+      <c r="U28" s="38" t="str">
+        <f t="shared" si="33"/>
+        <v>Histórico</v>
+      </c>
+      <c r="V28" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="W28" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Cro.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>29</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="22" t="str">
+        <f t="shared" ref="L29:L30" si="34">_xlfn.CONCAT(C29)</f>
+        <v>Evento</v>
+      </c>
+      <c r="M29" s="22" t="str">
+        <f t="shared" ref="M29:M30" si="35">_xlfn.CONCAT("", D29)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="N29" s="22" t="str">
+        <f t="shared" ref="N29:N30" si="36">_xlfn.CONCAT("", E29)</f>
+        <v>Histórico</v>
+      </c>
+      <c r="O29" s="22" t="str">
+        <f t="shared" ref="O29:O30" si="37">_xlfn.CONCAT("", F29)</f>
+        <v>Operacional</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q29" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="S28" s="40" t="str">
-        <f t="shared" si="25"/>
+      <c r="R29" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="S29" s="40" t="str">
+        <f t="shared" ref="S29:S30" si="38">SUBSTITUTE(C29, "_", " ")</f>
         <v>Evento</v>
       </c>
-      <c r="T28" s="40" t="str">
-        <f t="shared" si="26"/>
+      <c r="T29" s="40" t="str">
+        <f t="shared" ref="T29:T30" si="39">SUBSTITUTE(D29, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="U29" s="38" t="str">
+        <f t="shared" ref="U29:U30" si="40">SUBSTITUTE(E29, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="U28" s="38" t="str">
-        <f t="shared" si="27"/>
-        <v>Prazo</v>
-      </c>
-      <c r="V28" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="W28" s="42" t="str">
-        <f t="shared" si="28"/>
-        <v>Key.Cro.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="68">
-        <v>29</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="22" t="str">
-        <f t="shared" ref="L29" si="29">_xlfn.CONCAT(C29)</f>
+      <c r="V29" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="W29" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Cro.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>30</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="22" t="str">
+        <f t="shared" si="34"/>
         <v>Evento</v>
       </c>
-      <c r="M29" s="22" t="str">
-        <f t="shared" ref="M29" si="30">_xlfn.CONCAT("", D29)</f>
+      <c r="M30" s="22" t="str">
+        <f t="shared" si="35"/>
+        <v>Temporal</v>
+      </c>
+      <c r="N30" s="22" t="str">
+        <f t="shared" si="36"/>
         <v>Histórico</v>
       </c>
-      <c r="N29" s="22" t="str">
-        <f t="shared" ref="N29" si="31">_xlfn.CONCAT("", E29)</f>
-        <v>Prazo</v>
-      </c>
-      <c r="O29" s="22" t="str">
-        <f t="shared" ref="O29" si="32">_xlfn.CONCAT("", F29)</f>
-        <v>Inspeccionar</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q29" s="22" t="s">
+      <c r="O30" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>Reformar</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="S30" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v>Evento</v>
+      </c>
+      <c r="T30" s="40" t="str">
+        <f t="shared" si="39"/>
+        <v>Temporal</v>
+      </c>
+      <c r="U30" s="38" t="str">
+        <f t="shared" si="40"/>
+        <v>Histórico</v>
+      </c>
+      <c r="V30" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="W30" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Cro.30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="R29" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="S29" s="40" t="str">
-        <f t="shared" ref="S29" si="33">SUBSTITUTE(C29, "_", " ")</f>
+      <c r="G31" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="22" t="str">
+        <f t="shared" ref="L31" si="41">_xlfn.CONCAT(C31)</f>
         <v>Evento</v>
       </c>
-      <c r="T29" s="40" t="str">
-        <f t="shared" ref="T29" si="34">SUBSTITUTE(D29, "_", " ")</f>
+      <c r="M31" s="22" t="str">
+        <f t="shared" ref="M31" si="42">_xlfn.CONCAT("", D31)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="N31" s="22" t="str">
+        <f t="shared" ref="N31" si="43">_xlfn.CONCAT("", E31)</f>
         <v>Histórico</v>
       </c>
-      <c r="U29" s="38" t="str">
-        <f t="shared" ref="U29" si="35">SUBSTITUTE(E29, "_", " ")</f>
-        <v>Prazo</v>
-      </c>
-      <c r="V29" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="W29" s="42" t="str">
-        <f t="shared" ref="W29" si="36">CONCATENATE("Key.Cro",".",A29)</f>
-        <v>Key.Cro.29</v>
+      <c r="O31" s="22" t="str">
+        <f t="shared" ref="O31" si="44">_xlfn.CONCAT("", F31)</f>
+        <v>Pericial</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="S31" s="40" t="str">
+        <f t="shared" ref="S31" si="45">SUBSTITUTE(C31, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="T31" s="40" t="str">
+        <f t="shared" ref="T31" si="46">SUBSTITUTE(D31, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="U31" s="38" t="str">
+        <f t="shared" ref="U31" si="47">SUBSTITUTE(E31, "_", " ")</f>
+        <v>Histórico</v>
+      </c>
+      <c r="V31" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="W31" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Cro.31</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F32:F1048576 F1:F29">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
     <ignoredError sqref="A1" numberStoredAsText="1"/>
@@ -5817,7 +6009,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5848,26 +6040,26 @@
         <v>1</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>282</v>
+      <c r="B2" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5876,21 +6068,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
-  <dimension ref="A1:W50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5087910E-DA31-4318-A539-726BE963325D}">
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A35" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -5900,97 +6091,97 @@
     <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40" style="64" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="64" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="T1" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U1" s="62" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="V1" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W1" s="62" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>2</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>1</v>
@@ -6023,16 +6214,16 @@
         <v>1</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="R2" s="46" t="s">
         <v>1</v>
@@ -6053,15 +6244,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>3</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>1</v>
@@ -6094,16 +6285,16 @@
         <v>1</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="R3" s="46" t="s">
         <v>1</v>
@@ -6124,15 +6315,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>4</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>1</v>
@@ -6165,16 +6356,16 @@
         <v>1</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="R4" s="46" t="s">
         <v>1</v>
@@ -6195,15 +6386,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <v>5</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>1</v>
@@ -6236,16 +6427,16 @@
         <v>1</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="51" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="R5" s="46" t="s">
         <v>1</v>
@@ -6266,15 +6457,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>6</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>1</v>
@@ -6307,16 +6498,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P6" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="51" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="R6" s="46" t="s">
         <v>1</v>
@@ -6337,15 +6528,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>7</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>1</v>
@@ -6378,16 +6569,16 @@
         <v>1</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P7" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="51" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="R7" s="46" t="s">
         <v>1</v>
@@ -6408,15 +6599,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>8</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>1</v>
@@ -6449,16 +6640,16 @@
         <v>1</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="51" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R8" s="46" t="s">
         <v>1</v>
@@ -6479,15 +6670,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>9</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>1</v>
@@ -6520,16 +6711,16 @@
         <v>1</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="51" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="R9" s="46" t="s">
         <v>1</v>
@@ -6550,15 +6741,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>10</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>1</v>
@@ -6591,16 +6782,16 @@
         <v>1</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P10" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="R10" s="46" t="s">
         <v>1</v>
@@ -6621,15 +6812,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>11</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>1</v>
@@ -6662,16 +6853,16 @@
         <v>1</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P11" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="51" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R11" s="46" t="s">
         <v>1</v>
@@ -6692,15 +6883,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>12</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>1</v>
@@ -6733,16 +6924,16 @@
         <v>1</v>
       </c>
       <c r="N12" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="51" t="s">
-        <v>80</v>
-      </c>
       <c r="P12" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="51" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="R12" s="46" t="s">
         <v>1</v>
@@ -6763,57 +6954,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>13</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" s="51" t="s">
-        <v>82</v>
-      </c>
       <c r="P13" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="51" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="R13" s="46" t="s">
         <v>1</v>
@@ -6834,57 +7025,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>14</v>
       </c>
       <c r="B14" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="43" t="s">
-        <v>79</v>
-      </c>
       <c r="O14" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P14" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="51" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="R14" s="46" t="s">
         <v>1</v>
@@ -6905,57 +7096,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>15</v>
       </c>
       <c r="B15" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>100</v>
-      </c>
       <c r="P15" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="R15" s="46" t="s">
         <v>1</v>
@@ -6976,57 +7167,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>16</v>
       </c>
       <c r="B16" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="51" t="s">
-        <v>102</v>
-      </c>
       <c r="P16" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="R16" s="46" t="s">
         <v>1</v>
@@ -7047,57 +7238,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>17</v>
       </c>
       <c r="B17" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" s="51" t="s">
-        <v>104</v>
-      </c>
       <c r="P17" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="R17" s="46" t="s">
         <v>1</v>
@@ -7118,57 +7309,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>18</v>
       </c>
       <c r="B18" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" s="51" t="s">
-        <v>106</v>
-      </c>
       <c r="P18" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="51" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="R18" s="46" t="s">
         <v>1</v>
@@ -7189,57 +7380,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>19</v>
       </c>
       <c r="B19" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="51" t="s">
-        <v>108</v>
-      </c>
       <c r="P19" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="51" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R19" s="46" t="s">
         <v>1</v>
@@ -7260,57 +7451,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>20</v>
       </c>
       <c r="B20" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>110</v>
-      </c>
       <c r="P20" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="51" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R20" s="46" t="s">
         <v>1</v>
@@ -7331,57 +7522,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>21</v>
       </c>
       <c r="B21" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" s="51" t="s">
-        <v>112</v>
-      </c>
       <c r="P21" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="51" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R21" s="46" t="s">
         <v>1</v>
@@ -7402,58 +7593,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>22</v>
       </c>
       <c r="B22" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="51" t="s">
-        <v>131</v>
-      </c>
       <c r="P22" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q22" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="Q22" s="51" t="s">
-        <v>217</v>
-      </c>
       <c r="R22" s="46" t="s">
         <v>1</v>
       </c>
@@ -7473,57 +7664,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>23</v>
       </c>
       <c r="B23" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" s="51" t="s">
-        <v>133</v>
-      </c>
       <c r="P23" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q23" s="51" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R23" s="46" t="s">
         <v>1</v>
@@ -7544,57 +7735,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>24</v>
       </c>
       <c r="B24" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" s="51" t="s">
-        <v>135</v>
-      </c>
       <c r="P24" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="R24" s="46" t="s">
         <v>1</v>
@@ -7615,57 +7806,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>25</v>
       </c>
       <c r="B25" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" s="51" t="s">
-        <v>137</v>
-      </c>
       <c r="P25" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="51" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="R25" s="46" t="s">
         <v>1</v>
@@ -7686,57 +7877,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>26</v>
       </c>
       <c r="B26" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" s="51" t="s">
-        <v>139</v>
-      </c>
       <c r="P26" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q26" s="51" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="R26" s="46" t="s">
         <v>1</v>
@@ -7757,57 +7948,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
         <v>27</v>
       </c>
       <c r="B27" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N27" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>141</v>
-      </c>
       <c r="P27" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q27" s="51" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R27" s="46" t="s">
         <v>1</v>
@@ -7828,57 +8019,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>28</v>
       </c>
       <c r="B28" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" s="51" t="s">
-        <v>143</v>
-      </c>
       <c r="P28" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="51" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="R28" s="46" t="s">
         <v>1</v>
@@ -7899,57 +8090,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47">
         <v>29</v>
       </c>
       <c r="B29" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N29" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" s="51" t="s">
-        <v>145</v>
-      </c>
       <c r="P29" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="51" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="R29" s="46" t="s">
         <v>1</v>
@@ -7970,57 +8161,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>30</v>
       </c>
       <c r="B30" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M30" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N30" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O30" s="51" t="s">
-        <v>85</v>
-      </c>
       <c r="P30" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="51" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="R30" s="46" t="s">
         <v>1</v>
@@ -8041,57 +8232,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47">
         <v>31</v>
       </c>
       <c r="B31" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N31" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" s="51" t="s">
-        <v>88</v>
-      </c>
       <c r="P31" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="51" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="R31" s="46" t="s">
         <v>1</v>
@@ -8112,57 +8303,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>32</v>
       </c>
       <c r="B32" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N32" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O32" s="51" t="s">
-        <v>91</v>
-      </c>
       <c r="P32" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="51" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="R32" s="46" t="s">
         <v>1</v>
@@ -8183,57 +8374,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
         <v>33</v>
       </c>
       <c r="B33" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N33" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O33" s="51" t="s">
-        <v>93</v>
-      </c>
       <c r="P33" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q33" s="51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="R33" s="46" t="s">
         <v>1</v>
@@ -8254,57 +8445,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>34</v>
       </c>
       <c r="B34" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O34" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L34" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N34" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O34" s="51" t="s">
-        <v>114</v>
-      </c>
       <c r="P34" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="R34" s="46" t="s">
         <v>1</v>
@@ -8325,57 +8516,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
         <v>35</v>
       </c>
       <c r="B35" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M35" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N35" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O35" s="51" t="s">
-        <v>116</v>
-      </c>
       <c r="P35" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="51" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R35" s="46" t="s">
         <v>1</v>
@@ -8396,15 +8587,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
         <v>36</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="45" t="s">
         <v>1</v>
@@ -8437,16 +8628,16 @@
         <v>1</v>
       </c>
       <c r="N36" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O36" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P36" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R36" s="46" t="s">
         <v>1</v>
@@ -8467,15 +8658,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>37</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="45" t="s">
         <v>1</v>
@@ -8508,16 +8699,16 @@
         <v>1</v>
       </c>
       <c r="N37" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P37" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="51" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R37" s="46" t="s">
         <v>1</v>
@@ -8538,57 +8729,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>38</v>
       </c>
       <c r="B38" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O38" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N38" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O38" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="P38" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="R38" s="46" t="s">
         <v>1</v>
@@ -8609,15 +8800,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
         <v>39</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="45" t="s">
         <v>1</v>
@@ -8650,16 +8841,16 @@
         <v>1</v>
       </c>
       <c r="N39" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P39" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R39" s="46" t="s">
         <v>1</v>
@@ -8680,57 +8871,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>40</v>
       </c>
       <c r="B40" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O40" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L40" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M40" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N40" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O40" s="51" t="s">
-        <v>124</v>
-      </c>
       <c r="P40" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q40" s="51" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="R40" s="46" t="s">
         <v>1</v>
@@ -8751,15 +8942,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
         <v>41</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="45" t="s">
         <v>1</v>
@@ -8792,16 +8983,16 @@
         <v>1</v>
       </c>
       <c r="N41" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O41" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P41" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q41" s="51" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R41" s="46" t="s">
         <v>1</v>
@@ -8822,15 +9013,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
         <v>42</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="45" t="s">
         <v>1</v>
@@ -8863,16 +9054,16 @@
         <v>1</v>
       </c>
       <c r="N42" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P42" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="R42" s="46" t="s">
         <v>1</v>
@@ -8893,21 +9084,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
         <v>43</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="45" t="s">
         <v>1</v>
@@ -8934,16 +9125,16 @@
         <v>1</v>
       </c>
       <c r="N43" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O43" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P43" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q43" s="51" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="R43" s="46" t="s">
         <v>1</v>
@@ -8964,21 +9155,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>44</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44" s="45" t="s">
         <v>1</v>
@@ -9005,16 +9196,16 @@
         <v>1</v>
       </c>
       <c r="N44" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O44" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P44" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q44" s="51" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R44" s="46" t="s">
         <v>1</v>
@@ -9035,21 +9226,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
         <v>45</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45" s="45" t="s">
         <v>1</v>
@@ -9076,16 +9267,16 @@
         <v>1</v>
       </c>
       <c r="N45" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O45" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P45" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q45" s="51" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="R45" s="46" t="s">
         <v>1</v>
@@ -9106,58 +9297,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
         <v>46</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E46" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q46" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="F46" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K46" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L46" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M46" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N46" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O46" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="P46" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q46" s="51" t="s">
-        <v>272</v>
-      </c>
       <c r="R46" s="46" t="s">
         <v>1</v>
       </c>
@@ -9177,21 +9368,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47">
         <v>47</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F47" s="45" t="s">
         <v>1</v>
@@ -9218,16 +9409,16 @@
         <v>1</v>
       </c>
       <c r="N47" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O47" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P47" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="R47" s="46" t="s">
         <v>1</v>
@@ -9248,21 +9439,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47">
         <v>48</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F48" s="45" t="s">
         <v>1</v>
@@ -9289,16 +9480,16 @@
         <v>1</v>
       </c>
       <c r="N48" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O48" s="51" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P48" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R48" s="46" t="s">
         <v>1</v>
@@ -9319,21 +9510,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
         <v>49</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F49" s="45" t="s">
         <v>1</v>
@@ -9360,16 +9551,16 @@
         <v>1</v>
       </c>
       <c r="N49" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O49" s="51" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P49" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="R49" s="46" t="s">
         <v>1</v>
@@ -9390,83 +9581,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="64" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
         <v>50</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C50" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N50" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="P50" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U50" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W50" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="47">
+        <v>51</v>
+      </c>
+      <c r="B51" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="D50" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="M50" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="N50" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O50" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="P50" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q50" s="51" t="s">
+      <c r="C51" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M51" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N51" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="R50" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="S50" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="T50" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="U50" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="V50" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="W50" s="63" t="s">
+      <c r="P51" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R51" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S51" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U51" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V51" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W51" s="63" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W49">
-    <sortCondition ref="C1:C49"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B3 B6:B50">
+  <conditionalFormatting sqref="B1:B3 B6:B49">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01173F76-1B73-4F9A-ABE4-95E94B0A380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF0E39-32A9-42B9-8EDA-5446CCAC8648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="358">
   <si>
     <t>Key</t>
   </si>
@@ -1502,9 +1502,6 @@
     <t>"Duração Parcial de um evento."</t>
   </si>
   <si>
-    <t>"Data Inicial do empreendimento."</t>
-  </si>
-  <si>
     <t>Hora0</t>
   </si>
   <si>
@@ -1843,36 +1840,12 @@
     <t>Día</t>
   </si>
   <si>
-    <t>Cronómetro iniciar</t>
-  </si>
-  <si>
-    <t>Cronómetro finalizar</t>
-  </si>
-  <si>
     <t>Intervalo de tiempo</t>
   </si>
   <si>
     <t>Intervalo de tempo</t>
   </si>
   <si>
-    <t>Evento de fase de planeamiento</t>
-  </si>
-  <si>
-    <t>Evento en fase de concepción</t>
-  </si>
-  <si>
-    <t>Evento en fase de proyecto</t>
-  </si>
-  <si>
-    <t>Evento de simulación</t>
-  </si>
-  <si>
-    <t>Evento de fase de obra</t>
-  </si>
-  <si>
-    <t>Evento de fase de operación</t>
-  </si>
-  <si>
     <t>Década</t>
   </si>
   <si>
@@ -1969,12 +1942,6 @@
     <t>TesteAcustico.02</t>
   </si>
   <si>
-    <t>Data.Inicial</t>
-  </si>
-  <si>
-    <t>Data.Final</t>
-  </si>
-  <si>
     <t>Data.F01</t>
   </si>
   <si>
@@ -1993,9 +1960,6 @@
     <t>"Alvenaria do Andar2"</t>
   </si>
   <si>
-    <t>"Data de início"</t>
-  </si>
-  <si>
     <t>"Data de início 01"</t>
   </si>
   <si>
@@ -2047,9 +2011,6 @@
     <t>"Momento final absoluto"</t>
   </si>
   <si>
-    <t>"Data de finalização"</t>
-  </si>
-  <si>
     <t>Projeto.Básico</t>
   </si>
   <si>
@@ -2101,15 +2062,6 @@
     <t>Histórico</t>
   </si>
   <si>
-    <t>Inaugurar</t>
-  </si>
-  <si>
-    <t>Instalar</t>
-  </si>
-  <si>
-    <t>Trocar</t>
-  </si>
-  <si>
     <t>é.depois.de</t>
   </si>
   <si>
@@ -2119,55 +2071,271 @@
     <t>Inauguração</t>
   </si>
   <si>
-    <t>"Evento histórico inicial. Inauguração do projeto."</t>
-  </si>
-  <si>
     <t>Reforma.Tipo.01</t>
   </si>
   <si>
-    <t>Reformar</t>
-  </si>
-  <si>
-    <t>Evento de inauguração</t>
-  </si>
-  <si>
-    <t>Evento de instalar</t>
-  </si>
-  <si>
-    <t>Evento de cambiar o fecha de vencimiento</t>
-  </si>
-  <si>
     <t>Evento de reforma</t>
   </si>
   <si>
-    <t>Evento de inaugurar</t>
-  </si>
-  <si>
-    <t>Evento de cambiar oo data de vencimiento</t>
-  </si>
-  <si>
-    <t>Evento de relativo a uma inspeção</t>
-  </si>
-  <si>
-    <t>Evento relativo a uma inspeción</t>
-  </si>
-  <si>
     <t>Pericial</t>
   </si>
   <si>
-    <t>Evento de pericia</t>
-  </si>
-  <si>
-    <t>Evento de perícia</t>
-  </si>
-  <si>
-    <t>"Evento de reforma"</t>
-  </si>
-  <si>
-    <t>Crono.F</t>
-  </si>
-  <si>
-    <t>Crono.I</t>
+    <t>Inaugural</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Cronometragem</t>
+  </si>
+  <si>
+    <t>Intermediária</t>
+  </si>
+  <si>
+    <t>Marca inicial de cronometragem</t>
+  </si>
+  <si>
+    <t>Marca intermedia de cronometragem</t>
+  </si>
+  <si>
+    <t>Marca final de cronometragem</t>
+  </si>
+  <si>
+    <t>Marca inicial de cronometraje</t>
+  </si>
+  <si>
+    <t>Marca intermedia de cronometraje</t>
+  </si>
+  <si>
+    <t>Marca final de cronometraje</t>
+  </si>
+  <si>
+    <t>Etapa de fase de Ideação</t>
+  </si>
+  <si>
+    <t>Etapa de fase Projetual</t>
+  </si>
+  <si>
+    <t>Etapa de fase Simulação</t>
+  </si>
+  <si>
+    <t>Etapa de fase Planejamento</t>
+  </si>
+  <si>
+    <t>Etapa de fase Construção</t>
+  </si>
+  <si>
+    <t>Etapa de fase Operação</t>
+  </si>
+  <si>
+    <t>Etapa en fase de concepción</t>
+  </si>
+  <si>
+    <t>Etapa de simulación</t>
+  </si>
+  <si>
+    <t>Etapa en fase de proyecto</t>
+  </si>
+  <si>
+    <t>Etapa de fase de planeamiento</t>
+  </si>
+  <si>
+    <t>Etapa de fase de obra</t>
+  </si>
+  <si>
+    <t>Etapa de fase de operación</t>
+  </si>
+  <si>
+    <t>Evento de inauguração do prédio ou parte</t>
+  </si>
+  <si>
+    <t>Evento de inaugurar el edifício o parte</t>
+  </si>
+  <si>
+    <t>Evento de cambiar algum resurso o equipamento</t>
+  </si>
+  <si>
+    <t>Evento de cambiar algún recurso o equipo</t>
+  </si>
+  <si>
+    <t>Evento relativo a uma inspeção</t>
+  </si>
+  <si>
+    <t>Evento relativo a una inspección</t>
+  </si>
+  <si>
+    <t>Evento relativo a una pericia</t>
+  </si>
+  <si>
+    <t>Evento relativo a uma perícia</t>
+  </si>
+  <si>
+    <t>Reforma</t>
+  </si>
+  <si>
+    <t>Troca</t>
+  </si>
+  <si>
+    <t>Modernizar</t>
+  </si>
+  <si>
+    <t>Evento de retrofit do edifício</t>
+  </si>
+  <si>
+    <t>Evento de retrofit del edifício</t>
+  </si>
+  <si>
+    <t>Elevador.A</t>
+  </si>
+  <si>
+    <t>é.ano</t>
+  </si>
+  <si>
+    <t>Ano.2025</t>
+  </si>
+  <si>
+    <t>é.mês</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Fev</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Ago</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dez</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t>Terça</t>
+  </si>
+  <si>
+    <t>Quarta</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Jan.2025</t>
+  </si>
+  <si>
+    <t>Dez.2025</t>
+  </si>
+  <si>
+    <t>"Evento histórico inicial. Inauguração do projeto em 2025"</t>
+  </si>
+  <si>
+    <t>"Mudança das cabines de elevadores com ano definido em 2025"</t>
+  </si>
+  <si>
+    <t>"Evento de reforma com ano definido em 2025"</t>
+  </si>
+  <si>
+    <t>"Data Janeiro de 2025."</t>
+  </si>
+  <si>
+    <t>"Data Dezembro de 2025."</t>
+  </si>
+  <si>
+    <t>"Domingo instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Sábado instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Ano 2025 instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Janeiro instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Fevereiro instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Março instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Abril instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Maio instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Junho instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Julho instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Agosto instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Setembro instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Outubro instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Novembro instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Mês de Dezembro instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Segunda-feira instanciada para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Terça-feira instanciada para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Quarta-feira instanciada para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Quinta-feira instanciada para todos os eventos."</t>
+  </si>
+  <si>
+    <t>"Sexta-feira instanciada para todos os eventos."</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2725,11 +2893,57 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2775,6 +2989,16 @@
         <strike val="0"/>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3119,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>75</v>
@@ -3127,31 +3351,31 @@
     </row>
     <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="14" t="str">
         <f>_xlfn.CONCAT(B4,"Prop")</f>
@@ -3160,7 +3384,7 @@
     </row>
     <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="14" t="str">
         <f>_xlfn.CONCAT(B4,"Data")</f>
@@ -3169,31 +3393,31 @@
     </row>
     <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>38</v>
@@ -3201,7 +3425,7 @@
     </row>
     <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>38</v>
@@ -3209,7 +3433,7 @@
     </row>
     <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>38</v>
@@ -3217,7 +3441,7 @@
     </row>
     <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>38</v>
@@ -3225,7 +3449,7 @@
     </row>
     <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>38</v>
@@ -3233,7 +3457,7 @@
     </row>
     <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>38</v>
@@ -3241,7 +3465,7 @@
     </row>
     <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>38</v>
@@ -3249,24 +3473,24 @@
     </row>
     <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45745.717736805556</v>
+        <v>45746.711470949071</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>38</v>
@@ -3274,7 +3498,7 @@
     </row>
     <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>38</v>
@@ -3282,7 +3506,7 @@
     </row>
     <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>38</v>
@@ -3290,18 +3514,18 @@
     </row>
     <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3311,54 +3535,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26:F31"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.85546875" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
     <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.28515625" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.7109375" customWidth="1"/>
     <col min="23" max="23" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>39</v>
@@ -3388,25 +3611,25 @@
         <v>44</v>
       </c>
       <c r="P1" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="U1" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="27" t="s">
         <v>177</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>178</v>
       </c>
       <c r="W1" s="29" t="s">
         <v>0</v>
@@ -3417,13 +3640,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>64</v>
@@ -3448,11 +3671,11 @@
       </c>
       <c r="L2" s="36" t="str">
         <f>_xlfn.CONCAT(C2)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M2" s="36" t="str">
+        <f t="shared" ref="M2:O19" si="0">_xlfn.CONCAT("", D2)</f>
         <v>Evento</v>
-      </c>
-      <c r="M2" s="36" t="str">
-        <f t="shared" ref="M2:O18" si="0">_xlfn.CONCAT("", D2)</f>
-        <v>Temporal</v>
       </c>
       <c r="N2" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3469,25 +3692,25 @@
         <v>65</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S2" s="40" t="str">
-        <f t="shared" ref="S2:U18" si="1">SUBSTITUTE(C2, "_", " ")</f>
-        <v>Evento</v>
+        <f t="shared" ref="S2:U19" si="1">SUBSTITUTE(C2, "_", " ")</f>
+        <v>Temporal</v>
       </c>
       <c r="T2" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U2" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Microevento</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W2" s="42" t="str">
-        <f t="shared" ref="W2:W31" si="2">CONCATENATE("Key.Cro",".",A2)</f>
+        <f t="shared" ref="W2:W32" si="2">CONCATENATE("Key.Cro",".",A2)</f>
         <v>Key.Cro.2</v>
       </c>
     </row>
@@ -3496,13 +3719,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>64</v>
@@ -3526,12 +3749,12 @@
         <v>1</v>
       </c>
       <c r="L3" s="36" t="str">
-        <f t="shared" ref="L3:L25" si="3">_xlfn.CONCAT(C3)</f>
-        <v>Evento</v>
+        <f t="shared" ref="L3:L26" si="3">_xlfn.CONCAT(C3)</f>
+        <v>Temporal</v>
       </c>
       <c r="M3" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N3" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3548,22 +3771,22 @@
         <v>66</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S3" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T3" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U3" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Microevento</v>
       </c>
       <c r="V3" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W3" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3575,13 +3798,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>63</v>
@@ -3606,11 +3829,11 @@
       </c>
       <c r="L4" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M4" s="36" t="str">
         <f>_xlfn.CONCAT("", D4)</f>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N4" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3627,22 +3850,22 @@
         <v>49</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U4" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="V4" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W4" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3654,13 +3877,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>63</v>
@@ -3685,11 +3908,11 @@
       </c>
       <c r="L5" s="36" t="str">
         <f t="shared" si="3"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M5" s="36" t="str">
+        <f t="shared" ref="M5:O26" si="4">_xlfn.CONCAT("", D5)</f>
         <v>Evento</v>
-      </c>
-      <c r="M5" s="36" t="str">
-        <f t="shared" ref="M5:O25" si="4">_xlfn.CONCAT("", D5)</f>
-        <v>Temporal</v>
       </c>
       <c r="N5" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3706,22 +3929,22 @@
         <v>50</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S5" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T5" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U5" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="V5" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W5" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3733,19 +3956,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>1</v>
@@ -3764,11 +3987,11 @@
       </c>
       <c r="L6" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M6" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N6" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3779,28 +4002,28 @@
         <v>Século</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S6" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T6" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U6" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W6" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3812,19 +4035,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>1</v>
@@ -3843,11 +4066,11 @@
       </c>
       <c r="L7" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M7" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N7" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3858,28 +4081,28 @@
         <v>Década</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S7" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T7" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U7" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W7" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3891,13 +4114,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>61</v>
@@ -3922,11 +4145,11 @@
       </c>
       <c r="L8" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M8" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N8" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3943,22 +4166,22 @@
         <v>53</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S8" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T8" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U8" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W8" s="42" t="str">
         <f t="shared" si="2"/>
@@ -3970,13 +4193,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>61</v>
@@ -4001,11 +4224,11 @@
       </c>
       <c r="L9" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M9" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N9" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4019,25 +4242,25 @@
         <v>51</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S9" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T9" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U9" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="V9" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W9" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4049,13 +4272,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>61</v>
@@ -4080,11 +4303,11 @@
       </c>
       <c r="L10" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M10" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N10" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4101,22 +4324,22 @@
         <v>52</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S10" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T10" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U10" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="V10" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W10" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4128,13 +4351,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>61</v>
@@ -4159,11 +4382,11 @@
       </c>
       <c r="L11" s="36" t="str">
         <f t="shared" ref="L11" si="5">_xlfn.CONCAT(C11)</f>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M11" s="36" t="str">
         <f t="shared" ref="M11" si="6">_xlfn.CONCAT("", D11)</f>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N11" s="36" t="str">
         <f t="shared" ref="N11" si="7">_xlfn.CONCAT("", E11)</f>
@@ -4177,25 +4400,25 @@
         <v>54</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R11" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S11" s="40" t="str">
         <f t="shared" ref="S11" si="9">SUBSTITUTE(C11, "_", " ")</f>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T11" s="40" t="str">
         <f t="shared" ref="T11" si="10">SUBSTITUTE(D11, "_", " ")</f>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U11" s="38" t="str">
         <f t="shared" ref="U11" si="11">SUBSTITUTE(E11, "_", " ")</f>
         <v>Calendário</v>
       </c>
       <c r="V11" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W11" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4207,19 +4430,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C12" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
@@ -4238,11 +4461,11 @@
       </c>
       <c r="L12" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M12" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N12" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4253,28 +4476,28 @@
         <v>Jornada</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S12" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T12" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U12" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="V12" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W12" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4286,13 +4509,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>62</v>
@@ -4317,11 +4540,11 @@
       </c>
       <c r="L13" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M13" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N13" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4338,22 +4561,22 @@
         <v>55</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S13" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T13" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U13" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Horário</v>
       </c>
       <c r="V13" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W13" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4365,13 +4588,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>62</v>
@@ -4396,11 +4619,11 @@
       </c>
       <c r="L14" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M14" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N14" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4417,22 +4640,22 @@
         <v>56</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S14" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T14" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U14" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Horário</v>
       </c>
       <c r="V14" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W14" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4444,13 +4667,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>62</v>
@@ -4475,11 +4698,11 @@
       </c>
       <c r="L15" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M15" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N15" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4496,22 +4719,22 @@
         <v>57</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S15" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T15" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U15" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Horário</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W15" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4523,13 +4746,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C16" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>62</v>
@@ -4554,11 +4777,11 @@
       </c>
       <c r="L16" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M16" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N16" s="36" t="str">
         <f t="shared" si="0"/>
@@ -4575,22 +4798,22 @@
         <v>58</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S16" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T16" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U16" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Horário</v>
       </c>
       <c r="V16" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W16" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4602,19 +4825,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>273</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>301</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>1</v>
@@ -4633,43 +4856,43 @@
       </c>
       <c r="L17" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M17" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N17" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Duração</v>
+        <v>Cronometragem</v>
       </c>
       <c r="O17" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>Crono.I</v>
+        <v>Inicial</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S17" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="T17" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="U17" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>Duração</v>
+        <v>Cronometragem</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W17" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4681,19 +4904,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C18" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="E18" s="34" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>1</v>
@@ -4711,47 +4934,47 @@
         <v>1</v>
       </c>
       <c r="L18" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L18" si="12">_xlfn.CONCAT(C18)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M18" s="36" t="str">
+        <f t="shared" ref="M18" si="13">_xlfn.CONCAT("", D18)</f>
         <v>Evento</v>
       </c>
-      <c r="M18" s="36" t="str">
-        <f t="shared" si="4"/>
+      <c r="N18" s="36" t="str">
+        <f t="shared" ref="N18" si="14">_xlfn.CONCAT("", E18)</f>
+        <v>Cronometragem</v>
+      </c>
+      <c r="O18" s="36" t="str">
+        <f t="shared" ref="O18" si="15">_xlfn.CONCAT("", F18)</f>
+        <v>Intermediária</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S18" s="40" t="str">
+        <f t="shared" ref="S18" si="16">SUBSTITUTE(C18, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="N18" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Duração</v>
-      </c>
-      <c r="O18" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Crono.F</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="R18" s="39" t="s">
+      <c r="T18" s="40" t="str">
+        <f t="shared" ref="T18" si="17">SUBSTITUTE(D18, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U18" s="38" t="str">
+        <f t="shared" ref="U18" si="18">SUBSTITUTE(E18, "_", " ")</f>
+        <v>Cronometragem</v>
+      </c>
+      <c r="V18" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="S18" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Evento</v>
-      </c>
-      <c r="T18" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U18" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Duração</v>
-      </c>
-      <c r="V18" s="41" t="s">
-        <v>190</v>
-      </c>
       <c r="W18" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W18" si="19">CONCATENATE("Key.Cro",".",A18)</f>
         <v>Key.Cro.18</v>
       </c>
     </row>
@@ -4760,19 +4983,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C19" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="E19" s="34" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>1</v>
@@ -4790,44 +5013,44 @@
         <v>1</v>
       </c>
       <c r="L19" s="36" t="str">
-        <f t="shared" ref="L19" si="12">_xlfn.CONCAT(C19)</f>
+        <f t="shared" si="3"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M19" s="36" t="str">
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
-      <c r="M19" s="36" t="str">
-        <f t="shared" ref="M19" si="13">_xlfn.CONCAT("", D19)</f>
+      <c r="N19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Cronometragem</v>
+      </c>
+      <c r="O19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Final</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S19" s="40" t="str">
+        <f t="shared" si="1"/>
         <v>Temporal</v>
       </c>
-      <c r="N19" s="36" t="str">
-        <f t="shared" ref="N19" si="14">_xlfn.CONCAT("", E19)</f>
-        <v>Duração</v>
-      </c>
-      <c r="O19" s="36" t="str">
-        <f t="shared" ref="O19" si="15">_xlfn.CONCAT("", F19)</f>
-        <v>DeltaT</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="R19" s="39" t="s">
+      <c r="T19" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Evento</v>
+      </c>
+      <c r="U19" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Cronometragem</v>
+      </c>
+      <c r="V19" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S19" s="40" t="str">
-        <f t="shared" ref="S19" si="16">SUBSTITUTE(C19, "_", " ")</f>
-        <v>Evento</v>
-      </c>
-      <c r="T19" s="40" t="str">
-        <f t="shared" ref="T19" si="17">SUBSTITUTE(D19, "_", " ")</f>
-        <v>Temporal</v>
-      </c>
-      <c r="U19" s="38" t="str">
-        <f t="shared" ref="U19" si="18">SUBSTITUTE(E19, "_", " ")</f>
-        <v>Duração</v>
-      </c>
-      <c r="V19" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W19" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4839,74 +5062,74 @@
         <v>20</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C20" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>274</v>
+      <c r="E20" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="35" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L20" si="20">_xlfn.CONCAT(C20)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M20" s="36" t="str">
+        <f t="shared" ref="M20" si="21">_xlfn.CONCAT("", D20)</f>
         <v>Evento</v>
       </c>
-      <c r="M20" s="36" t="str">
-        <f t="shared" si="4"/>
+      <c r="N20" s="36" t="str">
+        <f t="shared" ref="N20" si="22">_xlfn.CONCAT("", E20)</f>
+        <v>Duração</v>
+      </c>
+      <c r="O20" s="36" t="str">
+        <f t="shared" ref="O20" si="23">_xlfn.CONCAT("", F20)</f>
+        <v>DeltaT</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S20" s="40" t="str">
+        <f t="shared" ref="S20" si="24">SUBSTITUTE(C20, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="N20" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>Etapa</v>
-      </c>
-      <c r="O20" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>Ideação</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="R20" s="39" t="s">
+      <c r="T20" s="40" t="str">
+        <f t="shared" ref="T20" si="25">SUBSTITUTE(D20, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U20" s="38" t="str">
+        <f t="shared" ref="U20" si="26">SUBSTITUTE(E20, "_", " ")</f>
+        <v>Duração</v>
+      </c>
+      <c r="V20" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S20" s="40" t="str">
-        <f t="shared" ref="S20:U25" si="19">SUBSTITUTE(C20, "_", " ")</f>
-        <v>Evento</v>
-      </c>
-      <c r="T20" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U20" s="38" t="str">
-        <f t="shared" si="19"/>
-        <v>Etapa</v>
-      </c>
-      <c r="V20" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W20" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4918,19 +5141,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C21" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="E21" s="33" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>1</v>
@@ -4949,11 +5172,11 @@
       </c>
       <c r="L21" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M21" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N21" s="36" t="str">
         <f t="shared" si="4"/>
@@ -4961,31 +5184,31 @@
       </c>
       <c r="O21" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Projetual</v>
+        <v>Ideação</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="R21" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S21" s="40" t="str">
+        <f t="shared" ref="S21:U26" si="27">SUBSTITUTE(C21, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="T21" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Evento</v>
+      </c>
+      <c r="U21" s="38" t="str">
+        <f t="shared" si="27"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V21" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S21" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Evento</v>
-      </c>
-      <c r="T21" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U21" s="38" t="str">
-        <f t="shared" si="19"/>
-        <v>Etapa</v>
-      </c>
-      <c r="V21" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W21" s="42" t="str">
         <f t="shared" si="2"/>
@@ -4997,19 +5220,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C22" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="E22" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>69</v>
+        <v>261</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>1</v>
@@ -5028,11 +5251,11 @@
       </c>
       <c r="L22" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M22" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N22" s="36" t="str">
         <f t="shared" si="4"/>
@@ -5040,31 +5263,31 @@
       </c>
       <c r="O22" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Simulação</v>
+        <v>Projetual</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="R22" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S22" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T22" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Evento</v>
+      </c>
+      <c r="U22" s="38" t="str">
+        <f t="shared" si="27"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V22" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S22" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Evento</v>
-      </c>
-      <c r="T22" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U22" s="38" t="str">
-        <f t="shared" si="19"/>
-        <v>Etapa</v>
-      </c>
-      <c r="V22" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W22" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5076,19 +5299,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C23" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="E23" s="33" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>1</v>
@@ -5107,11 +5330,11 @@
       </c>
       <c r="L23" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M23" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N23" s="36" t="str">
         <f t="shared" si="4"/>
@@ -5119,31 +5342,31 @@
       </c>
       <c r="O23" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Planejamento</v>
+        <v>Simulação</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="R23" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S23" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T23" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Evento</v>
+      </c>
+      <c r="U23" s="38" t="str">
+        <f t="shared" si="27"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V23" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S23" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Evento</v>
-      </c>
-      <c r="T23" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U23" s="38" t="str">
-        <f t="shared" si="19"/>
-        <v>Etapa</v>
-      </c>
-      <c r="V23" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W23" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5155,19 +5378,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C24" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>273</v>
-      </c>
       <c r="E24" s="33" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>1</v>
@@ -5186,11 +5409,11 @@
       </c>
       <c r="L24" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Evento</v>
+        <v>Temporal</v>
       </c>
       <c r="M24" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Temporal</v>
+        <v>Evento</v>
       </c>
       <c r="N24" s="36" t="str">
         <f t="shared" si="4"/>
@@ -5198,31 +5421,31 @@
       </c>
       <c r="O24" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Construção</v>
+        <v>Planejamento</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="R24" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S24" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Evento</v>
+      </c>
+      <c r="U24" s="38" t="str">
+        <f t="shared" si="27"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V24" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S24" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Evento</v>
-      </c>
-      <c r="T24" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U24" s="38" t="str">
-        <f t="shared" si="19"/>
-        <v>Etapa</v>
-      </c>
-      <c r="V24" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W24" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5233,75 +5456,75 @@
       <c r="A25" s="31">
         <v>25</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="22" t="str">
+      <c r="E25" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="36" t="str">
         <f t="shared" si="3"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M25" s="36" t="str">
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
-      <c r="M25" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>Temporal</v>
-      </c>
-      <c r="N25" s="22" t="str">
+      <c r="N25" s="36" t="str">
         <f t="shared" si="4"/>
         <v>Etapa</v>
       </c>
-      <c r="O25" s="22" t="str">
+      <c r="O25" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>Operação</v>
-      </c>
-      <c r="P25" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>202</v>
+        <v>Construção</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>293</v>
       </c>
       <c r="R25" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Evento</v>
+      </c>
+      <c r="U25" s="38" t="str">
+        <f t="shared" si="27"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V25" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S25" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Evento</v>
-      </c>
-      <c r="T25" s="40" t="str">
-        <f t="shared" si="19"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U25" s="38" t="str">
-        <f t="shared" si="19"/>
-        <v>Etapa</v>
-      </c>
-      <c r="V25" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W25" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5313,19 +5536,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C26" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="E26" s="21" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>1</v>
@@ -5343,44 +5566,44 @@
         <v>1</v>
       </c>
       <c r="L26" s="22" t="str">
-        <f t="shared" ref="L26" si="20">_xlfn.CONCAT(C26)</f>
+        <f t="shared" si="3"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M26" s="22" t="str">
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
-      <c r="M26" s="22" t="str">
-        <f t="shared" ref="M26" si="21">_xlfn.CONCAT("", D26)</f>
-        <v>Temporal</v>
-      </c>
       <c r="N26" s="22" t="str">
-        <f t="shared" ref="N26" si="22">_xlfn.CONCAT("", E26)</f>
-        <v>Histórico</v>
+        <f t="shared" si="4"/>
+        <v>Etapa</v>
       </c>
       <c r="O26" s="22" t="str">
-        <f t="shared" ref="O26" si="23">_xlfn.CONCAT("", F26)</f>
-        <v>Inaugurar</v>
+        <f t="shared" si="4"/>
+        <v>Operação</v>
       </c>
       <c r="P26" s="22" t="s">
         <v>288</v>
       </c>
       <c r="Q26" s="22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R26" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v>Evento</v>
+      </c>
+      <c r="U26" s="38" t="str">
+        <f t="shared" si="27"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V26" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S26" s="40" t="str">
-        <f t="shared" ref="S26" si="24">SUBSTITUTE(C26, "_", " ")</f>
-        <v>Evento</v>
-      </c>
-      <c r="T26" s="40" t="str">
-        <f t="shared" ref="T26" si="25">SUBSTITUTE(D26, "_", " ")</f>
-        <v>Temporal</v>
-      </c>
-      <c r="U26" s="38" t="str">
-        <f t="shared" ref="U26" si="26">SUBSTITUTE(E26, "_", " ")</f>
-        <v>Histórico</v>
-      </c>
-      <c r="V26" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W26" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5392,20 +5615,20 @@
         <v>27</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="G27" s="23" t="s">
         <v>1</v>
       </c>
@@ -5422,44 +5645,44 @@
         <v>1</v>
       </c>
       <c r="L27" s="22" t="str">
-        <f t="shared" ref="L27:L28" si="27">_xlfn.CONCAT(C27)</f>
+        <f t="shared" ref="L27" si="28">_xlfn.CONCAT(C27)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M27" s="22" t="str">
+        <f t="shared" ref="M27" si="29">_xlfn.CONCAT("", D27)</f>
         <v>Evento</v>
       </c>
-      <c r="M27" s="22" t="str">
-        <f t="shared" ref="M27:M28" si="28">_xlfn.CONCAT("", D27)</f>
+      <c r="N27" s="22" t="str">
+        <f t="shared" ref="N27" si="30">_xlfn.CONCAT("", E27)</f>
+        <v>Histórico</v>
+      </c>
+      <c r="O27" s="22" t="str">
+        <f t="shared" ref="O27" si="31">_xlfn.CONCAT("", F27)</f>
+        <v>Inaugural</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" ref="S27" si="32">SUBSTITUTE(C27, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="N27" s="22" t="str">
-        <f t="shared" ref="N27:N28" si="29">_xlfn.CONCAT("", E27)</f>
+      <c r="T27" s="40" t="str">
+        <f t="shared" ref="T27" si="33">SUBSTITUTE(D27, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U27" s="38" t="str">
+        <f t="shared" ref="U27" si="34">SUBSTITUTE(E27, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="O27" s="22" t="str">
-        <f t="shared" ref="O27:O28" si="30">_xlfn.CONCAT("", F27)</f>
-        <v>Instalar</v>
-      </c>
-      <c r="P27" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="R27" s="39" t="s">
+      <c r="V27" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S27" s="40" t="str">
-        <f t="shared" ref="S27:S28" si="31">SUBSTITUTE(C27, "_", " ")</f>
-        <v>Evento</v>
-      </c>
-      <c r="T27" s="40" t="str">
-        <f t="shared" ref="T27:T28" si="32">SUBSTITUTE(D27, "_", " ")</f>
-        <v>Temporal</v>
-      </c>
-      <c r="U27" s="38" t="str">
-        <f t="shared" ref="U27:U28" si="33">SUBSTITUTE(E27, "_", " ")</f>
-        <v>Histórico</v>
-      </c>
-      <c r="V27" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W27" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5471,19 +5694,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C28" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="E28" s="21" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>1</v>
@@ -5501,44 +5724,44 @@
         <v>1</v>
       </c>
       <c r="L28" s="22" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="L28:L29" si="35">_xlfn.CONCAT(C28)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M28" s="22" t="str">
+        <f t="shared" ref="M28:M29" si="36">_xlfn.CONCAT("", D28)</f>
         <v>Evento</v>
       </c>
-      <c r="M28" s="22" t="str">
-        <f t="shared" si="28"/>
+      <c r="N28" s="22" t="str">
+        <f t="shared" ref="N28:N29" si="37">_xlfn.CONCAT("", E28)</f>
+        <v>Histórico</v>
+      </c>
+      <c r="O28" s="22" t="str">
+        <f t="shared" ref="O28:O29" si="38">_xlfn.CONCAT("", F28)</f>
+        <v>Modernizar</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" ref="S28:S29" si="39">SUBSTITUTE(C28, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="N28" s="22" t="str">
-        <f t="shared" si="29"/>
+      <c r="T28" s="40" t="str">
+        <f t="shared" ref="T28:T29" si="40">SUBSTITUTE(D28, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U28" s="38" t="str">
+        <f t="shared" ref="U28:U29" si="41">SUBSTITUTE(E28, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="O28" s="22" t="str">
-        <f t="shared" si="30"/>
-        <v>Trocar</v>
-      </c>
-      <c r="P28" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q28" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="R28" s="39" t="s">
+      <c r="V28" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S28" s="40" t="str">
-        <f t="shared" si="31"/>
-        <v>Evento</v>
-      </c>
-      <c r="T28" s="40" t="str">
-        <f t="shared" si="32"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U28" s="38" t="str">
-        <f t="shared" si="33"/>
-        <v>Histórico</v>
-      </c>
-      <c r="V28" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W28" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5550,19 +5773,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="E29" s="21" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>1</v>
@@ -5580,44 +5803,44 @@
         <v>1</v>
       </c>
       <c r="L29" s="22" t="str">
-        <f t="shared" ref="L29:L30" si="34">_xlfn.CONCAT(C29)</f>
+        <f t="shared" si="35"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M29" s="22" t="str">
+        <f t="shared" si="36"/>
         <v>Evento</v>
       </c>
-      <c r="M29" s="22" t="str">
-        <f t="shared" ref="M29:M30" si="35">_xlfn.CONCAT("", D29)</f>
+      <c r="N29" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>Histórico</v>
+      </c>
+      <c r="O29" s="22" t="str">
+        <f t="shared" si="38"/>
+        <v>Troca</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S29" s="40" t="str">
+        <f t="shared" si="39"/>
         <v>Temporal</v>
       </c>
-      <c r="N29" s="22" t="str">
-        <f t="shared" ref="N29:N30" si="36">_xlfn.CONCAT("", E29)</f>
+      <c r="T29" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v>Evento</v>
+      </c>
+      <c r="U29" s="38" t="str">
+        <f t="shared" si="41"/>
         <v>Histórico</v>
       </c>
-      <c r="O29" s="22" t="str">
-        <f t="shared" ref="O29:O30" si="37">_xlfn.CONCAT("", F29)</f>
-        <v>Operacional</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q29" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="R29" s="39" t="s">
+      <c r="V29" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S29" s="40" t="str">
-        <f t="shared" ref="S29:S30" si="38">SUBSTITUTE(C29, "_", " ")</f>
-        <v>Evento</v>
-      </c>
-      <c r="T29" s="40" t="str">
-        <f t="shared" ref="T29:T30" si="39">SUBSTITUTE(D29, "_", " ")</f>
-        <v>Temporal</v>
-      </c>
-      <c r="U29" s="38" t="str">
-        <f t="shared" ref="U29:U30" si="40">SUBSTITUTE(E29, "_", " ")</f>
-        <v>Histórico</v>
-      </c>
-      <c r="V29" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W29" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5629,74 +5852,74 @@
         <v>30</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C30" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="E30" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="G30" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="23" t="s">
         <v>1</v>
       </c>
       <c r="L30" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="L30:L31" si="42">_xlfn.CONCAT(C30)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M30" s="22" t="str">
+        <f t="shared" ref="M30:M31" si="43">_xlfn.CONCAT("", D30)</f>
         <v>Evento</v>
       </c>
-      <c r="M30" s="22" t="str">
-        <f t="shared" si="35"/>
+      <c r="N30" s="22" t="str">
+        <f t="shared" ref="N30:N31" si="44">_xlfn.CONCAT("", E30)</f>
+        <v>Histórico</v>
+      </c>
+      <c r="O30" s="22" t="str">
+        <f t="shared" ref="O30:O31" si="45">_xlfn.CONCAT("", F30)</f>
+        <v>Operacional</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S30" s="40" t="str">
+        <f t="shared" ref="S30:S31" si="46">SUBSTITUTE(C30, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="N30" s="22" t="str">
-        <f t="shared" si="36"/>
+      <c r="T30" s="40" t="str">
+        <f t="shared" ref="T30:T31" si="47">SUBSTITUTE(D30, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U30" s="38" t="str">
+        <f t="shared" ref="U30:U31" si="48">SUBSTITUTE(E30, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="O30" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>Reformar</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q30" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="R30" s="39" t="s">
+      <c r="V30" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S30" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v>Evento</v>
-      </c>
-      <c r="T30" s="40" t="str">
-        <f t="shared" si="39"/>
-        <v>Temporal</v>
-      </c>
-      <c r="U30" s="38" t="str">
-        <f t="shared" si="40"/>
-        <v>Histórico</v>
-      </c>
-      <c r="V30" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W30" s="42" t="str">
         <f t="shared" si="2"/>
@@ -5708,19 +5931,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C31" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="E31" s="21" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G31" s="68" t="s">
         <v>1</v>
@@ -5738,53 +5961,135 @@
         <v>1</v>
       </c>
       <c r="L31" s="22" t="str">
-        <f t="shared" ref="L31" si="41">_xlfn.CONCAT(C31)</f>
+        <f t="shared" si="42"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M31" s="22" t="str">
+        <f t="shared" si="43"/>
         <v>Evento</v>
       </c>
-      <c r="M31" s="22" t="str">
-        <f t="shared" ref="M31" si="42">_xlfn.CONCAT("", D31)</f>
+      <c r="N31" s="22" t="str">
+        <f t="shared" si="44"/>
+        <v>Histórico</v>
+      </c>
+      <c r="O31" s="22" t="str">
+        <f t="shared" si="45"/>
+        <v>Reforma</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S31" s="40" t="str">
+        <f t="shared" si="46"/>
         <v>Temporal</v>
       </c>
-      <c r="N31" s="22" t="str">
-        <f t="shared" ref="N31" si="43">_xlfn.CONCAT("", E31)</f>
+      <c r="T31" s="40" t="str">
+        <f t="shared" si="47"/>
+        <v>Evento</v>
+      </c>
+      <c r="U31" s="38" t="str">
+        <f t="shared" si="48"/>
         <v>Histórico</v>
       </c>
-      <c r="O31" s="22" t="str">
-        <f t="shared" ref="O31" si="44">_xlfn.CONCAT("", F31)</f>
-        <v>Pericial</v>
-      </c>
-      <c r="P31" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q31" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="R31" s="39" t="s">
+      <c r="V31" s="41" t="s">
         <v>189</v>
-      </c>
-      <c r="S31" s="40" t="str">
-        <f t="shared" ref="S31" si="45">SUBSTITUTE(C31, "_", " ")</f>
-        <v>Evento</v>
-      </c>
-      <c r="T31" s="40" t="str">
-        <f t="shared" ref="T31" si="46">SUBSTITUTE(D31, "_", " ")</f>
-        <v>Temporal</v>
-      </c>
-      <c r="U31" s="38" t="str">
-        <f t="shared" ref="U31" si="47">SUBSTITUTE(E31, "_", " ")</f>
-        <v>Histórico</v>
-      </c>
-      <c r="V31" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="W31" s="42" t="str">
         <f t="shared" si="2"/>
         <v>Key.Cro.31</v>
       </c>
     </row>
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="70">
+        <v>32</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="22" t="str">
+        <f t="shared" ref="L32" si="49">_xlfn.CONCAT(C32)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M32" s="22" t="str">
+        <f t="shared" ref="M32" si="50">_xlfn.CONCAT("", D32)</f>
+        <v>Evento</v>
+      </c>
+      <c r="N32" s="22" t="str">
+        <f t="shared" ref="N32" si="51">_xlfn.CONCAT("", E32)</f>
+        <v>Histórico</v>
+      </c>
+      <c r="O32" s="22" t="str">
+        <f t="shared" ref="O32" si="52">_xlfn.CONCAT("", F32)</f>
+        <v>Pericial</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S32" s="40" t="str">
+        <f t="shared" ref="S32" si="53">SUBSTITUTE(C32, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="T32" s="40" t="str">
+        <f t="shared" ref="T32" si="54">SUBSTITUTE(D32, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U32" s="38" t="str">
+        <f t="shared" ref="U32" si="55">SUBSTITUTE(E32, "_", " ")</f>
+        <v>Histórico</v>
+      </c>
+      <c r="V32" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W32" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Cro.32</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F32:F1048576 F1:F29">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F1048576 F1:F30">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
@@ -6009,7 +6314,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6040,10 +6345,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6054,12 +6359,12 @@
         <v>54</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6069,19 +6374,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5087910E-DA31-4318-A539-726BE963325D}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -6104,7 +6409,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>74</v>
@@ -6116,72 +6421,72 @@
         <v>48</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="N1" s="57" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="P1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="T1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="U1" s="62" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="V1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="62" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>61</v>
+      <c r="B2" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>1</v>
@@ -6217,13 +6522,13 @@
         <v>78</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="P2" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>243</v>
+        <v>1</v>
       </c>
       <c r="R2" s="46" t="s">
         <v>1</v>
@@ -6248,11 +6553,11 @@
       <c r="A3" s="47">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>61</v>
+      <c r="B3" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>1</v>
@@ -6288,13 +6593,13 @@
         <v>78</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>85</v>
+        <v>341</v>
       </c>
       <c r="P3" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="R3" s="46" t="s">
         <v>1</v>
@@ -6319,11 +6624,11 @@
       <c r="A4" s="47">
         <v>4</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>61</v>
+      <c r="B4" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>1</v>
@@ -6359,13 +6664,13 @@
         <v>78</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="R4" s="46" t="s">
         <v>1</v>
@@ -6390,11 +6695,11 @@
       <c r="A5" s="47">
         <v>5</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>61</v>
+      <c r="B5" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>1</v>
@@ -6430,13 +6735,13 @@
         <v>78</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>85</v>
+        <v>343</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="51" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="R5" s="46" t="s">
         <v>1</v>
@@ -6461,11 +6766,11 @@
       <c r="A6" s="47">
         <v>6</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>72</v>
+      <c r="B6" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>1</v>
@@ -6501,13 +6806,13 @@
         <v>78</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="P6" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="51" t="s">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="R6" s="46" t="s">
         <v>1</v>
@@ -6532,11 +6837,11 @@
       <c r="A7" s="47">
         <v>7</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>72</v>
+      <c r="B7" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>1</v>
@@ -6572,13 +6877,13 @@
         <v>78</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="P7" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="51" t="s">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="R7" s="46" t="s">
         <v>1</v>
@@ -6603,11 +6908,11 @@
       <c r="A8" s="47">
         <v>8</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>300</v>
+      <c r="B8" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>1</v>
@@ -6643,13 +6948,13 @@
         <v>78</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="51" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="R8" s="46" t="s">
         <v>1</v>
@@ -6674,11 +6979,11 @@
       <c r="A9" s="47">
         <v>9</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>300</v>
+      <c r="B9" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>1</v>
@@ -6714,13 +7019,13 @@
         <v>78</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>96</v>
+        <v>347</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="51" t="s">
-        <v>259</v>
+        <v>1</v>
       </c>
       <c r="R9" s="46" t="s">
         <v>1</v>
@@ -6745,11 +7050,11 @@
       <c r="A10" s="47">
         <v>10</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>301</v>
+      <c r="B10" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>1</v>
@@ -6785,13 +7090,13 @@
         <v>78</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>93</v>
+        <v>348</v>
       </c>
       <c r="P10" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="R10" s="46" t="s">
         <v>1</v>
@@ -6816,11 +7121,11 @@
       <c r="A11" s="47">
         <v>11</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>301</v>
+      <c r="B11" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>1</v>
@@ -6856,13 +7161,13 @@
         <v>78</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="P11" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="51" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="R11" s="46" t="s">
         <v>1</v>
@@ -6887,11 +7192,11 @@
       <c r="A12" s="47">
         <v>12</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>67</v>
+      <c r="B12" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>1</v>
@@ -6927,13 +7232,13 @@
         <v>78</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="51" t="s">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="R12" s="46" t="s">
         <v>1</v>
@@ -6958,11 +7263,11 @@
       <c r="A13" s="47">
         <v>13</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>67</v>
+      <c r="B13" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>1</v>
@@ -6998,13 +7303,13 @@
         <v>78</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="P13" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="51" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="R13" s="46" t="s">
         <v>1</v>
@@ -7029,11 +7334,11 @@
       <c r="A14" s="47">
         <v>14</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>274</v>
+      <c r="B14" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>1</v>
@@ -7069,13 +7374,13 @@
         <v>78</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="P14" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="51" t="s">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="R14" s="46" t="s">
         <v>1</v>
@@ -7100,11 +7405,11 @@
       <c r="A15" s="47">
         <v>15</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>274</v>
+      <c r="B15" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>1</v>
@@ -7140,13 +7445,13 @@
         <v>78</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="R15" s="46" t="s">
         <v>1</v>
@@ -7171,17 +7476,17 @@
       <c r="A16" s="47">
         <v>16</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>274</v>
+      <c r="B16" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>1</v>
@@ -7211,13 +7516,13 @@
         <v>78</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>101</v>
+        <v>354</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="51" t="s">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="R16" s="46" t="s">
         <v>1</v>
@@ -7242,17 +7547,17 @@
       <c r="A17" s="47">
         <v>17</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>274</v>
+      <c r="B17" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>1</v>
@@ -7282,13 +7587,13 @@
         <v>78</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="R17" s="46" t="s">
         <v>1</v>
@@ -7313,17 +7618,17 @@
       <c r="A18" s="47">
         <v>18</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>274</v>
+      <c r="B18" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>1</v>
@@ -7353,13 +7658,13 @@
         <v>78</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>105</v>
+        <v>356</v>
       </c>
       <c r="P18" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="51" t="s">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="R18" s="46" t="s">
         <v>1</v>
@@ -7384,17 +7689,17 @@
       <c r="A19" s="47">
         <v>19</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>274</v>
+      <c r="B19" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>1</v>
@@ -7424,13 +7729,13 @@
         <v>78</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>107</v>
+        <v>357</v>
       </c>
       <c r="P19" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="51" t="s">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="R19" s="46" t="s">
         <v>1</v>
@@ -7455,17 +7760,17 @@
       <c r="A20" s="47">
         <v>20</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>274</v>
+      <c r="B20" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>1</v>
@@ -7495,13 +7800,13 @@
         <v>78</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="P20" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="51" t="s">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="R20" s="46" t="s">
         <v>1</v>
@@ -7526,17 +7831,17 @@
       <c r="A21" s="47">
         <v>21</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>274</v>
+      <c r="B21" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>1</v>
@@ -7566,13 +7871,13 @@
         <v>78</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>111</v>
+        <v>338</v>
       </c>
       <c r="P21" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="51" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="R21" s="46" t="s">
         <v>1</v>
@@ -7597,23 +7902,23 @@
       <c r="A22" s="47">
         <v>22</v>
       </c>
-      <c r="B22" s="54" t="s">
-        <v>129</v>
+      <c r="B22" s="52" t="s">
+        <v>331</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>310</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="H22" s="45" t="s">
         <v>1</v>
@@ -7637,13 +7942,13 @@
         <v>78</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="P22" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="51" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="R22" s="46" t="s">
         <v>1</v>
@@ -7668,23 +7973,23 @@
       <c r="A23" s="47">
         <v>23</v>
       </c>
-      <c r="B23" s="54" t="s">
-        <v>131</v>
+      <c r="B23" s="52" t="s">
+        <v>332</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>310</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="H23" s="45" t="s">
         <v>1</v>
@@ -7708,13 +8013,13 @@
         <v>78</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="P23" s="46" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="51" t="s">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="R23" s="46" t="s">
         <v>1</v>
@@ -7739,11 +8044,11 @@
       <c r="A24" s="47">
         <v>24</v>
       </c>
-      <c r="B24" s="54" t="s">
-        <v>133</v>
+      <c r="B24" s="49" t="s">
+        <v>227</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>1</v>
@@ -7779,13 +8084,13 @@
         <v>78</v>
       </c>
       <c r="O24" s="51" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="P24" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="R24" s="46" t="s">
         <v>1</v>
@@ -7810,11 +8115,11 @@
       <c r="A25" s="47">
         <v>25</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>135</v>
+      <c r="B25" s="49" t="s">
+        <v>226</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>1</v>
@@ -7850,13 +8155,13 @@
         <v>78</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="P25" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="51" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="R25" s="46" t="s">
         <v>1</v>
@@ -7882,10 +8187,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>1</v>
@@ -7921,13 +8226,13 @@
         <v>78</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="P26" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="51" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="R26" s="46" t="s">
         <v>1</v>
@@ -7953,10 +8258,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D27" s="45" t="s">
         <v>1</v>
@@ -7992,13 +8297,13 @@
         <v>78</v>
       </c>
       <c r="O27" s="51" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="P27" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q27" s="51" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="R27" s="46" t="s">
         <v>1</v>
@@ -8024,10 +8329,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>59</v>
+        <v>234</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>1</v>
@@ -8063,13 +8368,13 @@
         <v>78</v>
       </c>
       <c r="O28" s="51" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="P28" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="51" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="R28" s="46" t="s">
         <v>1</v>
@@ -8095,10 +8400,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>59</v>
+        <v>235</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="D29" s="45" t="s">
         <v>1</v>
@@ -8134,13 +8439,13 @@
         <v>78</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="P29" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="51" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="R29" s="46" t="s">
         <v>1</v>
@@ -8165,11 +8470,11 @@
       <c r="A30" s="47">
         <v>30</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>62</v>
+      <c r="B30" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>273</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>1</v>
@@ -8205,13 +8510,13 @@
         <v>78</v>
       </c>
       <c r="O30" s="51" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P30" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="51" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="R30" s="46" t="s">
         <v>1</v>
@@ -8236,11 +8541,11 @@
       <c r="A31" s="47">
         <v>31</v>
       </c>
-      <c r="B31" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>62</v>
+      <c r="B31" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>273</v>
       </c>
       <c r="D31" s="45" t="s">
         <v>1</v>
@@ -8276,13 +8581,13 @@
         <v>78</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P31" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q31" s="51" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="R31" s="46" t="s">
         <v>1</v>
@@ -8308,10 +8613,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D32" s="45" t="s">
         <v>1</v>
@@ -8347,13 +8652,13 @@
         <v>78</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="P32" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="51" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="R32" s="46" t="s">
         <v>1</v>
@@ -8379,10 +8684,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D33" s="45" t="s">
         <v>1</v>
@@ -8418,13 +8723,13 @@
         <v>78</v>
       </c>
       <c r="O33" s="51" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P33" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q33" s="51" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="R33" s="46" t="s">
         <v>1</v>
@@ -8450,10 +8755,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>1</v>
@@ -8489,13 +8794,13 @@
         <v>78</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="P34" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="R34" s="46" t="s">
         <v>1</v>
@@ -8521,10 +8826,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="D35" s="45" t="s">
         <v>1</v>
@@ -8560,13 +8865,13 @@
         <v>78</v>
       </c>
       <c r="O35" s="51" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="P35" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="51" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="R35" s="46" t="s">
         <v>1</v>
@@ -8591,17 +8896,17 @@
       <c r="A36" s="47">
         <v>36</v>
       </c>
-      <c r="B36" s="54" t="s">
-        <v>116</v>
+      <c r="B36" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F36" s="45" t="s">
         <v>1</v>
@@ -8631,13 +8936,13 @@
         <v>78</v>
       </c>
       <c r="O36" s="51" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="P36" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="R36" s="46" t="s">
         <v>1</v>
@@ -8662,17 +8967,17 @@
       <c r="A37" s="47">
         <v>37</v>
       </c>
-      <c r="B37" s="54" t="s">
-        <v>117</v>
+      <c r="B37" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F37" s="45" t="s">
         <v>1</v>
@@ -8702,13 +9007,13 @@
         <v>78</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="P37" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="51" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="R37" s="46" t="s">
         <v>1</v>
@@ -8733,17 +9038,17 @@
       <c r="A38" s="47">
         <v>38</v>
       </c>
-      <c r="B38" s="54" t="s">
-        <v>126</v>
+      <c r="B38" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F38" s="45" t="s">
         <v>1</v>
@@ -8773,13 +9078,13 @@
         <v>78</v>
       </c>
       <c r="O38" s="51" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="P38" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="R38" s="46" t="s">
         <v>1</v>
@@ -8805,16 +9110,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F39" s="45" t="s">
         <v>1</v>
@@ -8844,13 +9149,13 @@
         <v>78</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P39" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="R39" s="46" t="s">
         <v>1</v>
@@ -8876,16 +9181,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>1</v>
@@ -8915,13 +9220,13 @@
         <v>78</v>
       </c>
       <c r="O40" s="51" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P40" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q40" s="51" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="R40" s="46" t="s">
         <v>1</v>
@@ -8947,16 +9252,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F41" s="45" t="s">
         <v>1</v>
@@ -8986,13 +9291,13 @@
         <v>78</v>
       </c>
       <c r="O41" s="51" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="P41" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q41" s="51" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="R41" s="46" t="s">
         <v>1</v>
@@ -9018,10 +9323,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D42" s="45" t="s">
         <v>1</v>
@@ -9057,13 +9362,13 @@
         <v>78</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P42" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="R42" s="46" t="s">
         <v>1</v>
@@ -9089,16 +9394,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="F43" s="45" t="s">
         <v>1</v>
@@ -9128,13 +9433,13 @@
         <v>78</v>
       </c>
       <c r="O43" s="51" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="P43" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q43" s="51" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="R43" s="46" t="s">
         <v>1</v>
@@ -9159,17 +9464,17 @@
       <c r="A44" s="47">
         <v>44</v>
       </c>
-      <c r="B44" s="55" t="s">
-        <v>262</v>
+      <c r="B44" s="54" t="s">
+        <v>132</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="F44" s="45" t="s">
         <v>1</v>
@@ -9199,13 +9504,13 @@
         <v>78</v>
       </c>
       <c r="O44" s="51" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="P44" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q44" s="51" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="R44" s="46" t="s">
         <v>1</v>
@@ -9230,17 +9535,17 @@
       <c r="A45" s="47">
         <v>45</v>
       </c>
-      <c r="B45" s="55" t="s">
-        <v>120</v>
+      <c r="B45" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="F45" s="45" t="s">
         <v>1</v>
@@ -9270,13 +9575,13 @@
         <v>78</v>
       </c>
       <c r="O45" s="51" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="P45" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q45" s="51" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R45" s="46" t="s">
         <v>1</v>
@@ -9302,16 +9607,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="F46" s="45" t="s">
         <v>1</v>
@@ -9341,13 +9646,13 @@
         <v>78</v>
       </c>
       <c r="O46" s="51" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="P46" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q46" s="51" t="s">
         <v>207</v>
-      </c>
-      <c r="Q46" s="51" t="s">
-        <v>267</v>
       </c>
       <c r="R46" s="46" t="s">
         <v>1</v>
@@ -9373,16 +9678,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="F47" s="45" t="s">
         <v>1</v>
@@ -9412,13 +9717,13 @@
         <v>78</v>
       </c>
       <c r="O47" s="51" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="P47" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="R47" s="46" t="s">
         <v>1</v>
@@ -9444,16 +9749,16 @@
         <v>48</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="F48" s="45" t="s">
         <v>1</v>
@@ -9483,13 +9788,13 @@
         <v>78</v>
       </c>
       <c r="O48" s="51" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="P48" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="R48" s="46" t="s">
         <v>1</v>
@@ -9515,16 +9820,16 @@
         <v>49</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="F49" s="45" t="s">
         <v>1</v>
@@ -9554,13 +9859,13 @@
         <v>78</v>
       </c>
       <c r="O49" s="51" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="P49" s="46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="R49" s="46" t="s">
         <v>1</v>
@@ -9585,11 +9890,11 @@
       <c r="A50" s="47">
         <v>50</v>
       </c>
-      <c r="B50" s="54" t="s">
-        <v>284</v>
+      <c r="B50" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>278</v>
+        <v>62</v>
       </c>
       <c r="D50" s="45" t="s">
         <v>1</v>
@@ -9625,13 +9930,13 @@
         <v>78</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="P50" s="46" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="R50" s="46" t="s">
         <v>1</v>
@@ -9656,11 +9961,11 @@
       <c r="A51" s="47">
         <v>51</v>
       </c>
-      <c r="B51" s="66" t="s">
-        <v>286</v>
+      <c r="B51" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>278</v>
+        <v>62</v>
       </c>
       <c r="D51" s="45" t="s">
         <v>1</v>
@@ -9696,13 +10001,13 @@
         <v>78</v>
       </c>
       <c r="O51" s="51" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="P51" s="46" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="R51" s="46" t="s">
         <v>1</v>
@@ -9723,14 +10028,1518 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47">
+        <v>52</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N52" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O52" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P52" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q52" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="R52" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S52" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U52" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V52" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W52" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47">
+        <v>53</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N53" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O53" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="P53" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q53" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="R53" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S53" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T53" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U53" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V53" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W53" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="47">
+        <v>54</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N54" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O54" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="P54" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q54" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="R54" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S54" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U54" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V54" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W54" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="47">
+        <v>55</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N55" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O55" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P55" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q55" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="R55" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S55" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U55" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V55" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W55" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47">
+        <v>56</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N56" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O56" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P56" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q56" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="R56" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S56" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T56" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U56" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V56" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W56" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47">
+        <v>57</v>
+      </c>
+      <c r="B57" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O57" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P57" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q57" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="R57" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S57" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T57" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U57" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V57" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W57" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47">
+        <v>58</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M58" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N58" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P58" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q58" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="R58" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S58" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T58" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U58" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V58" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W58" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47">
+        <v>59</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L59" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N59" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O59" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P59" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q59" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="R59" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S59" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U59" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V59" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W59" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47">
+        <v>60</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M60" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N60" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O60" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q60" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="R60" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S60" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U60" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V60" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W60" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47">
+        <v>61</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K61" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N61" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O61" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q61" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="R61" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S61" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T61" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U61" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V61" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W61" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47">
+        <v>62</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K62" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M62" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N62" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O62" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P62" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q62" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="R62" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S62" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T62" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U62" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V62" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W62" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47">
+        <v>63</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M63" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N63" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O63" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P63" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q63" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="R63" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S63" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T63" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U63" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V63" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W63" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47">
+        <v>64</v>
+      </c>
+      <c r="B64" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K64" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M64" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O64" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P64" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q64" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="R64" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S64" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T64" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U64" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V64" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W64" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47">
+        <v>65</v>
+      </c>
+      <c r="B65" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O65" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P65" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q65" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="R65" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S65" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T65" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U65" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V65" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W65" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47">
+        <v>66</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M66" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N66" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O66" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P66" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q66" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="R66" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S66" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T66" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U66" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V66" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W66" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47">
+        <v>67</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M67" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N67" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O67" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P67" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q67" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="R67" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S67" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T67" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U67" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V67" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W67" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47">
+        <v>68</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N68" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O68" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="P68" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q68" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="R68" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S68" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T68" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U68" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V68" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W68" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47">
+        <v>69</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M69" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N69" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O69" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="P69" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q69" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="R69" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S69" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T69" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U69" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V69" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W69" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47">
+        <v>70</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N70" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O70" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="P70" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R70" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S70" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T70" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U70" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V70" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W70" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47">
+        <v>71</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="C71" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M71" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N71" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O71" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="P71" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R71" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S71" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T71" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U71" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V71" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W71" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47">
+        <v>72</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N72" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O72" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="P72" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S72" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T72" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U72" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V72" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W72" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B3 B6:B49">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1 B26:B69 B22:B23">
+    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="B70">
+    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF0E39-32A9-42B9-8EDA-5446CCAC8648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA0FD6-3AE4-4444-992E-5279046989A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="361">
   <si>
     <t>Key</t>
   </si>
@@ -2336,6 +2336,15 @@
   </si>
   <si>
     <t>"Sexta-feira instanciada para todos os eventos."</t>
+  </si>
+  <si>
+    <t>é.dentro.de</t>
+  </si>
+  <si>
+    <t>é.previo.a</t>
+  </si>
+  <si>
+    <t>"Qualquer ano instanciado para todos os eventos."</t>
   </si>
 </sst>
 </file>
@@ -2903,7 +2912,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3334,14 +3353,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.28515625" style="12"/>
+    <col min="1" max="1" width="9.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3349,7 +3368,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -3357,7 +3376,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
@@ -3365,7 +3384,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
@@ -3373,7 +3392,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3382,7 +3401,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3391,7 +3410,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
@@ -3399,7 +3418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>149</v>
       </c>
@@ -3407,7 +3426,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>158</v>
       </c>
@@ -3415,7 +3434,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>160</v>
       </c>
@@ -3423,7 +3442,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -3431,7 +3450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
@@ -3439,7 +3458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>161</v>
       </c>
@@ -3447,7 +3466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>162</v>
       </c>
@@ -3455,7 +3474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>163</v>
       </c>
@@ -3463,7 +3482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>164</v>
       </c>
@@ -3471,7 +3490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
@@ -3479,16 +3498,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45746.711470949071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45748.707912500002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>166</v>
       </c>
@@ -3496,7 +3515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -3504,7 +3523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>168</v>
       </c>
@@ -3512,7 +3531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>169</v>
       </c>
@@ -3520,7 +3539,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>170</v>
       </c>
@@ -3542,29 +3561,29 @@
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="3" max="4" width="5.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="6.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6640625" customWidth="1"/>
+    <col min="23" max="23" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
@@ -3635,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>2</v>
       </c>
@@ -3714,7 +3733,7 @@
         <v>Key.Cro.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>3</v>
       </c>
@@ -3793,7 +3812,7 @@
         <v>Key.Cro.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>4</v>
       </c>
@@ -3872,7 +3891,7 @@
         <v>Key.Cro.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>5</v>
       </c>
@@ -3951,7 +3970,7 @@
         <v>Key.Cro.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>6</v>
       </c>
@@ -4030,7 +4049,7 @@
         <v>Key.Cro.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>7</v>
       </c>
@@ -4109,7 +4128,7 @@
         <v>Key.Cro.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>8</v>
       </c>
@@ -4188,7 +4207,7 @@
         <v>Key.Cro.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>9</v>
       </c>
@@ -4267,7 +4286,7 @@
         <v>Key.Cro.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>10</v>
       </c>
@@ -4346,7 +4365,7 @@
         <v>Key.Cro.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>11</v>
       </c>
@@ -4425,7 +4444,7 @@
         <v>Key.Cro.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>12</v>
       </c>
@@ -4504,7 +4523,7 @@
         <v>Key.Cro.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>13</v>
       </c>
@@ -4583,7 +4602,7 @@
         <v>Key.Cro.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>14</v>
       </c>
@@ -4662,7 +4681,7 @@
         <v>Key.Cro.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>15</v>
       </c>
@@ -4741,7 +4760,7 @@
         <v>Key.Cro.15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>16</v>
       </c>
@@ -4820,7 +4839,7 @@
         <v>Key.Cro.16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>17</v>
       </c>
@@ -4899,7 +4918,7 @@
         <v>Key.Cro.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>18</v>
       </c>
@@ -4978,7 +4997,7 @@
         <v>Key.Cro.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -5057,7 +5076,7 @@
         <v>Key.Cro.19</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>20</v>
       </c>
@@ -5136,7 +5155,7 @@
         <v>Key.Cro.20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>21</v>
       </c>
@@ -5215,7 +5234,7 @@
         <v>Key.Cro.21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>22</v>
       </c>
@@ -5294,7 +5313,7 @@
         <v>Key.Cro.22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>23</v>
       </c>
@@ -5373,7 +5392,7 @@
         <v>Key.Cro.23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>24</v>
       </c>
@@ -5452,7 +5471,7 @@
         <v>Key.Cro.24</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>25</v>
       </c>
@@ -5531,7 +5550,7 @@
         <v>Key.Cro.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>26</v>
       </c>
@@ -5610,7 +5629,7 @@
         <v>Key.Cro.26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>27</v>
       </c>
@@ -5689,7 +5708,7 @@
         <v>Key.Cro.27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>28</v>
       </c>
@@ -5768,7 +5787,7 @@
         <v>Key.Cro.28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>29</v>
       </c>
@@ -5847,7 +5866,7 @@
         <v>Key.Cro.29</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>30</v>
       </c>
@@ -5926,7 +5945,7 @@
         <v>Key.Cro.30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>31</v>
       </c>
@@ -6005,7 +6024,7 @@
         <v>Key.Cro.31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70">
         <v>32</v>
       </c>
@@ -6086,10 +6105,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F1048576 F1:F30">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
@@ -6108,12 +6127,12 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.88671875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.88671875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6314,7 +6333,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6333,14 +6352,14 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58">
         <v>1</v>
       </c>
@@ -6351,7 +6370,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -6364,7 +6383,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6374,40 +6393,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5087910E-DA31-4318-A539-726BE963325D}">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>197</v>
       </c>
@@ -6478,12 +6497,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47">
         <v>2</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>51</v>
@@ -6522,7 +6541,7 @@
         <v>78</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="P2" s="46" t="s">
         <v>1</v>
@@ -6549,15 +6568,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47">
         <v>3</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>1</v>
@@ -6593,7 +6612,7 @@
         <v>78</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P3" s="46" t="s">
         <v>1</v>
@@ -6620,27 +6639,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
         <v>4</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>313</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>1</v>
@@ -6664,7 +6683,7 @@
         <v>78</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>1</v>
@@ -6691,27 +6710,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47">
         <v>5</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>314</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>1</v>
@@ -6735,7 +6754,7 @@
         <v>78</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>1</v>
@@ -6762,27 +6781,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47">
         <v>6</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>315</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>1</v>
@@ -6806,7 +6825,7 @@
         <v>78</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P6" s="46" t="s">
         <v>1</v>
@@ -6833,27 +6852,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47">
         <v>7</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>316</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>1</v>
@@ -6877,7 +6896,7 @@
         <v>78</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>1</v>
@@ -6904,27 +6923,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
         <v>8</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>317</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>1</v>
@@ -6948,7 +6967,7 @@
         <v>78</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>1</v>
@@ -6975,27 +6994,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47">
         <v>9</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>318</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>1</v>
@@ -7019,7 +7038,7 @@
         <v>78</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P9" s="46" t="s">
         <v>1</v>
@@ -7046,27 +7065,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>10</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>319</v>
       </c>
       <c r="H10" s="45" t="s">
         <v>1</v>
@@ -7090,7 +7109,7 @@
         <v>78</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>1</v>
@@ -7117,27 +7136,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47">
         <v>11</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>320</v>
       </c>
       <c r="H11" s="45" t="s">
         <v>1</v>
@@ -7161,7 +7180,7 @@
         <v>78</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P11" s="46" t="s">
         <v>1</v>
@@ -7188,27 +7207,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47">
         <v>12</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>321</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>1</v>
@@ -7232,7 +7251,7 @@
         <v>78</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>1</v>
@@ -7259,27 +7278,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47">
         <v>13</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>322</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>1</v>
@@ -7303,7 +7322,7 @@
         <v>78</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>1</v>
@@ -7330,27 +7349,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47">
         <v>14</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>323</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>1</v>
@@ -7374,7 +7393,7 @@
         <v>78</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P14" s="46" t="s">
         <v>1</v>
@@ -7401,21 +7420,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47">
         <v>15</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>1</v>
@@ -7445,7 +7464,7 @@
         <v>78</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>1</v>
@@ -7472,12 +7491,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>16</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>54</v>
@@ -7516,7 +7535,7 @@
         <v>78</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>1</v>
@@ -7543,12 +7562,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>17</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>54</v>
@@ -7587,7 +7606,7 @@
         <v>78</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>1</v>
@@ -7614,12 +7633,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>18</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>54</v>
@@ -7658,7 +7677,7 @@
         <v>78</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P18" s="46" t="s">
         <v>1</v>
@@ -7685,12 +7704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47">
         <v>19</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>54</v>
@@ -7729,7 +7748,7 @@
         <v>78</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>1</v>
@@ -7756,12 +7775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>20</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>54</v>
@@ -7800,7 +7819,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="P20" s="46" t="s">
         <v>1</v>
@@ -7827,12 +7846,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47">
         <v>21</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>54</v>
@@ -7871,7 +7890,7 @@
         <v>78</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P21" s="46" t="s">
         <v>1</v>
@@ -7898,27 +7917,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>22</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>61</v>
+      <c r="B22" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>310</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="H22" s="45" t="s">
         <v>1</v>
@@ -7942,7 +7961,7 @@
         <v>78</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P22" s="46" t="s">
         <v>1</v>
@@ -7969,12 +7988,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47">
         <v>23</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>61</v>
@@ -7989,7 +8008,7 @@
         <v>311</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H23" s="45" t="s">
         <v>1</v>
@@ -8013,7 +8032,7 @@
         <v>78</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P23" s="46" t="s">
         <v>1</v>
@@ -8040,27 +8059,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>24</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>227</v>
+      <c r="B24" s="52" t="s">
+        <v>332</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>310</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="H24" s="45" t="s">
         <v>1</v>
@@ -8084,13 +8103,13 @@
         <v>78</v>
       </c>
       <c r="O24" s="51" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="P24" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="R24" s="46" t="s">
         <v>1</v>
@@ -8111,12 +8130,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>25</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>61</v>
@@ -8155,13 +8174,13 @@
         <v>78</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P25" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q25" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R25" s="46" t="s">
         <v>1</v>
@@ -8182,15 +8201,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
         <v>26</v>
       </c>
-      <c r="B26" s="54" t="s">
-        <v>228</v>
+      <c r="B26" s="49" t="s">
+        <v>226</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>1</v>
@@ -8226,13 +8245,13 @@
         <v>78</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="P26" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q26" s="51" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R26" s="46" t="s">
         <v>1</v>
@@ -8253,12 +8272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
         <v>27</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>72</v>
@@ -8303,7 +8322,7 @@
         <v>198</v>
       </c>
       <c r="Q27" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R27" s="46" t="s">
         <v>1</v>
@@ -8324,15 +8343,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>28</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>274</v>
+        <v>229</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>1</v>
@@ -8368,13 +8387,13 @@
         <v>78</v>
       </c>
       <c r="O28" s="51" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="P28" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q28" s="51" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="R28" s="46" t="s">
         <v>1</v>
@@ -8395,12 +8414,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <v>29</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>274</v>
@@ -8439,13 +8458,13 @@
         <v>78</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P29" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q29" s="51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R29" s="46" t="s">
         <v>1</v>
@@ -8466,15 +8485,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <v>30</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>273</v>
+        <v>235</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>1</v>
@@ -8510,13 +8529,13 @@
         <v>78</v>
       </c>
       <c r="O30" s="51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P30" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R30" s="46" t="s">
         <v>1</v>
@@ -8537,12 +8556,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <v>31</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>273</v>
@@ -8581,13 +8600,13 @@
         <v>78</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P31" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q31" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R31" s="46" t="s">
         <v>1</v>
@@ -8608,15 +8627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47">
         <v>32</v>
       </c>
-      <c r="B32" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>67</v>
+      <c r="B32" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>273</v>
       </c>
       <c r="D32" s="45" t="s">
         <v>1</v>
@@ -8652,13 +8671,13 @@
         <v>78</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="P32" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q32" s="51" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="R32" s="46" t="s">
         <v>1</v>
@@ -8679,12 +8698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <v>33</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>67</v>
@@ -8723,13 +8742,13 @@
         <v>78</v>
       </c>
       <c r="O33" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P33" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q33" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R33" s="46" t="s">
         <v>1</v>
@@ -8750,15 +8769,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47">
         <v>34</v>
       </c>
-      <c r="B34" s="54" t="s">
-        <v>77</v>
+      <c r="B34" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>1</v>
@@ -8794,13 +8813,13 @@
         <v>78</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="P34" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R34" s="46" t="s">
         <v>1</v>
@@ -8821,12 +8840,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47">
         <v>35</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>261</v>
@@ -8865,13 +8884,13 @@
         <v>78</v>
       </c>
       <c r="O35" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P35" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q35" s="51" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="R35" s="46" t="s">
         <v>1</v>
@@ -8892,21 +8911,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47">
         <v>36</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>99</v>
+      <c r="B36" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>261</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="F36" s="45" t="s">
         <v>1</v>
@@ -8936,13 +8955,13 @@
         <v>78</v>
       </c>
       <c r="O36" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P36" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R36" s="46" t="s">
         <v>1</v>
@@ -8963,12 +8982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <v>37</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>261</v>
@@ -9007,13 +9026,13 @@
         <v>78</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P37" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q37" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R37" s="46" t="s">
         <v>1</v>
@@ -9034,12 +9053,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47">
         <v>38</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>261</v>
@@ -9078,13 +9097,13 @@
         <v>78</v>
       </c>
       <c r="O38" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P38" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R38" s="46" t="s">
         <v>1</v>
@@ -9105,12 +9124,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>39</v>
       </c>
-      <c r="B39" s="54" t="s">
-        <v>105</v>
+      <c r="B39" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>261</v>
@@ -9119,7 +9138,7 @@
         <v>266</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F39" s="45" t="s">
         <v>1</v>
@@ -9149,13 +9168,13 @@
         <v>78</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P39" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R39" s="46" t="s">
         <v>1</v>
@@ -9176,12 +9195,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>40</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>261</v>
@@ -9190,7 +9209,7 @@
         <v>266</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>1</v>
@@ -9220,13 +9239,13 @@
         <v>78</v>
       </c>
       <c r="O40" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P40" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q40" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R40" s="46" t="s">
         <v>1</v>
@@ -9247,12 +9266,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <v>41</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>261</v>
@@ -9291,13 +9310,13 @@
         <v>78</v>
       </c>
       <c r="O41" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P41" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q41" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R41" s="46" t="s">
         <v>1</v>
@@ -9318,21 +9337,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47">
         <v>42</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F42" s="45" t="s">
         <v>1</v>
@@ -9362,13 +9381,13 @@
         <v>78</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P42" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="R42" s="46" t="s">
         <v>1</v>
@@ -9389,12 +9408,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47">
         <v>43</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>59</v>
@@ -9433,13 +9452,13 @@
         <v>78</v>
       </c>
       <c r="O43" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P43" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q43" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R43" s="46" t="s">
         <v>1</v>
@@ -9460,12 +9479,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>44</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>59</v>
@@ -9504,13 +9523,13 @@
         <v>78</v>
       </c>
       <c r="O44" s="51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P44" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q44" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R44" s="46" t="s">
         <v>1</v>
@@ -9531,12 +9550,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47">
         <v>45</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>59</v>
@@ -9575,13 +9594,13 @@
         <v>78</v>
       </c>
       <c r="O45" s="51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P45" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q45" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R45" s="46" t="s">
         <v>1</v>
@@ -9602,12 +9621,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47">
         <v>46</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>59</v>
@@ -9646,13 +9665,13 @@
         <v>78</v>
       </c>
       <c r="O46" s="51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P46" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R46" s="46" t="s">
         <v>1</v>
@@ -9673,12 +9692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47">
         <v>47</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>59</v>
@@ -9717,13 +9736,13 @@
         <v>78</v>
       </c>
       <c r="O47" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P47" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R47" s="46" t="s">
         <v>1</v>
@@ -9744,12 +9763,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="47">
         <v>48</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>59</v>
@@ -9788,13 +9807,13 @@
         <v>78</v>
       </c>
       <c r="O48" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P48" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R48" s="46" t="s">
         <v>1</v>
@@ -9815,12 +9834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47">
         <v>49</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>59</v>
@@ -9859,13 +9878,13 @@
         <v>78</v>
       </c>
       <c r="O49" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P49" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R49" s="46" t="s">
         <v>1</v>
@@ -9886,15 +9905,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47">
         <v>50</v>
       </c>
-      <c r="B50" s="53" t="s">
-        <v>82</v>
+      <c r="B50" s="54" t="s">
+        <v>142</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D50" s="45" t="s">
         <v>1</v>
@@ -9930,13 +9949,13 @@
         <v>78</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="P50" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="R50" s="46" t="s">
         <v>1</v>
@@ -9957,12 +9976,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47">
         <v>51</v>
       </c>
-      <c r="B51" s="49" t="s">
-        <v>85</v>
+      <c r="B51" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>62</v>
@@ -10001,13 +10020,13 @@
         <v>78</v>
       </c>
       <c r="O51" s="51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P51" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R51" s="46" t="s">
         <v>1</v>
@@ -10028,12 +10047,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47">
         <v>52</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>62</v>
@@ -10072,13 +10091,13 @@
         <v>78</v>
       </c>
       <c r="O52" s="51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P52" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q52" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R52" s="46" t="s">
         <v>1</v>
@@ -10099,12 +10118,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47">
         <v>53</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>62</v>
@@ -10143,13 +10162,13 @@
         <v>78</v>
       </c>
       <c r="O53" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P53" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q53" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R53" s="46" t="s">
         <v>1</v>
@@ -10170,15 +10189,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47">
         <v>54</v>
       </c>
-      <c r="B54" s="54" t="s">
-        <v>111</v>
+      <c r="B54" s="49" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D54" s="45" t="s">
         <v>1</v>
@@ -10214,13 +10233,13 @@
         <v>78</v>
       </c>
       <c r="O54" s="51" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="P54" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q54" s="51" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="R54" s="46" t="s">
         <v>1</v>
@@ -10241,12 +10260,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47">
         <v>55</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>68</v>
@@ -10285,13 +10304,13 @@
         <v>78</v>
       </c>
       <c r="O55" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P55" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q55" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R55" s="46" t="s">
         <v>1</v>
@@ -10312,12 +10331,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47">
         <v>56</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>68</v>
@@ -10362,7 +10381,7 @@
         <v>198</v>
       </c>
       <c r="Q56" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R56" s="46" t="s">
         <v>1</v>
@@ -10383,12 +10402,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47">
         <v>57</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>68</v>
@@ -10433,7 +10452,7 @@
         <v>198</v>
       </c>
       <c r="Q57" s="51" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="R57" s="46" t="s">
         <v>1</v>
@@ -10454,15 +10473,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47">
         <v>58</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D58" s="45" t="s">
         <v>1</v>
@@ -10498,13 +10517,13 @@
         <v>78</v>
       </c>
       <c r="O58" s="51" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="P58" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q58" s="51" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="R58" s="46" t="s">
         <v>1</v>
@@ -10525,12 +10544,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47">
         <v>59</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>71</v>
@@ -10575,7 +10594,7 @@
         <v>198</v>
       </c>
       <c r="Q59" s="51" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="R59" s="46" t="s">
         <v>1</v>
@@ -10596,15 +10615,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47">
         <v>60</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>1</v>
@@ -10640,13 +10659,13 @@
         <v>78</v>
       </c>
       <c r="O60" s="51" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P60" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q60" s="51" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="R60" s="46" t="s">
         <v>1</v>
@@ -10667,12 +10686,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47">
         <v>61</v>
       </c>
       <c r="B61" s="54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>70</v>
@@ -10717,7 +10736,7 @@
         <v>198</v>
       </c>
       <c r="Q61" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R61" s="46" t="s">
         <v>1</v>
@@ -10738,15 +10757,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47">
         <v>62</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>1</v>
@@ -10782,13 +10801,13 @@
         <v>78</v>
       </c>
       <c r="O62" s="51" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P62" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q62" s="51" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="R62" s="46" t="s">
         <v>1</v>
@@ -10809,21 +10828,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47">
         <v>63</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="F63" s="45" t="s">
         <v>1</v>
@@ -10859,7 +10878,7 @@
         <v>198</v>
       </c>
       <c r="Q63" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R63" s="46" t="s">
         <v>1</v>
@@ -10880,12 +10899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47">
         <v>64</v>
       </c>
-      <c r="B64" s="55" t="s">
-        <v>249</v>
+      <c r="B64" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>73</v>
@@ -10930,7 +10949,7 @@
         <v>198</v>
       </c>
       <c r="Q64" s="51" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="R64" s="46" t="s">
         <v>1</v>
@@ -10951,12 +10970,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47">
         <v>65</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>73</v>
@@ -11001,7 +11020,7 @@
         <v>198</v>
       </c>
       <c r="Q65" s="51" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="R65" s="46" t="s">
         <v>1</v>
@@ -11022,12 +11041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47">
         <v>66</v>
       </c>
-      <c r="B66" s="54" t="s">
-        <v>250</v>
+      <c r="B66" s="55" t="s">
+        <v>119</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>73</v>
@@ -11036,7 +11055,7 @@
         <v>266</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="F66" s="45" t="s">
         <v>1</v>
@@ -11072,7 +11091,7 @@
         <v>198</v>
       </c>
       <c r="Q66" s="51" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="R66" s="46" t="s">
         <v>1</v>
@@ -11093,12 +11112,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47">
         <v>67</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>73</v>
@@ -11107,7 +11126,7 @@
         <v>266</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F67" s="45" t="s">
         <v>1</v>
@@ -11143,7 +11162,7 @@
         <v>198</v>
       </c>
       <c r="Q67" s="51" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="R67" s="46" t="s">
         <v>1</v>
@@ -11164,21 +11183,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="47">
         <v>68</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F68" s="45" t="s">
         <v>1</v>
@@ -11208,13 +11227,13 @@
         <v>78</v>
       </c>
       <c r="O68" s="51" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="P68" s="46" t="s">
         <v>198</v>
       </c>
       <c r="Q68" s="51" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="R68" s="46" t="s">
         <v>1</v>
@@ -11235,12 +11254,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47">
         <v>69</v>
       </c>
       <c r="B69" s="54" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>69</v>
@@ -11249,7 +11268,7 @@
         <v>267</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F69" s="45" t="s">
         <v>1</v>
@@ -11285,7 +11304,7 @@
         <v>198</v>
       </c>
       <c r="Q69" s="51" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="R69" s="46" t="s">
         <v>1</v>
@@ -11306,21 +11325,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="47">
         <v>70</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>272</v>
+        <v>225</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="E70" s="50" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="F70" s="45" t="s">
         <v>1</v>
@@ -11350,13 +11369,13 @@
         <v>78</v>
       </c>
       <c r="O70" s="51" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="P70" s="46" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="Q70" s="51" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="R70" s="46" t="s">
         <v>1</v>
@@ -11377,15 +11396,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47">
         <v>71</v>
       </c>
-      <c r="B71" s="66" t="s">
-        <v>308</v>
-      </c>
-      <c r="C71" s="67" t="s">
-        <v>305</v>
+      <c r="B71" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>272</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>309</v>
@@ -11421,7 +11440,7 @@
         <v>78</v>
       </c>
       <c r="O71" s="51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P71" s="46" t="s">
         <v>1</v>
@@ -11448,15 +11467,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47">
         <v>72</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="C72" s="67" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>309</v>
@@ -11492,55 +11511,125 @@
         <v>78</v>
       </c>
       <c r="O72" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="P72" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S72" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T72" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U72" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V72" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W72" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="47">
+        <v>73</v>
+      </c>
+      <c r="B73" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N73" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O73" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="P72" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="R72" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="S72" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="T72" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="U72" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="V72" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="W72" s="63" t="s">
+      <c r="P73" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R73" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T73" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U73" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V73" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W73" s="63" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1 B26:B69 B22:B23">
-    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
+  <conditionalFormatting sqref="B1 B27:B70 B23:B24">
+    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -11554,11 +11643,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="2.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -11569,7 +11658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -11577,7 +11666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -11585,7 +11674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -11593,7 +11682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA0FD6-3AE4-4444-992E-5279046989A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E55025-E373-4A39-B85C-CA019DEF85BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="436">
   <si>
     <t>Key</t>
   </si>
@@ -1834,12 +1834,6 @@
     <t>Interdisciplinar</t>
   </si>
   <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Día</t>
-  </si>
-  <si>
     <t>Intervalo de tiempo</t>
   </si>
   <si>
@@ -1852,9 +1846,6 @@
     <t>Século</t>
   </si>
   <si>
-    <t>Siglo</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -2089,27 +2080,12 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Cronometragem</t>
-  </si>
-  <si>
-    <t>Intermediária</t>
-  </si>
-  <si>
     <t>Marca inicial de cronometragem</t>
   </si>
   <si>
-    <t>Marca intermedia de cronometragem</t>
-  </si>
-  <si>
     <t>Marca final de cronometragem</t>
   </si>
   <si>
-    <t>Marca inicial de cronometraje</t>
-  </si>
-  <si>
-    <t>Marca intermedia de cronometraje</t>
-  </si>
-  <si>
     <t>Marca final de cronometraje</t>
   </si>
   <si>
@@ -2131,48 +2107,9 @@
     <t>Etapa de fase Operação</t>
   </si>
   <si>
-    <t>Etapa en fase de concepción</t>
-  </si>
-  <si>
-    <t>Etapa de simulación</t>
-  </si>
-  <si>
-    <t>Etapa en fase de proyecto</t>
-  </si>
-  <si>
-    <t>Etapa de fase de planeamiento</t>
-  </si>
-  <si>
-    <t>Etapa de fase de obra</t>
-  </si>
-  <si>
-    <t>Etapa de fase de operación</t>
-  </si>
-  <si>
-    <t>Evento de inauguração do prédio ou parte</t>
-  </si>
-  <si>
-    <t>Evento de inaugurar el edifício o parte</t>
-  </si>
-  <si>
-    <t>Evento de cambiar algum resurso o equipamento</t>
-  </si>
-  <si>
-    <t>Evento de cambiar algún recurso o equipo</t>
-  </si>
-  <si>
     <t>Evento relativo a uma inspeção</t>
   </si>
   <si>
-    <t>Evento relativo a una inspección</t>
-  </si>
-  <si>
-    <t>Evento relativo a una pericia</t>
-  </si>
-  <si>
-    <t>Evento relativo a uma perícia</t>
-  </si>
-  <si>
     <t>Reforma</t>
   </si>
   <si>
@@ -2185,9 +2122,6 @@
     <t>Evento de retrofit do edifício</t>
   </si>
   <si>
-    <t>Evento de retrofit del edifício</t>
-  </si>
-  <si>
     <t>Elevador.A</t>
   </si>
   <si>
@@ -2341,10 +2275,301 @@
     <t>é.dentro.de</t>
   </si>
   <si>
-    <t>é.previo.a</t>
-  </si>
-  <si>
     <t>"Qualquer ano instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>é.antes.de</t>
+  </si>
+  <si>
+    <t>Trimestre.1</t>
+  </si>
+  <si>
+    <t>Trimestre.2</t>
+  </si>
+  <si>
+    <t>Trimestre.3</t>
+  </si>
+  <si>
+    <t>Trimestre.4</t>
+  </si>
+  <si>
+    <t>Trimestre</t>
+  </si>
+  <si>
+    <t>Quatrimestre</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>Lustro</t>
+  </si>
+  <si>
+    <t>Quinquênio</t>
+  </si>
+  <si>
+    <t>Biênio</t>
+  </si>
+  <si>
+    <t>Quinquagenário</t>
+  </si>
+  <si>
+    <t>Um período de 100 anos</t>
+  </si>
+  <si>
+    <t>Um período de 50 anos</t>
+  </si>
+  <si>
+    <t>Um período de 10 anos</t>
+  </si>
+  <si>
+    <t>Um período de 5 anos</t>
+  </si>
+  <si>
+    <t>Um período de 2 anos</t>
+  </si>
+  <si>
+    <t>Evento de cambiar algum recurso ou equipamento</t>
+  </si>
+  <si>
+    <t>Evento de inauguração do prédio ou parte do prédio</t>
+  </si>
+  <si>
+    <t>Um período associado não necessariamente a uma quantidade de anos</t>
+  </si>
+  <si>
+    <t>Um grande período associado não necessariamente a uma quantidade de anos</t>
+  </si>
+  <si>
+    <t>Un período largo asociado no necesariamente con un número de años</t>
+  </si>
+  <si>
+    <t>Un período no necesariamente asociado a un número de años</t>
+  </si>
+  <si>
+    <t>Un período de 100 años</t>
+  </si>
+  <si>
+    <t>Un período de 50 años</t>
+  </si>
+  <si>
+    <t>Un período de 10 años</t>
+  </si>
+  <si>
+    <t>Un periodo de 5 años</t>
+  </si>
+  <si>
+    <t>Un periodo de 2 años</t>
+  </si>
+  <si>
+    <t>Etapa de la fase de ideación</t>
+  </si>
+  <si>
+    <t>Etapa de la fase de proyecto</t>
+  </si>
+  <si>
+    <t>Simulación de etapa de fase</t>
+  </si>
+  <si>
+    <t>Etapa de la fase de planificación</t>
+  </si>
+  <si>
+    <t>Etapa de la fase de construcción</t>
+  </si>
+  <si>
+    <t>Operación de la etapa de fase</t>
+  </si>
+  <si>
+    <t>Evento de inauguración del edificio o parte del edificio</t>
+  </si>
+  <si>
+    <t>Evento de reacondicionamiento de edificios</t>
+  </si>
+  <si>
+    <t>Evento de cambio de algún recurso o equipo</t>
+  </si>
+  <si>
+    <t>Evento relacionado con una inspección</t>
+  </si>
+  <si>
+    <t>Evento de renovación</t>
+  </si>
+  <si>
+    <t>Um período de 6 meses</t>
+  </si>
+  <si>
+    <t>Um período de 4 meses</t>
+  </si>
+  <si>
+    <t>Um período de 3 meses</t>
+  </si>
+  <si>
+    <t>Un periodo de 6 meses</t>
+  </si>
+  <si>
+    <t>Un periodo de 4 meses</t>
+  </si>
+  <si>
+    <t>Un periodo de 3 meses</t>
+  </si>
+  <si>
+    <t>Un periodo de 365 dias distribuidos en 12 meses</t>
+  </si>
+  <si>
+    <t>Um período de 31, 30 ou 28 dias. Cada quatro anos há um mês de 29 dias.</t>
+  </si>
+  <si>
+    <t>Um período de 7 dias.</t>
+  </si>
+  <si>
+    <t>Um período de 24 horas.</t>
+  </si>
+  <si>
+    <t>Un periodo de 31, 30 ou 28 días. Cada cuatro años hay un mes de 29 días.</t>
+  </si>
+  <si>
+    <t>Un periodo de 7 días.</t>
+  </si>
+  <si>
+    <t>Un periodo de 24 horas.</t>
+  </si>
+  <si>
+    <t>Uma jornada ou dia laboral</t>
+  </si>
+  <si>
+    <t>Uma jornada o día laboral</t>
+  </si>
+  <si>
+    <t>Um período de 60 minutos.</t>
+  </si>
+  <si>
+    <t>Um período de 60 segundos.</t>
+  </si>
+  <si>
+    <t>Um período de 1000 milisegundos.</t>
+  </si>
+  <si>
+    <t>Un periodo de 60 minutos.</t>
+  </si>
+  <si>
+    <t>Un periodo de 60 segundos.</t>
+  </si>
+  <si>
+    <t>Un periodo de 1000 milisegundos.</t>
+  </si>
+  <si>
+    <t>Um evento repetido em intervalos regulares.</t>
+  </si>
+  <si>
+    <t>Un evento que se repite a intervalos regulares.</t>
+  </si>
+  <si>
+    <t>Um período calendário de 365 dias distribuídos em 12 meses</t>
+  </si>
+  <si>
+    <t>Agendado</t>
+  </si>
+  <si>
+    <t>Reunião</t>
+  </si>
+  <si>
+    <t>Congresso</t>
+  </si>
+  <si>
+    <t>Exame</t>
+  </si>
+  <si>
+    <t>Evento agendado tipo exame ou testes</t>
+  </si>
+  <si>
+    <t>Cronómetro</t>
+  </si>
+  <si>
+    <t>Parcial</t>
+  </si>
+  <si>
+    <t>Marca de cronometraje inicial</t>
+  </si>
+  <si>
+    <t>Marca intermedia de cronometraje (split time)</t>
+  </si>
+  <si>
+    <t>Tipo de evento programado para muitos agentes tipo conferencia o similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evento agendado para muitos agentes tipo conferência ou similar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evento agendado para alguns agentes tipo reunião de trabalho ou similar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evento agendado para algunos agentes tipo reunión de trabajo o similar </t>
+  </si>
+  <si>
+    <t>Evento agendado tipo entrega de objetos ou servíços</t>
+  </si>
+  <si>
+    <t>Evento agendado tipo entrega de objetos o servicios profesionales</t>
+  </si>
+  <si>
+    <t>Evento agendado como exámenes o pruebas</t>
+  </si>
+  <si>
+    <t>Evento de evaluación pericial realizado por expertos</t>
+  </si>
+  <si>
+    <t>Evento relativo a uma avaliação perícial realizada por expertos</t>
+  </si>
+  <si>
+    <t>é.evento.final</t>
+  </si>
+  <si>
+    <t>é.agrupado.com</t>
+  </si>
+  <si>
+    <t>"Primeiro trimestre do ano."</t>
+  </si>
+  <si>
+    <t>"Segundo trimestre do ano."</t>
+  </si>
+  <si>
+    <t>"Terceiro trimestre do ano."</t>
+  </si>
+  <si>
+    <t>"Quarto trimestre do ano."</t>
+  </si>
+  <si>
+    <t>Quatrimestre.1</t>
+  </si>
+  <si>
+    <t>Quatrimestre.2</t>
+  </si>
+  <si>
+    <t>Quatrimestre.3</t>
+  </si>
+  <si>
+    <t>Semestre.1</t>
+  </si>
+  <si>
+    <t>Semestre.2</t>
+  </si>
+  <si>
+    <t>"Primeiro semestre do ano."</t>
+  </si>
+  <si>
+    <t>"Segundo semestre do ano."</t>
+  </si>
+  <si>
+    <t>Um ciclo do relógio interno do computador. Pode ser medido em Hz ou GHz.</t>
+  </si>
+  <si>
+    <t>Un ciclo del reloj interno de una computadora. Se puede medir en Hz o GHz.</t>
+  </si>
+  <si>
+    <t>Marca intermédia de cronometragem (split time)</t>
+  </si>
+  <si>
+    <t>é.evento.inicial</t>
   </si>
 </sst>
 </file>
@@ -2700,7 +2925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2904,9 +3129,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3353,14 +3575,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.33203125" style="12"/>
+    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3368,7 +3590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -3376,15 +3598,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
@@ -3392,7 +3614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3401,7 +3623,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3410,7 +3632,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
@@ -3418,7 +3640,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>149</v>
       </c>
@@ -3426,7 +3648,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>158</v>
       </c>
@@ -3434,7 +3656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>160</v>
       </c>
@@ -3442,7 +3664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -3450,7 +3672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
@@ -3458,7 +3680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>161</v>
       </c>
@@ -3466,7 +3688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>162</v>
       </c>
@@ -3474,7 +3696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>163</v>
       </c>
@@ -3482,7 +3704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>164</v>
       </c>
@@ -3490,7 +3712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
@@ -3498,16 +3720,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45748.707912500002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45749.40500914352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>166</v>
       </c>
@@ -3515,7 +3737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -3523,7 +3745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>168</v>
       </c>
@@ -3531,7 +3753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>169</v>
       </c>
@@ -3539,7 +3761,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>170</v>
       </c>
@@ -3554,36 +3776,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="L1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24:O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="3" max="4" width="5.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6.88671875" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
-    <col min="20" max="20" width="5.44140625" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.88671875" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="40.5703125" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
@@ -3654,24 +3876,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>1</v>
@@ -3689,68 +3911,68 @@
         <v>1</v>
       </c>
       <c r="L2" s="36" t="str">
-        <f>_xlfn.CONCAT(C2)</f>
+        <f t="shared" ref="L2:L33" si="0">_xlfn.CONCAT(C2)</f>
         <v>Temporal</v>
       </c>
       <c r="M2" s="36" t="str">
-        <f t="shared" ref="M2:O19" si="0">_xlfn.CONCAT("", D2)</f>
+        <f>_xlfn.CONCAT("", D2)</f>
         <v>Evento</v>
       </c>
       <c r="N2" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Microevento</v>
+        <f t="shared" ref="N2:O26" si="1">_xlfn.CONCAT("", E2)</f>
+        <v>Macroevento</v>
       </c>
       <c r="O2" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Pulso</v>
+        <f t="shared" si="1"/>
+        <v>Era</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>65</v>
+        <v>358</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>65</v>
+        <v>359</v>
       </c>
       <c r="R2" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S2" s="40" t="str">
-        <f t="shared" ref="S2:U19" si="1">SUBSTITUTE(C2, "_", " ")</f>
+        <f t="shared" ref="S2:U26" si="2">SUBSTITUTE(C2, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T2" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U2" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Microevento</v>
+        <f t="shared" si="2"/>
+        <v>Macroevento</v>
       </c>
       <c r="V2" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W2" s="42" t="str">
-        <f t="shared" ref="W2:W32" si="2">CONCATENATE("Key.Cro",".",A2)</f>
+        <f t="shared" ref="W2:W39" si="3">CONCATENATE("Key.Cro",".",A2)</f>
         <v>Key.Cro.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>1</v>
@@ -3768,59 +3990,59 @@
         <v>1</v>
       </c>
       <c r="L3" s="36" t="str">
-        <f t="shared" ref="L3:L26" si="3">_xlfn.CONCAT(C3)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M3" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M3:O33" si="4">_xlfn.CONCAT("", D3)</f>
         <v>Evento</v>
       </c>
       <c r="N3" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Microevento</v>
+        <f t="shared" si="1"/>
+        <v>Macroevento</v>
       </c>
       <c r="O3" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Tick</v>
+        <f t="shared" si="1"/>
+        <v>Época</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>66</v>
+        <v>357</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>66</v>
+        <v>360</v>
       </c>
       <c r="R3" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S3" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T3" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U3" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Microevento</v>
+        <f t="shared" si="2"/>
+        <v>Macroevento</v>
       </c>
       <c r="V3" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W3" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>59</v>
@@ -3829,7 +4051,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>1</v>
@@ -3847,59 +4069,59 @@
         <v>1</v>
       </c>
       <c r="L4" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M4" s="36" t="str">
-        <f>_xlfn.CONCAT("", D4)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N4" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="O4" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Era</v>
+        <f t="shared" si="1"/>
+        <v>Século</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>49</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>49</v>
+        <v>361</v>
       </c>
       <c r="R4" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S4" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T4" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U4" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Macroevento</v>
       </c>
       <c r="V4" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W4" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>59</v>
@@ -3908,7 +4130,7 @@
         <v>63</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>50</v>
+        <v>349</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>1</v>
@@ -3926,59 +4148,59 @@
         <v>1</v>
       </c>
       <c r="L5" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L5" si="5">_xlfn.CONCAT(C5)</f>
         <v>Temporal</v>
       </c>
       <c r="M5" s="36" t="str">
-        <f t="shared" ref="M5:O26" si="4">_xlfn.CONCAT("", D5)</f>
+        <f t="shared" ref="M5" si="6">_xlfn.CONCAT("", D5)</f>
         <v>Evento</v>
       </c>
       <c r="N5" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N5" si="7">_xlfn.CONCAT("", E5)</f>
         <v>Macroevento</v>
       </c>
       <c r="O5" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Época</v>
+        <f t="shared" ref="O5" si="8">_xlfn.CONCAT("", F5)</f>
+        <v>Quinquagenário</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="R5" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S5" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S5" si="9">SUBSTITUTE(C5, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T5" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T5" si="10">SUBSTITUTE(D5, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="U5" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U5" si="11">SUBSTITUTE(E5, "_", " ")</f>
         <v>Macroevento</v>
       </c>
       <c r="V5" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W5" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W5" si="12">CONCATENATE("Key.Cro",".",A5)</f>
         <v>Key.Cro.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>59</v>
@@ -3987,7 +4209,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>1</v>
@@ -4005,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M6" s="36" t="str">
@@ -4013,51 +4235,51 @@
         <v>Evento</v>
       </c>
       <c r="N6" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="O6" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Século</v>
+        <f t="shared" si="1"/>
+        <v>Década</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>196</v>
+        <v>363</v>
       </c>
       <c r="R6" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S6" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T6" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U6" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Macroevento</v>
       </c>
       <c r="V6" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W6" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>59</v>
@@ -4066,7 +4288,7 @@
         <v>63</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>1</v>
@@ -4084,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M7" s="36" t="str">
@@ -4092,60 +4314,60 @@
         <v>Evento</v>
       </c>
       <c r="N7" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="O7" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Década</v>
+        <f t="shared" si="1"/>
+        <v>Quinquênio</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>194</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>194</v>
+        <v>364</v>
       </c>
       <c r="R7" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S7" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T7" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U7" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Macroevento</v>
       </c>
       <c r="V7" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W7" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>8</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>1</v>
@@ -4163,68 +4385,68 @@
         <v>1</v>
       </c>
       <c r="L8" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L8" si="13">_xlfn.CONCAT(C8)</f>
         <v>Temporal</v>
       </c>
       <c r="M8" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M8" si="14">_xlfn.CONCAT("", D8)</f>
         <v>Evento</v>
       </c>
       <c r="N8" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Calendário</v>
+        <f t="shared" ref="N8" si="15">_xlfn.CONCAT("", E8)</f>
+        <v>Macroevento</v>
       </c>
       <c r="O8" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Semana</v>
+        <f t="shared" ref="O8" si="16">_xlfn.CONCAT("", F8)</f>
+        <v>Lustro</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="R8" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S8" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S8" si="17">SUBSTITUTE(C8, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T8" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T8" si="18">SUBSTITUTE(D8, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="U8" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Calendário</v>
+        <f t="shared" ref="U8" si="19">SUBSTITUTE(E8, "_", " ")</f>
+        <v>Macroevento</v>
       </c>
       <c r="V8" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W8" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W8" si="20">CONCATENATE("Key.Cro",".",A8)</f>
         <v>Key.Cro.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>9</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>51</v>
+        <v>348</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>1</v>
@@ -4242,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M9" s="36" t="str">
@@ -4250,51 +4472,51 @@
         <v>Evento</v>
       </c>
       <c r="N9" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Calendário</v>
+        <f t="shared" si="1"/>
+        <v>Macroevento</v>
       </c>
       <c r="O9" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ano</v>
+        <f t="shared" si="1"/>
+        <v>Biênio</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="R9" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S9" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T9" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U9" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Calendário</v>
+        <f t="shared" si="2"/>
+        <v>Macroevento</v>
       </c>
       <c r="V9" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W9" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>59</v>
@@ -4303,7 +4525,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>1</v>
@@ -4321,59 +4543,59 @@
         <v>1</v>
       </c>
       <c r="L10" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L10" si="21">_xlfn.CONCAT(C10)</f>
         <v>Temporal</v>
       </c>
       <c r="M10" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M10" si="22">_xlfn.CONCAT("", D10)</f>
         <v>Evento</v>
       </c>
       <c r="N10" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N10" si="23">_xlfn.CONCAT("", E10)</f>
         <v>Calendário</v>
       </c>
       <c r="O10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Mês</v>
+        <f t="shared" ref="O10" si="24">_xlfn.CONCAT("", F10)</f>
+        <v>Ano</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>52</v>
+        <v>383</v>
       </c>
       <c r="R10" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S10" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S10" si="25">SUBSTITUTE(C10, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T10" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T10" si="26">SUBSTITUTE(D10, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="U10" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U10" si="27">SUBSTITUTE(E10, "_", " ")</f>
         <v>Calendário</v>
       </c>
       <c r="V10" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W10" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W10" si="28">CONCATENATE("Key.Cro",".",A10)</f>
         <v>Key.Cro.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>11</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>59</v>
@@ -4382,7 +4604,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>1</v>
@@ -4400,59 +4622,59 @@
         <v>1</v>
       </c>
       <c r="L11" s="36" t="str">
-        <f t="shared" ref="L11" si="5">_xlfn.CONCAT(C11)</f>
+        <f t="shared" ref="L11:L14" si="29">_xlfn.CONCAT(C11)</f>
         <v>Temporal</v>
       </c>
       <c r="M11" s="36" t="str">
-        <f t="shared" ref="M11" si="6">_xlfn.CONCAT("", D11)</f>
+        <f t="shared" ref="M11:M14" si="30">_xlfn.CONCAT("", D11)</f>
         <v>Evento</v>
       </c>
       <c r="N11" s="36" t="str">
-        <f t="shared" ref="N11" si="7">_xlfn.CONCAT("", E11)</f>
+        <f t="shared" ref="N11:N14" si="31">_xlfn.CONCAT("", E11)</f>
         <v>Calendário</v>
       </c>
       <c r="O11" s="36" t="str">
-        <f t="shared" ref="O11" si="8">_xlfn.CONCAT("", F11)</f>
-        <v>Dia</v>
+        <f t="shared" ref="O11:O14" si="32">_xlfn.CONCAT("", F11)</f>
+        <v>Semestre</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>54</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="R11" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S11" s="40" t="str">
-        <f t="shared" ref="S11" si="9">SUBSTITUTE(C11, "_", " ")</f>
+        <f t="shared" ref="S11:S14" si="33">SUBSTITUTE(C11, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T11" s="40" t="str">
-        <f t="shared" ref="T11" si="10">SUBSTITUTE(D11, "_", " ")</f>
+        <f t="shared" ref="T11:T14" si="34">SUBSTITUTE(D11, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="U11" s="38" t="str">
-        <f t="shared" ref="U11" si="11">SUBSTITUTE(E11, "_", " ")</f>
+        <f t="shared" ref="U11:U14" si="35">SUBSTITUTE(E11, "_", " ")</f>
         <v>Calendário</v>
       </c>
       <c r="V11" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W11" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W11:W14" si="36">CONCATENATE("Key.Cro",".",A11)</f>
         <v>Key.Cro.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>59</v>
@@ -4461,7 +4683,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
@@ -4479,68 +4701,68 @@
         <v>1</v>
       </c>
       <c r="L12" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>Temporal</v>
       </c>
       <c r="M12" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>Evento</v>
       </c>
       <c r="N12" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="31"/>
         <v>Calendário</v>
       </c>
       <c r="O12" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Jornada</v>
+        <f t="shared" si="32"/>
+        <v>Quatrimestre</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>264</v>
+        <v>381</v>
       </c>
       <c r="R12" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S12" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>Temporal</v>
       </c>
       <c r="T12" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="34"/>
         <v>Evento</v>
       </c>
       <c r="U12" s="38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="35"/>
         <v>Calendário</v>
       </c>
       <c r="V12" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W12" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="36"/>
         <v>Key.Cro.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>13</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>1</v>
@@ -4558,68 +4780,68 @@
         <v>1</v>
       </c>
       <c r="L13" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>Temporal</v>
       </c>
       <c r="M13" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>Evento</v>
       </c>
       <c r="N13" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Horário</v>
+        <f t="shared" si="31"/>
+        <v>Calendário</v>
       </c>
       <c r="O13" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Hora</v>
+        <f t="shared" si="32"/>
+        <v>Trimestre</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="R13" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S13" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>Temporal</v>
       </c>
       <c r="T13" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="34"/>
         <v>Evento</v>
       </c>
       <c r="U13" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Horário</v>
+        <f t="shared" si="35"/>
+        <v>Calendário</v>
       </c>
       <c r="V13" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W13" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="36"/>
         <v>Key.Cro.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>14</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>1</v>
@@ -4637,68 +4859,68 @@
         <v>1</v>
       </c>
       <c r="L14" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>Temporal</v>
       </c>
       <c r="M14" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>Evento</v>
       </c>
       <c r="N14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Horário</v>
+        <f t="shared" si="31"/>
+        <v>Calendário</v>
       </c>
       <c r="O14" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Minuto</v>
+        <f t="shared" si="32"/>
+        <v>Mês</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>56</v>
+        <v>387</v>
       </c>
       <c r="R14" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S14" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>Temporal</v>
       </c>
       <c r="T14" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="34"/>
         <v>Evento</v>
       </c>
       <c r="U14" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Horário</v>
+        <f t="shared" si="35"/>
+        <v>Calendário</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W14" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="36"/>
         <v>Key.Cro.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>15</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>1</v>
@@ -4716,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M15" s="36" t="str">
@@ -4724,60 +4946,60 @@
         <v>Evento</v>
       </c>
       <c r="N15" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Horário</v>
+        <f t="shared" si="1"/>
+        <v>Calendário</v>
       </c>
       <c r="O15" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Segundo</v>
+        <f t="shared" si="1"/>
+        <v>Semana</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>57</v>
+        <v>385</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>57</v>
+        <v>388</v>
       </c>
       <c r="R15" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S15" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T15" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U15" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Horário</v>
+        <f t="shared" si="2"/>
+        <v>Calendário</v>
       </c>
       <c r="V15" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W15" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>16</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>1</v>
@@ -4795,68 +5017,68 @@
         <v>1</v>
       </c>
       <c r="L16" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L16" si="37">_xlfn.CONCAT(C16)</f>
         <v>Temporal</v>
       </c>
       <c r="M16" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M16" si="38">_xlfn.CONCAT("", D16)</f>
         <v>Evento</v>
       </c>
       <c r="N16" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Horário</v>
+        <f t="shared" ref="N16" si="39">_xlfn.CONCAT("", E16)</f>
+        <v>Calendário</v>
       </c>
       <c r="O16" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Milisegundo</v>
+        <f t="shared" ref="O16" si="40">_xlfn.CONCAT("", F16)</f>
+        <v>Dia</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>58</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>58</v>
+        <v>389</v>
       </c>
       <c r="R16" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S16" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S16" si="41">SUBSTITUTE(C16, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T16" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T16" si="42">SUBSTITUTE(D16, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="U16" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Horário</v>
+        <f t="shared" ref="U16" si="43">SUBSTITUTE(E16, "_", " ")</f>
+        <v>Calendário</v>
       </c>
       <c r="V16" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W16" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>275</v>
+        <v>61</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>1</v>
@@ -4874,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M17" s="36" t="str">
@@ -4882,60 +5104,60 @@
         <v>Evento</v>
       </c>
       <c r="N17" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Cronometragem</v>
+        <f t="shared" si="1"/>
+        <v>Calendário</v>
       </c>
       <c r="O17" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Inicial</v>
+        <f t="shared" si="1"/>
+        <v>Jornada</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>277</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>280</v>
+        <v>391</v>
       </c>
       <c r="R17" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S17" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T17" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U17" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Cronometragem</v>
+        <f t="shared" si="2"/>
+        <v>Calendário</v>
       </c>
       <c r="V17" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W17" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>18</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>1</v>
@@ -4953,68 +5175,68 @@
         <v>1</v>
       </c>
       <c r="L18" s="36" t="str">
-        <f t="shared" ref="L18" si="12">_xlfn.CONCAT(C18)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M18" s="36" t="str">
-        <f t="shared" ref="M18" si="13">_xlfn.CONCAT("", D18)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N18" s="36" t="str">
-        <f t="shared" ref="N18" si="14">_xlfn.CONCAT("", E18)</f>
-        <v>Cronometragem</v>
+        <f t="shared" si="1"/>
+        <v>Horário</v>
       </c>
       <c r="O18" s="36" t="str">
-        <f t="shared" ref="O18" si="15">_xlfn.CONCAT("", F18)</f>
-        <v>Intermediária</v>
+        <f t="shared" si="1"/>
+        <v>Hora</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>278</v>
+        <v>392</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="R18" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S18" s="40" t="str">
-        <f t="shared" ref="S18" si="16">SUBSTITUTE(C18, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T18" s="40" t="str">
-        <f t="shared" ref="T18" si="17">SUBSTITUTE(D18, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U18" s="38" t="str">
-        <f t="shared" ref="U18" si="18">SUBSTITUTE(E18, "_", " ")</f>
-        <v>Cronometragem</v>
+        <f t="shared" si="2"/>
+        <v>Horário</v>
       </c>
       <c r="V18" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W18" s="42" t="str">
-        <f t="shared" ref="W18" si="19">CONCATENATE("Key.Cro",".",A18)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>1</v>
@@ -5032,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M19" s="36" t="str">
@@ -5040,60 +5262,60 @@
         <v>Evento</v>
       </c>
       <c r="N19" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Cronometragem</v>
+        <f t="shared" si="1"/>
+        <v>Horário</v>
       </c>
       <c r="O19" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>Final</v>
+        <f t="shared" si="1"/>
+        <v>Minuto</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>279</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>282</v>
+        <v>396</v>
       </c>
       <c r="R19" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S19" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T19" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U19" s="38" t="str">
-        <f t="shared" si="1"/>
-        <v>Cronometragem</v>
+        <f t="shared" si="2"/>
+        <v>Horário</v>
       </c>
       <c r="V19" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W19" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.19</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>20</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>1</v>
@@ -5111,86 +5333,86 @@
         <v>1</v>
       </c>
       <c r="L20" s="36" t="str">
-        <f t="shared" ref="L20" si="20">_xlfn.CONCAT(C20)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M20" s="36" t="str">
-        <f t="shared" ref="M20" si="21">_xlfn.CONCAT("", D20)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N20" s="36" t="str">
-        <f t="shared" ref="N20" si="22">_xlfn.CONCAT("", E20)</f>
-        <v>Duração</v>
+        <f t="shared" si="1"/>
+        <v>Horário</v>
       </c>
       <c r="O20" s="36" t="str">
-        <f t="shared" ref="O20" si="23">_xlfn.CONCAT("", F20)</f>
-        <v>DeltaT</v>
+        <f t="shared" si="1"/>
+        <v>Segundo</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>193</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>192</v>
+        <v>397</v>
       </c>
       <c r="R20" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S20" s="40" t="str">
-        <f t="shared" ref="S20" si="24">SUBSTITUTE(C20, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T20" s="40" t="str">
-        <f t="shared" ref="T20" si="25">SUBSTITUTE(D20, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U20" s="38" t="str">
-        <f t="shared" ref="U20" si="26">SUBSTITUTE(E20, "_", " ")</f>
-        <v>Duração</v>
+        <f t="shared" si="2"/>
+        <v>Horário</v>
       </c>
       <c r="V20" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W20" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>21</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>261</v>
+      <c r="E21" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M21" s="36" t="str">
@@ -5198,78 +5420,78 @@
         <v>Evento</v>
       </c>
       <c r="N21" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>Etapa</v>
+        <f t="shared" si="1"/>
+        <v>Horário</v>
       </c>
       <c r="O21" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>Ideação</v>
+        <f t="shared" si="1"/>
+        <v>Milisegundo</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>289</v>
+        <v>58</v>
       </c>
       <c r="R21" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S21" s="40" t="str">
-        <f t="shared" ref="S21:U26" si="27">SUBSTITUTE(C21, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T21" s="40" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U21" s="38" t="str">
-        <f t="shared" si="27"/>
-        <v>Etapa</v>
+        <f t="shared" si="2"/>
+        <v>Horário</v>
       </c>
       <c r="V21" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W21" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>261</v>
+      <c r="E22" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="35" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(C22)</f>
         <v>Temporal</v>
       </c>
       <c r="M22" s="36" t="str">
@@ -5277,78 +5499,78 @@
         <v>Evento</v>
       </c>
       <c r="N22" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>Etapa</v>
+        <f t="shared" ref="N22:N23" si="44">_xlfn.CONCAT("", E22)</f>
+        <v>Microevento</v>
       </c>
       <c r="O22" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>Projetual</v>
+        <f t="shared" ref="O22:O23" si="45">_xlfn.CONCAT("", F22)</f>
+        <v>Pulso</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="R22" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S22" s="40" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="S22:S23" si="46">SUBSTITUTE(C22, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T22" s="40" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="T22:T23" si="47">SUBSTITUTE(D22, "_", " ")</f>
         <v>Evento</v>
       </c>
       <c r="U22" s="38" t="str">
-        <f t="shared" si="27"/>
-        <v>Etapa</v>
+        <f t="shared" ref="U22:U23" si="48">SUBSTITUTE(E22, "_", " ")</f>
+        <v>Microevento</v>
       </c>
       <c r="V22" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W22" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W22:W23" si="49">CONCATENATE("Key.Cro",".",A22)</f>
         <v>Key.Cro.22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>23</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="37" t="s">
+      <c r="E23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="35" t="s">
         <v>1</v>
       </c>
       <c r="L23" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L23" si="50">_xlfn.CONCAT(C23)</f>
         <v>Temporal</v>
       </c>
       <c r="M23" s="36" t="str">
@@ -5356,78 +5578,78 @@
         <v>Evento</v>
       </c>
       <c r="N23" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>Etapa</v>
+        <f t="shared" si="44"/>
+        <v>Microevento</v>
       </c>
       <c r="O23" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v>Simulação</v>
+        <f t="shared" si="45"/>
+        <v>Tick</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>285</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>290</v>
+        <v>433</v>
       </c>
       <c r="R23" s="39" t="s">
         <v>188</v>
       </c>
       <c r="S23" s="40" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="46"/>
         <v>Temporal</v>
       </c>
       <c r="T23" s="40" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>Evento</v>
       </c>
       <c r="U23" s="38" t="str">
-        <f t="shared" si="27"/>
-        <v>Etapa</v>
+        <f t="shared" si="48"/>
+        <v>Microevento</v>
       </c>
       <c r="V23" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W23" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="49"/>
         <v>Key.Cro.23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>24</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="37" t="s">
+      <c r="E24" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="35" t="s">
         <v>1</v>
       </c>
       <c r="L24" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M24" s="36" t="str">
@@ -5435,679 +5657,1548 @@
         <v>Evento</v>
       </c>
       <c r="N24" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Cronómetro</v>
+      </c>
+      <c r="O24" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Inicial</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S24" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T24" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Evento</v>
+      </c>
+      <c r="U24" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Cronómetro</v>
+      </c>
+      <c r="V24" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W24" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>25</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="36" t="str">
+        <f t="shared" ref="L25" si="51">_xlfn.CONCAT(C25)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M25" s="36" t="str">
+        <f t="shared" ref="M25" si="52">_xlfn.CONCAT("", D25)</f>
+        <v>Evento</v>
+      </c>
+      <c r="N25" s="36" t="str">
+        <f t="shared" ref="N25" si="53">_xlfn.CONCAT("", E25)</f>
+        <v>Cronómetro</v>
+      </c>
+      <c r="O25" s="36" t="str">
+        <f t="shared" ref="O25" si="54">_xlfn.CONCAT("", F25)</f>
+        <v>Parcial</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S25" s="40" t="str">
+        <f t="shared" ref="S25" si="55">SUBSTITUTE(C25, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="T25" s="40" t="str">
+        <f t="shared" ref="T25" si="56">SUBSTITUTE(D25, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U25" s="38" t="str">
+        <f t="shared" ref="U25" si="57">SUBSTITUTE(E25, "_", " ")</f>
+        <v>Cronómetro</v>
+      </c>
+      <c r="V25" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W25" s="42" t="str">
+        <f t="shared" ref="W25" si="58">CONCATENATE("Key.Cro",".",A25)</f>
+        <v>Key.Cro.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>26</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M26" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Evento</v>
+      </c>
+      <c r="N26" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Cronómetro</v>
+      </c>
+      <c r="O26" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Final</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T26" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>Evento</v>
+      </c>
+      <c r="U26" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Cronómetro</v>
+      </c>
+      <c r="V26" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W26" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>27</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="36" t="str">
+        <f t="shared" ref="L27" si="59">_xlfn.CONCAT(C27)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M27" s="36" t="str">
+        <f t="shared" ref="M27" si="60">_xlfn.CONCAT("", D27)</f>
+        <v>Evento</v>
+      </c>
+      <c r="N27" s="36" t="str">
+        <f t="shared" ref="N27" si="61">_xlfn.CONCAT("", E27)</f>
+        <v>Duração</v>
+      </c>
+      <c r="O27" s="36" t="str">
+        <f t="shared" ref="O27" si="62">_xlfn.CONCAT("", F27)</f>
+        <v>DeltaT</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S27" s="40" t="str">
+        <f t="shared" ref="S27" si="63">SUBSTITUTE(C27, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="T27" s="40" t="str">
+        <f t="shared" ref="T27" si="64">SUBSTITUTE(D27, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U27" s="38" t="str">
+        <f t="shared" ref="U27" si="65">SUBSTITUTE(E27, "_", " ")</f>
+        <v>Duração</v>
+      </c>
+      <c r="V27" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W27" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>28</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M28" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Evento</v>
+      </c>
+      <c r="N28" s="36" t="str">
         <f t="shared" si="4"/>
         <v>Etapa</v>
       </c>
-      <c r="O24" s="36" t="str">
+      <c r="O28" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Ideação</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S28" s="40" t="str">
+        <f t="shared" ref="S28:U33" si="66">SUBSTITUTE(C28, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="T28" s="40" t="str">
+        <f t="shared" si="66"/>
+        <v>Evento</v>
+      </c>
+      <c r="U28" s="38" t="str">
+        <f t="shared" si="66"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V28" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W28" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>29</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M29" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Evento</v>
+      </c>
+      <c r="N29" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Etapa</v>
+      </c>
+      <c r="O29" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Projetual</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S29" s="40" t="str">
+        <f t="shared" si="66"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T29" s="40" t="str">
+        <f t="shared" si="66"/>
+        <v>Evento</v>
+      </c>
+      <c r="U29" s="38" t="str">
+        <f t="shared" si="66"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V29" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W29" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>30</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M30" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Evento</v>
+      </c>
+      <c r="N30" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Etapa</v>
+      </c>
+      <c r="O30" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Simulação</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S30" s="40" t="str">
+        <f t="shared" si="66"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T30" s="40" t="str">
+        <f t="shared" si="66"/>
+        <v>Evento</v>
+      </c>
+      <c r="U30" s="38" t="str">
+        <f t="shared" si="66"/>
+        <v>Etapa</v>
+      </c>
+      <c r="V30" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W30" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M31" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Evento</v>
+      </c>
+      <c r="N31" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>Etapa</v>
+      </c>
+      <c r="O31" s="36" t="str">
         <f t="shared" si="4"/>
         <v>Planejamento</v>
       </c>
-      <c r="P24" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="R24" s="39" t="s">
+      <c r="P31" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="R31" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S24" s="40" t="str">
-        <f t="shared" si="27"/>
+      <c r="S31" s="40" t="str">
+        <f t="shared" si="66"/>
         <v>Temporal</v>
       </c>
-      <c r="T24" s="40" t="str">
-        <f t="shared" si="27"/>
+      <c r="T31" s="40" t="str">
+        <f t="shared" si="66"/>
         <v>Evento</v>
       </c>
-      <c r="U24" s="38" t="str">
-        <f t="shared" si="27"/>
+      <c r="U31" s="38" t="str">
+        <f t="shared" si="66"/>
         <v>Etapa</v>
       </c>
-      <c r="V24" s="41" t="s">
+      <c r="V31" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W24" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
-        <v>25</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="33" t="s">
+      <c r="W31" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>32</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="E32" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="L25" s="36" t="str">
-        <f t="shared" si="3"/>
+      <c r="G32" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="36" t="str">
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
-      <c r="M25" s="36" t="str">
+      <c r="M32" s="36" t="str">
         <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
-      <c r="N25" s="36" t="str">
+      <c r="N32" s="36" t="str">
         <f t="shared" si="4"/>
         <v>Etapa</v>
       </c>
-      <c r="O25" s="36" t="str">
+      <c r="O32" s="36" t="str">
         <f t="shared" si="4"/>
         <v>Construção</v>
       </c>
-      <c r="P25" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="R25" s="39" t="s">
+      <c r="P32" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="R32" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S25" s="40" t="str">
-        <f t="shared" si="27"/>
+      <c r="S32" s="40" t="str">
+        <f t="shared" si="66"/>
         <v>Temporal</v>
       </c>
-      <c r="T25" s="40" t="str">
-        <f t="shared" si="27"/>
+      <c r="T32" s="40" t="str">
+        <f t="shared" si="66"/>
         <v>Evento</v>
       </c>
-      <c r="U25" s="38" t="str">
-        <f t="shared" si="27"/>
+      <c r="U32" s="38" t="str">
+        <f t="shared" si="66"/>
         <v>Etapa</v>
       </c>
-      <c r="V25" s="41" t="s">
+      <c r="V32" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W25" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
-        <v>26</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="W32" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>33</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="20" t="s">
+      <c r="E33" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="G33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
-      <c r="M26" s="22" t="str">
+      <c r="M33" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
-      <c r="N26" s="22" t="str">
+      <c r="N33" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Etapa</v>
       </c>
-      <c r="O26" s="22" t="str">
+      <c r="O33" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Operação</v>
       </c>
-      <c r="P26" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q26" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="R26" s="39" t="s">
+      <c r="P33" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="R33" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S26" s="40" t="str">
-        <f t="shared" si="27"/>
+      <c r="S33" s="40" t="str">
+        <f t="shared" si="66"/>
         <v>Temporal</v>
       </c>
-      <c r="T26" s="40" t="str">
-        <f t="shared" si="27"/>
+      <c r="T33" s="40" t="str">
+        <f t="shared" si="66"/>
         <v>Evento</v>
       </c>
-      <c r="U26" s="38" t="str">
-        <f t="shared" si="27"/>
+      <c r="U33" s="38" t="str">
+        <f t="shared" si="66"/>
         <v>Etapa</v>
       </c>
-      <c r="V26" s="41" t="s">
+      <c r="V33" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W26" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
-        <v>27</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" s="33" t="s">
+      <c r="W33" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>34</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="22" t="str">
-        <f t="shared" ref="L27" si="28">_xlfn.CONCAT(C27)</f>
+      <c r="E34" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="22" t="str">
+        <f t="shared" ref="L34" si="67">_xlfn.CONCAT(C34)</f>
         <v>Temporal</v>
       </c>
-      <c r="M27" s="22" t="str">
-        <f t="shared" ref="M27" si="29">_xlfn.CONCAT("", D27)</f>
+      <c r="M34" s="22" t="str">
+        <f t="shared" ref="M34" si="68">_xlfn.CONCAT("", D34)</f>
         <v>Evento</v>
       </c>
-      <c r="N27" s="22" t="str">
-        <f t="shared" ref="N27" si="30">_xlfn.CONCAT("", E27)</f>
+      <c r="N34" s="22" t="str">
+        <f t="shared" ref="N34" si="69">_xlfn.CONCAT("", E34)</f>
         <v>Histórico</v>
       </c>
-      <c r="O27" s="22" t="str">
-        <f t="shared" ref="O27" si="31">_xlfn.CONCAT("", F27)</f>
+      <c r="O34" s="22" t="str">
+        <f t="shared" ref="O34" si="70">_xlfn.CONCAT("", F34)</f>
         <v>Inaugural</v>
       </c>
-      <c r="P27" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="R27" s="39" t="s">
+      <c r="P34" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="R34" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S27" s="40" t="str">
-        <f t="shared" ref="S27" si="32">SUBSTITUTE(C27, "_", " ")</f>
+      <c r="S34" s="40" t="str">
+        <f t="shared" ref="S34" si="71">SUBSTITUTE(C34, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="T27" s="40" t="str">
-        <f t="shared" ref="T27" si="33">SUBSTITUTE(D27, "_", " ")</f>
+      <c r="T34" s="40" t="str">
+        <f t="shared" ref="T34" si="72">SUBSTITUTE(D34, "_", " ")</f>
         <v>Evento</v>
       </c>
-      <c r="U27" s="38" t="str">
-        <f t="shared" ref="U27" si="34">SUBSTITUTE(E27, "_", " ")</f>
+      <c r="U34" s="38" t="str">
+        <f t="shared" ref="U34" si="73">SUBSTITUTE(E34, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="V27" s="41" t="s">
+      <c r="V34" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W27" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
-        <v>28</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="33" t="s">
+      <c r="W34" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>35</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="22" t="str">
-        <f t="shared" ref="L28:L29" si="35">_xlfn.CONCAT(C28)</f>
+      <c r="E35" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="22" t="str">
+        <f t="shared" ref="L35:L36" si="74">_xlfn.CONCAT(C35)</f>
         <v>Temporal</v>
       </c>
-      <c r="M28" s="22" t="str">
-        <f t="shared" ref="M28:M29" si="36">_xlfn.CONCAT("", D28)</f>
+      <c r="M35" s="22" t="str">
+        <f t="shared" ref="M35:M36" si="75">_xlfn.CONCAT("", D35)</f>
         <v>Evento</v>
       </c>
-      <c r="N28" s="22" t="str">
-        <f t="shared" ref="N28:N29" si="37">_xlfn.CONCAT("", E28)</f>
+      <c r="N35" s="22" t="str">
+        <f t="shared" ref="N35:N36" si="76">_xlfn.CONCAT("", E35)</f>
         <v>Histórico</v>
       </c>
-      <c r="O28" s="22" t="str">
-        <f t="shared" ref="O28:O29" si="38">_xlfn.CONCAT("", F28)</f>
+      <c r="O35" s="22" t="str">
+        <f t="shared" ref="O35:O36" si="77">_xlfn.CONCAT("", F35)</f>
         <v>Modernizar</v>
       </c>
-      <c r="P28" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q28" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="R28" s="39" t="s">
+      <c r="P35" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="R35" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S28" s="40" t="str">
-        <f t="shared" ref="S28:S29" si="39">SUBSTITUTE(C28, "_", " ")</f>
+      <c r="S35" s="40" t="str">
+        <f t="shared" ref="S35:S36" si="78">SUBSTITUTE(C35, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="T28" s="40" t="str">
-        <f t="shared" ref="T28:T29" si="40">SUBSTITUTE(D28, "_", " ")</f>
+      <c r="T35" s="40" t="str">
+        <f t="shared" ref="T35:T36" si="79">SUBSTITUTE(D35, "_", " ")</f>
         <v>Evento</v>
       </c>
-      <c r="U28" s="38" t="str">
-        <f t="shared" ref="U28:U29" si="41">SUBSTITUTE(E28, "_", " ")</f>
+      <c r="U35" s="38" t="str">
+        <f t="shared" ref="U35:U36" si="80">SUBSTITUTE(E35, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="V28" s="41" t="s">
+      <c r="V35" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W28" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
-        <v>29</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="33" t="s">
+      <c r="W35" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>36</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="22" t="str">
-        <f t="shared" si="35"/>
+      <c r="E36" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="22" t="str">
+        <f t="shared" si="74"/>
         <v>Temporal</v>
       </c>
-      <c r="M29" s="22" t="str">
-        <f t="shared" si="36"/>
+      <c r="M36" s="22" t="str">
+        <f t="shared" si="75"/>
         <v>Evento</v>
       </c>
-      <c r="N29" s="22" t="str">
-        <f t="shared" si="37"/>
+      <c r="N36" s="22" t="str">
+        <f t="shared" si="76"/>
         <v>Histórico</v>
       </c>
-      <c r="O29" s="22" t="str">
-        <f t="shared" si="38"/>
+      <c r="O36" s="22" t="str">
+        <f t="shared" si="77"/>
         <v>Troca</v>
       </c>
-      <c r="P29" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q29" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="R29" s="39" t="s">
+      <c r="P36" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="R36" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S29" s="40" t="str">
-        <f t="shared" si="39"/>
+      <c r="S36" s="40" t="str">
+        <f t="shared" si="78"/>
         <v>Temporal</v>
       </c>
-      <c r="T29" s="40" t="str">
-        <f t="shared" si="40"/>
+      <c r="T36" s="40" t="str">
+        <f t="shared" si="79"/>
         <v>Evento</v>
       </c>
-      <c r="U29" s="38" t="str">
-        <f t="shared" si="41"/>
+      <c r="U36" s="38" t="str">
+        <f t="shared" si="80"/>
         <v>Histórico</v>
       </c>
-      <c r="V29" s="41" t="s">
+      <c r="V36" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W29" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
-        <v>30</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D30" s="33" t="s">
+      <c r="W36" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>37</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="20" t="s">
+      <c r="E37" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="22" t="str">
-        <f t="shared" ref="L30:L31" si="42">_xlfn.CONCAT(C30)</f>
+      <c r="G37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="22" t="str">
+        <f t="shared" ref="L37:L38" si="81">_xlfn.CONCAT(C37)</f>
         <v>Temporal</v>
       </c>
-      <c r="M30" s="22" t="str">
-        <f t="shared" ref="M30:M31" si="43">_xlfn.CONCAT("", D30)</f>
+      <c r="M37" s="22" t="str">
+        <f t="shared" ref="M37:M38" si="82">_xlfn.CONCAT("", D37)</f>
         <v>Evento</v>
       </c>
-      <c r="N30" s="22" t="str">
-        <f t="shared" ref="N30:N31" si="44">_xlfn.CONCAT("", E30)</f>
+      <c r="N37" s="22" t="str">
+        <f t="shared" ref="N37:N38" si="83">_xlfn.CONCAT("", E37)</f>
         <v>Histórico</v>
       </c>
-      <c r="O30" s="22" t="str">
-        <f t="shared" ref="O30:O31" si="45">_xlfn.CONCAT("", F30)</f>
+      <c r="O37" s="22" t="str">
+        <f t="shared" ref="O37:O38" si="84">_xlfn.CONCAT("", F37)</f>
         <v>Operacional</v>
       </c>
-      <c r="P30" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q30" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="R30" s="39" t="s">
+      <c r="P37" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="R37" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S30" s="40" t="str">
-        <f t="shared" ref="S30:S31" si="46">SUBSTITUTE(C30, "_", " ")</f>
+      <c r="S37" s="40" t="str">
+        <f t="shared" ref="S37:S38" si="85">SUBSTITUTE(C37, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="T30" s="40" t="str">
-        <f t="shared" ref="T30:T31" si="47">SUBSTITUTE(D30, "_", " ")</f>
+      <c r="T37" s="40" t="str">
+        <f t="shared" ref="T37:T38" si="86">SUBSTITUTE(D37, "_", " ")</f>
         <v>Evento</v>
       </c>
-      <c r="U30" s="38" t="str">
-        <f t="shared" ref="U30:U31" si="48">SUBSTITUTE(E30, "_", " ")</f>
+      <c r="U37" s="38" t="str">
+        <f t="shared" ref="U37:U38" si="87">SUBSTITUTE(E37, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="V30" s="41" t="s">
+      <c r="V37" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W30" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31">
-        <v>31</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="33" t="s">
+      <c r="W37" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>38</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="G31" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="22" t="str">
-        <f t="shared" si="42"/>
+      <c r="E38" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="22" t="str">
+        <f t="shared" si="81"/>
         <v>Temporal</v>
       </c>
-      <c r="M31" s="22" t="str">
-        <f t="shared" si="43"/>
+      <c r="M38" s="22" t="str">
+        <f t="shared" si="82"/>
         <v>Evento</v>
       </c>
-      <c r="N31" s="22" t="str">
-        <f t="shared" si="44"/>
+      <c r="N38" s="22" t="str">
+        <f t="shared" si="83"/>
         <v>Histórico</v>
       </c>
-      <c r="O31" s="22" t="str">
-        <f t="shared" si="45"/>
+      <c r="O38" s="22" t="str">
+        <f t="shared" si="84"/>
         <v>Reforma</v>
       </c>
-      <c r="P31" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q31" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="R31" s="39" t="s">
+      <c r="P38" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="R38" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S31" s="40" t="str">
-        <f t="shared" si="46"/>
+      <c r="S38" s="40" t="str">
+        <f t="shared" si="85"/>
         <v>Temporal</v>
       </c>
-      <c r="T31" s="40" t="str">
-        <f t="shared" si="47"/>
+      <c r="T38" s="40" t="str">
+        <f t="shared" si="86"/>
         <v>Evento</v>
       </c>
-      <c r="U31" s="38" t="str">
-        <f t="shared" si="48"/>
+      <c r="U38" s="38" t="str">
+        <f t="shared" si="87"/>
         <v>Histórico</v>
       </c>
-      <c r="V31" s="41" t="s">
+      <c r="V38" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W31" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70">
-        <v>32</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="21" t="s">
+      <c r="W38" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <v>39</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="G32" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="22" t="str">
-        <f t="shared" ref="L32" si="49">_xlfn.CONCAT(C32)</f>
+      <c r="E39" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="22" t="str">
+        <f t="shared" ref="L39" si="88">_xlfn.CONCAT(C39)</f>
         <v>Temporal</v>
       </c>
-      <c r="M32" s="22" t="str">
-        <f t="shared" ref="M32" si="50">_xlfn.CONCAT("", D32)</f>
+      <c r="M39" s="22" t="str">
+        <f t="shared" ref="M39" si="89">_xlfn.CONCAT("", D39)</f>
         <v>Evento</v>
       </c>
-      <c r="N32" s="22" t="str">
-        <f t="shared" ref="N32" si="51">_xlfn.CONCAT("", E32)</f>
+      <c r="N39" s="22" t="str">
+        <f t="shared" ref="N39" si="90">_xlfn.CONCAT("", E39)</f>
         <v>Histórico</v>
       </c>
-      <c r="O32" s="22" t="str">
-        <f t="shared" ref="O32" si="52">_xlfn.CONCAT("", F32)</f>
+      <c r="O39" s="22" t="str">
+        <f t="shared" ref="O39" si="91">_xlfn.CONCAT("", F39)</f>
         <v>Pericial</v>
       </c>
-      <c r="P32" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="R32" s="39" t="s">
+      <c r="P39" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="R39" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S32" s="40" t="str">
-        <f t="shared" ref="S32" si="53">SUBSTITUTE(C32, "_", " ")</f>
+      <c r="S39" s="40" t="str">
+        <f t="shared" ref="S39" si="92">SUBSTITUTE(C39, "_", " ")</f>
         <v>Temporal</v>
       </c>
-      <c r="T32" s="40" t="str">
-        <f t="shared" ref="T32" si="54">SUBSTITUTE(D32, "_", " ")</f>
+      <c r="T39" s="40" t="str">
+        <f t="shared" ref="T39" si="93">SUBSTITUTE(D39, "_", " ")</f>
         <v>Evento</v>
       </c>
-      <c r="U32" s="38" t="str">
-        <f t="shared" ref="U32" si="55">SUBSTITUTE(E32, "_", " ")</f>
+      <c r="U39" s="38" t="str">
+        <f t="shared" ref="U39" si="94">SUBSTITUTE(E39, "_", " ")</f>
         <v>Histórico</v>
       </c>
-      <c r="V32" s="41" t="s">
+      <c r="V39" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="W32" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Cro.32</v>
+      <c r="W39" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>Key.Cro.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <v>40</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>403</v>
+      </c>
+      <c r="G40" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="22" t="str">
+        <f t="shared" ref="L40:L41" si="95">_xlfn.CONCAT(C40)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M40" s="22" t="str">
+        <f t="shared" ref="M40:M41" si="96">_xlfn.CONCAT("", D40)</f>
+        <v>Evento</v>
+      </c>
+      <c r="N40" s="22" t="str">
+        <f t="shared" ref="N40:N41" si="97">_xlfn.CONCAT("", E40)</f>
+        <v>Agendado</v>
+      </c>
+      <c r="O40" s="22" t="str">
+        <f t="shared" ref="O40:O41" si="98">_xlfn.CONCAT("", F40)</f>
+        <v>Congresso</v>
+      </c>
+      <c r="P40" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S40" s="40" t="str">
+        <f t="shared" ref="S40:S41" si="99">SUBSTITUTE(C40, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="T40" s="40" t="str">
+        <f t="shared" ref="T40:T41" si="100">SUBSTITUTE(D40, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U40" s="38" t="str">
+        <f t="shared" ref="U40:U41" si="101">SUBSTITUTE(E40, "_", " ")</f>
+        <v>Agendado</v>
+      </c>
+      <c r="V40" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W40" s="42" t="str">
+        <f t="shared" ref="W40:W41" si="102">CONCATENATE("Key.Cro",".",A40)</f>
+        <v>Key.Cro.40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <v>41</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="22" t="str">
+        <f t="shared" si="95"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M41" s="22" t="str">
+        <f t="shared" si="96"/>
+        <v>Evento</v>
+      </c>
+      <c r="N41" s="22" t="str">
+        <f t="shared" si="97"/>
+        <v>Agendado</v>
+      </c>
+      <c r="O41" s="22" t="str">
+        <f t="shared" si="98"/>
+        <v>Reunião</v>
+      </c>
+      <c r="P41" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q41" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S41" s="40" t="str">
+        <f t="shared" si="99"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T41" s="40" t="str">
+        <f t="shared" si="100"/>
+        <v>Evento</v>
+      </c>
+      <c r="U41" s="38" t="str">
+        <f t="shared" si="101"/>
+        <v>Agendado</v>
+      </c>
+      <c r="V41" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W41" s="42" t="str">
+        <f t="shared" si="102"/>
+        <v>Key.Cro.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
+        <v>42</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F42" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="22" t="str">
+        <f t="shared" ref="L42:L43" si="103">_xlfn.CONCAT(C42)</f>
+        <v>Temporal</v>
+      </c>
+      <c r="M42" s="22" t="str">
+        <f t="shared" ref="M42:M43" si="104">_xlfn.CONCAT("", D42)</f>
+        <v>Evento</v>
+      </c>
+      <c r="N42" s="22" t="str">
+        <f t="shared" ref="N42:N43" si="105">_xlfn.CONCAT("", E42)</f>
+        <v>Agendado</v>
+      </c>
+      <c r="O42" s="22" t="str">
+        <f t="shared" ref="O42:O43" si="106">_xlfn.CONCAT("", F42)</f>
+        <v>Entrega</v>
+      </c>
+      <c r="P42" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q42" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S42" s="40" t="str">
+        <f t="shared" ref="S42:S43" si="107">SUBSTITUTE(C42, "_", " ")</f>
+        <v>Temporal</v>
+      </c>
+      <c r="T42" s="40" t="str">
+        <f t="shared" ref="T42:T43" si="108">SUBSTITUTE(D42, "_", " ")</f>
+        <v>Evento</v>
+      </c>
+      <c r="U42" s="38" t="str">
+        <f t="shared" ref="U42:U43" si="109">SUBSTITUTE(E42, "_", " ")</f>
+        <v>Agendado</v>
+      </c>
+      <c r="V42" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W42" s="42" t="str">
+        <f t="shared" ref="W42:W43" si="110">CONCATENATE("Key.Cro",".",A42)</f>
+        <v>Key.Cro.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31">
+        <v>43</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="22" t="str">
+        <f t="shared" si="103"/>
+        <v>Temporal</v>
+      </c>
+      <c r="M43" s="22" t="str">
+        <f t="shared" si="104"/>
+        <v>Evento</v>
+      </c>
+      <c r="N43" s="22" t="str">
+        <f t="shared" si="105"/>
+        <v>Agendado</v>
+      </c>
+      <c r="O43" s="22" t="str">
+        <f t="shared" si="106"/>
+        <v>Exame</v>
+      </c>
+      <c r="P43" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q43" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="R43" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S43" s="40" t="str">
+        <f t="shared" si="107"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T43" s="40" t="str">
+        <f t="shared" si="108"/>
+        <v>Evento</v>
+      </c>
+      <c r="U43" s="38" t="str">
+        <f t="shared" si="109"/>
+        <v>Agendado</v>
+      </c>
+      <c r="V43" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="W43" s="42" t="str">
+        <f t="shared" si="110"/>
+        <v>Key.Cro.43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F1048576 F1:F30">
+  <conditionalFormatting sqref="F44:F1048576 F1:F37">
     <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6127,12 +7218,12 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.88671875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.88671875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.109375" style="5"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6344,7 +7435,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7BFE13-E93E-488C-9C8F-4E4982DFBAE7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6352,25 +7443,25 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58">
         <v>1</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -6378,11 +7469,22 @@
         <v>54</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>3</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A2">
+  <conditionalFormatting sqref="A1:A3">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -6393,42 +7495,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5087910E-DA31-4318-A539-726BE963325D}">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>74</v>
@@ -6440,64 +7542,64 @@
         <v>48</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N1" s="57" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="T1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="U1" s="62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="V1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>2</v>
       </c>
@@ -6541,7 +7643,7 @@
         <v>78</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="P2" s="46" t="s">
         <v>1</v>
@@ -6568,12 +7670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>3</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>51</v>
@@ -6612,7 +7714,7 @@
         <v>78</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="P3" s="46" t="s">
         <v>1</v>
@@ -6639,27 +7741,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>4</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>358</v>
+        <v>435</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>1</v>
@@ -6683,7 +7785,7 @@
         <v>78</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>1</v>
@@ -6710,27 +7812,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <v>5</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>1</v>
@@ -6754,7 +7856,7 @@
         <v>78</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>1</v>
@@ -6781,27 +7883,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>6</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>1</v>
@@ -6825,7 +7927,7 @@
         <v>78</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="P6" s="46" t="s">
         <v>1</v>
@@ -6852,27 +7954,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>7</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>1</v>
@@ -6896,7 +7998,7 @@
         <v>78</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>1</v>
@@ -6923,27 +8025,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>8</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>1</v>
@@ -6967,7 +8069,7 @@
         <v>78</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>1</v>
@@ -6994,27 +8096,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>9</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>1</v>
@@ -7038,7 +8140,7 @@
         <v>78</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="P9" s="46" t="s">
         <v>1</v>
@@ -7065,27 +8167,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>10</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="H10" s="45" t="s">
         <v>1</v>
@@ -7109,7 +8211,7 @@
         <v>78</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>1</v>
@@ -7136,27 +8238,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>11</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="H11" s="45" t="s">
         <v>1</v>
@@ -7180,7 +8282,7 @@
         <v>78</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="P11" s="46" t="s">
         <v>1</v>
@@ -7207,27 +8309,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>12</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>1</v>
@@ -7251,7 +8353,7 @@
         <v>78</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>1</v>
@@ -7278,27 +8380,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>13</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>1</v>
@@ -7322,7 +8424,7 @@
         <v>78</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>1</v>
@@ -7349,27 +8451,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>14</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>1</v>
@@ -7393,7 +8495,7 @@
         <v>78</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="P14" s="46" t="s">
         <v>1</v>
@@ -7420,18 +8522,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>15</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>51</v>
@@ -7464,7 +8566,7 @@
         <v>78</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>1</v>
@@ -7491,27 +8593,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>16</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="H16" s="45" t="s">
         <v>1</v>
@@ -7535,7 +8637,7 @@
         <v>78</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>1</v>
@@ -7562,27 +8664,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>17</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>1</v>
+        <v>341</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>1</v>
+        <v>342</v>
       </c>
       <c r="H17" s="45" t="s">
         <v>1</v>
@@ -7606,7 +8708,7 @@
         <v>78</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>1</v>
@@ -7633,39 +8735,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>1</v>
+        <v>293</v>
       </c>
       <c r="L18" s="45" t="s">
         <v>1</v>
@@ -7677,7 +8779,7 @@
         <v>78</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="P18" s="46" t="s">
         <v>1</v>
@@ -7704,39 +8806,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>1</v>
@@ -7748,7 +8850,7 @@
         <v>78</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>1</v>
@@ -7775,39 +8877,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>1</v>
+        <v>299</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="K20" s="50" t="s">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="L20" s="45" t="s">
         <v>1</v>
@@ -7819,7 +8921,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="P20" s="46" t="s">
         <v>1</v>
@@ -7846,33 +8948,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>1</v>
@@ -7890,7 +8992,7 @@
         <v>78</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="P21" s="46" t="s">
         <v>1</v>
@@ -7917,33 +9019,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>1</v>
+        <v>293</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>1</v>
@@ -7961,7 +9063,7 @@
         <v>78</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="P22" s="46" t="s">
         <v>1</v>
@@ -7988,33 +9090,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
-        <v>23</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>343</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>310</v>
+        <v>420</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>296</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>311</v>
+        <v>420</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="J23" s="45" t="s">
         <v>1</v>
@@ -8032,7 +9134,7 @@
         <v>78</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="P23" s="46" t="s">
         <v>1</v>
@@ -8059,33 +9161,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
-        <v>24</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>343</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>310</v>
+        <v>420</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>299</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>311</v>
+        <v>420</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="J24" s="45" t="s">
         <v>1</v>
@@ -8103,7 +9205,7 @@
         <v>78</v>
       </c>
       <c r="O24" s="51" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="P24" s="46" t="s">
         <v>1</v>
@@ -8130,15 +9232,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
-        <v>25</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>1</v>
@@ -8174,13 +9276,13 @@
         <v>78</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>87</v>
+        <v>331</v>
       </c>
       <c r="P25" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="51" t="s">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="R25" s="46" t="s">
         <v>1</v>
@@ -8201,15 +9303,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
-        <v>26</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>1</v>
@@ -8245,13 +9347,13 @@
         <v>78</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>84</v>
+        <v>332</v>
       </c>
       <c r="P26" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="51" t="s">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="R26" s="46" t="s">
         <v>1</v>
@@ -8272,15 +9374,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
-        <v>27</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="45" t="s">
         <v>1</v>
@@ -8316,13 +9418,13 @@
         <v>78</v>
       </c>
       <c r="O27" s="51" t="s">
-        <v>124</v>
+        <v>333</v>
       </c>
       <c r="P27" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="51" t="s">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="R27" s="46" t="s">
         <v>1</v>
@@ -8343,15 +9445,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
-        <v>28</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>72</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>1</v>
@@ -8387,13 +9489,13 @@
         <v>78</v>
       </c>
       <c r="O28" s="51" t="s">
-        <v>124</v>
+        <v>334</v>
       </c>
       <c r="P28" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="51" t="s">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="R28" s="46" t="s">
         <v>1</v>
@@ -8414,15 +9516,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47">
-        <v>29</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>274</v>
+        <v>20</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D29" s="45" t="s">
         <v>1</v>
@@ -8458,13 +9560,13 @@
         <v>78</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="P29" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="51" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="R29" s="46" t="s">
         <v>1</v>
@@ -8485,15 +9587,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
-        <v>30</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>274</v>
+        <v>21</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>1</v>
@@ -8529,13 +9631,13 @@
         <v>78</v>
       </c>
       <c r="O30" s="51" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="P30" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="51" t="s">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="R30" s="46" t="s">
         <v>1</v>
@@ -8556,15 +9658,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47">
-        <v>31</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>236</v>
+        <v>22</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>308</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>273</v>
+        <v>54</v>
       </c>
       <c r="D31" s="45" t="s">
         <v>1</v>
@@ -8600,13 +9702,13 @@
         <v>78</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>92</v>
+        <v>316</v>
       </c>
       <c r="P31" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="51" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="R31" s="46" t="s">
         <v>1</v>
@@ -8627,27 +9729,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
-        <v>32</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>273</v>
+        <v>23</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>1</v>
+        <v>287</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>288</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="H32" s="45" t="s">
         <v>1</v>
@@ -8671,13 +9773,13 @@
         <v>78</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="P32" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="51" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="R32" s="46" t="s">
         <v>1</v>
@@ -8698,27 +9800,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
-        <v>33</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>310</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>1</v>
+        <v>287</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>288</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="H33" s="45" t="s">
         <v>1</v>
@@ -8742,13 +9844,13 @@
         <v>78</v>
       </c>
       <c r="O33" s="51" t="s">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="P33" s="46" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="51" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="R33" s="46" t="s">
         <v>1</v>
@@ -8769,15 +9871,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>1</v>
@@ -8813,13 +9915,13 @@
         <v>78</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P34" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="R34" s="46" t="s">
         <v>1</v>
@@ -8840,15 +9942,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
-        <v>35</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>223</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="D35" s="45" t="s">
         <v>1</v>
@@ -8884,13 +9986,13 @@
         <v>78</v>
       </c>
       <c r="O35" s="51" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="P35" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="51" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="R35" s="46" t="s">
         <v>1</v>
@@ -8911,15 +10013,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="D36" s="45" t="s">
         <v>1</v>
@@ -8955,13 +10057,13 @@
         <v>78</v>
       </c>
       <c r="O36" s="51" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="P36" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="R36" s="46" t="s">
         <v>1</v>
@@ -8982,21 +10084,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
-        <v>37</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>99</v>
+        <v>28</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="F37" s="45" t="s">
         <v>1</v>
@@ -9026,13 +10128,13 @@
         <v>78</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="P37" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="51" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="R37" s="46" t="s">
         <v>1</v>
@@ -9053,21 +10155,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
-        <v>38</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>261</v>
+        <v>29</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="F38" s="45" t="s">
         <v>1</v>
@@ -9097,13 +10199,13 @@
         <v>78</v>
       </c>
       <c r="O38" s="51" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="P38" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="R38" s="46" t="s">
         <v>1</v>
@@ -9124,21 +10226,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
-        <v>39</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>261</v>
+        <v>30</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="F39" s="45" t="s">
         <v>1</v>
@@ -9168,13 +10270,13 @@
         <v>78</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P39" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="R39" s="46" t="s">
         <v>1</v>
@@ -9195,21 +10297,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>261</v>
+        <v>233</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>270</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>1</v>
@@ -9239,10 +10341,10 @@
         <v>78</v>
       </c>
       <c r="O40" s="51" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="P40" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q40" s="51" t="s">
         <v>242</v>
@@ -9266,21 +10368,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>261</v>
+        <v>234</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>270</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="F41" s="45" t="s">
         <v>1</v>
@@ -9310,10 +10412,10 @@
         <v>78</v>
       </c>
       <c r="O41" s="51" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="P41" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q41" s="51" t="s">
         <v>243</v>
@@ -9337,21 +10439,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
-        <v>42</v>
-      </c>
-      <c r="B42" s="54" t="s">
-        <v>109</v>
+        <v>33</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>76</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="F42" s="45" t="s">
         <v>1</v>
@@ -9381,13 +10483,13 @@
         <v>78</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="P42" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="R42" s="46" t="s">
         <v>1</v>
@@ -9408,15 +10510,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
-        <v>43</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>128</v>
+        <v>34</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D43" s="45" t="s">
         <v>1</v>
@@ -9452,13 +10554,13 @@
         <v>78</v>
       </c>
       <c r="O43" s="51" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="P43" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q43" s="51" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="R43" s="46" t="s">
         <v>1</v>
@@ -9479,15 +10581,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="D44" s="45" t="s">
         <v>1</v>
@@ -9523,13 +10625,13 @@
         <v>78</v>
       </c>
       <c r="O44" s="51" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="P44" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q44" s="51" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="R44" s="46" t="s">
         <v>1</v>
@@ -9550,15 +10652,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>1</v>
@@ -9594,13 +10696,13 @@
         <v>78</v>
       </c>
       <c r="O45" s="51" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="P45" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q45" s="51" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="R45" s="46" t="s">
         <v>1</v>
@@ -9621,21 +10723,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
-        <v>46</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F46" s="45" t="s">
         <v>1</v>
@@ -9665,13 +10767,13 @@
         <v>78</v>
       </c>
       <c r="O46" s="51" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="P46" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="R46" s="46" t="s">
         <v>1</v>
@@ -9692,21 +10794,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47">
-        <v>47</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>136</v>
+        <v>38</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F47" s="45" t="s">
         <v>1</v>
@@ -9736,13 +10838,13 @@
         <v>78</v>
       </c>
       <c r="O47" s="51" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="P47" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="R47" s="46" t="s">
         <v>1</v>
@@ -9763,21 +10865,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47">
-        <v>48</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>138</v>
+        <v>39</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F48" s="45" t="s">
         <v>1</v>
@@ -9807,13 +10909,13 @@
         <v>78</v>
       </c>
       <c r="O48" s="51" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="P48" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="R48" s="46" t="s">
         <v>1</v>
@@ -9834,21 +10936,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F49" s="45" t="s">
         <v>1</v>
@@ -9878,13 +10980,13 @@
         <v>78</v>
       </c>
       <c r="O49" s="51" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="P49" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="R49" s="46" t="s">
         <v>1</v>
@@ -9905,21 +11007,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F50" s="45" t="s">
         <v>1</v>
@@ -9949,13 +11051,13 @@
         <v>78</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="P50" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="R50" s="46" t="s">
         <v>1</v>
@@ -9976,21 +11078,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47">
-        <v>51</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>109</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F51" s="45" t="s">
         <v>1</v>
@@ -10020,13 +11122,13 @@
         <v>78</v>
       </c>
       <c r="O51" s="51" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="P51" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="R51" s="46" t="s">
         <v>1</v>
@@ -10047,15 +11149,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47">
-        <v>52</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>128</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D52" s="45" t="s">
         <v>1</v>
@@ -10091,13 +11193,13 @@
         <v>78</v>
       </c>
       <c r="O52" s="51" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="P52" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q52" s="51" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="R52" s="46" t="s">
         <v>1</v>
@@ -10118,15 +11220,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47">
-        <v>53</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>88</v>
+        <v>44</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>130</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D53" s="45" t="s">
         <v>1</v>
@@ -10162,13 +11264,13 @@
         <v>78</v>
       </c>
       <c r="O53" s="51" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="P53" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q53" s="51" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="R53" s="46" t="s">
         <v>1</v>
@@ -10189,15 +11291,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47">
-        <v>54</v>
-      </c>
-      <c r="B54" s="49" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>132</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D54" s="45" t="s">
         <v>1</v>
@@ -10233,13 +11335,13 @@
         <v>78</v>
       </c>
       <c r="O54" s="51" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="P54" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q54" s="51" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="R54" s="46" t="s">
         <v>1</v>
@@ -10260,15 +11362,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D55" s="45" t="s">
         <v>1</v>
@@ -10304,13 +11406,13 @@
         <v>78</v>
       </c>
       <c r="O55" s="51" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="P55" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q55" s="51" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="R55" s="46" t="s">
         <v>1</v>
@@ -10331,15 +11433,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>1</v>
@@ -10375,13 +11477,13 @@
         <v>78</v>
       </c>
       <c r="O56" s="51" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="P56" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q56" s="51" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="R56" s="46" t="s">
         <v>1</v>
@@ -10402,15 +11504,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D57" s="45" t="s">
         <v>1</v>
@@ -10446,13 +11548,13 @@
         <v>78</v>
       </c>
       <c r="O57" s="51" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="P57" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q57" s="51" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="R57" s="46" t="s">
         <v>1</v>
@@ -10473,15 +11575,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D58" s="45" t="s">
         <v>1</v>
@@ -10517,13 +11619,13 @@
         <v>78</v>
       </c>
       <c r="O58" s="51" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="P58" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q58" s="51" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="R58" s="46" t="s">
         <v>1</v>
@@ -10544,15 +11646,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47">
+        <v>50</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="D59" s="45" t="s">
         <v>1</v>
@@ -10588,13 +11690,13 @@
         <v>78</v>
       </c>
       <c r="O59" s="51" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="P59" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q59" s="51" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="R59" s="46" t="s">
         <v>1</v>
@@ -10615,15 +11717,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47">
-        <v>60</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>1</v>
@@ -10659,13 +11761,13 @@
         <v>78</v>
       </c>
       <c r="O60" s="51" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="P60" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q60" s="51" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="R60" s="46" t="s">
         <v>1</v>
@@ -10686,15 +11788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47">
-        <v>61</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>121</v>
+        <v>52</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D61" s="45" t="s">
         <v>1</v>
@@ -10730,13 +11832,13 @@
         <v>78</v>
       </c>
       <c r="O61" s="51" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="P61" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q61" s="51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R61" s="46" t="s">
         <v>1</v>
@@ -10757,15 +11859,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47">
+        <v>53</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="B62" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>1</v>
@@ -10801,13 +11903,13 @@
         <v>78</v>
       </c>
       <c r="O62" s="51" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="P62" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q62" s="51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R62" s="46" t="s">
         <v>1</v>
@@ -10828,15 +11930,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47">
-        <v>63</v>
-      </c>
-      <c r="B63" s="54" t="s">
-        <v>117</v>
+        <v>54</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>90</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>1</v>
@@ -10872,13 +11974,13 @@
         <v>78</v>
       </c>
       <c r="O63" s="51" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="P63" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q63" s="51" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="R63" s="46" t="s">
         <v>1</v>
@@ -10899,21 +12001,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B64" s="54" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="F64" s="45" t="s">
         <v>1</v>
@@ -10943,13 +12045,13 @@
         <v>78</v>
       </c>
       <c r="O64" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P64" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q64" s="51" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="R64" s="46" t="s">
         <v>1</v>
@@ -10970,21 +12072,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47">
-        <v>65</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>249</v>
+        <v>56</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="F65" s="45" t="s">
         <v>1</v>
@@ -11017,10 +12119,10 @@
         <v>114</v>
       </c>
       <c r="P65" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q65" s="51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R65" s="46" t="s">
         <v>1</v>
@@ -11041,21 +12143,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47">
-        <v>66</v>
-      </c>
-      <c r="B66" s="55" t="s">
-        <v>119</v>
+        <v>57</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>115</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="F66" s="45" t="s">
         <v>1</v>
@@ -11088,10 +12190,10 @@
         <v>114</v>
       </c>
       <c r="P66" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q66" s="51" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="R66" s="46" t="s">
         <v>1</v>
@@ -11112,21 +12214,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="F67" s="45" t="s">
         <v>1</v>
@@ -11159,10 +12261,10 @@
         <v>114</v>
       </c>
       <c r="P67" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q67" s="51" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="R67" s="46" t="s">
         <v>1</v>
@@ -11183,21 +12285,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="F68" s="45" t="s">
         <v>1</v>
@@ -11227,13 +12329,13 @@
         <v>78</v>
       </c>
       <c r="O68" s="51" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P68" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q68" s="51" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R68" s="46" t="s">
         <v>1</v>
@@ -11254,21 +12356,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B69" s="54" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="F69" s="45" t="s">
         <v>1</v>
@@ -11298,13 +12400,13 @@
         <v>78</v>
       </c>
       <c r="O69" s="51" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="P69" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q69" s="51" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="R69" s="46" t="s">
         <v>1</v>
@@ -11325,21 +12427,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47">
+        <v>61</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="D70" s="45" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="E70" s="50" t="s">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="F70" s="45" t="s">
         <v>1</v>
@@ -11369,13 +12471,13 @@
         <v>78</v>
       </c>
       <c r="O70" s="51" t="s">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="P70" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q70" s="51" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="R70" s="46" t="s">
         <v>1</v>
@@ -11396,21 +12498,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B71" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>272</v>
+        <v>123</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="F71" s="45" t="s">
         <v>1</v>
@@ -11440,13 +12542,13 @@
         <v>78</v>
       </c>
       <c r="O71" s="51" t="s">
-        <v>333</v>
+        <v>122</v>
       </c>
       <c r="P71" s="46" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="Q71" s="51" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="R71" s="46" t="s">
         <v>1</v>
@@ -11467,21 +12569,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47">
-        <v>72</v>
-      </c>
-      <c r="B72" s="66" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" s="67" t="s">
-        <v>305</v>
+        <v>63</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="E72" s="50" t="s">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="F72" s="45" t="s">
         <v>1</v>
@@ -11511,13 +12613,13 @@
         <v>78</v>
       </c>
       <c r="O72" s="51" t="s">
-        <v>334</v>
+        <v>114</v>
       </c>
       <c r="P72" s="46" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="Q72" s="51" t="s">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="R72" s="46" t="s">
         <v>1</v>
@@ -11538,21 +12640,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47">
+        <v>64</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="C73" s="67" t="s">
-        <v>303</v>
-      </c>
       <c r="D73" s="45" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="E73" s="50" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="F73" s="45" t="s">
         <v>1</v>
@@ -11582,13 +12684,13 @@
         <v>78</v>
       </c>
       <c r="O73" s="51" t="s">
-        <v>335</v>
+        <v>114</v>
       </c>
       <c r="P73" s="46" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="Q73" s="51" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="R73" s="46" t="s">
         <v>1</v>
@@ -11606,25 +12708,664 @@
         <v>1</v>
       </c>
       <c r="W73" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="47">
+        <v>65</v>
+      </c>
+      <c r="B74" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N74" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O74" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P74" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q74" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="R74" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S74" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T74" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U74" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V74" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W74" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="47">
+        <v>66</v>
+      </c>
+      <c r="B75" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N75" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O75" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P75" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q75" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="R75" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S75" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T75" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U75" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V75" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W75" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="47">
+        <v>67</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N76" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O76" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P76" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q76" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="R76" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S76" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T76" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U76" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V76" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W76" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="47">
+        <v>68</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L77" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N77" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O77" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P77" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q77" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="R77" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S77" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T77" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U77" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V77" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W77" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="47">
+        <v>69</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L78" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N78" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O78" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="P78" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q78" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="R78" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S78" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T78" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U78" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V78" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W78" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="47">
+        <v>70</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N79" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O79" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="P79" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q79" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R79" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S79" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T79" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U79" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V79" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W79" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="47">
+        <v>71</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E80" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M80" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N80" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O80" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="P80" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R80" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S80" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T80" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U80" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V80" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W80" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="47">
+        <v>72</v>
+      </c>
+      <c r="B81" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L81" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N81" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O81" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="P81" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R81" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S81" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T81" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U81" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V81" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W81" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="47">
+        <v>73</v>
+      </c>
+      <c r="B82" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J82" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K82" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L82" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="M82" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N82" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O82" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="P82" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="R82" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S82" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="T82" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="U82" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="V82" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W82" s="63" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1 B27:B70 B23:B24">
+  <conditionalFormatting sqref="B1 B36:B79 B32:B33">
     <cfRule type="duplicateValues" dxfId="7" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B80">
     <cfRule type="duplicateValues" dxfId="5" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C40">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C41">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
@@ -11643,11 +13384,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -11658,7 +13399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -11666,7 +13407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -11674,7 +13415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -11682,7 +13423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E55025-E373-4A39-B85C-CA019DEF85BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECC527-04E7-4B66-A452-1F4F23054EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
-    <sheet name="Classes" sheetId="29" r:id="rId2"/>
+    <sheet name="Classes" sheetId="32" r:id="rId2"/>
     <sheet name="Disjunt" sheetId="3" r:id="rId3"/>
     <sheet name="Interop" sheetId="27" r:id="rId4"/>
     <sheet name="FatosIn" sheetId="31" r:id="rId5"/>
@@ -3217,22 +3217,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3250,6 +3234,22 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3575,14 +3575,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.28515625" style="12"/>
+    <col min="1" max="1" width="9.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>149</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>158</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>160</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>161</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>162</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>163</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>164</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
@@ -3720,16 +3720,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45749.40500914352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45797.65841423611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>166</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>168</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>169</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>170</v>
       </c>
@@ -3775,37 +3775,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B04F8-6372-42A9-A10C-B0C4EF342E07}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24:O26"/>
+    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="40.5703125" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
@@ -3876,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>2</v>
       </c>
@@ -3911,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="36" t="str">
-        <f t="shared" ref="L2:L33" si="0">_xlfn.CONCAT(C2)</f>
+        <f t="shared" ref="L2:L43" si="0">_xlfn.CONCAT(C2)</f>
         <v>Temporal</v>
       </c>
       <c r="M2" s="36" t="str">
@@ -3951,11 +3948,11 @@
         <v>189</v>
       </c>
       <c r="W2" s="42" t="str">
-        <f t="shared" ref="W2:W39" si="3">CONCATENATE("Key.Cro",".",A2)</f>
+        <f t="shared" ref="W2:W43" si="3">CONCATENATE("Key.Cro",".",A2)</f>
         <v>Key.Cro.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>3</v>
       </c>
@@ -4034,7 +4031,7 @@
         <v>Key.Cro.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>4</v>
       </c>
@@ -4113,7 +4110,7 @@
         <v>Key.Cro.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>5</v>
       </c>
@@ -4148,19 +4145,19 @@
         <v>1</v>
       </c>
       <c r="L5" s="36" t="str">
-        <f t="shared" ref="L5" si="5">_xlfn.CONCAT(C5)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M5" s="36" t="str">
-        <f t="shared" ref="M5" si="6">_xlfn.CONCAT("", D5)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N5" s="36" t="str">
-        <f t="shared" ref="N5" si="7">_xlfn.CONCAT("", E5)</f>
+        <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="O5" s="36" t="str">
-        <f t="shared" ref="O5" si="8">_xlfn.CONCAT("", F5)</f>
+        <f t="shared" si="1"/>
         <v>Quinquagenário</v>
       </c>
       <c r="P5" s="36" t="s">
@@ -4173,26 +4170,26 @@
         <v>188</v>
       </c>
       <c r="S5" s="40" t="str">
-        <f t="shared" ref="S5" si="9">SUBSTITUTE(C5, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T5" s="40" t="str">
-        <f t="shared" ref="T5" si="10">SUBSTITUTE(D5, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U5" s="38" t="str">
-        <f t="shared" ref="U5" si="11">SUBSTITUTE(E5, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Macroevento</v>
       </c>
       <c r="V5" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W5" s="42" t="str">
-        <f t="shared" ref="W5" si="12">CONCATENATE("Key.Cro",".",A5)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>6</v>
       </c>
@@ -4271,7 +4268,7 @@
         <v>Key.Cro.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>7</v>
       </c>
@@ -4350,7 +4347,7 @@
         <v>Key.Cro.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>8</v>
       </c>
@@ -4385,19 +4382,19 @@
         <v>1</v>
       </c>
       <c r="L8" s="36" t="str">
-        <f t="shared" ref="L8" si="13">_xlfn.CONCAT(C8)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M8" s="36" t="str">
-        <f t="shared" ref="M8" si="14">_xlfn.CONCAT("", D8)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N8" s="36" t="str">
-        <f t="shared" ref="N8" si="15">_xlfn.CONCAT("", E8)</f>
+        <f t="shared" si="1"/>
         <v>Macroevento</v>
       </c>
       <c r="O8" s="36" t="str">
-        <f t="shared" ref="O8" si="16">_xlfn.CONCAT("", F8)</f>
+        <f t="shared" si="1"/>
         <v>Lustro</v>
       </c>
       <c r="P8" s="36" t="s">
@@ -4410,26 +4407,26 @@
         <v>188</v>
       </c>
       <c r="S8" s="40" t="str">
-        <f t="shared" ref="S8" si="17">SUBSTITUTE(C8, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T8" s="40" t="str">
-        <f t="shared" ref="T8" si="18">SUBSTITUTE(D8, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U8" s="38" t="str">
-        <f t="shared" ref="U8" si="19">SUBSTITUTE(E8, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Macroevento</v>
       </c>
       <c r="V8" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W8" s="42" t="str">
-        <f t="shared" ref="W8" si="20">CONCATENATE("Key.Cro",".",A8)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>9</v>
       </c>
@@ -4508,7 +4505,7 @@
         <v>Key.Cro.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>10</v>
       </c>
@@ -4543,19 +4540,19 @@
         <v>1</v>
       </c>
       <c r="L10" s="36" t="str">
-        <f t="shared" ref="L10" si="21">_xlfn.CONCAT(C10)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M10" s="36" t="str">
-        <f t="shared" ref="M10" si="22">_xlfn.CONCAT("", D10)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N10" s="36" t="str">
-        <f t="shared" ref="N10" si="23">_xlfn.CONCAT("", E10)</f>
+        <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="O10" s="36" t="str">
-        <f t="shared" ref="O10" si="24">_xlfn.CONCAT("", F10)</f>
+        <f t="shared" si="1"/>
         <v>Ano</v>
       </c>
       <c r="P10" s="36" t="s">
@@ -4568,26 +4565,26 @@
         <v>188</v>
       </c>
       <c r="S10" s="40" t="str">
-        <f t="shared" ref="S10" si="25">SUBSTITUTE(C10, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T10" s="40" t="str">
-        <f t="shared" ref="T10" si="26">SUBSTITUTE(D10, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U10" s="38" t="str">
-        <f t="shared" ref="U10" si="27">SUBSTITUTE(E10, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Calendário</v>
       </c>
       <c r="V10" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W10" s="42" t="str">
-        <f t="shared" ref="W10" si="28">CONCATENATE("Key.Cro",".",A10)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>11</v>
       </c>
@@ -4622,19 +4619,19 @@
         <v>1</v>
       </c>
       <c r="L11" s="36" t="str">
-        <f t="shared" ref="L11:L14" si="29">_xlfn.CONCAT(C11)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M11" s="36" t="str">
-        <f t="shared" ref="M11:M14" si="30">_xlfn.CONCAT("", D11)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N11" s="36" t="str">
-        <f t="shared" ref="N11:N14" si="31">_xlfn.CONCAT("", E11)</f>
+        <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="O11" s="36" t="str">
-        <f t="shared" ref="O11:O14" si="32">_xlfn.CONCAT("", F11)</f>
+        <f t="shared" si="1"/>
         <v>Semestre</v>
       </c>
       <c r="P11" s="36" t="s">
@@ -4647,26 +4644,26 @@
         <v>188</v>
       </c>
       <c r="S11" s="40" t="str">
-        <f t="shared" ref="S11:S14" si="33">SUBSTITUTE(C11, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T11" s="40" t="str">
-        <f t="shared" ref="T11:T14" si="34">SUBSTITUTE(D11, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U11" s="38" t="str">
-        <f t="shared" ref="U11:U14" si="35">SUBSTITUTE(E11, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Calendário</v>
       </c>
       <c r="V11" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W11" s="42" t="str">
-        <f t="shared" ref="W11:W14" si="36">CONCATENATE("Key.Cro",".",A11)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>12</v>
       </c>
@@ -4701,19 +4698,19 @@
         <v>1</v>
       </c>
       <c r="L12" s="36" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M12" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N12" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="O12" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>Quatrimestre</v>
       </c>
       <c r="P12" s="36" t="s">
@@ -4726,26 +4723,26 @@
         <v>188</v>
       </c>
       <c r="S12" s="40" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T12" s="40" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U12" s="38" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="2"/>
         <v>Calendário</v>
       </c>
       <c r="V12" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W12" s="42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>13</v>
       </c>
@@ -4780,19 +4777,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="36" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M13" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N13" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="O13" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>Trimestre</v>
       </c>
       <c r="P13" s="36" t="s">
@@ -4805,26 +4802,26 @@
         <v>188</v>
       </c>
       <c r="S13" s="40" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T13" s="40" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U13" s="38" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="2"/>
         <v>Calendário</v>
       </c>
       <c r="V13" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W13" s="42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>14</v>
       </c>
@@ -4859,19 +4856,19 @@
         <v>1</v>
       </c>
       <c r="L14" s="36" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M14" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N14" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="O14" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="1"/>
         <v>Mês</v>
       </c>
       <c r="P14" s="36" t="s">
@@ -4884,26 +4881,26 @@
         <v>188</v>
       </c>
       <c r="S14" s="40" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T14" s="40" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U14" s="38" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="2"/>
         <v>Calendário</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W14" s="42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>15</v>
       </c>
@@ -4982,7 +4979,7 @@
         <v>Key.Cro.15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>16</v>
       </c>
@@ -5017,19 +5014,19 @@
         <v>1</v>
       </c>
       <c r="L16" s="36" t="str">
-        <f t="shared" ref="L16" si="37">_xlfn.CONCAT(C16)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M16" s="36" t="str">
-        <f t="shared" ref="M16" si="38">_xlfn.CONCAT("", D16)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N16" s="36" t="str">
-        <f t="shared" ref="N16" si="39">_xlfn.CONCAT("", E16)</f>
+        <f t="shared" si="1"/>
         <v>Calendário</v>
       </c>
       <c r="O16" s="36" t="str">
-        <f t="shared" ref="O16" si="40">_xlfn.CONCAT("", F16)</f>
+        <f t="shared" si="1"/>
         <v>Dia</v>
       </c>
       <c r="P16" s="36" t="s">
@@ -5042,15 +5039,15 @@
         <v>188</v>
       </c>
       <c r="S16" s="40" t="str">
-        <f t="shared" ref="S16" si="41">SUBSTITUTE(C16, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T16" s="40" t="str">
-        <f t="shared" ref="T16" si="42">SUBSTITUTE(D16, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U16" s="38" t="str">
-        <f t="shared" ref="U16" si="43">SUBSTITUTE(E16, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Calendário</v>
       </c>
       <c r="V16" s="41" t="s">
@@ -5061,7 +5058,7 @@
         <v>Key.Cro.16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>17</v>
       </c>
@@ -5140,7 +5137,7 @@
         <v>Key.Cro.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>18</v>
       </c>
@@ -5219,7 +5216,7 @@
         <v>Key.Cro.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -5298,7 +5295,7 @@
         <v>Key.Cro.19</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>20</v>
       </c>
@@ -5377,7 +5374,7 @@
         <v>Key.Cro.20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>21</v>
       </c>
@@ -5456,7 +5453,7 @@
         <v>Key.Cro.21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>22</v>
       </c>
@@ -5499,11 +5496,11 @@
         <v>Evento</v>
       </c>
       <c r="N22" s="36" t="str">
-        <f t="shared" ref="N22:N23" si="44">_xlfn.CONCAT("", E22)</f>
+        <f t="shared" si="1"/>
         <v>Microevento</v>
       </c>
       <c r="O22" s="36" t="str">
-        <f t="shared" ref="O22:O23" si="45">_xlfn.CONCAT("", F22)</f>
+        <f t="shared" si="1"/>
         <v>Pulso</v>
       </c>
       <c r="P22" s="36" t="s">
@@ -5516,26 +5513,26 @@
         <v>188</v>
       </c>
       <c r="S22" s="40" t="str">
-        <f t="shared" ref="S22:S23" si="46">SUBSTITUTE(C22, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T22" s="40" t="str">
-        <f t="shared" ref="T22:T23" si="47">SUBSTITUTE(D22, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U22" s="38" t="str">
-        <f t="shared" ref="U22:U23" si="48">SUBSTITUTE(E22, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Microevento</v>
       </c>
       <c r="V22" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W22" s="42" t="str">
-        <f t="shared" ref="W22:W23" si="49">CONCATENATE("Key.Cro",".",A22)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>23</v>
       </c>
@@ -5570,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="36" t="str">
-        <f t="shared" ref="L23" si="50">_xlfn.CONCAT(C23)</f>
+        <f t="shared" ref="L23" si="5">_xlfn.CONCAT(C23)</f>
         <v>Temporal</v>
       </c>
       <c r="M23" s="36" t="str">
@@ -5578,11 +5575,11 @@
         <v>Evento</v>
       </c>
       <c r="N23" s="36" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="1"/>
         <v>Microevento</v>
       </c>
       <c r="O23" s="36" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="1"/>
         <v>Tick</v>
       </c>
       <c r="P23" s="36" t="s">
@@ -5595,26 +5592,26 @@
         <v>188</v>
       </c>
       <c r="S23" s="40" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T23" s="40" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U23" s="38" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="2"/>
         <v>Microevento</v>
       </c>
       <c r="V23" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W23" s="42" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>24</v>
       </c>
@@ -5693,7 +5690,7 @@
         <v>Key.Cro.24</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>25</v>
       </c>
@@ -5728,19 +5725,19 @@
         <v>1</v>
       </c>
       <c r="L25" s="36" t="str">
-        <f t="shared" ref="L25" si="51">_xlfn.CONCAT(C25)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M25" s="36" t="str">
-        <f t="shared" ref="M25" si="52">_xlfn.CONCAT("", D25)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N25" s="36" t="str">
-        <f t="shared" ref="N25" si="53">_xlfn.CONCAT("", E25)</f>
+        <f t="shared" si="1"/>
         <v>Cronómetro</v>
       </c>
       <c r="O25" s="36" t="str">
-        <f t="shared" ref="O25" si="54">_xlfn.CONCAT("", F25)</f>
+        <f t="shared" si="1"/>
         <v>Parcial</v>
       </c>
       <c r="P25" s="36" t="s">
@@ -5753,26 +5750,26 @@
         <v>188</v>
       </c>
       <c r="S25" s="40" t="str">
-        <f t="shared" ref="S25" si="55">SUBSTITUTE(C25, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Temporal</v>
       </c>
       <c r="T25" s="40" t="str">
-        <f t="shared" ref="T25" si="56">SUBSTITUTE(D25, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Evento</v>
       </c>
       <c r="U25" s="38" t="str">
-        <f t="shared" ref="U25" si="57">SUBSTITUTE(E25, "_", " ")</f>
+        <f t="shared" si="2"/>
         <v>Cronómetro</v>
       </c>
       <c r="V25" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W25" s="42" t="str">
-        <f t="shared" ref="W25" si="58">CONCATENATE("Key.Cro",".",A25)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>26</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>Key.Cro.26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>27</v>
       </c>
@@ -5886,19 +5883,19 @@
         <v>1</v>
       </c>
       <c r="L27" s="36" t="str">
-        <f t="shared" ref="L27" si="59">_xlfn.CONCAT(C27)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M27" s="36" t="str">
-        <f t="shared" ref="M27" si="60">_xlfn.CONCAT("", D27)</f>
+        <f t="shared" si="4"/>
         <v>Evento</v>
       </c>
       <c r="N27" s="36" t="str">
-        <f t="shared" ref="N27" si="61">_xlfn.CONCAT("", E27)</f>
+        <f t="shared" si="4"/>
         <v>Duração</v>
       </c>
       <c r="O27" s="36" t="str">
-        <f t="shared" ref="O27" si="62">_xlfn.CONCAT("", F27)</f>
+        <f t="shared" si="4"/>
         <v>DeltaT</v>
       </c>
       <c r="P27" s="36" t="s">
@@ -5911,15 +5908,15 @@
         <v>188</v>
       </c>
       <c r="S27" s="40" t="str">
-        <f t="shared" ref="S27" si="63">SUBSTITUTE(C27, "_", " ")</f>
+        <f t="shared" ref="S27:U42" si="6">SUBSTITUTE(C27, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T27" s="40" t="str">
-        <f t="shared" ref="T27" si="64">SUBSTITUTE(D27, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U27" s="38" t="str">
-        <f t="shared" ref="U27" si="65">SUBSTITUTE(E27, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Duração</v>
       </c>
       <c r="V27" s="41" t="s">
@@ -5930,7 +5927,7 @@
         <v>Key.Cro.27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>28</v>
       </c>
@@ -5990,15 +5987,15 @@
         <v>188</v>
       </c>
       <c r="S28" s="40" t="str">
-        <f t="shared" ref="S28:U33" si="66">SUBSTITUTE(C28, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T28" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U28" s="38" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Etapa</v>
       </c>
       <c r="V28" s="41" t="s">
@@ -6009,7 +6006,7 @@
         <v>Key.Cro.28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>29</v>
       </c>
@@ -6069,15 +6066,15 @@
         <v>188</v>
       </c>
       <c r="S29" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T29" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U29" s="38" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Etapa</v>
       </c>
       <c r="V29" s="41" t="s">
@@ -6088,7 +6085,7 @@
         <v>Key.Cro.29</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>30</v>
       </c>
@@ -6148,15 +6145,15 @@
         <v>188</v>
       </c>
       <c r="S30" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T30" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U30" s="38" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Etapa</v>
       </c>
       <c r="V30" s="41" t="s">
@@ -6167,7 +6164,7 @@
         <v>Key.Cro.30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>31</v>
       </c>
@@ -6227,15 +6224,15 @@
         <v>188</v>
       </c>
       <c r="S31" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T31" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U31" s="38" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Etapa</v>
       </c>
       <c r="V31" s="41" t="s">
@@ -6246,7 +6243,7 @@
         <v>Key.Cro.31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>32</v>
       </c>
@@ -6306,15 +6303,15 @@
         <v>188</v>
       </c>
       <c r="S32" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T32" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U32" s="38" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Etapa</v>
       </c>
       <c r="V32" s="41" t="s">
@@ -6325,7 +6322,7 @@
         <v>Key.Cro.32</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>33</v>
       </c>
@@ -6385,15 +6382,15 @@
         <v>188</v>
       </c>
       <c r="S33" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T33" s="40" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U33" s="38" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="6"/>
         <v>Etapa</v>
       </c>
       <c r="V33" s="41" t="s">
@@ -6404,7 +6401,7 @@
         <v>Key.Cro.33</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>34</v>
       </c>
@@ -6439,19 +6436,19 @@
         <v>1</v>
       </c>
       <c r="L34" s="22" t="str">
-        <f t="shared" ref="L34" si="67">_xlfn.CONCAT(C34)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M34" s="22" t="str">
-        <f t="shared" ref="M34" si="68">_xlfn.CONCAT("", D34)</f>
+        <f t="shared" ref="M34:O43" si="7">_xlfn.CONCAT("", D34)</f>
         <v>Evento</v>
       </c>
       <c r="N34" s="22" t="str">
-        <f t="shared" ref="N34" si="69">_xlfn.CONCAT("", E34)</f>
+        <f t="shared" si="7"/>
         <v>Histórico</v>
       </c>
       <c r="O34" s="22" t="str">
-        <f t="shared" ref="O34" si="70">_xlfn.CONCAT("", F34)</f>
+        <f t="shared" si="7"/>
         <v>Inaugural</v>
       </c>
       <c r="P34" s="22" t="s">
@@ -6464,15 +6461,15 @@
         <v>188</v>
       </c>
       <c r="S34" s="40" t="str">
-        <f t="shared" ref="S34" si="71">SUBSTITUTE(C34, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T34" s="40" t="str">
-        <f t="shared" ref="T34" si="72">SUBSTITUTE(D34, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U34" s="38" t="str">
-        <f t="shared" ref="U34" si="73">SUBSTITUTE(E34, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V34" s="41" t="s">
@@ -6483,7 +6480,7 @@
         <v>Key.Cro.34</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>35</v>
       </c>
@@ -6518,19 +6515,19 @@
         <v>1</v>
       </c>
       <c r="L35" s="22" t="str">
-        <f t="shared" ref="L35:L36" si="74">_xlfn.CONCAT(C35)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M35" s="22" t="str">
-        <f t="shared" ref="M35:M36" si="75">_xlfn.CONCAT("", D35)</f>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N35" s="22" t="str">
-        <f t="shared" ref="N35:N36" si="76">_xlfn.CONCAT("", E35)</f>
+        <f t="shared" si="7"/>
         <v>Histórico</v>
       </c>
       <c r="O35" s="22" t="str">
-        <f t="shared" ref="O35:O36" si="77">_xlfn.CONCAT("", F35)</f>
+        <f t="shared" si="7"/>
         <v>Modernizar</v>
       </c>
       <c r="P35" s="22" t="s">
@@ -6543,15 +6540,15 @@
         <v>188</v>
       </c>
       <c r="S35" s="40" t="str">
-        <f t="shared" ref="S35:S36" si="78">SUBSTITUTE(C35, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T35" s="40" t="str">
-        <f t="shared" ref="T35:T36" si="79">SUBSTITUTE(D35, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U35" s="38" t="str">
-        <f t="shared" ref="U35:U36" si="80">SUBSTITUTE(E35, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V35" s="41" t="s">
@@ -6562,7 +6559,7 @@
         <v>Key.Cro.35</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>36</v>
       </c>
@@ -6597,19 +6594,19 @@
         <v>1</v>
       </c>
       <c r="L36" s="22" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M36" s="22" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N36" s="22" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="7"/>
         <v>Histórico</v>
       </c>
       <c r="O36" s="22" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="7"/>
         <v>Troca</v>
       </c>
       <c r="P36" s="22" t="s">
@@ -6622,15 +6619,15 @@
         <v>188</v>
       </c>
       <c r="S36" s="40" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T36" s="40" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U36" s="38" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V36" s="41" t="s">
@@ -6641,7 +6638,7 @@
         <v>Key.Cro.36</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>37</v>
       </c>
@@ -6676,19 +6673,19 @@
         <v>1</v>
       </c>
       <c r="L37" s="22" t="str">
-        <f t="shared" ref="L37:L38" si="81">_xlfn.CONCAT(C37)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M37" s="22" t="str">
-        <f t="shared" ref="M37:M38" si="82">_xlfn.CONCAT("", D37)</f>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N37" s="22" t="str">
-        <f t="shared" ref="N37:N38" si="83">_xlfn.CONCAT("", E37)</f>
+        <f t="shared" si="7"/>
         <v>Histórico</v>
       </c>
       <c r="O37" s="22" t="str">
-        <f t="shared" ref="O37:O38" si="84">_xlfn.CONCAT("", F37)</f>
+        <f t="shared" si="7"/>
         <v>Operacional</v>
       </c>
       <c r="P37" s="22" t="s">
@@ -6701,15 +6698,15 @@
         <v>188</v>
       </c>
       <c r="S37" s="40" t="str">
-        <f t="shared" ref="S37:S38" si="85">SUBSTITUTE(C37, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T37" s="40" t="str">
-        <f t="shared" ref="T37:T38" si="86">SUBSTITUTE(D37, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U37" s="38" t="str">
-        <f t="shared" ref="U37:U38" si="87">SUBSTITUTE(E37, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V37" s="41" t="s">
@@ -6720,7 +6717,7 @@
         <v>Key.Cro.37</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>38</v>
       </c>
@@ -6755,19 +6752,19 @@
         <v>1</v>
       </c>
       <c r="L38" s="22" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M38" s="22" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N38" s="22" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="7"/>
         <v>Histórico</v>
       </c>
       <c r="O38" s="22" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="7"/>
         <v>Reforma</v>
       </c>
       <c r="P38" s="22" t="s">
@@ -6780,15 +6777,15 @@
         <v>188</v>
       </c>
       <c r="S38" s="40" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T38" s="40" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U38" s="38" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V38" s="41" t="s">
@@ -6799,7 +6796,7 @@
         <v>Key.Cro.38</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>39</v>
       </c>
@@ -6834,19 +6831,19 @@
         <v>1</v>
       </c>
       <c r="L39" s="22" t="str">
-        <f t="shared" ref="L39" si="88">_xlfn.CONCAT(C39)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M39" s="22" t="str">
-        <f t="shared" ref="M39" si="89">_xlfn.CONCAT("", D39)</f>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N39" s="22" t="str">
-        <f t="shared" ref="N39" si="90">_xlfn.CONCAT("", E39)</f>
+        <f t="shared" si="7"/>
         <v>Histórico</v>
       </c>
       <c r="O39" s="22" t="str">
-        <f t="shared" ref="O39" si="91">_xlfn.CONCAT("", F39)</f>
+        <f t="shared" si="7"/>
         <v>Pericial</v>
       </c>
       <c r="P39" s="22" t="s">
@@ -6859,15 +6856,15 @@
         <v>188</v>
       </c>
       <c r="S39" s="40" t="str">
-        <f t="shared" ref="S39" si="92">SUBSTITUTE(C39, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T39" s="40" t="str">
-        <f t="shared" ref="T39" si="93">SUBSTITUTE(D39, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U39" s="38" t="str">
-        <f t="shared" ref="U39" si="94">SUBSTITUTE(E39, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V39" s="41" t="s">
@@ -6878,7 +6875,7 @@
         <v>Key.Cro.39</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>40</v>
       </c>
@@ -6913,19 +6910,19 @@
         <v>1</v>
       </c>
       <c r="L40" s="22" t="str">
-        <f t="shared" ref="L40:L41" si="95">_xlfn.CONCAT(C40)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M40" s="22" t="str">
-        <f t="shared" ref="M40:M41" si="96">_xlfn.CONCAT("", D40)</f>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N40" s="22" t="str">
-        <f t="shared" ref="N40:N41" si="97">_xlfn.CONCAT("", E40)</f>
+        <f t="shared" si="7"/>
         <v>Agendado</v>
       </c>
       <c r="O40" s="22" t="str">
-        <f t="shared" ref="O40:O41" si="98">_xlfn.CONCAT("", F40)</f>
+        <f t="shared" si="7"/>
         <v>Congresso</v>
       </c>
       <c r="P40" s="22" t="s">
@@ -6938,26 +6935,26 @@
         <v>188</v>
       </c>
       <c r="S40" s="40" t="str">
-        <f t="shared" ref="S40:S41" si="99">SUBSTITUTE(C40, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T40" s="40" t="str">
-        <f t="shared" ref="T40:T41" si="100">SUBSTITUTE(D40, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U40" s="38" t="str">
-        <f t="shared" ref="U40:U41" si="101">SUBSTITUTE(E40, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Agendado</v>
       </c>
       <c r="V40" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W40" s="42" t="str">
-        <f t="shared" ref="W40:W41" si="102">CONCATENATE("Key.Cro",".",A40)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.40</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>41</v>
       </c>
@@ -6992,19 +6989,19 @@
         <v>1</v>
       </c>
       <c r="L41" s="22" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M41" s="22" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N41" s="22" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="7"/>
         <v>Agendado</v>
       </c>
       <c r="O41" s="22" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="7"/>
         <v>Reunião</v>
       </c>
       <c r="P41" s="22" t="s">
@@ -7017,26 +7014,26 @@
         <v>188</v>
       </c>
       <c r="S41" s="40" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T41" s="40" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U41" s="38" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="6"/>
         <v>Agendado</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W41" s="42" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.41</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>42</v>
       </c>
@@ -7071,19 +7068,19 @@
         <v>1</v>
       </c>
       <c r="L42" s="22" t="str">
-        <f t="shared" ref="L42:L43" si="103">_xlfn.CONCAT(C42)</f>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M42" s="22" t="str">
-        <f t="shared" ref="M42:M43" si="104">_xlfn.CONCAT("", D42)</f>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N42" s="22" t="str">
-        <f t="shared" ref="N42:N43" si="105">_xlfn.CONCAT("", E42)</f>
+        <f t="shared" si="7"/>
         <v>Agendado</v>
       </c>
       <c r="O42" s="22" t="str">
-        <f t="shared" ref="O42:O43" si="106">_xlfn.CONCAT("", F42)</f>
+        <f t="shared" si="7"/>
         <v>Entrega</v>
       </c>
       <c r="P42" s="22" t="s">
@@ -7096,26 +7093,26 @@
         <v>188</v>
       </c>
       <c r="S42" s="40" t="str">
-        <f t="shared" ref="S42:S43" si="107">SUBSTITUTE(C42, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Temporal</v>
       </c>
       <c r="T42" s="40" t="str">
-        <f t="shared" ref="T42:T43" si="108">SUBSTITUTE(D42, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Evento</v>
       </c>
       <c r="U42" s="38" t="str">
-        <f t="shared" ref="U42:U43" si="109">SUBSTITUTE(E42, "_", " ")</f>
+        <f t="shared" si="6"/>
         <v>Agendado</v>
       </c>
       <c r="V42" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W42" s="42" t="str">
-        <f t="shared" ref="W42:W43" si="110">CONCATENATE("Key.Cro",".",A42)</f>
+        <f t="shared" si="3"/>
         <v>Key.Cro.42</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>43</v>
       </c>
@@ -7150,19 +7147,19 @@
         <v>1</v>
       </c>
       <c r="L43" s="22" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="0"/>
         <v>Temporal</v>
       </c>
       <c r="M43" s="22" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="N43" s="22" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="7"/>
         <v>Agendado</v>
       </c>
       <c r="O43" s="22" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="7"/>
         <v>Exame</v>
       </c>
       <c r="P43" s="22" t="s">
@@ -7175,36 +7172,33 @@
         <v>188</v>
       </c>
       <c r="S43" s="40" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="S43:U43" si="8">SUBSTITUTE(C43, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T43" s="40" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="8"/>
         <v>Evento</v>
       </c>
       <c r="U43" s="38" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="8"/>
         <v>Agendado</v>
       </c>
       <c r="V43" s="41" t="s">
         <v>189</v>
       </c>
       <c r="W43" s="42" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="3"/>
         <v>Key.Cro.43</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  <conditionalFormatting sqref="F1:F43">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F1048576 F1:F37">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="F1:F37">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7218,12 +7212,12 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.88671875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.88671875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7424,7 +7418,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7443,14 +7437,14 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58">
         <v>1</v>
       </c>
@@ -7461,7 +7455,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -7472,7 +7466,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>3</v>
       </c>
@@ -7485,7 +7479,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7497,38 +7491,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5087910E-DA31-4318-A539-726BE963325D}">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>194</v>
       </c>
@@ -7599,7 +7593,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47">
         <v>2</v>
       </c>
@@ -7670,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47">
         <v>3</v>
       </c>
@@ -7741,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
         <v>4</v>
       </c>
@@ -7812,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47">
         <v>5</v>
       </c>
@@ -7883,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47">
         <v>6</v>
       </c>
@@ -7954,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47">
         <v>7</v>
       </c>
@@ -8025,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
         <v>8</v>
       </c>
@@ -8096,7 +8090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47">
         <v>9</v>
       </c>
@@ -8167,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>10</v>
       </c>
@@ -8238,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47">
         <v>11</v>
       </c>
@@ -8309,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47">
         <v>12</v>
       </c>
@@ -8380,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47">
         <v>13</v>
       </c>
@@ -8451,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47">
         <v>14</v>
       </c>
@@ -8522,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47">
         <v>15</v>
       </c>
@@ -8593,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>16</v>
       </c>
@@ -8664,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>17</v>
       </c>
@@ -8735,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>16</v>
       </c>
@@ -8806,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47">
         <v>17</v>
       </c>
@@ -8877,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>18</v>
       </c>
@@ -8948,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47">
         <v>16</v>
       </c>
@@ -9019,7 +9013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>17</v>
       </c>
@@ -9090,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47">
         <v>18</v>
       </c>
@@ -9161,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>19</v>
       </c>
@@ -9232,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>16</v>
       </c>
@@ -9303,7 +9297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
         <v>17</v>
       </c>
@@ -9374,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
         <v>18</v>
       </c>
@@ -9445,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>19</v>
       </c>
@@ -9516,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <v>20</v>
       </c>
@@ -9587,7 +9581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <v>21</v>
       </c>
@@ -9658,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <v>22</v>
       </c>
@@ -9729,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47">
         <v>23</v>
       </c>
@@ -9800,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <v>24</v>
       </c>
@@ -9871,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47">
         <v>25</v>
       </c>
@@ -9942,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47">
         <v>26</v>
       </c>
@@ -10013,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47">
         <v>27</v>
       </c>
@@ -10084,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <v>28</v>
       </c>
@@ -10155,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47">
         <v>29</v>
       </c>
@@ -10226,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>30</v>
       </c>
@@ -10297,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>31</v>
       </c>
@@ -10368,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <v>32</v>
       </c>
@@ -10439,7 +10433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47">
         <v>33</v>
       </c>
@@ -10510,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47">
         <v>34</v>
       </c>
@@ -10581,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>35</v>
       </c>
@@ -10652,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47">
         <v>36</v>
       </c>
@@ -10723,7 +10717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47">
         <v>37</v>
       </c>
@@ -10794,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47">
         <v>38</v>
       </c>
@@ -10865,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="47">
         <v>39</v>
       </c>
@@ -10936,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47">
         <v>40</v>
       </c>
@@ -11007,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47">
         <v>41</v>
       </c>
@@ -11078,7 +11072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47">
         <v>42</v>
       </c>
@@ -11149,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47">
         <v>43</v>
       </c>
@@ -11220,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47">
         <v>44</v>
       </c>
@@ -11291,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47">
         <v>45</v>
       </c>
@@ -11362,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47">
         <v>46</v>
       </c>
@@ -11433,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47">
         <v>47</v>
       </c>
@@ -11504,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47">
         <v>48</v>
       </c>
@@ -11575,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47">
         <v>49</v>
       </c>
@@ -11646,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47">
         <v>50</v>
       </c>
@@ -11717,7 +11711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47">
         <v>51</v>
       </c>
@@ -11788,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47">
         <v>52</v>
       </c>
@@ -11859,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47">
         <v>53</v>
       </c>
@@ -11930,7 +11924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47">
         <v>54</v>
       </c>
@@ -12001,7 +11995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47">
         <v>55</v>
       </c>
@@ -12072,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47">
         <v>56</v>
       </c>
@@ -12143,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47">
         <v>57</v>
       </c>
@@ -12214,7 +12208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47">
         <v>58</v>
       </c>
@@ -12285,7 +12279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="47">
         <v>59</v>
       </c>
@@ -12356,7 +12350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47">
         <v>60</v>
       </c>
@@ -12427,7 +12421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="47">
         <v>61</v>
       </c>
@@ -12498,7 +12492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47">
         <v>62</v>
       </c>
@@ -12569,7 +12563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47">
         <v>63</v>
       </c>
@@ -12640,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47">
         <v>64</v>
       </c>
@@ -12711,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="47">
         <v>65</v>
       </c>
@@ -12782,7 +12776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47">
         <v>66</v>
       </c>
@@ -12853,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="47">
         <v>67</v>
       </c>
@@ -12924,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="47">
         <v>68</v>
       </c>
@@ -12995,7 +12989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="47">
         <v>69</v>
       </c>
@@ -13066,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="47">
         <v>70</v>
       </c>
@@ -13137,7 +13131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="47">
         <v>71</v>
       </c>
@@ -13208,7 +13202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47">
         <v>72</v>
       </c>
@@ -13279,7 +13273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="47">
         <v>73</v>
       </c>
@@ -13353,24 +13347,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1 B36:B79 B32:B33">
-    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13384,11 +13378,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="2.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13399,7 +13393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -13407,7 +13401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -13415,7 +13409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -13423,7 +13417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ECC527-04E7-4B66-A452-1F4F23054EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06112FB-B694-44A1-940F-8F1A3E038B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="437">
   <si>
     <t>Key</t>
   </si>
@@ -1837,9 +1837,6 @@
     <t>Intervalo de tiempo</t>
   </si>
   <si>
-    <t>Intervalo de tempo</t>
-  </si>
-  <si>
     <t>Década</t>
   </si>
   <si>
@@ -2065,9 +2062,6 @@
     <t>Reforma.Tipo.01</t>
   </si>
   <si>
-    <t>Evento de reforma</t>
-  </si>
-  <si>
     <t>Pericial</t>
   </si>
   <si>
@@ -2080,36 +2074,9 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Marca inicial de cronometragem</t>
-  </si>
-  <si>
-    <t>Marca final de cronometragem</t>
-  </si>
-  <si>
     <t>Marca final de cronometraje</t>
   </si>
   <si>
-    <t>Etapa de fase de Ideação</t>
-  </si>
-  <si>
-    <t>Etapa de fase Projetual</t>
-  </si>
-  <si>
-    <t>Etapa de fase Simulação</t>
-  </si>
-  <si>
-    <t>Etapa de fase Planejamento</t>
-  </si>
-  <si>
-    <t>Etapa de fase Construção</t>
-  </si>
-  <si>
-    <t>Etapa de fase Operação</t>
-  </si>
-  <si>
-    <t>Evento relativo a uma inspeção</t>
-  </si>
-  <si>
     <t>Reforma</t>
   </si>
   <si>
@@ -2119,9 +2086,6 @@
     <t>Modernizar</t>
   </si>
   <si>
-    <t>Evento de retrofit do edifício</t>
-  </si>
-  <si>
     <t>Elevador.A</t>
   </si>
   <si>
@@ -2314,33 +2278,6 @@
     <t>Quinquagenário</t>
   </si>
   <si>
-    <t>Um período de 100 anos</t>
-  </si>
-  <si>
-    <t>Um período de 50 anos</t>
-  </si>
-  <si>
-    <t>Um período de 10 anos</t>
-  </si>
-  <si>
-    <t>Um período de 5 anos</t>
-  </si>
-  <si>
-    <t>Um período de 2 anos</t>
-  </si>
-  <si>
-    <t>Evento de cambiar algum recurso ou equipamento</t>
-  </si>
-  <si>
-    <t>Evento de inauguração do prédio ou parte do prédio</t>
-  </si>
-  <si>
-    <t>Um período associado não necessariamente a uma quantidade de anos</t>
-  </si>
-  <si>
-    <t>Um grande período associado não necessariamente a uma quantidade de anos</t>
-  </si>
-  <si>
     <t>Un período largo asociado no necesariamente con un número de años</t>
   </si>
   <si>
@@ -2395,15 +2332,6 @@
     <t>Evento de renovación</t>
   </si>
   <si>
-    <t>Um período de 6 meses</t>
-  </si>
-  <si>
-    <t>Um período de 4 meses</t>
-  </si>
-  <si>
-    <t>Um período de 3 meses</t>
-  </si>
-  <si>
     <t>Un periodo de 6 meses</t>
   </si>
   <si>
@@ -2416,9 +2344,6 @@
     <t>Un periodo de 365 dias distribuidos en 12 meses</t>
   </si>
   <si>
-    <t>Um período de 31, 30 ou 28 dias. Cada quatro anos há um mês de 29 dias.</t>
-  </si>
-  <si>
     <t>Um período de 7 dias.</t>
   </si>
   <si>
@@ -2434,9 +2359,6 @@
     <t>Un periodo de 24 horas.</t>
   </si>
   <si>
-    <t>Uma jornada ou dia laboral</t>
-  </si>
-  <si>
     <t>Uma jornada o día laboral</t>
   </si>
   <si>
@@ -2464,9 +2386,6 @@
     <t>Un evento que se repite a intervalos regulares.</t>
   </si>
   <si>
-    <t>Um período calendário de 365 dias distribuídos em 12 meses</t>
-  </si>
-  <si>
     <t>Agendado</t>
   </si>
   <si>
@@ -2479,9 +2398,6 @@
     <t>Exame</t>
   </si>
   <si>
-    <t>Evento agendado tipo exame ou testes</t>
-  </si>
-  <si>
     <t>Cronómetro</t>
   </si>
   <si>
@@ -2497,18 +2413,9 @@
     <t>Tipo de evento programado para muitos agentes tipo conferencia o similar</t>
   </si>
   <si>
-    <t xml:space="preserve">Evento agendado para muitos agentes tipo conferência ou similar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evento agendado para alguns agentes tipo reunião de trabalho ou similar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Evento agendado para algunos agentes tipo reunión de trabajo o similar </t>
   </si>
   <si>
-    <t>Evento agendado tipo entrega de objetos ou servíços</t>
-  </si>
-  <si>
     <t>Evento agendado tipo entrega de objetos o servicios profesionales</t>
   </si>
   <si>
@@ -2518,9 +2425,6 @@
     <t>Evento de evaluación pericial realizado por expertos</t>
   </si>
   <si>
-    <t>Evento relativo a uma avaliação perícial realizada por expertos</t>
-  </si>
-  <si>
     <t>é.evento.final</t>
   </si>
   <si>
@@ -2560,16 +2464,115 @@
     <t>"Segundo semestre do ano."</t>
   </si>
   <si>
-    <t>Um ciclo do relógio interno do computador. Pode ser medido em Hz ou GHz.</t>
-  </si>
-  <si>
     <t>Un ciclo del reloj interno de una computadora. Se puede medir en Hz o GHz.</t>
   </si>
   <si>
-    <t>Marca intermédia de cronometragem (split time)</t>
-  </si>
-  <si>
     <t>é.evento.inicial</t>
+  </si>
+  <si>
+    <t>Um período calendário de 365 dias distribuídos em 12 meses.</t>
+  </si>
+  <si>
+    <t>Um período de 6 meses.</t>
+  </si>
+  <si>
+    <t>Um período de 4 meses.</t>
+  </si>
+  <si>
+    <t>Um período de 3 meses.</t>
+  </si>
+  <si>
+    <t>Um período de 31, 30 ou 28 dias Cada quatro anos há um mês de 29 dias.</t>
+  </si>
+  <si>
+    <t>Uma jornada ou dia laboral.</t>
+  </si>
+  <si>
+    <t>Milisegundo.</t>
+  </si>
+  <si>
+    <t>Um ciclo do relógio interno do computador Pode ser medido em Hz ou GHz.</t>
+  </si>
+  <si>
+    <t>Marca inicial de cronometragem.</t>
+  </si>
+  <si>
+    <t>Marca intermédia de cronometragem (split time).</t>
+  </si>
+  <si>
+    <t>Marca final de cronometragem.</t>
+  </si>
+  <si>
+    <t>Intervalo de tempo.</t>
+  </si>
+  <si>
+    <t>Etapa de fase de Ideação.</t>
+  </si>
+  <si>
+    <t>Etapa de fase Projetual.</t>
+  </si>
+  <si>
+    <t>Etapa de fase Simulação.</t>
+  </si>
+  <si>
+    <t>Etapa de fase Planejamento.</t>
+  </si>
+  <si>
+    <t>Etapa de fase Construção.</t>
+  </si>
+  <si>
+    <t>Etapa de fase Operação.</t>
+  </si>
+  <si>
+    <t>Evento de inauguração do prédio ou parte do prédio.</t>
+  </si>
+  <si>
+    <t>Evento de retrofit do edifício.</t>
+  </si>
+  <si>
+    <t>Evento de cambiar algum recurso ou equipamento.</t>
+  </si>
+  <si>
+    <t>Evento relativo a uma inspeção.</t>
+  </si>
+  <si>
+    <t>Evento de reforma.</t>
+  </si>
+  <si>
+    <t>Evento relativo a uma avaliação perícial realizada por expertos.</t>
+  </si>
+  <si>
+    <t>Evento agendado para muitos agentes tipo conferência ou similar .</t>
+  </si>
+  <si>
+    <t>Evento agendado para alguns agentes tipo reunião de trabalho ou similar .</t>
+  </si>
+  <si>
+    <t>Evento agendado tipo entrega de objetos ou servíços.</t>
+  </si>
+  <si>
+    <t>Evento agendado tipo exame ou testes.</t>
+  </si>
+  <si>
+    <t>Um grande período temporal associado não necessariamente a uma quantidade de anos.</t>
+  </si>
+  <si>
+    <t>Um período de tempo associado não necessariamente a uma quantidade de anos.</t>
+  </si>
+  <si>
+    <t>Um período de tempo com duração de 100 anos.</t>
+  </si>
+  <si>
+    <t>Um período de tempo com duração de 50 anos.</t>
+  </si>
+  <si>
+    <t>Um período de tempo com duração de 10 anos.</t>
+  </si>
+  <si>
+    <t>Um período de tempo com duração de 5 anos.</t>
+  </si>
+  <si>
+    <t>Um período de tempo com duração de 2 anos.</t>
   </si>
 </sst>
 </file>
@@ -3217,6 +3220,22 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3234,22 +3253,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3271,7 +3274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3575,14 +3578,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.33203125" style="12"/>
+    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -3598,15 +3601,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>149</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>158</v>
       </c>
@@ -3656,7 +3659,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>160</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>161</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>162</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>163</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>164</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
@@ -3720,16 +3723,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45797.65841423611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45816.545762152775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>166</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>168</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>169</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>170</v>
       </c>
@@ -3778,31 +3781,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B04F8-6372-42A9-A10C-B0C4EF342E07}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="41.25" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
@@ -3873,15 +3878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>59</v>
@@ -3924,10 +3929,10 @@
         <v>Era</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="R2" s="39" t="s">
         <v>188</v>
@@ -3952,15 +3957,15 @@
         <v>Key.Cro.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>59</v>
@@ -4003,10 +4008,10 @@
         <v>Época</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>357</v>
+        <v>431</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="R3" s="39" t="s">
         <v>188</v>
@@ -4031,15 +4036,15 @@
         <v>Key.Cro.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>59</v>
@@ -4048,7 +4053,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>1</v>
@@ -4082,10 +4087,10 @@
         <v>Século</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="R4" s="39" t="s">
         <v>188</v>
@@ -4110,15 +4115,15 @@
         <v>Key.Cro.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>59</v>
@@ -4127,7 +4132,7 @@
         <v>63</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>1</v>
@@ -4161,10 +4166,10 @@
         <v>Quinquagenário</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="R5" s="39" t="s">
         <v>188</v>
@@ -4189,15 +4194,15 @@
         <v>Key.Cro.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>59</v>
@@ -4206,7 +4211,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>1</v>
@@ -4240,10 +4245,10 @@
         <v>Década</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="R6" s="39" t="s">
         <v>188</v>
@@ -4268,15 +4273,15 @@
         <v>Key.Cro.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>59</v>
@@ -4285,7 +4290,7 @@
         <v>63</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>1</v>
@@ -4319,10 +4324,10 @@
         <v>Quinquênio</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="R7" s="39" t="s">
         <v>188</v>
@@ -4347,15 +4352,15 @@
         <v>Key.Cro.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>8</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>59</v>
@@ -4364,7 +4369,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>1</v>
@@ -4398,10 +4403,10 @@
         <v>Lustro</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="R8" s="39" t="s">
         <v>188</v>
@@ -4426,15 +4431,15 @@
         <v>Key.Cro.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>9</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>59</v>
@@ -4443,7 +4448,7 @@
         <v>63</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>1</v>
@@ -4477,10 +4482,10 @@
         <v>Biênio</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="R9" s="39" t="s">
         <v>188</v>
@@ -4505,15 +4510,15 @@
         <v>Key.Cro.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>59</v>
@@ -4556,10 +4561,10 @@
         <v>Ano</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="R10" s="39" t="s">
         <v>188</v>
@@ -4584,15 +4589,15 @@
         <v>Key.Cro.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>11</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>59</v>
@@ -4601,7 +4606,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>1</v>
@@ -4635,10 +4640,10 @@
         <v>Semestre</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="R11" s="39" t="s">
         <v>188</v>
@@ -4663,15 +4668,15 @@
         <v>Key.Cro.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>59</v>
@@ -4680,7 +4685,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
@@ -4714,10 +4719,10 @@
         <v>Quatrimestre</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="R12" s="39" t="s">
         <v>188</v>
@@ -4742,15 +4747,15 @@
         <v>Key.Cro.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>13</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>59</v>
@@ -4759,7 +4764,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>1</v>
@@ -4793,10 +4798,10 @@
         <v>Trimestre</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="R13" s="39" t="s">
         <v>188</v>
@@ -4821,15 +4826,15 @@
         <v>Key.Cro.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>14</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>59</v>
@@ -4872,10 +4877,10 @@
         <v>Mês</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="R14" s="39" t="s">
         <v>188</v>
@@ -4900,15 +4905,15 @@
         <v>Key.Cro.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>15</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>59</v>
@@ -4951,10 +4956,10 @@
         <v>Semana</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="R15" s="39" t="s">
         <v>188</v>
@@ -4979,15 +4984,15 @@
         <v>Key.Cro.15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>16</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>59</v>
@@ -5030,10 +5035,10 @@
         <v>Dia</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="R16" s="39" t="s">
         <v>188</v>
@@ -5058,15 +5063,15 @@
         <v>Key.Cro.16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>59</v>
@@ -5075,7 +5080,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>1</v>
@@ -5109,10 +5114,10 @@
         <v>Jornada</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="R17" s="39" t="s">
         <v>188</v>
@@ -5137,15 +5142,15 @@
         <v>Key.Cro.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>18</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>59</v>
@@ -5188,10 +5193,10 @@
         <v>Hora</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="R18" s="39" t="s">
         <v>188</v>
@@ -5216,15 +5221,15 @@
         <v>Key.Cro.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>59</v>
@@ -5267,10 +5272,10 @@
         <v>Minuto</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="R19" s="39" t="s">
         <v>188</v>
@@ -5295,15 +5300,15 @@
         <v>Key.Cro.19</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>20</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>59</v>
@@ -5346,10 +5351,10 @@
         <v>Segundo</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="R20" s="39" t="s">
         <v>188</v>
@@ -5374,15 +5379,15 @@
         <v>Key.Cro.20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>21</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>59</v>
@@ -5425,7 +5430,7 @@
         <v>Milisegundo</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>58</v>
+        <v>408</v>
       </c>
       <c r="Q21" s="36" t="s">
         <v>58</v>
@@ -5453,15 +5458,15 @@
         <v>Key.Cro.21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>59</v>
@@ -5504,10 +5509,10 @@
         <v>Pulso</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="R22" s="39" t="s">
         <v>188</v>
@@ -5532,15 +5537,15 @@
         <v>Key.Cro.22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>23</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>59</v>
@@ -5583,10 +5588,10 @@
         <v>Tick</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="R23" s="39" t="s">
         <v>188</v>
@@ -5611,24 +5616,24 @@
         <v>Key.Cro.23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>24</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>1</v>
@@ -5662,10 +5667,10 @@
         <v>Inicial</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>272</v>
+        <v>410</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="R24" s="39" t="s">
         <v>188</v>
@@ -5690,24 +5695,24 @@
         <v>Key.Cro.24</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>25</v>
       </c>
       <c r="B25" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>1</v>
@@ -5741,10 +5746,10 @@
         <v>Parcial</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="R25" s="39" t="s">
         <v>188</v>
@@ -5769,24 +5774,24 @@
         <v>Key.Cro.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>26</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>1</v>
@@ -5820,10 +5825,10 @@
         <v>Final</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>273</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="R26" s="39" t="s">
         <v>188</v>
@@ -5848,15 +5853,15 @@
         <v>Key.Cro.26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>27</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>59</v>
@@ -5899,7 +5904,7 @@
         <v>DeltaT</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>191</v>
+        <v>413</v>
       </c>
       <c r="Q27" s="36" t="s">
         <v>190</v>
@@ -5927,21 +5932,21 @@
         <v>Key.Cro.27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>28</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>68</v>
@@ -5978,10 +5983,10 @@
         <v>Ideação</v>
       </c>
       <c r="P28" s="36" t="s">
-        <v>275</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="R28" s="39" t="s">
         <v>188</v>
@@ -6006,21 +6011,21 @@
         <v>Key.Cro.28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>29</v>
       </c>
       <c r="B29" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>73</v>
@@ -6057,10 +6062,10 @@
         <v>Projetual</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>276</v>
+        <v>415</v>
       </c>
       <c r="Q29" s="36" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="R29" s="39" t="s">
         <v>188</v>
@@ -6085,21 +6090,21 @@
         <v>Key.Cro.29</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>30</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>69</v>
@@ -6136,10 +6141,10 @@
         <v>Simulação</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>277</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="R30" s="39" t="s">
         <v>188</v>
@@ -6164,21 +6169,21 @@
         <v>Key.Cro.30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>31</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>70</v>
@@ -6215,10 +6220,10 @@
         <v>Planejamento</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="R31" s="39" t="s">
         <v>188</v>
@@ -6243,21 +6248,21 @@
         <v>Key.Cro.31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>32</v>
       </c>
       <c r="B32" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F32" s="33" t="s">
         <v>72</v>
@@ -6294,10 +6299,10 @@
         <v>Construção</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>279</v>
+        <v>418</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="R32" s="39" t="s">
         <v>188</v>
@@ -6322,21 +6327,21 @@
         <v>Key.Cro.32</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>33</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>71</v>
@@ -6373,10 +6378,10 @@
         <v>Operação</v>
       </c>
       <c r="P33" s="22" t="s">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="R33" s="39" t="s">
         <v>188</v>
@@ -6401,24 +6406,24 @@
         <v>Key.Cro.33</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>34</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>1</v>
@@ -6452,10 +6457,10 @@
         <v>Inaugural</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="R34" s="39" t="s">
         <v>188</v>
@@ -6480,24 +6485,24 @@
         <v>Key.Cro.34</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>35</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>1</v>
@@ -6531,10 +6536,10 @@
         <v>Modernizar</v>
       </c>
       <c r="P35" s="22" t="s">
-        <v>285</v>
+        <v>421</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="R35" s="39" t="s">
         <v>188</v>
@@ -6559,24 +6564,24 @@
         <v>Key.Cro.35</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>36</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>1</v>
@@ -6610,10 +6615,10 @@
         <v>Troca</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="R36" s="39" t="s">
         <v>188</v>
@@ -6638,21 +6643,21 @@
         <v>Key.Cro.36</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>37</v>
       </c>
       <c r="B37" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>109</v>
@@ -6689,10 +6694,10 @@
         <v>Operacional</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>281</v>
+        <v>423</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="R37" s="39" t="s">
         <v>188</v>
@@ -6717,24 +6722,24 @@
         <v>Key.Cro.37</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>38</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>257</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G38" s="68" t="s">
         <v>1</v>
@@ -6768,10 +6773,10 @@
         <v>Reforma</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="R38" s="39" t="s">
         <v>188</v>
@@ -6796,24 +6801,24 @@
         <v>Key.Cro.38</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>39</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G39" s="68" t="s">
         <v>1</v>
@@ -6847,10 +6852,10 @@
         <v>Pericial</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="R39" s="39" t="s">
         <v>188</v>
@@ -6875,24 +6880,24 @@
         <v>Key.Cro.39</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>40</v>
       </c>
       <c r="B40" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="G40" s="68" t="s">
         <v>1</v>
@@ -6926,10 +6931,10 @@
         <v>Congresso</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="Q40" s="22" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="R40" s="39" t="s">
         <v>188</v>
@@ -6954,24 +6959,24 @@
         <v>Key.Cro.40</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>41</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="F41" s="67" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="G41" s="68" t="s">
         <v>1</v>
@@ -7005,10 +7010,10 @@
         <v>Reunião</v>
       </c>
       <c r="P41" s="22" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="Q41" s="22" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="R41" s="39" t="s">
         <v>188</v>
@@ -7033,21 +7038,21 @@
         <v>Key.Cro.41</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>42</v>
       </c>
       <c r="B42" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="F42" s="67" t="s">
         <v>107</v>
@@ -7084,10 +7089,10 @@
         <v>Entrega</v>
       </c>
       <c r="P42" s="22" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="Q42" s="22" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="R42" s="39" t="s">
         <v>188</v>
@@ -7112,24 +7117,24 @@
         <v>Key.Cro.42</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>43</v>
       </c>
       <c r="B43" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="G43" s="68" t="s">
         <v>1</v>
@@ -7163,10 +7168,10 @@
         <v>Exame</v>
       </c>
       <c r="P43" s="22" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="Q43" s="22" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="R43" s="39" t="s">
         <v>188</v>
@@ -7192,11 +7197,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F37">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F37">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7212,12 +7217,12 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.88671875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.88671875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.109375" style="5"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7418,7 +7423,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7437,25 +7442,25 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58">
         <v>1</v>
       </c>
       <c r="B1" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -7463,23 +7468,23 @@
         <v>54</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>3</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7495,36 +7500,36 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>74</v>
@@ -7536,64 +7541,64 @@
         <v>48</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N1" s="57" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="U1" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>2</v>
       </c>
@@ -7637,7 +7642,7 @@
         <v>78</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P2" s="46" t="s">
         <v>1</v>
@@ -7664,12 +7669,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>3</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>51</v>
@@ -7708,7 +7713,7 @@
         <v>78</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="P3" s="46" t="s">
         <v>1</v>
@@ -7735,27 +7740,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>4</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>1</v>
@@ -7779,7 +7784,7 @@
         <v>78</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>1</v>
@@ -7806,27 +7811,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <v>5</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>1</v>
@@ -7850,7 +7855,7 @@
         <v>78</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>1</v>
@@ -7877,27 +7882,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>6</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>1</v>
@@ -7921,7 +7926,7 @@
         <v>78</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="P6" s="46" t="s">
         <v>1</v>
@@ -7948,27 +7953,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>7</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>1</v>
@@ -7992,7 +7997,7 @@
         <v>78</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>1</v>
@@ -8019,27 +8024,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>8</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>1</v>
@@ -8063,7 +8068,7 @@
         <v>78</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>1</v>
@@ -8090,27 +8095,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>9</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>1</v>
@@ -8134,7 +8139,7 @@
         <v>78</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="P9" s="46" t="s">
         <v>1</v>
@@ -8161,27 +8166,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>10</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H10" s="45" t="s">
         <v>1</v>
@@ -8205,7 +8210,7 @@
         <v>78</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>1</v>
@@ -8232,27 +8237,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>11</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H11" s="45" t="s">
         <v>1</v>
@@ -8276,7 +8281,7 @@
         <v>78</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P11" s="46" t="s">
         <v>1</v>
@@ -8303,27 +8308,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>12</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>1</v>
@@ -8347,7 +8352,7 @@
         <v>78</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>1</v>
@@ -8374,27 +8379,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>13</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>1</v>
@@ -8418,7 +8423,7 @@
         <v>78</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>1</v>
@@ -8445,27 +8450,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>14</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>1</v>
@@ -8489,7 +8494,7 @@
         <v>78</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P14" s="46" t="s">
         <v>1</v>
@@ -8516,18 +8521,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>15</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>51</v>
@@ -8560,7 +8565,7 @@
         <v>78</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>1</v>
@@ -8587,27 +8592,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>16</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H16" s="45" t="s">
         <v>1</v>
@@ -8631,7 +8636,7 @@
         <v>78</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>1</v>
@@ -8658,27 +8663,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>17</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H17" s="45" t="s">
         <v>1</v>
@@ -8702,7 +8707,7 @@
         <v>78</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>1</v>
@@ -8729,39 +8734,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>16</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="L18" s="45" t="s">
         <v>1</v>
@@ -8773,7 +8778,7 @@
         <v>78</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="P18" s="46" t="s">
         <v>1</v>
@@ -8800,39 +8805,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>17</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>1</v>
@@ -8844,7 +8849,7 @@
         <v>78</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>1</v>
@@ -8871,39 +8876,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>18</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="K20" s="50" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L20" s="45" t="s">
         <v>1</v>
@@ -8915,7 +8920,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="P20" s="46" t="s">
         <v>1</v>
@@ -8942,33 +8947,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>16</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>1</v>
@@ -8986,7 +8991,7 @@
         <v>78</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="P21" s="46" t="s">
         <v>1</v>
@@ -9013,33 +9018,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>17</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>1</v>
@@ -9057,7 +9062,7 @@
         <v>78</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="P22" s="46" t="s">
         <v>1</v>
@@ -9084,33 +9089,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>18</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J23" s="45" t="s">
         <v>1</v>
@@ -9128,7 +9133,7 @@
         <v>78</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="P23" s="46" t="s">
         <v>1</v>
@@ -9155,33 +9160,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>19</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J24" s="45" t="s">
         <v>1</v>
@@ -9199,7 +9204,7 @@
         <v>78</v>
       </c>
       <c r="O24" s="51" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="P24" s="46" t="s">
         <v>1</v>
@@ -9226,12 +9231,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>16</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>54</v>
@@ -9270,7 +9275,7 @@
         <v>78</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="P25" s="46" t="s">
         <v>1</v>
@@ -9297,12 +9302,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>17</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>54</v>
@@ -9341,7 +9346,7 @@
         <v>78</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="P26" s="46" t="s">
         <v>1</v>
@@ -9368,12 +9373,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
         <v>18</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>54</v>
@@ -9412,7 +9417,7 @@
         <v>78</v>
       </c>
       <c r="O27" s="51" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="P27" s="46" t="s">
         <v>1</v>
@@ -9439,12 +9444,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>19</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>54</v>
@@ -9483,7 +9488,7 @@
         <v>78</v>
       </c>
       <c r="O28" s="51" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="P28" s="46" t="s">
         <v>1</v>
@@ -9510,12 +9515,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47">
         <v>20</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>54</v>
@@ -9554,7 +9559,7 @@
         <v>78</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="P29" s="46" t="s">
         <v>1</v>
@@ -9581,12 +9586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>21</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>54</v>
@@ -9625,7 +9630,7 @@
         <v>78</v>
       </c>
       <c r="O30" s="51" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="P30" s="46" t="s">
         <v>1</v>
@@ -9652,12 +9657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47">
         <v>22</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>54</v>
@@ -9696,7 +9701,7 @@
         <v>78</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="P31" s="46" t="s">
         <v>1</v>
@@ -9723,27 +9728,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>23</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H32" s="45" t="s">
         <v>1</v>
@@ -9767,7 +9772,7 @@
         <v>78</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="P32" s="46" t="s">
         <v>1</v>
@@ -9794,27 +9799,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
         <v>24</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F33" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" s="50" t="s">
         <v>289</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>301</v>
       </c>
       <c r="H33" s="45" t="s">
         <v>1</v>
@@ -9838,7 +9843,7 @@
         <v>78</v>
       </c>
       <c r="O33" s="51" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="P33" s="46" t="s">
         <v>1</v>
@@ -9865,12 +9870,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>25</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>61</v>
@@ -9912,10 +9917,10 @@
         <v>87</v>
       </c>
       <c r="P34" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R34" s="46" t="s">
         <v>1</v>
@@ -9936,12 +9941,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
         <v>26</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>61</v>
@@ -9983,10 +9988,10 @@
         <v>84</v>
       </c>
       <c r="P35" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R35" s="46" t="s">
         <v>1</v>
@@ -10007,12 +10012,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
         <v>27</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>72</v>
@@ -10054,10 +10059,10 @@
         <v>124</v>
       </c>
       <c r="P36" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R36" s="46" t="s">
         <v>1</v>
@@ -10078,12 +10083,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>28</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>72</v>
@@ -10125,10 +10130,10 @@
         <v>124</v>
       </c>
       <c r="P37" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q37" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R37" s="46" t="s">
         <v>1</v>
@@ -10149,15 +10154,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>29</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D38" s="45" t="s">
         <v>1</v>
@@ -10196,10 +10201,10 @@
         <v>93</v>
       </c>
       <c r="P38" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R38" s="46" t="s">
         <v>1</v>
@@ -10220,15 +10225,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
         <v>30</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D39" s="45" t="s">
         <v>1</v>
@@ -10267,10 +10272,10 @@
         <v>95</v>
       </c>
       <c r="P39" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R39" s="46" t="s">
         <v>1</v>
@@ -10291,15 +10296,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>31</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D40" s="45" t="s">
         <v>1</v>
@@ -10338,10 +10343,10 @@
         <v>92</v>
       </c>
       <c r="P40" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q40" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R40" s="46" t="s">
         <v>1</v>
@@ -10362,15 +10367,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
         <v>32</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D41" s="45" t="s">
         <v>1</v>
@@ -10409,10 +10414,10 @@
         <v>94</v>
       </c>
       <c r="P41" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q41" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R41" s="46" t="s">
         <v>1</v>
@@ -10433,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
         <v>33</v>
       </c>
@@ -10480,10 +10485,10 @@
         <v>79</v>
       </c>
       <c r="P42" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R42" s="46" t="s">
         <v>1</v>
@@ -10504,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
         <v>34</v>
       </c>
@@ -10551,10 +10556,10 @@
         <v>81</v>
       </c>
       <c r="P43" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q43" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R43" s="46" t="s">
         <v>1</v>
@@ -10575,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>35</v>
       </c>
@@ -10583,7 +10588,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D44" s="45" t="s">
         <v>1</v>
@@ -10622,10 +10627,10 @@
         <v>96</v>
       </c>
       <c r="P44" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q44" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R44" s="46" t="s">
         <v>1</v>
@@ -10646,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
         <v>36</v>
       </c>
@@ -10654,7 +10659,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>1</v>
@@ -10693,10 +10698,10 @@
         <v>98</v>
       </c>
       <c r="P45" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q45" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R45" s="46" t="s">
         <v>1</v>
@@ -10717,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
         <v>37</v>
       </c>
@@ -10725,10 +10730,10 @@
         <v>99</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>97</v>
@@ -10764,10 +10769,10 @@
         <v>100</v>
       </c>
       <c r="P46" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R46" s="46" t="s">
         <v>1</v>
@@ -10788,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47">
         <v>38</v>
       </c>
@@ -10796,10 +10801,10 @@
         <v>101</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>97</v>
@@ -10835,10 +10840,10 @@
         <v>102</v>
       </c>
       <c r="P47" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R47" s="46" t="s">
         <v>1</v>
@@ -10859,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47">
         <v>39</v>
       </c>
@@ -10867,10 +10872,10 @@
         <v>103</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>97</v>
@@ -10906,10 +10911,10 @@
         <v>104</v>
       </c>
       <c r="P48" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R48" s="46" t="s">
         <v>1</v>
@@ -10930,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
         <v>40</v>
       </c>
@@ -10938,10 +10943,10 @@
         <v>105</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>101</v>
@@ -10977,10 +10982,10 @@
         <v>106</v>
       </c>
       <c r="P49" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R49" s="46" t="s">
         <v>1</v>
@@ -11001,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
         <v>41</v>
       </c>
@@ -11009,10 +11014,10 @@
         <v>107</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>105</v>
@@ -11048,10 +11053,10 @@
         <v>108</v>
       </c>
       <c r="P50" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R50" s="46" t="s">
         <v>1</v>
@@ -11072,7 +11077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47">
         <v>42</v>
       </c>
@@ -11080,10 +11085,10 @@
         <v>109</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>105</v>
@@ -11119,10 +11124,10 @@
         <v>110</v>
       </c>
       <c r="P51" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R51" s="46" t="s">
         <v>1</v>
@@ -11143,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47">
         <v>43</v>
       </c>
@@ -11190,10 +11195,10 @@
         <v>129</v>
       </c>
       <c r="P52" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q52" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R52" s="46" t="s">
         <v>1</v>
@@ -11214,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47">
         <v>44</v>
       </c>
@@ -11261,10 +11266,10 @@
         <v>131</v>
       </c>
       <c r="P53" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q53" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R53" s="46" t="s">
         <v>1</v>
@@ -11285,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47">
         <v>45</v>
       </c>
@@ -11332,10 +11337,10 @@
         <v>133</v>
       </c>
       <c r="P54" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q54" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R54" s="46" t="s">
         <v>1</v>
@@ -11356,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47">
         <v>46</v>
       </c>
@@ -11403,10 +11408,10 @@
         <v>135</v>
       </c>
       <c r="P55" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q55" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R55" s="46" t="s">
         <v>1</v>
@@ -11427,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47">
         <v>47</v>
       </c>
@@ -11474,10 +11479,10 @@
         <v>137</v>
       </c>
       <c r="P56" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q56" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R56" s="46" t="s">
         <v>1</v>
@@ -11498,7 +11503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47">
         <v>48</v>
       </c>
@@ -11545,10 +11550,10 @@
         <v>139</v>
       </c>
       <c r="P57" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q57" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R57" s="46" t="s">
         <v>1</v>
@@ -11569,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47">
         <v>49</v>
       </c>
@@ -11616,10 +11621,10 @@
         <v>141</v>
       </c>
       <c r="P58" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q58" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R58" s="46" t="s">
         <v>1</v>
@@ -11640,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47">
         <v>50</v>
       </c>
@@ -11687,10 +11692,10 @@
         <v>143</v>
       </c>
       <c r="P59" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q59" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R59" s="46" t="s">
         <v>1</v>
@@ -11711,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47">
         <v>51</v>
       </c>
@@ -11758,10 +11763,10 @@
         <v>83</v>
       </c>
       <c r="P60" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q60" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R60" s="46" t="s">
         <v>1</v>
@@ -11782,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47">
         <v>52</v>
       </c>
@@ -11829,10 +11834,10 @@
         <v>86</v>
       </c>
       <c r="P61" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q61" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R61" s="46" t="s">
         <v>1</v>
@@ -11853,7 +11858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47">
         <v>53</v>
       </c>
@@ -11900,10 +11905,10 @@
         <v>89</v>
       </c>
       <c r="P62" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q62" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R62" s="46" t="s">
         <v>1</v>
@@ -11924,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47">
         <v>54</v>
       </c>
@@ -11971,10 +11976,10 @@
         <v>91</v>
       </c>
       <c r="P63" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q63" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R63" s="46" t="s">
         <v>1</v>
@@ -11995,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47">
         <v>55</v>
       </c>
@@ -12042,10 +12047,10 @@
         <v>112</v>
       </c>
       <c r="P64" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q64" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R64" s="46" t="s">
         <v>1</v>
@@ -12066,7 +12071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47">
         <v>56</v>
       </c>
@@ -12113,10 +12118,10 @@
         <v>114</v>
       </c>
       <c r="P65" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q65" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R65" s="46" t="s">
         <v>1</v>
@@ -12137,7 +12142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47">
         <v>57</v>
       </c>
@@ -12184,10 +12189,10 @@
         <v>114</v>
       </c>
       <c r="P66" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q66" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R66" s="46" t="s">
         <v>1</v>
@@ -12208,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47">
         <v>58</v>
       </c>
@@ -12255,10 +12260,10 @@
         <v>114</v>
       </c>
       <c r="P67" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q67" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R67" s="46" t="s">
         <v>1</v>
@@ -12279,7 +12284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47">
         <v>59</v>
       </c>
@@ -12326,10 +12331,10 @@
         <v>126</v>
       </c>
       <c r="P68" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q68" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R68" s="46" t="s">
         <v>1</v>
@@ -12350,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
         <v>60</v>
       </c>
@@ -12397,10 +12402,10 @@
         <v>126</v>
       </c>
       <c r="P69" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q69" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R69" s="46" t="s">
         <v>1</v>
@@ -12421,7 +12426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47">
         <v>61</v>
       </c>
@@ -12468,10 +12473,10 @@
         <v>122</v>
       </c>
       <c r="P70" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q70" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R70" s="46" t="s">
         <v>1</v>
@@ -12492,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47">
         <v>62</v>
       </c>
@@ -12539,10 +12544,10 @@
         <v>122</v>
       </c>
       <c r="P71" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q71" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R71" s="46" t="s">
         <v>1</v>
@@ -12563,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47">
         <v>63</v>
       </c>
@@ -12610,10 +12615,10 @@
         <v>114</v>
       </c>
       <c r="P72" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q72" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R72" s="46" t="s">
         <v>1</v>
@@ -12634,7 +12639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47">
         <v>64</v>
       </c>
@@ -12645,7 +12650,7 @@
         <v>73</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E73" s="50" t="s">
         <v>117</v>
@@ -12681,10 +12686,10 @@
         <v>114</v>
       </c>
       <c r="P73" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q73" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R73" s="46" t="s">
         <v>1</v>
@@ -12705,18 +12710,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47">
         <v>65</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E74" s="50" t="s">
         <v>117</v>
@@ -12752,10 +12757,10 @@
         <v>114</v>
       </c>
       <c r="P74" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q74" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R74" s="46" t="s">
         <v>1</v>
@@ -12776,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47">
         <v>66</v>
       </c>
@@ -12787,7 +12792,7 @@
         <v>73</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>117</v>
@@ -12823,10 +12828,10 @@
         <v>114</v>
       </c>
       <c r="P75" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q75" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R75" s="46" t="s">
         <v>1</v>
@@ -12847,21 +12852,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47">
         <v>67</v>
       </c>
       <c r="B76" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E76" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F76" s="45" t="s">
         <v>1</v>
@@ -12894,10 +12899,10 @@
         <v>114</v>
       </c>
       <c r="P76" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q76" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R76" s="46" t="s">
         <v>1</v>
@@ -12918,21 +12923,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47">
         <v>68</v>
       </c>
       <c r="B77" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F77" s="45" t="s">
         <v>1</v>
@@ -12965,10 +12970,10 @@
         <v>114</v>
       </c>
       <c r="P77" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q77" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R77" s="46" t="s">
         <v>1</v>
@@ -12989,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>69</v>
       </c>
@@ -13000,10 +13005,10 @@
         <v>69</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F78" s="45" t="s">
         <v>1</v>
@@ -13033,13 +13038,13 @@
         <v>78</v>
       </c>
       <c r="O78" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P78" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q78" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R78" s="46" t="s">
         <v>1</v>
@@ -13060,21 +13065,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47">
         <v>70</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E79" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F79" s="45" t="s">
         <v>1</v>
@@ -13104,13 +13109,13 @@
         <v>78</v>
       </c>
       <c r="O79" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P79" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q79" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R79" s="46" t="s">
         <v>1</v>
@@ -13131,21 +13136,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47">
         <v>71</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E80" s="50" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F80" s="45" t="s">
         <v>1</v>
@@ -13175,7 +13180,7 @@
         <v>78</v>
       </c>
       <c r="O80" s="51" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="P80" s="46" t="s">
         <v>1</v>
@@ -13202,21 +13207,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47">
         <v>72</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C81" s="67" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F81" s="45" t="s">
         <v>1</v>
@@ -13246,7 +13251,7 @@
         <v>78</v>
       </c>
       <c r="O81" s="51" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="P81" s="46" t="s">
         <v>1</v>
@@ -13273,21 +13278,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47">
         <v>73</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E82" s="50" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F82" s="45" t="s">
         <v>1</v>
@@ -13317,7 +13322,7 @@
         <v>78</v>
       </c>
       <c r="O82" s="51" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="P82" s="46" t="s">
         <v>1</v>
@@ -13347,24 +13352,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1 B36:B79 B32:B33">
-    <cfRule type="duplicateValues" dxfId="9" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13378,11 +13383,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -13393,7 +13398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -13401,7 +13406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -13409,7 +13414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -13417,7 +13422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06112FB-B694-44A1-940F-8F1A3E038B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EE6649-8387-4D98-823B-A7B2BFEA2358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="439">
   <si>
     <t>Key</t>
   </si>
@@ -2573,6 +2573,12 @@
   </si>
   <si>
     <t>Um período de tempo com duração de 2 anos.</t>
+  </si>
+  <si>
+    <t>CategoriaRvt</t>
+  </si>
+  <si>
+    <t>ClasseIfc</t>
   </si>
 </sst>
 </file>
@@ -3274,7 +3280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3578,14 +3584,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.28515625" style="12"/>
+    <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.3046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>149</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>158</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>160</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -3675,7 +3681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>161</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>162</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>163</v>
       </c>
@@ -3707,7 +3713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>164</v>
       </c>
@@ -3715,7 +3721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
@@ -3723,16 +3729,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45816.545762152775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45922.452784606481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>166</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>168</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>169</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
         <v>170</v>
       </c>
@@ -3779,35 +3785,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B04F8-6372-42A9-A10C-B0C4EF342E07}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A43"/>
+      <selection activeCell="X2" sqref="X2:Y43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.65" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6.3828125" customWidth="1"/>
+    <col min="13" max="13" width="6.53515625" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69140625" customWidth="1"/>
+    <col min="16" max="16" width="42.15234375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="41.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
@@ -3877,8 +3883,14 @@
       <c r="W1" s="29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="31">
         <v>2</v>
       </c>
@@ -3956,8 +3968,14 @@
         <f t="shared" ref="W2:W43" si="3">CONCATENATE("Key.Cro",".",A2)</f>
         <v>Key.Cro.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="31">
         <v>3</v>
       </c>
@@ -4035,8 +4053,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31">
         <v>4</v>
       </c>
@@ -4114,8 +4138,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="31">
         <v>5</v>
       </c>
@@ -4193,8 +4223,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="31">
         <v>6</v>
       </c>
@@ -4272,8 +4308,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <v>7</v>
       </c>
@@ -4351,8 +4393,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31">
         <v>8</v>
       </c>
@@ -4430,8 +4478,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="31">
         <v>9</v>
       </c>
@@ -4509,8 +4563,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31">
         <v>10</v>
       </c>
@@ -4588,8 +4648,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.10</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="31">
         <v>11</v>
       </c>
@@ -4667,8 +4733,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.11</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31">
         <v>12</v>
       </c>
@@ -4746,8 +4818,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31">
         <v>13</v>
       </c>
@@ -4825,8 +4903,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31">
         <v>14</v>
       </c>
@@ -4904,8 +4988,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.14</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="31">
         <v>15</v>
       </c>
@@ -4983,8 +5073,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31">
         <v>16</v>
       </c>
@@ -5062,8 +5158,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="31">
         <v>17</v>
       </c>
@@ -5141,8 +5243,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31">
         <v>18</v>
       </c>
@@ -5220,8 +5328,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.18</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -5299,8 +5413,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="31">
         <v>20</v>
       </c>
@@ -5378,8 +5498,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.20</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="31">
         <v>21</v>
       </c>
@@ -5457,8 +5583,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.21</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31">
         <v>22</v>
       </c>
@@ -5536,8 +5668,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.22</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31">
         <v>23</v>
       </c>
@@ -5615,8 +5753,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="31">
         <v>24</v>
       </c>
@@ -5694,8 +5838,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="31">
         <v>25</v>
       </c>
@@ -5773,8 +5923,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="31">
         <v>26</v>
       </c>
@@ -5852,8 +6008,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.26</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="31">
         <v>27</v>
       </c>
@@ -5931,8 +6093,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.27</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="31">
         <v>28</v>
       </c>
@@ -6010,8 +6178,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.28</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="31">
         <v>29</v>
       </c>
@@ -6089,8 +6263,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.29</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="31">
         <v>30</v>
       </c>
@@ -6168,8 +6348,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.30</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="31">
         <v>31</v>
       </c>
@@ -6247,8 +6433,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.31</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="31">
         <v>32</v>
       </c>
@@ -6326,8 +6518,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.32</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="31">
         <v>33</v>
       </c>
@@ -6405,8 +6603,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.33</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="31">
         <v>34</v>
       </c>
@@ -6484,8 +6688,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.34</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="31">
         <v>35</v>
       </c>
@@ -6563,8 +6773,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.35</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="31">
         <v>36</v>
       </c>
@@ -6642,8 +6858,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="31">
         <v>37</v>
       </c>
@@ -6721,8 +6943,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.37</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31">
         <v>38</v>
       </c>
@@ -6800,8 +7028,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.38</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="31">
         <v>39</v>
       </c>
@@ -6879,8 +7113,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.39</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X39" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="31">
         <v>40</v>
       </c>
@@ -6958,8 +7198,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.40</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="31">
         <v>41</v>
       </c>
@@ -7037,8 +7283,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.41</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X41" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="31">
         <v>42</v>
       </c>
@@ -7116,8 +7368,14 @@
         <f t="shared" si="3"/>
         <v>Key.Cro.42</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X42" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="31">
         <v>43</v>
       </c>
@@ -7194,6 +7452,12 @@
       <c r="W43" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Key.Cro.43</v>
+      </c>
+      <c r="X43" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="41" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7217,15 +7481,15 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.84375" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.84375" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.15234375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
@@ -7290,7 +7554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60">
         <v>2</v>
       </c>
@@ -7355,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
         <v>3</v>
       </c>
@@ -7442,14 +7706,14 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3046875" customWidth="1"/>
+    <col min="2" max="2" width="6.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58">
         <v>1</v>
       </c>
@@ -7460,7 +7724,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -7471,7 +7735,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19">
         <v>3</v>
       </c>
@@ -7500,34 +7764,34 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" customWidth="1"/>
+    <col min="4" max="4" width="8.3828125" customWidth="1"/>
+    <col min="5" max="5" width="8.3046875" customWidth="1"/>
+    <col min="6" max="6" width="8.15234375" customWidth="1"/>
+    <col min="7" max="7" width="5.84375" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="3.3828125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.3828125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="56" t="s">
         <v>193</v>
       </c>
@@ -7598,7 +7862,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="47">
         <v>2</v>
       </c>
@@ -7669,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47">
         <v>3</v>
       </c>
@@ -7740,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="47">
         <v>4</v>
       </c>
@@ -7811,7 +8075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47">
         <v>5</v>
       </c>
@@ -7882,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47">
         <v>6</v>
       </c>
@@ -7953,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="47">
         <v>7</v>
       </c>
@@ -8024,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="47">
         <v>8</v>
       </c>
@@ -8095,7 +8359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="47">
         <v>9</v>
       </c>
@@ -8166,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="47">
         <v>10</v>
       </c>
@@ -8237,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="47">
         <v>11</v>
       </c>
@@ -8308,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47">
         <v>12</v>
       </c>
@@ -8379,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47">
         <v>13</v>
       </c>
@@ -8450,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47">
         <v>14</v>
       </c>
@@ -8521,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47">
         <v>15</v>
       </c>
@@ -8592,7 +8856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47">
         <v>16</v>
       </c>
@@ -8663,7 +8927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="47">
         <v>17</v>
       </c>
@@ -8734,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="47">
         <v>16</v>
       </c>
@@ -8805,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="47">
         <v>17</v>
       </c>
@@ -8876,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="47">
         <v>18</v>
       </c>
@@ -8947,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="47">
         <v>16</v>
       </c>
@@ -9018,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="47">
         <v>17</v>
       </c>
@@ -9089,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="47">
         <v>18</v>
       </c>
@@ -9160,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="47">
         <v>19</v>
       </c>
@@ -9231,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="47">
         <v>16</v>
       </c>
@@ -9302,7 +9566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="47">
         <v>17</v>
       </c>
@@ -9373,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="47">
         <v>18</v>
       </c>
@@ -9444,7 +9708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="47">
         <v>19</v>
       </c>
@@ -9515,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="47">
         <v>20</v>
       </c>
@@ -9586,7 +9850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="47">
         <v>21</v>
       </c>
@@ -9657,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="47">
         <v>22</v>
       </c>
@@ -9728,7 +9992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="47">
         <v>23</v>
       </c>
@@ -9799,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="47">
         <v>24</v>
       </c>
@@ -9870,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="47">
         <v>25</v>
       </c>
@@ -9941,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="47">
         <v>26</v>
       </c>
@@ -10012,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="47">
         <v>27</v>
       </c>
@@ -10083,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="47">
         <v>28</v>
       </c>
@@ -10154,7 +10418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="47">
         <v>29</v>
       </c>
@@ -10225,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="47">
         <v>30</v>
       </c>
@@ -10296,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="47">
         <v>31</v>
       </c>
@@ -10367,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="47">
         <v>32</v>
       </c>
@@ -10438,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="47">
         <v>33</v>
       </c>
@@ -10509,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="47">
         <v>34</v>
       </c>
@@ -10580,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="47">
         <v>35</v>
       </c>
@@ -10651,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="47">
         <v>36</v>
       </c>
@@ -10722,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="47">
         <v>37</v>
       </c>
@@ -10793,7 +11057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="47">
         <v>38</v>
       </c>
@@ -10864,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="47">
         <v>39</v>
       </c>
@@ -10935,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="47">
         <v>40</v>
       </c>
@@ -11006,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="47">
         <v>41</v>
       </c>
@@ -11077,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="47">
         <v>42</v>
       </c>
@@ -11148,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="47">
         <v>43</v>
       </c>
@@ -11219,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="47">
         <v>44</v>
       </c>
@@ -11290,7 +11554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="47">
         <v>45</v>
       </c>
@@ -11361,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="47">
         <v>46</v>
       </c>
@@ -11432,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="47">
         <v>47</v>
       </c>
@@ -11503,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="47">
         <v>48</v>
       </c>
@@ -11574,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="47">
         <v>49</v>
       </c>
@@ -11645,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="47">
         <v>50</v>
       </c>
@@ -11716,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="47">
         <v>51</v>
       </c>
@@ -11787,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="47">
         <v>52</v>
       </c>
@@ -11858,7 +12122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47">
         <v>53</v>
       </c>
@@ -11929,7 +12193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47">
         <v>54</v>
       </c>
@@ -12000,7 +12264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47">
         <v>55</v>
       </c>
@@ -12071,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="47">
         <v>56</v>
       </c>
@@ -12142,7 +12406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="47">
         <v>57</v>
       </c>
@@ -12213,7 +12477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="47">
         <v>58</v>
       </c>
@@ -12284,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="47">
         <v>59</v>
       </c>
@@ -12355,7 +12619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="47">
         <v>60</v>
       </c>
@@ -12426,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="47">
         <v>61</v>
       </c>
@@ -12497,7 +12761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="47">
         <v>62</v>
       </c>
@@ -12568,7 +12832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="47">
         <v>63</v>
       </c>
@@ -12639,7 +12903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="47">
         <v>64</v>
       </c>
@@ -12710,7 +12974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="47">
         <v>65</v>
       </c>
@@ -12781,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="47">
         <v>66</v>
       </c>
@@ -12852,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="47">
         <v>67</v>
       </c>
@@ -12923,7 +13187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="47">
         <v>68</v>
       </c>
@@ -12994,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="47">
         <v>69</v>
       </c>
@@ -13065,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="47">
         <v>70</v>
       </c>
@@ -13136,7 +13400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="47">
         <v>71</v>
       </c>
@@ -13207,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="47">
         <v>72</v>
       </c>
@@ -13278,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="47">
         <v>73</v>
       </c>
@@ -13383,14 +13647,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="7.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="2.3828125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.53515625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.3828125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -13398,7 +13662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -13406,7 +13670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -13414,7 +13678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38.6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -13422,7 +13686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -13430,7 +13694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -13438,7 +13702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -13446,7 +13710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -13454,7 +13718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -13462,7 +13726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -13470,7 +13734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -13478,7 +13742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -13486,7 +13750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -13494,7 +13758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -13502,7 +13766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>15</v>
       </c>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EE6649-8387-4D98-823B-A7B2BFEA2358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A307726-6255-46CA-9A09-C5AFE2FD2DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="440">
   <si>
     <t>Key</t>
   </si>
@@ -2579,6 +2579,9 @@
   </si>
   <si>
     <t>ClasseIfc</t>
+  </si>
+  <si>
+    <t>ABNT</t>
   </si>
 </sst>
 </file>
@@ -3584,14 +3587,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.3046875" style="12"/>
+    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>149</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>158</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>160</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>161</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>162</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>163</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>164</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
@@ -3729,16 +3732,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45922.452784606481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>45958.460468981481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>166</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>168</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>169</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>170</v>
       </c>
@@ -3785,35 +3788,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B04F8-6372-42A9-A10C-B0C4EF342E07}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:Y43"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.65" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.3828125" customWidth="1"/>
-    <col min="13" max="13" width="6.53515625" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="8.69140625" customWidth="1"/>
-    <col min="16" max="16" width="42.15234375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.15234375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="41.25" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
@@ -3889,8 +3893,11 @@
       <c r="Y1" s="27" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z1" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>2</v>
       </c>
@@ -3974,8 +3981,11 @@
       <c r="Y2" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z2" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>3</v>
       </c>
@@ -4059,8 +4069,11 @@
       <c r="Y3" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z3" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>4</v>
       </c>
@@ -4144,8 +4157,11 @@
       <c r="Y4" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z4" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>5</v>
       </c>
@@ -4229,8 +4245,11 @@
       <c r="Y5" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z5" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>6</v>
       </c>
@@ -4314,8 +4333,11 @@
       <c r="Y6" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z6" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>7</v>
       </c>
@@ -4399,8 +4421,11 @@
       <c r="Y7" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z7" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>8</v>
       </c>
@@ -4484,8 +4509,11 @@
       <c r="Y8" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z8" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>9</v>
       </c>
@@ -4569,8 +4597,11 @@
       <c r="Y9" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z9" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>10</v>
       </c>
@@ -4654,8 +4685,11 @@
       <c r="Y10" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z10" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>11</v>
       </c>
@@ -4739,8 +4773,11 @@
       <c r="Y11" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z11" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>12</v>
       </c>
@@ -4824,8 +4861,11 @@
       <c r="Y12" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z12" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>13</v>
       </c>
@@ -4909,8 +4949,11 @@
       <c r="Y13" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z13" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>14</v>
       </c>
@@ -4994,8 +5037,11 @@
       <c r="Y14" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z14" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>15</v>
       </c>
@@ -5079,8 +5125,11 @@
       <c r="Y15" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z15" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>16</v>
       </c>
@@ -5164,8 +5213,11 @@
       <c r="Y16" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z16" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>17</v>
       </c>
@@ -5249,8 +5301,11 @@
       <c r="Y17" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z17" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>18</v>
       </c>
@@ -5334,8 +5389,11 @@
       <c r="Y18" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z18" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -5419,8 +5477,11 @@
       <c r="Y19" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z19" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>20</v>
       </c>
@@ -5504,8 +5565,11 @@
       <c r="Y20" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z20" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>21</v>
       </c>
@@ -5589,8 +5653,11 @@
       <c r="Y21" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z21" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>22</v>
       </c>
@@ -5674,8 +5741,11 @@
       <c r="Y22" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z22" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>23</v>
       </c>
@@ -5759,8 +5829,11 @@
       <c r="Y23" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z23" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>24</v>
       </c>
@@ -5844,8 +5917,11 @@
       <c r="Y24" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z24" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>25</v>
       </c>
@@ -5929,8 +6005,11 @@
       <c r="Y25" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z25" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>26</v>
       </c>
@@ -6014,8 +6093,11 @@
       <c r="Y26" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z26" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>27</v>
       </c>
@@ -6099,8 +6181,11 @@
       <c r="Y27" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z27" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>28</v>
       </c>
@@ -6184,8 +6269,11 @@
       <c r="Y28" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z28" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>29</v>
       </c>
@@ -6269,8 +6357,11 @@
       <c r="Y29" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z29" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>30</v>
       </c>
@@ -6354,8 +6445,11 @@
       <c r="Y30" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z30" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>31</v>
       </c>
@@ -6439,8 +6533,11 @@
       <c r="Y31" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z31" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>32</v>
       </c>
@@ -6524,8 +6621,11 @@
       <c r="Y32" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z32" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>33</v>
       </c>
@@ -6609,8 +6709,11 @@
       <c r="Y33" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z33" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>34</v>
       </c>
@@ -6694,8 +6797,11 @@
       <c r="Y34" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z34" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>35</v>
       </c>
@@ -6779,8 +6885,11 @@
       <c r="Y35" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z35" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>36</v>
       </c>
@@ -6864,8 +6973,11 @@
       <c r="Y36" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z36" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>37</v>
       </c>
@@ -6949,8 +7061,11 @@
       <c r="Y37" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z37" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>38</v>
       </c>
@@ -7034,8 +7149,11 @@
       <c r="Y38" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z38" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>39</v>
       </c>
@@ -7119,8 +7237,11 @@
       <c r="Y39" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z39" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>40</v>
       </c>
@@ -7204,8 +7325,11 @@
       <c r="Y40" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z40" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>41</v>
       </c>
@@ -7289,8 +7413,11 @@
       <c r="Y41" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z41" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>42</v>
       </c>
@@ -7374,8 +7501,11 @@
       <c r="Y42" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z42" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>43</v>
       </c>
@@ -7457,6 +7587,9 @@
         <v>1</v>
       </c>
       <c r="Y43" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="41" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7481,15 +7614,15 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.84375" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.84375" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.15234375" style="5"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
@@ -7554,7 +7687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="60">
         <v>2</v>
       </c>
@@ -7619,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="60">
         <v>3</v>
       </c>
@@ -7706,14 +7839,14 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" customWidth="1"/>
-    <col min="2" max="2" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58">
         <v>1</v>
       </c>
@@ -7724,7 +7857,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -7735,7 +7868,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>3</v>
       </c>
@@ -7764,34 +7897,34 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" customWidth="1"/>
-    <col min="4" max="4" width="8.3828125" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" customWidth="1"/>
-    <col min="6" max="6" width="8.15234375" customWidth="1"/>
-    <col min="7" max="7" width="5.84375" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="3.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.3828125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.3828125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>193</v>
       </c>
@@ -7862,7 +7995,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>2</v>
       </c>
@@ -7933,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>3</v>
       </c>
@@ -8004,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>4</v>
       </c>
@@ -8075,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <v>5</v>
       </c>
@@ -8146,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>6</v>
       </c>
@@ -8217,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>7</v>
       </c>
@@ -8288,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>8</v>
       </c>
@@ -8359,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>9</v>
       </c>
@@ -8430,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>10</v>
       </c>
@@ -8501,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>11</v>
       </c>
@@ -8572,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>12</v>
       </c>
@@ -8643,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>13</v>
       </c>
@@ -8714,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>14</v>
       </c>
@@ -8785,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>15</v>
       </c>
@@ -8856,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>16</v>
       </c>
@@ -8927,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>17</v>
       </c>
@@ -8998,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>16</v>
       </c>
@@ -9069,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>17</v>
       </c>
@@ -9140,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>18</v>
       </c>
@@ -9211,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>16</v>
       </c>
@@ -9282,7 +9415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>17</v>
       </c>
@@ -9353,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>18</v>
       </c>
@@ -9424,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>19</v>
       </c>
@@ -9495,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>16</v>
       </c>
@@ -9566,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>17</v>
       </c>
@@ -9637,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
         <v>18</v>
       </c>
@@ -9708,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>19</v>
       </c>
@@ -9779,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47">
         <v>20</v>
       </c>
@@ -9850,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>21</v>
       </c>
@@ -9921,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47">
         <v>22</v>
       </c>
@@ -9992,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>23</v>
       </c>
@@ -10063,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
         <v>24</v>
       </c>
@@ -10134,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>25</v>
       </c>
@@ -10205,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
         <v>26</v>
       </c>
@@ -10276,7 +10409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
         <v>27</v>
       </c>
@@ -10347,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>28</v>
       </c>
@@ -10418,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>29</v>
       </c>
@@ -10489,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
         <v>30</v>
       </c>
@@ -10560,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>31</v>
       </c>
@@ -10631,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
         <v>32</v>
       </c>
@@ -10702,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
         <v>33</v>
       </c>
@@ -10773,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
         <v>34</v>
       </c>
@@ -10844,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>35</v>
       </c>
@@ -10915,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
         <v>36</v>
       </c>
@@ -10986,7 +11119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
         <v>37</v>
       </c>
@@ -11057,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47">
         <v>38</v>
       </c>
@@ -11128,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47">
         <v>39</v>
       </c>
@@ -11199,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
         <v>40</v>
       </c>
@@ -11270,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
         <v>41</v>
       </c>
@@ -11341,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47">
         <v>42</v>
       </c>
@@ -11412,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47">
         <v>43</v>
       </c>
@@ -11483,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47">
         <v>44</v>
       </c>
@@ -11554,7 +11687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47">
         <v>45</v>
       </c>
@@ -11625,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47">
         <v>46</v>
       </c>
@@ -11696,7 +11829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47">
         <v>47</v>
       </c>
@@ -11767,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47">
         <v>48</v>
       </c>
@@ -11838,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47">
         <v>49</v>
       </c>
@@ -11909,7 +12042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47">
         <v>50</v>
       </c>
@@ -11980,7 +12113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47">
         <v>51</v>
       </c>
@@ -12051,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47">
         <v>52</v>
       </c>
@@ -12122,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47">
         <v>53</v>
       </c>
@@ -12193,7 +12326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47">
         <v>54</v>
       </c>
@@ -12264,7 +12397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47">
         <v>55</v>
       </c>
@@ -12335,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47">
         <v>56</v>
       </c>
@@ -12406,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47">
         <v>57</v>
       </c>
@@ -12477,7 +12610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47">
         <v>58</v>
       </c>
@@ -12548,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47">
         <v>59</v>
       </c>
@@ -12619,7 +12752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
         <v>60</v>
       </c>
@@ -12690,7 +12823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47">
         <v>61</v>
       </c>
@@ -12761,7 +12894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47">
         <v>62</v>
       </c>
@@ -12832,7 +12965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47">
         <v>63</v>
       </c>
@@ -12903,7 +13036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47">
         <v>64</v>
       </c>
@@ -12974,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47">
         <v>65</v>
       </c>
@@ -13045,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47">
         <v>66</v>
       </c>
@@ -13116,7 +13249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47">
         <v>67</v>
       </c>
@@ -13187,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47">
         <v>68</v>
       </c>
@@ -13258,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>69</v>
       </c>
@@ -13329,7 +13462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47">
         <v>70</v>
       </c>
@@ -13400,7 +13533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47">
         <v>71</v>
       </c>
@@ -13471,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47">
         <v>72</v>
       </c>
@@ -13542,7 +13675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47">
         <v>73</v>
       </c>
@@ -13647,14 +13780,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="7.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.3828125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.53515625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.3828125" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -13662,7 +13795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -13670,7 +13803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -13678,7 +13811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -13686,7 +13819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -13694,7 +13827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -13702,7 +13835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -13710,7 +13843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -13718,7 +13851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -13726,7 +13859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -13734,7 +13867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -13742,7 +13875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -13750,7 +13883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -13758,7 +13891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -13766,7 +13899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>15</v>
       </c>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A307726-6255-46CA-9A09-C5AFE2FD2DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDBCAC-918F-4DA2-92D7-C2A714FEC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="441">
   <si>
     <t>Key</t>
   </si>
@@ -2583,6 +2583,9 @@
   <si>
     <t>ABNT</t>
   </si>
+  <si>
+    <t>000 Translate Classe 5</t>
+  </si>
 </sst>
 </file>
 
@@ -2591,7 +2594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2751,8 +2754,15 @@
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2885,6 +2895,12 @@
         <bgColor rgb="FFD9F2D0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2937,7 +2953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3142,11 +3158,25 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3587,14 +3617,14 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.28515625" style="12"/>
+    <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.3046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3602,7 +3632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -3610,7 +3640,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
@@ -3618,7 +3648,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
@@ -3626,7 +3656,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3635,7 +3665,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3644,7 +3674,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
@@ -3652,7 +3682,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>149</v>
       </c>
@@ -3660,7 +3690,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>158</v>
       </c>
@@ -3668,7 +3698,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>160</v>
       </c>
@@ -3676,7 +3706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -3684,7 +3714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
@@ -3692,7 +3722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>161</v>
       </c>
@@ -3700,7 +3730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>162</v>
       </c>
@@ -3708,7 +3738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>163</v>
       </c>
@@ -3716,7 +3746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>164</v>
       </c>
@@ -3724,7 +3754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
@@ -3732,16 +3762,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45958.460468981481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45989.668919791664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>166</v>
       </c>
@@ -3749,7 +3779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>167</v>
       </c>
@@ -3757,7 +3787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>168</v>
       </c>
@@ -3765,7 +3795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>169</v>
       </c>
@@ -3773,7 +3803,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
         <v>170</v>
       </c>
@@ -3788,36 +3818,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B04F8-6372-42A9-A10C-B0C4EF342E07}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z43"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.65" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6.3828125" customWidth="1"/>
+    <col min="13" max="13" width="6.53515625" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69140625" customWidth="1"/>
+    <col min="16" max="16" width="42.15234375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.15234375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="41.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>175</v>
       </c>
@@ -3896,8 +3927,11 @@
       <c r="Z1" s="27" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="31">
         <v>2</v>
       </c>
@@ -3984,8 +4018,12 @@
       <c r="Z2" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="71" t="str">
+        <f>_xlfn.TRANSLATE(P2,"pt","en")</f>
+        <v>A large period of time associated not necessarily with a number of years.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="31">
         <v>3</v>
       </c>
@@ -4072,8 +4110,12 @@
       <c r="Z3" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="71" t="str">
+        <f t="shared" ref="AA3:AA43" si="5">_xlfn.TRANSLATE(P3,"pt","en")</f>
+        <v>A period of time associated not necessarily with a number of years.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31">
         <v>4</v>
       </c>
@@ -4160,8 +4202,12 @@
       <c r="Z4" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of time lasting 100 years.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="31">
         <v>5</v>
       </c>
@@ -4248,8 +4294,12 @@
       <c r="Z5" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of time lasting 50 years.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="31">
         <v>6</v>
       </c>
@@ -4336,8 +4386,12 @@
       <c r="Z6" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of time lasting 10 years.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
         <v>7</v>
       </c>
@@ -4424,8 +4478,12 @@
       <c r="Z7" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of time lasting 5 years.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31">
         <v>8</v>
       </c>
@@ -4512,8 +4570,12 @@
       <c r="Z8" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of time lasting 5 years.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="31">
         <v>9</v>
       </c>
@@ -4600,8 +4662,12 @@
       <c r="Z9" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of time lasting 2 years.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31">
         <v>10</v>
       </c>
@@ -4688,8 +4754,12 @@
       <c r="Z10" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A calendar period of 365 days distributed over 12 months.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="31">
         <v>11</v>
       </c>
@@ -4776,8 +4846,12 @@
       <c r="Z11" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of 6 months.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31">
         <v>12</v>
       </c>
@@ -4864,8 +4938,12 @@
       <c r="Z12" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of 4 months.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31">
         <v>13</v>
       </c>
@@ -4952,8 +5030,12 @@
       <c r="Z13" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of 3 months.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31">
         <v>14</v>
       </c>
@@ -5040,8 +5122,12 @@
       <c r="Z14" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of 31, 30 or 28 days Every four years there is a month of 29 days.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="31">
         <v>15</v>
       </c>
@@ -5128,8 +5214,12 @@
       <c r="Z15" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of 7 days.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31">
         <v>16</v>
       </c>
@@ -5216,8 +5306,12 @@
       <c r="Z16" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A 24-hour period.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="31">
         <v>17</v>
       </c>
@@ -5304,8 +5398,12 @@
       <c r="Z17" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A working day or day.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31">
         <v>18</v>
       </c>
@@ -5392,8 +5490,12 @@
       <c r="Z18" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of 60 minutes.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -5480,8 +5582,12 @@
       <c r="Z19" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of 60 seconds.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="31">
         <v>20</v>
       </c>
@@ -5568,8 +5674,12 @@
       <c r="Z20" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A period of 1000 milliseconds.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="31">
         <v>21</v>
       </c>
@@ -5656,8 +5766,12 @@
       <c r="Z21" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Millisecond.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31">
         <v>22</v>
       </c>
@@ -5744,8 +5858,12 @@
       <c r="Z22" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>An event repeated at regular intervals.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31">
         <v>23</v>
       </c>
@@ -5780,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="36" t="str">
-        <f t="shared" ref="L23" si="5">_xlfn.CONCAT(C23)</f>
+        <f t="shared" ref="L23" si="6">_xlfn.CONCAT(C23)</f>
         <v>Temporal</v>
       </c>
       <c r="M23" s="36" t="str">
@@ -5832,8 +5950,12 @@
       <c r="Z23" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>A cycle of the computer's internal clock It can be measured in Hz or GHz.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="31">
         <v>24</v>
       </c>
@@ -5920,8 +6042,12 @@
       <c r="Z24" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Initial timing mark.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="31">
         <v>25</v>
       </c>
@@ -6008,8 +6134,12 @@
       <c r="Z25" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA25" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Intermediate mark of timekeeping (split time).</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="31">
         <v>26</v>
       </c>
@@ -6096,8 +6226,12 @@
       <c r="Z26" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA26" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Final timing mark.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="31">
         <v>27</v>
       </c>
@@ -6157,15 +6291,15 @@
         <v>188</v>
       </c>
       <c r="S27" s="40" t="str">
-        <f t="shared" ref="S27:U42" si="6">SUBSTITUTE(C27, "_", " ")</f>
+        <f t="shared" ref="S27:U42" si="7">SUBSTITUTE(C27, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T27" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="U27" s="38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Duração</v>
       </c>
       <c r="V27" s="41" t="s">
@@ -6184,8 +6318,12 @@
       <c r="Z27" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA27" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Time interval.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="31">
         <v>28</v>
       </c>
@@ -6245,15 +6383,15 @@
         <v>188</v>
       </c>
       <c r="S28" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Temporal</v>
       </c>
       <c r="T28" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="U28" s="38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Etapa</v>
       </c>
       <c r="V28" s="41" t="s">
@@ -6272,8 +6410,12 @@
       <c r="Z28" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA28" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Ideation phase stage.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="31">
         <v>29</v>
       </c>
@@ -6333,15 +6475,15 @@
         <v>188</v>
       </c>
       <c r="S29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Temporal</v>
       </c>
       <c r="T29" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="U29" s="38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Etapa</v>
       </c>
       <c r="V29" s="41" t="s">
@@ -6360,8 +6502,12 @@
       <c r="Z29" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA29" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Project phase stage.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="31">
         <v>30</v>
       </c>
@@ -6421,15 +6567,15 @@
         <v>188</v>
       </c>
       <c r="S30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Temporal</v>
       </c>
       <c r="T30" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="U30" s="38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Etapa</v>
       </c>
       <c r="V30" s="41" t="s">
@@ -6448,8 +6594,12 @@
       <c r="Z30" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA30" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Simulation phase stage.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="31">
         <v>31</v>
       </c>
@@ -6509,15 +6659,15 @@
         <v>188</v>
       </c>
       <c r="S31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Temporal</v>
       </c>
       <c r="T31" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="U31" s="38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Etapa</v>
       </c>
       <c r="V31" s="41" t="s">
@@ -6536,8 +6686,12 @@
       <c r="Z31" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA31" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Planning phase stage.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="31">
         <v>32</v>
       </c>
@@ -6597,15 +6751,15 @@
         <v>188</v>
       </c>
       <c r="S32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Temporal</v>
       </c>
       <c r="T32" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="U32" s="38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Etapa</v>
       </c>
       <c r="V32" s="41" t="s">
@@ -6624,8 +6778,12 @@
       <c r="Z32" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA32" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Construction phase stage.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="31">
         <v>33</v>
       </c>
@@ -6685,15 +6843,15 @@
         <v>188</v>
       </c>
       <c r="S33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Temporal</v>
       </c>
       <c r="T33" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="U33" s="38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Etapa</v>
       </c>
       <c r="V33" s="41" t="s">
@@ -6712,8 +6870,12 @@
       <c r="Z33" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA33" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Phase stage Operation.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="31">
         <v>34</v>
       </c>
@@ -6752,15 +6914,15 @@
         <v>Temporal</v>
       </c>
       <c r="M34" s="22" t="str">
-        <f t="shared" ref="M34:O43" si="7">_xlfn.CONCAT("", D34)</f>
+        <f t="shared" ref="M34:O43" si="8">_xlfn.CONCAT("", D34)</f>
         <v>Evento</v>
       </c>
       <c r="N34" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Histórico</v>
       </c>
       <c r="O34" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Inaugural</v>
       </c>
       <c r="P34" s="22" t="s">
@@ -6773,15 +6935,15 @@
         <v>188</v>
       </c>
       <c r="S34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Temporal</v>
       </c>
       <c r="T34" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
       <c r="U34" s="38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Histórico</v>
       </c>
       <c r="V34" s="41" t="s">
@@ -6800,8 +6962,12 @@
       <c r="Z34" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA34" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Inauguration event of the building or part of the building.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="31">
         <v>35</v>
       </c>
@@ -6840,36 +7006,36 @@
         <v>Temporal</v>
       </c>
       <c r="M35" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Evento</v>
+      </c>
+      <c r="N35" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Histórico</v>
+      </c>
+      <c r="O35" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Modernizar</v>
+      </c>
+      <c r="P35" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S35" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T35" s="40" t="str">
         <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
-      <c r="N35" s="22" t="str">
+      <c r="U35" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>Histórico</v>
-      </c>
-      <c r="O35" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>Modernizar</v>
-      </c>
-      <c r="P35" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q35" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="R35" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="S35" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Temporal</v>
-      </c>
-      <c r="T35" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Evento</v>
-      </c>
-      <c r="U35" s="38" t="str">
-        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V35" s="41" t="s">
@@ -6888,8 +7054,12 @@
       <c r="Z35" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Building retrofit event.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="31">
         <v>36</v>
       </c>
@@ -6928,36 +7098,36 @@
         <v>Temporal</v>
       </c>
       <c r="M36" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Evento</v>
+      </c>
+      <c r="N36" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Histórico</v>
+      </c>
+      <c r="O36" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Troca</v>
+      </c>
+      <c r="P36" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S36" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T36" s="40" t="str">
         <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
-      <c r="N36" s="22" t="str">
+      <c r="U36" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>Histórico</v>
-      </c>
-      <c r="O36" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>Troca</v>
-      </c>
-      <c r="P36" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q36" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="R36" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="S36" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Temporal</v>
-      </c>
-      <c r="T36" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Evento</v>
-      </c>
-      <c r="U36" s="38" t="str">
-        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V36" s="41" t="s">
@@ -6976,8 +7146,12 @@
       <c r="Z36" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA36" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>An event of changing some resource or equipment.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="31">
         <v>37</v>
       </c>
@@ -7016,36 +7190,36 @@
         <v>Temporal</v>
       </c>
       <c r="M37" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Evento</v>
+      </c>
+      <c r="N37" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Histórico</v>
+      </c>
+      <c r="O37" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Operacional</v>
+      </c>
+      <c r="P37" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S37" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T37" s="40" t="str">
         <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
-      <c r="N37" s="22" t="str">
+      <c r="U37" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>Histórico</v>
-      </c>
-      <c r="O37" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>Operacional</v>
-      </c>
-      <c r="P37" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q37" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="R37" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="S37" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Temporal</v>
-      </c>
-      <c r="T37" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Evento</v>
-      </c>
-      <c r="U37" s="38" t="str">
-        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V37" s="41" t="s">
@@ -7064,8 +7238,12 @@
       <c r="Z37" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA37" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Event related to an inspection.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31">
         <v>38</v>
       </c>
@@ -7104,36 +7282,36 @@
         <v>Temporal</v>
       </c>
       <c r="M38" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Evento</v>
+      </c>
+      <c r="N38" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Histórico</v>
+      </c>
+      <c r="O38" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Reforma</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S38" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T38" s="40" t="str">
         <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
-      <c r="N38" s="22" t="str">
+      <c r="U38" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>Histórico</v>
-      </c>
-      <c r="O38" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>Reforma</v>
-      </c>
-      <c r="P38" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q38" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="R38" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="S38" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Temporal</v>
-      </c>
-      <c r="T38" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Evento</v>
-      </c>
-      <c r="U38" s="38" t="str">
-        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V38" s="41" t="s">
@@ -7152,8 +7330,12 @@
       <c r="Z38" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA38" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Renovation event.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="31">
         <v>39</v>
       </c>
@@ -7192,36 +7374,36 @@
         <v>Temporal</v>
       </c>
       <c r="M39" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Evento</v>
+      </c>
+      <c r="N39" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Histórico</v>
+      </c>
+      <c r="O39" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Pericial</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S39" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T39" s="40" t="str">
         <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
-      <c r="N39" s="22" t="str">
+      <c r="U39" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>Histórico</v>
-      </c>
-      <c r="O39" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>Pericial</v>
-      </c>
-      <c r="P39" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q39" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="R39" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="S39" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Temporal</v>
-      </c>
-      <c r="T39" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Evento</v>
-      </c>
-      <c r="U39" s="38" t="str">
-        <f t="shared" si="6"/>
         <v>Histórico</v>
       </c>
       <c r="V39" s="41" t="s">
@@ -7240,8 +7422,12 @@
       <c r="Z39" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA39" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Event related to an expert evaluation carried out by experts.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="31">
         <v>40</v>
       </c>
@@ -7280,36 +7466,36 @@
         <v>Temporal</v>
       </c>
       <c r="M40" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Evento</v>
+      </c>
+      <c r="N40" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Agendado</v>
+      </c>
+      <c r="O40" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Congresso</v>
+      </c>
+      <c r="P40" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S40" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T40" s="40" t="str">
         <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
-      <c r="N40" s="22" t="str">
+      <c r="U40" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>Agendado</v>
-      </c>
-      <c r="O40" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>Congresso</v>
-      </c>
-      <c r="P40" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q40" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="R40" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="S40" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Temporal</v>
-      </c>
-      <c r="T40" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Evento</v>
-      </c>
-      <c r="U40" s="38" t="str">
-        <f t="shared" si="6"/>
         <v>Agendado</v>
       </c>
       <c r="V40" s="41" t="s">
@@ -7328,8 +7514,12 @@
       <c r="Z40" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA40" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Event scheduled for many conference-type or similar agents.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="31">
         <v>41</v>
       </c>
@@ -7368,36 +7558,36 @@
         <v>Temporal</v>
       </c>
       <c r="M41" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Evento</v>
+      </c>
+      <c r="N41" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Agendado</v>
+      </c>
+      <c r="O41" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Reunião</v>
+      </c>
+      <c r="P41" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q41" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S41" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T41" s="40" t="str">
         <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
-      <c r="N41" s="22" t="str">
+      <c r="U41" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>Agendado</v>
-      </c>
-      <c r="O41" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>Reunião</v>
-      </c>
-      <c r="P41" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q41" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="R41" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="S41" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Temporal</v>
-      </c>
-      <c r="T41" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Evento</v>
-      </c>
-      <c r="U41" s="38" t="str">
-        <f t="shared" si="6"/>
         <v>Agendado</v>
       </c>
       <c r="V41" s="41" t="s">
@@ -7416,8 +7606,12 @@
       <c r="Z41" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA41" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Event scheduled for some agents, such as a work meeting or similar.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="31">
         <v>42</v>
       </c>
@@ -7456,36 +7650,36 @@
         <v>Temporal</v>
       </c>
       <c r="M42" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Evento</v>
+      </c>
+      <c r="N42" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Agendado</v>
+      </c>
+      <c r="O42" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>Entrega</v>
+      </c>
+      <c r="P42" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q42" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="S42" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>Temporal</v>
+      </c>
+      <c r="T42" s="40" t="str">
         <f t="shared" si="7"/>
         <v>Evento</v>
       </c>
-      <c r="N42" s="22" t="str">
+      <c r="U42" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>Agendado</v>
-      </c>
-      <c r="O42" s="22" t="str">
-        <f t="shared" si="7"/>
-        <v>Entrega</v>
-      </c>
-      <c r="P42" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q42" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="R42" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="S42" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Temporal</v>
-      </c>
-      <c r="T42" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v>Evento</v>
-      </c>
-      <c r="U42" s="38" t="str">
-        <f t="shared" si="6"/>
         <v>Agendado</v>
       </c>
       <c r="V42" s="41" t="s">
@@ -7504,8 +7698,12 @@
       <c r="Z42" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA42" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Scheduled event such as delivery of objects or services.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="31">
         <v>43</v>
       </c>
@@ -7544,15 +7742,15 @@
         <v>Temporal</v>
       </c>
       <c r="M43" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Evento</v>
       </c>
       <c r="N43" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Agendado</v>
       </c>
       <c r="O43" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Exame</v>
       </c>
       <c r="P43" s="22" t="s">
@@ -7565,15 +7763,15 @@
         <v>188</v>
       </c>
       <c r="S43" s="40" t="str">
-        <f t="shared" ref="S43:U43" si="8">SUBSTITUTE(C43, "_", " ")</f>
+        <f t="shared" ref="S43:U43" si="9">SUBSTITUTE(C43, "_", " ")</f>
         <v>Temporal</v>
       </c>
       <c r="T43" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Evento</v>
       </c>
       <c r="U43" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Agendado</v>
       </c>
       <c r="V43" s="41" t="s">
@@ -7592,13 +7790,22 @@
       <c r="Z43" s="41" t="s">
         <v>1</v>
       </c>
+      <c r="AA43" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>Scheduled event such as exam or tests.</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F37">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AA43">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7614,15 +7821,15 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.84375" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.84375" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.15234375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
@@ -7687,7 +7894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60">
         <v>2</v>
       </c>
@@ -7752,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60">
         <v>3</v>
       </c>
@@ -7820,7 +8027,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7839,14 +8046,14 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3046875" customWidth="1"/>
+    <col min="2" max="2" width="6.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58">
         <v>1</v>
       </c>
@@ -7857,7 +8064,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -7868,7 +8075,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19">
         <v>3</v>
       </c>
@@ -7881,7 +8088,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7897,34 +8104,34 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" customWidth="1"/>
+    <col min="4" max="4" width="8.3828125" customWidth="1"/>
+    <col min="5" max="5" width="8.3046875" customWidth="1"/>
+    <col min="6" max="6" width="8.15234375" customWidth="1"/>
+    <col min="7" max="7" width="5.84375" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="3.3828125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.3828125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.3046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="56" t="s">
         <v>193</v>
       </c>
@@ -7995,7 +8202,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="47">
         <v>2</v>
       </c>
@@ -8066,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47">
         <v>3</v>
       </c>
@@ -8137,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="47">
         <v>4</v>
       </c>
@@ -8208,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47">
         <v>5</v>
       </c>
@@ -8279,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47">
         <v>6</v>
       </c>
@@ -8350,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="47">
         <v>7</v>
       </c>
@@ -8421,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="47">
         <v>8</v>
       </c>
@@ -8492,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="47">
         <v>9</v>
       </c>
@@ -8563,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="47">
         <v>10</v>
       </c>
@@ -8634,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="47">
         <v>11</v>
       </c>
@@ -8705,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47">
         <v>12</v>
       </c>
@@ -8776,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47">
         <v>13</v>
       </c>
@@ -8847,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47">
         <v>14</v>
       </c>
@@ -8918,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47">
         <v>15</v>
       </c>
@@ -8989,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47">
         <v>16</v>
       </c>
@@ -9060,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="47">
         <v>17</v>
       </c>
@@ -9131,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="47">
         <v>16</v>
       </c>
@@ -9202,7 +9409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="47">
         <v>17</v>
       </c>
@@ -9273,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="47">
         <v>18</v>
       </c>
@@ -9344,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="47">
         <v>16</v>
       </c>
@@ -9415,7 +9622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="47">
         <v>17</v>
       </c>
@@ -9486,7 +9693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="47">
         <v>18</v>
       </c>
@@ -9557,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="47">
         <v>19</v>
       </c>
@@ -9628,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="47">
         <v>16</v>
       </c>
@@ -9699,7 +9906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="47">
         <v>17</v>
       </c>
@@ -9770,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="47">
         <v>18</v>
       </c>
@@ -9841,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="47">
         <v>19</v>
       </c>
@@ -9912,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="47">
         <v>20</v>
       </c>
@@ -9983,7 +10190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="47">
         <v>21</v>
       </c>
@@ -10054,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="47">
         <v>22</v>
       </c>
@@ -10125,7 +10332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="47">
         <v>23</v>
       </c>
@@ -10196,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="47">
         <v>24</v>
       </c>
@@ -10267,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="47">
         <v>25</v>
       </c>
@@ -10338,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="47">
         <v>26</v>
       </c>
@@ -10409,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="47">
         <v>27</v>
       </c>
@@ -10480,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="47">
         <v>28</v>
       </c>
@@ -10551,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="47">
         <v>29</v>
       </c>
@@ -10622,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="47">
         <v>30</v>
       </c>
@@ -10693,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="47">
         <v>31</v>
       </c>
@@ -10764,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="47">
         <v>32</v>
       </c>
@@ -10835,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="47">
         <v>33</v>
       </c>
@@ -10906,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="47">
         <v>34</v>
       </c>
@@ -10977,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="47">
         <v>35</v>
       </c>
@@ -11048,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="47">
         <v>36</v>
       </c>
@@ -11119,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="47">
         <v>37</v>
       </c>
@@ -11190,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="47">
         <v>38</v>
       </c>
@@ -11261,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="47">
         <v>39</v>
       </c>
@@ -11332,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="47">
         <v>40</v>
       </c>
@@ -11403,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="47">
         <v>41</v>
       </c>
@@ -11474,7 +11681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="47">
         <v>42</v>
       </c>
@@ -11545,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="47">
         <v>43</v>
       </c>
@@ -11616,7 +11823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="47">
         <v>44</v>
       </c>
@@ -11687,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="47">
         <v>45</v>
       </c>
@@ -11758,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="47">
         <v>46</v>
       </c>
@@ -11829,7 +12036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="47">
         <v>47</v>
       </c>
@@ -11900,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="47">
         <v>48</v>
       </c>
@@ -11971,7 +12178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="47">
         <v>49</v>
       </c>
@@ -12042,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="47">
         <v>50</v>
       </c>
@@ -12113,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="47">
         <v>51</v>
       </c>
@@ -12184,7 +12391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="47">
         <v>52</v>
       </c>
@@ -12255,7 +12462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47">
         <v>53</v>
       </c>
@@ -12326,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47">
         <v>54</v>
       </c>
@@ -12397,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47">
         <v>55</v>
       </c>
@@ -12468,7 +12675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="47">
         <v>56</v>
       </c>
@@ -12539,7 +12746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="47">
         <v>57</v>
       </c>
@@ -12610,7 +12817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="47">
         <v>58</v>
       </c>
@@ -12681,7 +12888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="47">
         <v>59</v>
       </c>
@@ -12752,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="47">
         <v>60</v>
       </c>
@@ -12823,7 +13030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="47">
         <v>61</v>
       </c>
@@ -12894,7 +13101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="47">
         <v>62</v>
       </c>
@@ -12965,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="47">
         <v>63</v>
       </c>
@@ -13036,7 +13243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="47">
         <v>64</v>
       </c>
@@ -13107,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="47">
         <v>65</v>
       </c>
@@ -13178,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="47">
         <v>66</v>
       </c>
@@ -13249,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="47">
         <v>67</v>
       </c>
@@ -13320,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="47">
         <v>68</v>
       </c>
@@ -13391,7 +13598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="47">
         <v>69</v>
       </c>
@@ -13462,7 +13669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="47">
         <v>70</v>
       </c>
@@ -13533,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="47">
         <v>71</v>
       </c>
@@ -13604,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="47">
         <v>72</v>
       </c>
@@ -13675,7 +13882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="47">
         <v>73</v>
       </c>
@@ -13749,24 +13956,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1 B36:B79 B32:B33">
-    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13780,14 +13987,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="7.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="2.3828125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.53515625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.3828125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -13795,7 +14002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -13803,7 +14010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -13811,7 +14018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38.6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -13819,7 +14026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -13827,7 +14034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -13835,7 +14042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -13843,7 +14050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -13851,7 +14058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -13859,7 +14066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -13867,7 +14074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -13875,7 +14082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -13883,7 +14090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -13891,7 +14098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -13899,7 +14106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>15</v>
       </c>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDBCAC-918F-4DA2-92D7-C2A714FEC213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03B4E1-8F15-4674-BBB6-035D80BD2096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="442">
   <si>
     <t>Key</t>
   </si>
@@ -1727,9 +1727,6 @@
     <t>https://github.com/JLMenegotto/RepoOnto#</t>
   </si>
   <si>
-    <t>José Luis Menegotto</t>
-  </si>
-  <si>
     <t>Organização</t>
   </si>
   <si>
@@ -2585,6 +2582,12 @@
   </si>
   <si>
     <t>000 Translate Classe 5</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Prof. José Luis Menegotto - DEG/POLI/UFRJ</t>
   </si>
 </sst>
 </file>
@@ -3171,14 +3174,6 @@
   <dxfs count="13">
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3271,6 +3266,14 @@
         <i/>
         <strike val="0"/>
         <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -3609,12 +3612,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3637,7 +3640,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3645,7 +3648,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3682,25 +3685,25 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>157</v>
+      <c r="B8" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>38</v>
@@ -3724,7 +3727,7 @@
     </row>
     <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>38</v>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>38</v>
@@ -3740,7 +3743,7 @@
     </row>
     <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>38</v>
@@ -3748,7 +3751,7 @@
     </row>
     <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>38</v>
@@ -3759,21 +3762,21 @@
         <v>152</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45989.668919791664</v>
+        <v>45992.393283796293</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>38</v>
@@ -3781,7 +3784,7 @@
     </row>
     <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>38</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>38</v>
@@ -3797,18 +3800,27 @@
     </row>
     <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B24" s="18" t="str">
+        <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
+        <v>Formalize Concepts of Time Elements</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B04F8-6372-42A9-A10C-B0C4EF342E07}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
@@ -3850,22 +3862,22 @@
   <sheetData>
     <row r="1" spans="1:27" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>182</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>183</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>39</v>
@@ -3895,40 +3907,40 @@
         <v>44</v>
       </c>
       <c r="P1" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="U1" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="V1" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>177</v>
       </c>
       <c r="W1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y1" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="70" t="s">
         <v>439</v>
-      </c>
-      <c r="AA1" s="70" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -3936,10 +3948,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>59</v>
@@ -3982,13 +3994,13 @@
         <v>Era</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S2" s="40" t="str">
         <f t="shared" ref="S2:U26" si="2">SUBSTITUTE(C2, "_", " ")</f>
@@ -4003,7 +4015,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W2" s="42" t="str">
         <f t="shared" ref="W2:W43" si="3">CONCATENATE("Key.Cro",".",A2)</f>
@@ -4028,10 +4040,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>59</v>
@@ -4074,13 +4086,13 @@
         <v>Época</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S3" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4095,7 +4107,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V3" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W3" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4120,10 +4132,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>59</v>
@@ -4132,7 +4144,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>1</v>
@@ -4166,13 +4178,13 @@
         <v>Século</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S4" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4187,7 +4199,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V4" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W4" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4212,10 +4224,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>59</v>
@@ -4224,7 +4236,7 @@
         <v>63</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>1</v>
@@ -4258,13 +4270,13 @@
         <v>Quinquagenário</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S5" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4279,7 +4291,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V5" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W5" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4304,10 +4316,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>59</v>
@@ -4316,7 +4328,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>1</v>
@@ -4350,13 +4362,13 @@
         <v>Década</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S6" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4371,7 +4383,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W6" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4396,10 +4408,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>59</v>
@@ -4408,7 +4420,7 @@
         <v>63</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>1</v>
@@ -4442,13 +4454,13 @@
         <v>Quinquênio</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S7" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4463,7 +4475,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W7" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4488,10 +4500,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>59</v>
@@ -4500,7 +4512,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>1</v>
@@ -4534,13 +4546,13 @@
         <v>Lustro</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S8" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4555,7 +4567,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W8" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4580,10 +4592,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>59</v>
@@ -4592,7 +4604,7 @@
         <v>63</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>1</v>
@@ -4626,13 +4638,13 @@
         <v>Biênio</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S9" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4647,7 +4659,7 @@
         <v>Macroevento</v>
       </c>
       <c r="V9" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W9" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4672,10 +4684,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>59</v>
@@ -4718,13 +4730,13 @@
         <v>Ano</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S10" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4739,7 +4751,7 @@
         <v>Calendário</v>
       </c>
       <c r="V10" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W10" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4764,10 +4776,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>59</v>
@@ -4776,7 +4788,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>1</v>
@@ -4810,13 +4822,13 @@
         <v>Semestre</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R11" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S11" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4831,7 +4843,7 @@
         <v>Calendário</v>
       </c>
       <c r="V11" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W11" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4856,10 +4868,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>59</v>
@@ -4868,7 +4880,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
@@ -4902,13 +4914,13 @@
         <v>Quatrimestre</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S12" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4923,7 +4935,7 @@
         <v>Calendário</v>
       </c>
       <c r="V12" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W12" s="42" t="str">
         <f t="shared" si="3"/>
@@ -4948,10 +4960,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>59</v>
@@ -4960,7 +4972,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>1</v>
@@ -4994,13 +5006,13 @@
         <v>Trimestre</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S13" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5015,7 +5027,7 @@
         <v>Calendário</v>
       </c>
       <c r="V13" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W13" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5040,10 +5052,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>59</v>
@@ -5086,13 +5098,13 @@
         <v>Mês</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S14" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5107,7 +5119,7 @@
         <v>Calendário</v>
       </c>
       <c r="V14" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W14" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5132,10 +5144,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>59</v>
@@ -5178,13 +5190,13 @@
         <v>Semana</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S15" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5199,7 +5211,7 @@
         <v>Calendário</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W15" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5224,10 +5236,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>59</v>
@@ -5270,13 +5282,13 @@
         <v>Dia</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S16" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5291,7 +5303,7 @@
         <v>Calendário</v>
       </c>
       <c r="V16" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W16" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5316,10 +5328,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>59</v>
@@ -5328,7 +5340,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>1</v>
@@ -5362,13 +5374,13 @@
         <v>Jornada</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S17" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5383,7 +5395,7 @@
         <v>Calendário</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W17" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5408,10 +5420,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>59</v>
@@ -5454,13 +5466,13 @@
         <v>Hora</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S18" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5475,7 +5487,7 @@
         <v>Horário</v>
       </c>
       <c r="V18" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W18" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5500,10 +5512,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>59</v>
@@ -5546,13 +5558,13 @@
         <v>Minuto</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R19" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S19" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5567,7 +5579,7 @@
         <v>Horário</v>
       </c>
       <c r="V19" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W19" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5592,10 +5604,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>59</v>
@@ -5638,13 +5650,13 @@
         <v>Segundo</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S20" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5659,7 +5671,7 @@
         <v>Horário</v>
       </c>
       <c r="V20" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W20" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5684,10 +5696,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>59</v>
@@ -5730,13 +5742,13 @@
         <v>Milisegundo</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q21" s="36" t="s">
         <v>58</v>
       </c>
       <c r="R21" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S21" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5751,7 +5763,7 @@
         <v>Horário</v>
       </c>
       <c r="V21" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W21" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5776,10 +5788,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>59</v>
@@ -5822,13 +5834,13 @@
         <v>Pulso</v>
       </c>
       <c r="P22" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q22" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="Q22" s="36" t="s">
-        <v>373</v>
-      </c>
       <c r="R22" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S22" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5843,7 +5855,7 @@
         <v>Microevento</v>
       </c>
       <c r="V22" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W22" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5868,10 +5880,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>59</v>
@@ -5914,13 +5926,13 @@
         <v>Tick</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R23" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S23" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5935,7 +5947,7 @@
         <v>Microevento</v>
       </c>
       <c r="V23" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W23" s="42" t="str">
         <f t="shared" si="3"/>
@@ -5960,19 +5972,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>1</v>
@@ -6006,13 +6018,13 @@
         <v>Inicial</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S24" s="40" t="str">
         <f t="shared" si="2"/>
@@ -6027,7 +6039,7 @@
         <v>Cronómetro</v>
       </c>
       <c r="V24" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W24" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6052,19 +6064,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>378</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>379</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>1</v>
@@ -6098,13 +6110,13 @@
         <v>Parcial</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R25" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S25" s="40" t="str">
         <f t="shared" si="2"/>
@@ -6119,7 +6131,7 @@
         <v>Cronómetro</v>
       </c>
       <c r="V25" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W25" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6144,19 +6156,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>1</v>
@@ -6190,13 +6202,13 @@
         <v>Final</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S26" s="40" t="str">
         <f t="shared" si="2"/>
@@ -6211,7 +6223,7 @@
         <v>Cronómetro</v>
       </c>
       <c r="V26" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W26" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6236,10 +6248,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>59</v>
@@ -6282,13 +6294,13 @@
         <v>DeltaT</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R27" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S27" s="40" t="str">
         <f t="shared" ref="S27:U42" si="7">SUBSTITUTE(C27, "_", " ")</f>
@@ -6303,7 +6315,7 @@
         <v>Duração</v>
       </c>
       <c r="V27" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W27" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6328,16 +6340,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>68</v>
@@ -6374,13 +6386,13 @@
         <v>Ideação</v>
       </c>
       <c r="P28" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S28" s="40" t="str">
         <f t="shared" si="7"/>
@@ -6395,7 +6407,7 @@
         <v>Etapa</v>
       </c>
       <c r="V28" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W28" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6420,16 +6432,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>73</v>
@@ -6466,13 +6478,13 @@
         <v>Projetual</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q29" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R29" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S29" s="40" t="str">
         <f t="shared" si="7"/>
@@ -6487,7 +6499,7 @@
         <v>Etapa</v>
       </c>
       <c r="V29" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W29" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6512,16 +6524,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>69</v>
@@ -6558,13 +6570,13 @@
         <v>Simulação</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R30" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S30" s="40" t="str">
         <f t="shared" si="7"/>
@@ -6579,7 +6591,7 @@
         <v>Etapa</v>
       </c>
       <c r="V30" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W30" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6604,16 +6616,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>70</v>
@@ -6650,13 +6662,13 @@
         <v>Planejamento</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R31" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S31" s="40" t="str">
         <f t="shared" si="7"/>
@@ -6671,7 +6683,7 @@
         <v>Etapa</v>
       </c>
       <c r="V31" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W31" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6696,16 +6708,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F32" s="33" t="s">
         <v>72</v>
@@ -6742,13 +6754,13 @@
         <v>Construção</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R32" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S32" s="40" t="str">
         <f t="shared" si="7"/>
@@ -6763,7 +6775,7 @@
         <v>Etapa</v>
       </c>
       <c r="V32" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W32" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6788,16 +6800,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>71</v>
@@ -6834,13 +6846,13 @@
         <v>Operação</v>
       </c>
       <c r="P33" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R33" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S33" s="40" t="str">
         <f t="shared" si="7"/>
@@ -6855,7 +6867,7 @@
         <v>Etapa</v>
       </c>
       <c r="V33" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W33" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6880,19 +6892,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>1</v>
@@ -6926,13 +6938,13 @@
         <v>Inaugural</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R34" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S34" s="40" t="str">
         <f t="shared" si="7"/>
@@ -6947,7 +6959,7 @@
         <v>Histórico</v>
       </c>
       <c r="V34" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W34" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6972,19 +6984,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>1</v>
@@ -7018,13 +7030,13 @@
         <v>Modernizar</v>
       </c>
       <c r="P35" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R35" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S35" s="40" t="str">
         <f t="shared" si="7"/>
@@ -7039,7 +7051,7 @@
         <v>Histórico</v>
       </c>
       <c r="V35" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W35" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7064,19 +7076,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>1</v>
@@ -7110,13 +7122,13 @@
         <v>Troca</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R36" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S36" s="40" t="str">
         <f t="shared" si="7"/>
@@ -7131,7 +7143,7 @@
         <v>Histórico</v>
       </c>
       <c r="V36" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W36" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7156,16 +7168,16 @@
         <v>37</v>
       </c>
       <c r="B37" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>109</v>
@@ -7202,13 +7214,13 @@
         <v>Operacional</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R37" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S37" s="40" t="str">
         <f t="shared" si="7"/>
@@ -7223,7 +7235,7 @@
         <v>Histórico</v>
       </c>
       <c r="V37" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W37" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7248,19 +7260,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G38" s="68" t="s">
         <v>1</v>
@@ -7294,13 +7306,13 @@
         <v>Reforma</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R38" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S38" s="40" t="str">
         <f t="shared" si="7"/>
@@ -7315,7 +7327,7 @@
         <v>Histórico</v>
       </c>
       <c r="V38" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W38" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7340,19 +7352,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" s="68" t="s">
         <v>1</v>
@@ -7386,13 +7398,13 @@
         <v>Pericial</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R39" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S39" s="40" t="str">
         <f t="shared" si="7"/>
@@ -7407,7 +7419,7 @@
         <v>Histórico</v>
       </c>
       <c r="V39" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W39" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7432,19 +7444,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G40" s="68" t="s">
         <v>1</v>
@@ -7478,13 +7490,13 @@
         <v>Congresso</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q40" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R40" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S40" s="40" t="str">
         <f t="shared" si="7"/>
@@ -7499,7 +7511,7 @@
         <v>Agendado</v>
       </c>
       <c r="V40" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W40" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7524,19 +7536,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F41" s="67" t="s">
         <v>374</v>
-      </c>
-      <c r="F41" s="67" t="s">
-        <v>375</v>
       </c>
       <c r="G41" s="68" t="s">
         <v>1</v>
@@ -7570,13 +7582,13 @@
         <v>Reunião</v>
       </c>
       <c r="P41" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q41" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R41" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S41" s="40" t="str">
         <f t="shared" si="7"/>
@@ -7591,7 +7603,7 @@
         <v>Agendado</v>
       </c>
       <c r="V41" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W41" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7616,16 +7628,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F42" s="67" t="s">
         <v>107</v>
@@ -7662,13 +7674,13 @@
         <v>Entrega</v>
       </c>
       <c r="P42" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q42" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R42" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S42" s="40" t="str">
         <f t="shared" si="7"/>
@@ -7683,7 +7695,7 @@
         <v>Agendado</v>
       </c>
       <c r="V42" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W42" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7708,19 +7720,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G43" s="68" t="s">
         <v>1</v>
@@ -7754,13 +7766,13 @@
         <v>Exame</v>
       </c>
       <c r="P43" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q43" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R43" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S43" s="40" t="str">
         <f t="shared" ref="S43:U43" si="9">SUBSTITUTE(C43, "_", " ")</f>
@@ -7775,7 +7787,7 @@
         <v>Agendado</v>
       </c>
       <c r="V43" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W43" s="42" t="str">
         <f t="shared" si="3"/>
@@ -7803,7 +7815,7 @@
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA43">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8027,7 +8039,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8058,10 +8070,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>258</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -8072,7 +8084,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -8080,15 +8092,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8133,7 +8145,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>74</v>
@@ -8145,61 +8157,61 @@
         <v>48</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N1" s="57" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R1" s="48" t="s">
         <v>48</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="U1" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V1" s="62" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -8246,7 +8258,7 @@
         <v>78</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P2" s="46" t="s">
         <v>1</v>
@@ -8278,7 +8290,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>51</v>
@@ -8317,7 +8329,7 @@
         <v>78</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P3" s="46" t="s">
         <v>1</v>
@@ -8349,22 +8361,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>1</v>
@@ -8388,7 +8400,7 @@
         <v>78</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P4" s="46" t="s">
         <v>1</v>
@@ -8420,22 +8432,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>1</v>
@@ -8459,7 +8471,7 @@
         <v>78</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P5" s="46" t="s">
         <v>1</v>
@@ -8491,22 +8503,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>1</v>
@@ -8530,7 +8542,7 @@
         <v>78</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P6" s="46" t="s">
         <v>1</v>
@@ -8562,22 +8574,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="45" t="s">
         <v>1</v>
@@ -8601,7 +8613,7 @@
         <v>78</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>1</v>
@@ -8633,22 +8645,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>1</v>
@@ -8672,7 +8684,7 @@
         <v>78</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P8" s="46" t="s">
         <v>1</v>
@@ -8704,22 +8716,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>1</v>
@@ -8743,7 +8755,7 @@
         <v>78</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P9" s="46" t="s">
         <v>1</v>
@@ -8775,22 +8787,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H10" s="45" t="s">
         <v>1</v>
@@ -8814,7 +8826,7 @@
         <v>78</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P10" s="46" t="s">
         <v>1</v>
@@ -8846,22 +8858,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H11" s="45" t="s">
         <v>1</v>
@@ -8885,7 +8897,7 @@
         <v>78</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P11" s="46" t="s">
         <v>1</v>
@@ -8917,22 +8929,22 @@
         <v>12</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H12" s="45" t="s">
         <v>1</v>
@@ -8956,7 +8968,7 @@
         <v>78</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>1</v>
@@ -8988,22 +9000,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>1</v>
@@ -9027,7 +9039,7 @@
         <v>78</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>1</v>
@@ -9059,22 +9071,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>1</v>
@@ -9098,7 +9110,7 @@
         <v>78</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P14" s="46" t="s">
         <v>1</v>
@@ -9130,13 +9142,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>51</v>
@@ -9169,7 +9181,7 @@
         <v>78</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>1</v>
@@ -9201,22 +9213,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E16" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>327</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>328</v>
       </c>
       <c r="H16" s="45" t="s">
         <v>1</v>
@@ -9240,7 +9252,7 @@
         <v>78</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>1</v>
@@ -9272,22 +9284,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E17" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>329</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>330</v>
       </c>
       <c r="H17" s="45" t="s">
         <v>1</v>
@@ -9311,7 +9323,7 @@
         <v>78</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>1</v>
@@ -9343,34 +9355,34 @@
         <v>16</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E18" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G18" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G18" s="50" t="s">
+      <c r="H18" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="I18" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="I18" s="50" t="s">
+      <c r="J18" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K18" s="50" t="s">
         <v>280</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="K18" s="50" t="s">
-        <v>281</v>
       </c>
       <c r="L18" s="45" t="s">
         <v>1</v>
@@ -9382,7 +9394,7 @@
         <v>78</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P18" s="46" t="s">
         <v>1</v>
@@ -9414,34 +9426,34 @@
         <v>17</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E19" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G19" s="50" t="s">
+      <c r="H19" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="I19" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="H19" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="I19" s="50" t="s">
+      <c r="J19" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K19" s="50" t="s">
         <v>284</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="K19" s="50" t="s">
-        <v>285</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>1</v>
@@ -9453,7 +9465,7 @@
         <v>78</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P19" s="46" t="s">
         <v>1</v>
@@ -9485,34 +9497,34 @@
         <v>18</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E20" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G20" s="50" t="s">
+      <c r="H20" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="H20" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="I20" s="50" t="s">
+      <c r="J20" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K20" s="50" t="s">
         <v>288</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="K20" s="50" t="s">
-        <v>289</v>
       </c>
       <c r="L20" s="45" t="s">
         <v>1</v>
@@ -9524,7 +9536,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P20" s="46" t="s">
         <v>1</v>
@@ -9556,28 +9568,28 @@
         <v>16</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E21" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G21" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G21" s="50" t="s">
+      <c r="H21" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="I21" s="50" t="s">
         <v>279</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>280</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>1</v>
@@ -9595,7 +9607,7 @@
         <v>78</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P21" s="46" t="s">
         <v>1</v>
@@ -9627,28 +9639,28 @@
         <v>17</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E22" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="F22" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="I22" s="50" t="s">
         <v>282</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>283</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>1</v>
@@ -9666,7 +9678,7 @@
         <v>78</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P22" s="46" t="s">
         <v>1</v>
@@ -9698,28 +9710,28 @@
         <v>18</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E23" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G23" s="50" t="s">
+      <c r="H23" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="I23" s="50" t="s">
         <v>285</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>286</v>
       </c>
       <c r="J23" s="45" t="s">
         <v>1</v>
@@ -9737,7 +9749,7 @@
         <v>78</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P23" s="46" t="s">
         <v>1</v>
@@ -9769,28 +9781,28 @@
         <v>19</v>
       </c>
       <c r="B24" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>331</v>
-      </c>
       <c r="D24" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E24" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G24" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="F24" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="G24" s="50" t="s">
+      <c r="H24" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="I24" s="50" t="s">
         <v>288</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>289</v>
       </c>
       <c r="J24" s="45" t="s">
         <v>1</v>
@@ -9808,7 +9820,7 @@
         <v>78</v>
       </c>
       <c r="O24" s="51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P24" s="46" t="s">
         <v>1</v>
@@ -9840,7 +9852,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>54</v>
@@ -9879,7 +9891,7 @@
         <v>78</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P25" s="46" t="s">
         <v>1</v>
@@ -9911,7 +9923,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>54</v>
@@ -9950,7 +9962,7 @@
         <v>78</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P26" s="46" t="s">
         <v>1</v>
@@ -9982,7 +9994,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>54</v>
@@ -10021,7 +10033,7 @@
         <v>78</v>
       </c>
       <c r="O27" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P27" s="46" t="s">
         <v>1</v>
@@ -10053,7 +10065,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>54</v>
@@ -10092,7 +10104,7 @@
         <v>78</v>
       </c>
       <c r="O28" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P28" s="46" t="s">
         <v>1</v>
@@ -10124,7 +10136,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>54</v>
@@ -10163,7 +10175,7 @@
         <v>78</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P29" s="46" t="s">
         <v>1</v>
@@ -10195,7 +10207,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>54</v>
@@ -10234,7 +10246,7 @@
         <v>78</v>
       </c>
       <c r="O30" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P30" s="46" t="s">
         <v>1</v>
@@ -10266,7 +10278,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>54</v>
@@ -10305,7 +10317,7 @@
         <v>78</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P31" s="46" t="s">
         <v>1</v>
@@ -10337,22 +10349,22 @@
         <v>23</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="F32" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="G32" s="50" t="s">
         <v>277</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>278</v>
       </c>
       <c r="H32" s="45" t="s">
         <v>1</v>
@@ -10376,7 +10388,7 @@
         <v>78</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P32" s="46" t="s">
         <v>1</v>
@@ -10408,22 +10420,22 @@
         <v>24</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="F33" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="F33" s="45" t="s">
-        <v>277</v>
-      </c>
       <c r="G33" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H33" s="45" t="s">
         <v>1</v>
@@ -10447,7 +10459,7 @@
         <v>78</v>
       </c>
       <c r="O33" s="51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P33" s="46" t="s">
         <v>1</v>
@@ -10479,7 +10491,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>61</v>
@@ -10521,10 +10533,10 @@
         <v>87</v>
       </c>
       <c r="P34" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R34" s="46" t="s">
         <v>1</v>
@@ -10550,7 +10562,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>61</v>
@@ -10592,10 +10604,10 @@
         <v>84</v>
       </c>
       <c r="P35" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q35" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R35" s="46" t="s">
         <v>1</v>
@@ -10621,7 +10633,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>72</v>
@@ -10663,10 +10675,10 @@
         <v>124</v>
       </c>
       <c r="P36" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R36" s="46" t="s">
         <v>1</v>
@@ -10692,7 +10704,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>72</v>
@@ -10734,10 +10746,10 @@
         <v>124</v>
       </c>
       <c r="P37" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R37" s="46" t="s">
         <v>1</v>
@@ -10763,10 +10775,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D38" s="45" t="s">
         <v>1</v>
@@ -10805,10 +10817,10 @@
         <v>93</v>
       </c>
       <c r="P38" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R38" s="46" t="s">
         <v>1</v>
@@ -10834,10 +10846,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D39" s="45" t="s">
         <v>1</v>
@@ -10876,10 +10888,10 @@
         <v>95</v>
       </c>
       <c r="P39" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R39" s="46" t="s">
         <v>1</v>
@@ -10905,10 +10917,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D40" s="45" t="s">
         <v>1</v>
@@ -10947,10 +10959,10 @@
         <v>92</v>
       </c>
       <c r="P40" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q40" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R40" s="46" t="s">
         <v>1</v>
@@ -10976,10 +10988,10 @@
         <v>32</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D41" s="45" t="s">
         <v>1</v>
@@ -11018,10 +11030,10 @@
         <v>94</v>
       </c>
       <c r="P41" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q41" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R41" s="46" t="s">
         <v>1</v>
@@ -11089,10 +11101,10 @@
         <v>79</v>
       </c>
       <c r="P42" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q42" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R42" s="46" t="s">
         <v>1</v>
@@ -11160,10 +11172,10 @@
         <v>81</v>
       </c>
       <c r="P43" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q43" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R43" s="46" t="s">
         <v>1</v>
@@ -11192,7 +11204,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" s="45" t="s">
         <v>1</v>
@@ -11231,10 +11243,10 @@
         <v>96</v>
       </c>
       <c r="P44" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q44" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R44" s="46" t="s">
         <v>1</v>
@@ -11263,7 +11275,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>1</v>
@@ -11302,10 +11314,10 @@
         <v>98</v>
       </c>
       <c r="P45" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q45" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R45" s="46" t="s">
         <v>1</v>
@@ -11334,10 +11346,10 @@
         <v>99</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>97</v>
@@ -11373,10 +11385,10 @@
         <v>100</v>
       </c>
       <c r="P46" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R46" s="46" t="s">
         <v>1</v>
@@ -11405,10 +11417,10 @@
         <v>101</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>97</v>
@@ -11444,10 +11456,10 @@
         <v>102</v>
       </c>
       <c r="P47" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R47" s="46" t="s">
         <v>1</v>
@@ -11476,10 +11488,10 @@
         <v>103</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>97</v>
@@ -11515,10 +11527,10 @@
         <v>104</v>
       </c>
       <c r="P48" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R48" s="46" t="s">
         <v>1</v>
@@ -11547,10 +11559,10 @@
         <v>105</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>101</v>
@@ -11586,10 +11598,10 @@
         <v>106</v>
       </c>
       <c r="P49" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R49" s="46" t="s">
         <v>1</v>
@@ -11618,10 +11630,10 @@
         <v>107</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>105</v>
@@ -11657,10 +11669,10 @@
         <v>108</v>
       </c>
       <c r="P50" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R50" s="46" t="s">
         <v>1</v>
@@ -11689,10 +11701,10 @@
         <v>109</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>105</v>
@@ -11728,10 +11740,10 @@
         <v>110</v>
       </c>
       <c r="P51" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R51" s="46" t="s">
         <v>1</v>
@@ -11799,10 +11811,10 @@
         <v>129</v>
       </c>
       <c r="P52" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q52" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R52" s="46" t="s">
         <v>1</v>
@@ -11870,10 +11882,10 @@
         <v>131</v>
       </c>
       <c r="P53" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q53" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R53" s="46" t="s">
         <v>1</v>
@@ -11941,10 +11953,10 @@
         <v>133</v>
       </c>
       <c r="P54" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q54" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R54" s="46" t="s">
         <v>1</v>
@@ -12012,10 +12024,10 @@
         <v>135</v>
       </c>
       <c r="P55" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q55" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R55" s="46" t="s">
         <v>1</v>
@@ -12083,10 +12095,10 @@
         <v>137</v>
       </c>
       <c r="P56" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q56" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R56" s="46" t="s">
         <v>1</v>
@@ -12154,10 +12166,10 @@
         <v>139</v>
       </c>
       <c r="P57" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q57" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R57" s="46" t="s">
         <v>1</v>
@@ -12225,10 +12237,10 @@
         <v>141</v>
       </c>
       <c r="P58" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q58" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R58" s="46" t="s">
         <v>1</v>
@@ -12296,10 +12308,10 @@
         <v>143</v>
       </c>
       <c r="P59" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q59" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R59" s="46" t="s">
         <v>1</v>
@@ -12367,10 +12379,10 @@
         <v>83</v>
       </c>
       <c r="P60" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q60" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R60" s="46" t="s">
         <v>1</v>
@@ -12438,10 +12450,10 @@
         <v>86</v>
       </c>
       <c r="P61" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q61" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R61" s="46" t="s">
         <v>1</v>
@@ -12509,10 +12521,10 @@
         <v>89</v>
       </c>
       <c r="P62" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q62" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R62" s="46" t="s">
         <v>1</v>
@@ -12580,10 +12592,10 @@
         <v>91</v>
       </c>
       <c r="P63" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q63" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R63" s="46" t="s">
         <v>1</v>
@@ -12651,10 +12663,10 @@
         <v>112</v>
       </c>
       <c r="P64" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q64" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R64" s="46" t="s">
         <v>1</v>
@@ -12722,10 +12734,10 @@
         <v>114</v>
       </c>
       <c r="P65" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q65" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R65" s="46" t="s">
         <v>1</v>
@@ -12793,10 +12805,10 @@
         <v>114</v>
       </c>
       <c r="P66" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q66" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R66" s="46" t="s">
         <v>1</v>
@@ -12864,10 +12876,10 @@
         <v>114</v>
       </c>
       <c r="P67" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q67" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R67" s="46" t="s">
         <v>1</v>
@@ -12935,10 +12947,10 @@
         <v>126</v>
       </c>
       <c r="P68" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q68" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R68" s="46" t="s">
         <v>1</v>
@@ -13006,10 +13018,10 @@
         <v>126</v>
       </c>
       <c r="P69" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q69" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R69" s="46" t="s">
         <v>1</v>
@@ -13077,10 +13089,10 @@
         <v>122</v>
       </c>
       <c r="P70" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q70" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R70" s="46" t="s">
         <v>1</v>
@@ -13148,10 +13160,10 @@
         <v>122</v>
       </c>
       <c r="P71" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q71" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R71" s="46" t="s">
         <v>1</v>
@@ -13219,10 +13231,10 @@
         <v>114</v>
       </c>
       <c r="P72" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q72" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R72" s="46" t="s">
         <v>1</v>
@@ -13254,7 +13266,7 @@
         <v>73</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E73" s="50" t="s">
         <v>117</v>
@@ -13290,10 +13302,10 @@
         <v>114</v>
       </c>
       <c r="P73" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q73" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R73" s="46" t="s">
         <v>1</v>
@@ -13319,13 +13331,13 @@
         <v>65</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E74" s="50" t="s">
         <v>117</v>
@@ -13361,10 +13373,10 @@
         <v>114</v>
       </c>
       <c r="P74" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q74" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R74" s="46" t="s">
         <v>1</v>
@@ -13396,7 +13408,7 @@
         <v>73</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>117</v>
@@ -13432,10 +13444,10 @@
         <v>114</v>
       </c>
       <c r="P75" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q75" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R75" s="46" t="s">
         <v>1</v>
@@ -13461,16 +13473,16 @@
         <v>67</v>
       </c>
       <c r="B76" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E76" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F76" s="45" t="s">
         <v>1</v>
@@ -13503,10 +13515,10 @@
         <v>114</v>
       </c>
       <c r="P76" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q76" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R76" s="46" t="s">
         <v>1</v>
@@ -13532,16 +13544,16 @@
         <v>68</v>
       </c>
       <c r="B77" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F77" s="45" t="s">
         <v>1</v>
@@ -13574,10 +13586,10 @@
         <v>114</v>
       </c>
       <c r="P77" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q77" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R77" s="46" t="s">
         <v>1</v>
@@ -13609,10 +13621,10 @@
         <v>69</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F78" s="45" t="s">
         <v>1</v>
@@ -13642,13 +13654,13 @@
         <v>78</v>
       </c>
       <c r="O78" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P78" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q78" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R78" s="46" t="s">
         <v>1</v>
@@ -13674,16 +13686,16 @@
         <v>70</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E79" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F79" s="45" t="s">
         <v>1</v>
@@ -13713,13 +13725,13 @@
         <v>78</v>
       </c>
       <c r="O79" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P79" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q79" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R79" s="46" t="s">
         <v>1</v>
@@ -13745,16 +13757,16 @@
         <v>71</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D80" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E80" s="50" t="s">
         <v>275</v>
-      </c>
-      <c r="E80" s="50" t="s">
-        <v>276</v>
       </c>
       <c r="F80" s="45" t="s">
         <v>1</v>
@@ -13784,7 +13796,7 @@
         <v>78</v>
       </c>
       <c r="O80" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P80" s="46" t="s">
         <v>1</v>
@@ -13816,16 +13828,16 @@
         <v>72</v>
       </c>
       <c r="B81" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="C81" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="D81" s="45" t="s">
+      <c r="E81" s="50" t="s">
         <v>275</v>
-      </c>
-      <c r="E81" s="50" t="s">
-        <v>276</v>
       </c>
       <c r="F81" s="45" t="s">
         <v>1</v>
@@ -13855,7 +13867,7 @@
         <v>78</v>
       </c>
       <c r="O81" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P81" s="46" t="s">
         <v>1</v>
@@ -13887,16 +13899,16 @@
         <v>73</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D82" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="50" t="s">
         <v>275</v>
-      </c>
-      <c r="E82" s="50" t="s">
-        <v>276</v>
       </c>
       <c r="F82" s="45" t="s">
         <v>1</v>
@@ -13926,7 +13938,7 @@
         <v>78</v>
       </c>
       <c r="O82" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P82" s="46" t="s">
         <v>1</v>
@@ -13956,24 +13968,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1 B36:B79 B32:B33">
-    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03B4E1-8F15-4674-BBB6-035D80BD2096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3280E6-8B37-47B4-B73C-F981788A7F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="446">
   <si>
     <t>Key</t>
   </si>
@@ -2589,6 +2589,18 @@
   <si>
     <t>Prof. José Luis Menegotto - DEG/POLI/UFRJ</t>
   </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>"pt"</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>"en"</t>
+  </si>
 </sst>
 </file>
 
@@ -2597,7 +2609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2761,6 +2773,12 @@
       <b/>
       <sz val="5"/>
       <color rgb="FF000000"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
@@ -2956,7 +2974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3166,6 +3184,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3612,54 +3639,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.3046875" style="12"/>
+    <col min="3" max="3" width="3.4609375" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.3046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="72" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3667,8 +3707,11 @@
         <f>_xlfn.CONCAT(B4,"Prop")</f>
         <v>BIMProp</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3676,151 +3719,208 @@
         <f>_xlfn.CONCAT(B4,"Data")</f>
         <v>BIMData</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45992.393283796293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>45992.540979861114</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="73" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16" t="s">
         <v>440</v>
       </c>
       <c r="B24" s="18" t="str">
         <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
         <v>Formalize Concepts of Time Elements</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3280E6-8B37-47B4-B73C-F981788A7F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFAA8B6-EEA1-498B-A461-5EA4BC477993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2593,13 +2593,13 @@
     <t>Idioma</t>
   </si>
   <si>
-    <t>"pt"</t>
-  </si>
-  <si>
-    <t>"es"</t>
-  </si>
-  <si>
-    <t>"en"</t>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -3642,9 +3642,9 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45992.540979861114</v>
+        <v>45992.730537384261</v>
       </c>
       <c r="C18" s="73" t="s">
         <v>443</v>

--- a/Versão5/CRON/Ontologia_CRONO.xlsx
+++ b/Versão5/CRON/Ontologia_CRONO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BE7A26-54CD-485C-8B3B-38DCA5F65A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F7FB87-EEAE-4115-ABAF-F651A1A6A15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="456">
   <si>
     <t>Key</t>
   </si>
@@ -2618,6 +2618,18 @@
   </si>
   <si>
     <t>"-"</t>
+  </si>
+  <si>
+    <t>Ano.2026</t>
+  </si>
+  <si>
+    <t>"Ano 2026 instanciado para todos os eventos."</t>
+  </si>
+  <si>
+    <t>Ano.Atual</t>
+  </si>
+  <si>
+    <t>"Representa o ano atual em curso."</t>
   </si>
 </sst>
 </file>
@@ -3219,7 +3231,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3668,15 +3690,15 @@
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="39.921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.4609375" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.3046875" style="12"/>
+    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
@@ -3687,7 +3709,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -3698,7 +3720,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>154</v>
       </c>
@@ -3709,7 +3731,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>145</v>
       </c>
@@ -3720,7 +3742,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>146</v>
       </c>
@@ -3732,7 +3754,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>147</v>
       </c>
@@ -3744,7 +3766,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
@@ -3755,7 +3777,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>149</v>
       </c>
@@ -3766,7 +3788,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>157</v>
       </c>
@@ -3777,7 +3799,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>159</v>
       </c>
@@ -3788,7 +3810,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>150</v>
       </c>
@@ -3799,7 +3821,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>151</v>
       </c>
@@ -3810,7 +3832,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>160</v>
       </c>
@@ -3821,7 +3843,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>161</v>
       </c>
@@ -3832,7 +3854,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>162</v>
       </c>
@@ -3843,7 +3865,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>163</v>
       </c>
@@ -3854,7 +3876,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>152</v>
       </c>
@@ -3865,19 +3887,19 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45998.580207638886</v>
+        <v>46063.665768749997</v>
       </c>
       <c r="C18" s="71" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="74" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" s="74" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>445</v>
       </c>
@@ -3888,7 +3910,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="74" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" s="74" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>447</v>
       </c>
@@ -3900,7 +3922,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="74" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" s="74" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>448</v>
       </c>
@@ -3912,7 +3934,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>165</v>
       </c>
@@ -3923,7 +3945,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>166</v>
       </c>
@@ -3934,7 +3956,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>167</v>
       </c>
@@ -3945,7 +3967,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>168</v>
       </c>
@@ -3956,7 +3978,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:3" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>439</v>
       </c>
@@ -3977,37 +3999,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B04F8-6372-42A9-A10C-B0C4EF342E07}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.65" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.3828125" customWidth="1"/>
-    <col min="13" max="13" width="6.53515625" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="8.69140625" customWidth="1"/>
-    <col min="16" max="16" width="42.15234375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.15234375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.15234375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.53515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.4609375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="41.25" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>173</v>
       </c>
@@ -4090,7 +4112,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>2</v>
       </c>
@@ -4182,7 +4204,7 @@
         <v>A large period of time associated not necessarily with a number of years.</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>3</v>
       </c>
@@ -4274,7 +4296,7 @@
         <v>A period of time associated not necessarily with a number of years.</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>4</v>
       </c>
@@ -4366,7 +4388,7 @@
         <v>A period of time lasting 100 years.</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>5</v>
       </c>
@@ -4458,7 +4480,7 @@
         <v>A period of time lasting 50 years.</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>6</v>
       </c>
@@ -4550,7 +4572,7 @@
         <v>A period of time lasting 10 years.</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>7</v>
       </c>
@@ -4642,7 +4664,7 @@
         <v>A period of time lasting 5 years.</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>8</v>
       </c>
@@ -4734,7 +4756,7 @@
         <v>A period of time lasting 5 years.</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>9</v>
       </c>
@@ -4826,7 +4848,7 @@
         <v>A period of time lasting 2 years.</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>10</v>
       </c>
@@ -4918,7 +4940,7 @@
         <v>A calendar period of 365 days distributed over 12 months.</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>11</v>
       </c>
@@ -5010,7 +5032,7 @@
         <v>A period of 6 months.</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>12</v>
       </c>
@@ -5102,7 +5124,7 @@
         <v>A period of 4 months.</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>13</v>
       </c>
@@ -5194,7 +5216,7 @@
         <v>A period of 3 months.</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>14</v>
       </c>
@@ -5286,7 +5308,7 @@
         <v>A period of 31, 30 or 28 days Every four years there is a month of 29 days.</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>15</v>
       </c>
@@ -5378,7 +5400,7 @@
         <v>A period of 7 days.</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>16</v>
       </c>
@@ -5470,7 +5492,7 @@
         <v>A 24-hour period.</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>17</v>
       </c>
@@ -5562,7 +5584,7 @@
         <v>A working day or day.</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>18</v>
       </c>
@@ -5654,7 +5676,7 @@
         <v>A period of 60 minutes.</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -5746,7 +5768,7 @@
         <v>A period of 60 seconds.</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>20</v>
       </c>
@@ -5838,7 +5860,7 @@
         <v>A period of 1000 milliseconds.</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>21</v>
       </c>
@@ -5930,7 +5952,7 @@
         <v>Millisecond.</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>22</v>
       </c>
@@ -6022,7 +6044,7 @@
         <v>An event repeated at regular intervals.</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>23</v>
       </c>
@@ -6114,7 +6136,7 @@
         <v>A cycle of the computer's internal clock It can be measured in Hz or GHz.</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>24</v>
       </c>
@@ -6206,7 +6228,7 @@
         <v>Initial timing mark.</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>25</v>
       </c>
@@ -6298,7 +6320,7 @@
         <v>Intermediate mark of timekeeping (split time).</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>26</v>
       </c>
@@ -6390,7 +6412,7 @@
         <v>Final timing mark.</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>27</v>
       </c>
@@ -6482,7 +6504,7 @@
         <v>Time interval.</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>28</v>
       </c>
@@ -6574,7 +6596,7 @@
         <v>Ideation phase stage.</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>29</v>
       </c>
@@ -6666,7 +6688,7 @@
         <v>Project phase stage.</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>30</v>
       </c>
@@ -6758,7 +6780,7 @@
         <v>Simulation phase stage.</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>31</v>
       </c>
@@ -6850,7 +6872,7 @@
         <v>Planning phase stage.</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>32</v>
       </c>
@@ -6942,7 +6964,7 @@
         <v>Construction phase stage.</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>33</v>
       </c>
@@ -7034,7 +7056,7 @@
         <v>Phase stage Operation.</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>34</v>
       </c>
@@ -7126,7 +7148,7 @@
         <v>Inauguration event of the building or part of the building.</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>35</v>
       </c>
@@ -7218,7 +7240,7 @@
         <v>Building retrofit event.</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>36</v>
       </c>
@@ -7310,7 +7332,7 @@
         <v>An event of changing some resource or equipment.</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>37</v>
       </c>
@@ -7402,7 +7424,7 @@
         <v>Event related to an inspection.</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>38</v>
       </c>
@@ -7494,7 +7516,7 @@
         <v>Renovation event.</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>39</v>
       </c>
@@ -7586,7 +7608,7 @@
         <v>Event related to an expert evaluation carried out by experts.</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>40</v>
       </c>
@@ -7678,7 +7700,7 @@
         <v>Event scheduled for many conference-type or similar agents.</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>41</v>
       </c>
@@ -7770,7 +7792,7 @@
         <v>Event scheduled for some agents, such as a work meeting or similar.</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>42</v>
       </c>
@@ -7862,7 +7884,7 @@
         <v>Scheduled event such as delivery of objects or services.</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>43</v>
       </c>
@@ -7956,13 +7978,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F37">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA43">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7980,15 +8002,15 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.84375" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.84375" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.15234375" style="5"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
         <v>22</v>
       </c>
@@ -8053,7 +8075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59">
         <v>2</v>
       </c>
@@ -8118,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59">
         <v>3</v>
       </c>
@@ -8186,7 +8208,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8205,14 +8227,14 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" customWidth="1"/>
-    <col min="2" max="2" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57">
         <v>1</v>
       </c>
@@ -8223,7 +8245,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -8234,7 +8256,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>3</v>
       </c>
@@ -8247,7 +8269,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8257,40 +8279,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5087910E-DA31-4318-A539-726BE963325D}">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" customWidth="1"/>
-    <col min="4" max="4" width="8.3828125" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" customWidth="1"/>
-    <col min="6" max="6" width="8.15234375" customWidth="1"/>
-    <col min="7" max="7" width="5.84375" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="3.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.3046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.3828125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.15234375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.765625" customWidth="1"/>
-    <col min="19" max="19" width="1.921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.765625" customWidth="1"/>
-    <col min="21" max="21" width="1.921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.765625" style="75" customWidth="1"/>
-    <col min="23" max="23" width="1.921875" style="75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="75" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" style="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8383,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46">
         <v>2</v>
       </c>
@@ -8432,12 +8454,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46">
         <v>3</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>274</v>
+        <v>452</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>51</v>
@@ -8476,7 +8498,7 @@
         <v>78</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
       <c r="P3" s="45" t="s">
         <v>1</v>
@@ -8503,27 +8525,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <v>4</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>277</v>
+        <v>1</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>1</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>1</v>
@@ -8547,7 +8569,7 @@
         <v>78</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P4" s="45" t="s">
         <v>1</v>
@@ -8574,27 +8596,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <v>5</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>277</v>
+        <v>454</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>51</v>
+        <v>452</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>278</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>1</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>1</v>
@@ -8618,7 +8640,7 @@
         <v>78</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>306</v>
+        <v>455</v>
       </c>
       <c r="P5" s="45" t="s">
         <v>1</v>
@@ -8645,27 +8667,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46">
         <v>6</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>1</v>
@@ -8689,7 +8711,7 @@
         <v>78</v>
       </c>
       <c r="O6" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P6" s="45" t="s">
         <v>1</v>
@@ -8716,12 +8738,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <v>7</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>52</v>
@@ -8730,13 +8752,13 @@
         <v>322</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>1</v>
@@ -8760,7 +8782,7 @@
         <v>78</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P7" s="45" t="s">
         <v>1</v>
@@ -8787,12 +8809,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46">
         <v>8</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>52</v>
@@ -8801,13 +8823,13 @@
         <v>322</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>1</v>
@@ -8831,7 +8853,7 @@
         <v>78</v>
       </c>
       <c r="O8" s="50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P8" s="45" t="s">
         <v>1</v>
@@ -8858,12 +8880,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <v>9</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>52</v>
@@ -8872,13 +8894,13 @@
         <v>322</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>1</v>
@@ -8902,7 +8924,7 @@
         <v>78</v>
       </c>
       <c r="O9" s="50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P9" s="45" t="s">
         <v>1</v>
@@ -8929,12 +8951,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>10</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>52</v>
@@ -8943,13 +8965,13 @@
         <v>322</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>1</v>
@@ -8973,7 +8995,7 @@
         <v>78</v>
       </c>
       <c r="O10" s="50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P10" s="45" t="s">
         <v>1</v>
@@ -9000,12 +9022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>11</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>52</v>
@@ -9014,13 +9036,13 @@
         <v>322</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>1</v>
@@ -9044,7 +9066,7 @@
         <v>78</v>
       </c>
       <c r="O11" s="50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P11" s="45" t="s">
         <v>1</v>
@@ -9071,12 +9093,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>12</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>52</v>
@@ -9085,13 +9107,13 @@
         <v>322</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>1</v>
@@ -9115,7 +9137,7 @@
         <v>78</v>
       </c>
       <c r="O12" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P12" s="45" t="s">
         <v>1</v>
@@ -9142,12 +9164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>13</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>52</v>
@@ -9156,13 +9178,13 @@
         <v>322</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G13" s="67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>1</v>
@@ -9186,7 +9208,7 @@
         <v>78</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P13" s="45" t="s">
         <v>1</v>
@@ -9213,12 +9235,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46">
         <v>14</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>52</v>
@@ -9227,13 +9249,13 @@
         <v>322</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F14" s="44" t="s">
         <v>324</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>1</v>
@@ -9257,7 +9279,7 @@
         <v>78</v>
       </c>
       <c r="O14" s="50" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P14" s="45" t="s">
         <v>1</v>
@@ -9284,27 +9306,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>15</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>51</v>
+        <v>454</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>286</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>1</v>
@@ -9328,7 +9350,7 @@
         <v>78</v>
       </c>
       <c r="O15" s="50" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P15" s="45" t="s">
         <v>1</v>
@@ -9355,27 +9377,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>16</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>287</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>1</v>
@@ -9399,7 +9421,7 @@
         <v>78</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="P16" s="45" t="s">
         <v>1</v>
@@ -9426,27 +9448,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>17</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>327</v>
+        <v>454</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>1</v>
@@ -9470,7 +9492,7 @@
         <v>78</v>
       </c>
       <c r="O17" s="50" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="P17" s="45" t="s">
         <v>1</v>
@@ -9497,39 +9519,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>386</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="F18" s="44" t="s">
         <v>386</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="K18" s="49" t="s">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="L18" s="44" t="s">
         <v>1</v>
@@ -9541,7 +9563,7 @@
         <v>78</v>
       </c>
       <c r="O18" s="50" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="P18" s="45" t="s">
         <v>1</v>
@@ -9568,39 +9590,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>386</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>386</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="L19" s="44" t="s">
         <v>1</v>
@@ -9612,7 +9634,7 @@
         <v>78</v>
       </c>
       <c r="O19" s="50" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="P19" s="45" t="s">
         <v>1</v>
@@ -9639,12 +9661,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>330</v>
@@ -9653,25 +9675,25 @@
         <v>386</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>386</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>386</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J20" s="44" t="s">
         <v>386</v>
       </c>
       <c r="K20" s="49" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L20" s="44" t="s">
         <v>1</v>
@@ -9683,7 +9705,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P20" s="45" t="s">
         <v>1</v>
@@ -9710,39 +9732,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>386</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F21" s="44" t="s">
         <v>386</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>386</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="K21" s="49" t="s">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="L21" s="44" t="s">
         <v>1</v>
@@ -9754,7 +9776,7 @@
         <v>78</v>
       </c>
       <c r="O21" s="50" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P21" s="45" t="s">
         <v>1</v>
@@ -9781,39 +9803,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>386</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>386</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H22" s="44" t="s">
         <v>386</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="L22" s="44" t="s">
         <v>1</v>
@@ -9825,7 +9847,7 @@
         <v>78</v>
       </c>
       <c r="O22" s="50" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P22" s="45" t="s">
         <v>1</v>
@@ -9852,12 +9874,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>329</v>
@@ -9866,19 +9888,19 @@
         <v>386</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>386</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>386</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J23" s="44" t="s">
         <v>1</v>
@@ -9896,7 +9918,7 @@
         <v>78</v>
       </c>
       <c r="O23" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P23" s="45" t="s">
         <v>1</v>
@@ -9923,12 +9945,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>329</v>
@@ -9937,19 +9959,19 @@
         <v>386</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F24" s="44" t="s">
         <v>386</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>386</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J24" s="44" t="s">
         <v>1</v>
@@ -9967,7 +9989,7 @@
         <v>78</v>
       </c>
       <c r="O24" s="50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P24" s="45" t="s">
         <v>1</v>
@@ -9994,33 +10016,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="J25" s="44" t="s">
         <v>1</v>
@@ -10038,7 +10060,7 @@
         <v>78</v>
       </c>
       <c r="O25" s="50" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="P25" s="45" t="s">
         <v>1</v>
@@ -10065,33 +10087,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="J26" s="44" t="s">
         <v>1</v>
@@ -10109,7 +10131,7 @@
         <v>78</v>
       </c>
       <c r="O26" s="50" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="P26" s="45" t="s">
         <v>1</v>
@@ -10136,12 +10158,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>54</v>
@@ -10180,7 +10202,7 @@
         <v>78</v>
       </c>
       <c r="O27" s="50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P27" s="45" t="s">
         <v>1</v>
@@ -10207,12 +10229,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>54</v>
@@ -10251,7 +10273,7 @@
         <v>78</v>
       </c>
       <c r="O28" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P28" s="45" t="s">
         <v>1</v>
@@ -10278,12 +10300,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>54</v>
@@ -10322,7 +10344,7 @@
         <v>78</v>
       </c>
       <c r="O29" s="50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P29" s="45" t="s">
         <v>1</v>
@@ -10349,12 +10371,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>54</v>
@@ -10393,7 +10415,7 @@
         <v>78</v>
       </c>
       <c r="O30" s="50" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="P30" s="45" t="s">
         <v>1</v>
@@ -10420,12 +10442,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>54</v>
@@ -10464,7 +10486,7 @@
         <v>78</v>
       </c>
       <c r="O31" s="50" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="P31" s="45" t="s">
         <v>1</v>
@@ -10491,27 +10513,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="46">
-        <v>23</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>274</v>
+        <v>1</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>1</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>276</v>
+        <v>1</v>
       </c>
       <c r="H32" s="44" t="s">
         <v>1</v>
@@ -10535,7 +10557,7 @@
         <v>78</v>
       </c>
       <c r="O32" s="50" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P32" s="45" t="s">
         <v>1</v>
@@ -10562,27 +10584,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="46">
-        <v>24</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>274</v>
+        <v>1</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>1</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="H33" s="44" t="s">
         <v>1</v>
@@ -10606,7 +10628,7 @@
         <v>78</v>
       </c>
       <c r="O33" s="50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P33" s="45" t="s">
         <v>1</v>
@@ -10633,27 +10655,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="46">
-        <v>25</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>221</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>295</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="E34" s="67" t="s">
+        <v>274</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>1</v>
@@ -10677,13 +10699,13 @@
         <v>78</v>
       </c>
       <c r="O34" s="50" t="s">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="P34" s="45" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="50" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="R34" s="45" t="s">
         <v>449</v>
@@ -10704,27 +10726,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="46">
-        <v>26</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>220</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>296</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="E35" s="67" t="s">
+        <v>274</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>1</v>
@@ -10748,13 +10770,13 @@
         <v>78</v>
       </c>
       <c r="O35" s="50" t="s">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="P35" s="45" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="50" t="s">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="R35" s="45" t="s">
         <v>449</v>
@@ -10775,15 +10797,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="46">
-        <v>27</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>222</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>221</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>1</v>
@@ -10819,13 +10841,13 @@
         <v>78</v>
       </c>
       <c r="O36" s="50" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="P36" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q36" s="50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R36" s="45" t="s">
         <v>449</v>
@@ -10846,15 +10868,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="46">
-        <v>28</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>223</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>220</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>1</v>
@@ -10890,13 +10912,13 @@
         <v>78</v>
       </c>
       <c r="O37" s="50" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="P37" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q37" s="50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="R37" s="45" t="s">
         <v>449</v>
@@ -10917,15 +10939,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="46">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>267</v>
+        <v>222</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>1</v>
@@ -10961,13 +10983,13 @@
         <v>78</v>
       </c>
       <c r="O38" s="50" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="P38" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q38" s="50" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="R38" s="45" t="s">
         <v>449</v>
@@ -10988,15 +11010,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>267</v>
+        <v>223</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>1</v>
@@ -11032,13 +11054,13 @@
         <v>78</v>
       </c>
       <c r="O39" s="50" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="P39" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q39" s="50" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="R39" s="45" t="s">
         <v>449</v>
@@ -11059,15 +11081,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>266</v>
+        <v>228</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="D40" s="44" t="s">
         <v>1</v>
@@ -11103,13 +11125,13 @@
         <v>78</v>
       </c>
       <c r="O40" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P40" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q40" s="50" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R40" s="45" t="s">
         <v>449</v>
@@ -11130,15 +11152,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>266</v>
+        <v>229</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="D41" s="44" t="s">
         <v>1</v>
@@ -11174,13 +11196,13 @@
         <v>78</v>
       </c>
       <c r="O41" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P41" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q41" s="50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R41" s="45" t="s">
         <v>449</v>
@@ -11201,15 +11223,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
-        <v>33</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>67</v>
+        <v>42</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="D42" s="44" t="s">
         <v>1</v>
@@ -11245,13 +11267,13 @@
         <v>78</v>
       </c>
       <c r="O42" s="50" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="P42" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q42" s="50" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="R42" s="45" t="s">
         <v>449</v>
@@ -11272,15 +11294,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46">
-        <v>34</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="D43" s="44" t="s">
         <v>1</v>
@@ -11316,13 +11338,13 @@
         <v>78</v>
       </c>
       <c r="O43" s="50" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P43" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q43" s="50" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="R43" s="45" t="s">
         <v>449</v>
@@ -11343,15 +11365,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46">
-        <v>35</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>77</v>
+        <v>44</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="D44" s="44" t="s">
         <v>1</v>
@@ -11387,13 +11409,13 @@
         <v>78</v>
       </c>
       <c r="O44" s="50" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="P44" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q44" s="50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R44" s="45" t="s">
         <v>449</v>
@@ -11414,15 +11436,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46">
-        <v>36</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>97</v>
+        <v>45</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="D45" s="44" t="s">
         <v>1</v>
@@ -11458,13 +11480,13 @@
         <v>78</v>
       </c>
       <c r="O45" s="50" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P45" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q45" s="50" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="R45" s="45" t="s">
         <v>449</v>
@@ -11485,21 +11507,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="46">
-        <v>37</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>99</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="F46" s="44" t="s">
         <v>1</v>
@@ -11529,13 +11551,13 @@
         <v>78</v>
       </c>
       <c r="O46" s="50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P46" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q46" s="50" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="R46" s="45" t="s">
         <v>449</v>
@@ -11556,21 +11578,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46">
-        <v>38</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="F47" s="44" t="s">
         <v>1</v>
@@ -11600,13 +11622,13 @@
         <v>78</v>
       </c>
       <c r="O47" s="50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P47" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q47" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R47" s="45" t="s">
         <v>449</v>
@@ -11627,12 +11649,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="46">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>255</v>
@@ -11671,13 +11693,13 @@
         <v>78</v>
       </c>
       <c r="O48" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P48" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q48" s="50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R48" s="45" t="s">
         <v>449</v>
@@ -11698,12 +11720,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="46">
-        <v>40</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>105</v>
+        <v>49</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>255</v>
@@ -11712,7 +11734,7 @@
         <v>260</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F49" s="44" t="s">
         <v>1</v>
@@ -11742,13 +11764,13 @@
         <v>78</v>
       </c>
       <c r="O49" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P49" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q49" s="50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R49" s="45" t="s">
         <v>449</v>
@@ -11769,12 +11791,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="46">
-        <v>41</v>
-      </c>
-      <c r="B50" s="53" t="s">
-        <v>107</v>
+        <v>50</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>103</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>255</v>
@@ -11783,7 +11805,7 @@
         <v>260</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F50" s="44" t="s">
         <v>1</v>
@@ -11813,13 +11835,13 @@
         <v>78</v>
       </c>
       <c r="O50" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P50" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q50" s="50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R50" s="45" t="s">
         <v>449</v>
@@ -11840,12 +11862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="46">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>255</v>
@@ -11854,7 +11876,7 @@
         <v>260</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F51" s="44" t="s">
         <v>1</v>
@@ -11884,13 +11906,13 @@
         <v>78</v>
       </c>
       <c r="O51" s="50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P51" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q51" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R51" s="45" t="s">
         <v>449</v>
@@ -11911,21 +11933,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F52" s="44" t="s">
         <v>1</v>
@@ -11955,13 +11977,13 @@
         <v>78</v>
       </c>
       <c r="O52" s="50" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="P52" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q52" s="50" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="R52" s="45" t="s">
         <v>449</v>
@@ -11982,21 +12004,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F53" s="44" t="s">
         <v>1</v>
@@ -12026,13 +12048,13 @@
         <v>78</v>
       </c>
       <c r="O53" s="50" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="P53" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q53" s="50" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="R53" s="45" t="s">
         <v>449</v>
@@ -12053,12 +12075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="46">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>59</v>
@@ -12097,13 +12119,13 @@
         <v>78</v>
       </c>
       <c r="O54" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P54" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q54" s="50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R54" s="45" t="s">
         <v>449</v>
@@ -12124,12 +12146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>59</v>
@@ -12168,13 +12190,13 @@
         <v>78</v>
       </c>
       <c r="O55" s="50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P55" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q55" s="50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R55" s="45" t="s">
         <v>449</v>
@@ -12195,12 +12217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>59</v>
@@ -12239,13 +12261,13 @@
         <v>78</v>
       </c>
       <c r="O56" s="50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P56" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q56" s="50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R56" s="45" t="s">
         <v>449</v>
@@ -12266,12 +12288,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="46">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B57" s="53" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>59</v>
@@ -12310,13 +12332,13 @@
         <v>78</v>
       </c>
       <c r="O57" s="50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P57" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q57" s="50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R57" s="45" t="s">
         <v>449</v>
@@ -12337,12 +12359,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B58" s="53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>59</v>
@@ -12381,13 +12403,13 @@
         <v>78</v>
       </c>
       <c r="O58" s="50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P58" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q58" s="50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R58" s="45" t="s">
         <v>449</v>
@@ -12408,12 +12430,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="46">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>59</v>
@@ -12452,13 +12474,13 @@
         <v>78</v>
       </c>
       <c r="O59" s="50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P59" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q59" s="50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R59" s="45" t="s">
         <v>449</v>
@@ -12479,15 +12501,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="46">
-        <v>51</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>140</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>1</v>
@@ -12523,13 +12545,13 @@
         <v>78</v>
       </c>
       <c r="O60" s="50" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="P60" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q60" s="50" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="R60" s="45" t="s">
         <v>449</v>
@@ -12550,15 +12572,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46">
-        <v>52</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D61" s="44" t="s">
         <v>1</v>
@@ -12594,13 +12616,13 @@
         <v>78</v>
       </c>
       <c r="O61" s="50" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="P61" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q61" s="50" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="R61" s="45" t="s">
         <v>449</v>
@@ -12621,12 +12643,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
-        <v>53</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>88</v>
+        <v>62</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>62</v>
@@ -12665,13 +12687,13 @@
         <v>78</v>
       </c>
       <c r="O62" s="50" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P62" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q62" s="50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R62" s="45" t="s">
         <v>449</v>
@@ -12692,12 +12714,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="46">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>62</v>
@@ -12736,13 +12758,13 @@
         <v>78</v>
       </c>
       <c r="O63" s="50" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P63" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q63" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R63" s="45" t="s">
         <v>449</v>
@@ -12763,15 +12785,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="46">
-        <v>55</v>
-      </c>
-      <c r="B64" s="53" t="s">
-        <v>111</v>
+        <v>64</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D64" s="44" t="s">
         <v>1</v>
@@ -12807,13 +12829,13 @@
         <v>78</v>
       </c>
       <c r="O64" s="50" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="P64" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q64" s="50" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="R64" s="45" t="s">
         <v>449</v>
@@ -12834,15 +12856,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46">
-        <v>56</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>113</v>
+        <v>65</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D65" s="44" t="s">
         <v>1</v>
@@ -12878,13 +12900,13 @@
         <v>78</v>
       </c>
       <c r="O65" s="50" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="P65" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q65" s="50" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="R65" s="45" t="s">
         <v>449</v>
@@ -12905,12 +12927,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B66" s="53" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>68</v>
@@ -12949,13 +12971,13 @@
         <v>78</v>
       </c>
       <c r="O66" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P66" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q66" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R66" s="45" t="s">
         <v>449</v>
@@ -12976,12 +12998,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="46">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B67" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>68</v>
@@ -13026,7 +13048,7 @@
         <v>192</v>
       </c>
       <c r="Q67" s="50" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="R67" s="45" t="s">
         <v>449</v>
@@ -13047,15 +13069,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="46">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B68" s="53" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D68" s="44" t="s">
         <v>1</v>
@@ -13091,13 +13113,13 @@
         <v>78</v>
       </c>
       <c r="O68" s="50" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="P68" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q68" s="50" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="R68" s="45" t="s">
         <v>449</v>
@@ -13118,15 +13140,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="46">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B69" s="53" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D69" s="44" t="s">
         <v>1</v>
@@ -13162,13 +13184,13 @@
         <v>78</v>
       </c>
       <c r="O69" s="50" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="P69" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q69" s="50" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="R69" s="45" t="s">
         <v>449</v>
@@ -13189,15 +13211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="46">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D70" s="44" t="s">
         <v>1</v>
@@ -13233,13 +13255,13 @@
         <v>78</v>
       </c>
       <c r="O70" s="50" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P70" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q70" s="50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R70" s="45" t="s">
         <v>449</v>
@@ -13260,15 +13282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="46">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D71" s="44" t="s">
         <v>1</v>
@@ -13304,13 +13326,13 @@
         <v>78</v>
       </c>
       <c r="O71" s="50" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P71" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q71" s="50" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="R71" s="45" t="s">
         <v>449</v>
@@ -13331,15 +13353,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="46">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D72" s="44" t="s">
         <v>1</v>
@@ -13375,13 +13397,13 @@
         <v>78</v>
       </c>
       <c r="O72" s="50" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P72" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q72" s="50" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="R72" s="45" t="s">
         <v>449</v>
@@ -13402,21 +13424,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="46">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="F73" s="44" t="s">
         <v>1</v>
@@ -13446,13 +13468,13 @@
         <v>78</v>
       </c>
       <c r="O73" s="50" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P73" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q73" s="50" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="R73" s="45" t="s">
         <v>449</v>
@@ -13473,21 +13495,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="46">
-        <v>65</v>
-      </c>
-      <c r="B74" s="54" t="s">
-        <v>243</v>
+        <v>74</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>117</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="F74" s="44" t="s">
         <v>1</v>
@@ -13523,7 +13545,7 @@
         <v>192</v>
       </c>
       <c r="Q74" s="50" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="R74" s="45" t="s">
         <v>449</v>
@@ -13544,12 +13566,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="46">
-        <v>66</v>
-      </c>
-      <c r="B75" s="54" t="s">
-        <v>119</v>
+        <v>75</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>118</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>73</v>
@@ -13594,7 +13616,7 @@
         <v>192</v>
       </c>
       <c r="Q75" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R75" s="45" t="s">
         <v>449</v>
@@ -13615,12 +13637,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="46">
-        <v>67</v>
-      </c>
-      <c r="B76" s="53" t="s">
-        <v>244</v>
+        <v>76</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>243</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>73</v>
@@ -13629,7 +13651,7 @@
         <v>260</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="F76" s="44" t="s">
         <v>1</v>
@@ -13665,7 +13687,7 @@
         <v>192</v>
       </c>
       <c r="Q76" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R76" s="45" t="s">
         <v>449</v>
@@ -13686,12 +13708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="46">
-        <v>68</v>
-      </c>
-      <c r="B77" s="53" t="s">
-        <v>245</v>
+        <v>77</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>119</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>73</v>
@@ -13700,7 +13722,7 @@
         <v>260</v>
       </c>
       <c r="E77" s="49" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="F77" s="44" t="s">
         <v>1</v>
@@ -13736,7 +13758,7 @@
         <v>192</v>
       </c>
       <c r="Q77" s="50" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="R77" s="45" t="s">
         <v>449</v>
@@ -13757,18 +13779,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="46">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E78" s="49" t="s">
         <v>243</v>
@@ -13801,13 +13823,13 @@
         <v>78</v>
       </c>
       <c r="O78" s="50" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="P78" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q78" s="50" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="R78" s="45" t="s">
         <v>449</v>
@@ -13828,18 +13850,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="46">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E79" s="49" t="s">
         <v>244</v>
@@ -13872,13 +13894,13 @@
         <v>78</v>
       </c>
       <c r="O79" s="50" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="P79" s="45" t="s">
         <v>192</v>
       </c>
       <c r="Q79" s="50" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="R79" s="45" t="s">
         <v>449</v>
@@ -13899,21 +13921,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="46">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>265</v>
+        <v>120</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E80" s="49" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F80" s="44" t="s">
         <v>1</v>
@@ -13943,13 +13965,13 @@
         <v>78</v>
       </c>
       <c r="O80" s="50" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="P80" s="45" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="Q80" s="50" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="R80" s="45" t="s">
         <v>449</v>
@@ -13970,21 +13992,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="46">
-        <v>72</v>
-      </c>
-      <c r="B81" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81" s="65" t="s">
-        <v>271</v>
+        <v>81</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E81" s="49" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F81" s="44" t="s">
         <v>1</v>
@@ -14014,13 +14036,13 @@
         <v>78</v>
       </c>
       <c r="O81" s="50" t="s">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="P81" s="45" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="Q81" s="50" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="R81" s="45" t="s">
         <v>449</v>
@@ -14041,15 +14063,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="46">
-        <v>73</v>
-      </c>
-      <c r="B82" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" s="65" t="s">
-        <v>269</v>
+        <v>82</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="D82" s="44" t="s">
         <v>273</v>
@@ -14085,7 +14107,7 @@
         <v>78</v>
       </c>
       <c r="O82" s="50" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P82" s="45" t="s">
         <v>1</v>
@@ -14112,27 +14134,169 @@
         <v>1</v>
       </c>
     </row>
+    <row r="83" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="46">
+        <v>83</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J83" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M83" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="N83" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O83" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="P83" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R83" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="S83" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="T83" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="U83" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="V83" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="W83" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="46">
+        <v>84</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I84" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K84" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L84" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M84" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="N84" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O84" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="P84" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="R84" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="S84" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="T84" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="U84" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="V84" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="W84" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1 B36:B79 B32:B33">
-    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
+  <conditionalFormatting sqref="B1 B38:B81 B34:B35">
+    <cfRule type="duplicateValues" dxfId="8" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="G6:G16">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -14146,14 +14310,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="7.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.3828125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.53515625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.3828125" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -14161,7 +14325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -14169,7 +14333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -14177,7 +14341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -14185,7 +14349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -14193,7 +14357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -14201,7 +14365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -14209,7 +14373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -14217,7 +14381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -14225,7 +14389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -14233,7 +14397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -14241,7 +14405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -14249,7 +14413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -14257,7 +14421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -14265,7 +14429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>15</v>
       </c>
